--- a/metabolicsData_revised.xlsx
+++ b/metabolicsData_revised.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\code\repos\Stanford\delplab\projects\muscleModel\muscleEnergyModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FD07A5-8FF8-4961-B65B-8D81B34D43D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2134A4-D220-4903-B4C0-ED848356537E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="388">
   <si>
     <t>Metabolic power [W/kg]</t>
   </si>
@@ -1210,6 +1210,33 @@
   <si>
     <t>std dev</t>
   </si>
+  <si>
+    <t>natural day 1</t>
+  </si>
+  <si>
+    <t>natural day 2</t>
+  </si>
+  <si>
+    <t>natural day 3</t>
+  </si>
+  <si>
+    <t>natural sim</t>
+  </si>
+  <si>
+    <t>Gross values</t>
+  </si>
+  <si>
+    <t>exo day 1</t>
+  </si>
+  <si>
+    <t>exo day 2</t>
+  </si>
+  <si>
+    <t>exo day 3</t>
+  </si>
+  <si>
+    <t>exo sim</t>
+  </si>
 </sst>
 </file>
 
@@ -1218,7 +1245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1293,6 +1320,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1373,7 +1407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1508,6 +1542,12 @@
     <xf numFmtId="21" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1516,12 +1556,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2191,7 +2226,742 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>natural day 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>welk!$L$92:$L$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.908789844999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.511600475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.576088309999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.736576370000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1C5B-4BE6-A91D-1BA0FFCC5ADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>natural day 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>welk!$M$92:$M$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.857586510000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.58447911</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.346393774999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.080272190000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1C5B-4BE6-A91D-1BA0FFCC5ADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>natural day 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>welk!$N$92:$N$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13.12447721</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.00523155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.737313759999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.98796596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1C5B-4BE6-A91D-1BA0FFCC5ADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>natural simulation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>welk!$O$92:$O$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1C5B-4BE6-A91D-1BA0FFCC5ADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>exo day 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>welk!$P$92:$P$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.831386155000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.549725084999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.471758205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.167520115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1C5B-4BE6-A91D-1BA0FFCC5ADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>exo day 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>welk!$Q$92:$Q$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.724543785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.38107684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.864205569999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.53917869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1C5B-4BE6-A91D-1BA0FFCC5ADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>exo day 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>welk!$R$92:$R$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.913345469999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.60252912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.41887084</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.078948069999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1C5B-4BE6-A91D-1BA0FFCC5ADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>exo simulation</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>welk!$S$92:$S$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.914999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1C5B-4BE6-A91D-1BA0FFCC5ADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="199"/>
+        <c:axId val="673243800"/>
+        <c:axId val="673238552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="673243800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Subject</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673238552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="673238552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gross met cost [W/kg]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673243800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2807,6 +3577,506 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2845,13 +4115,49 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>321129</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>96613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>140153</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6290486-E54F-443D-884C-C191A6F193D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Custom 3">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -2865,28 +4171,28 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="FBD9D6"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="F5A09A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="EC4235"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="A4190F"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="D5E4FD"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="96BDFA"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="2E7BF6"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="042F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
@@ -3063,12 +4369,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -3247,8 +4553,8 @@
   <dimension ref="A1:R517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B206" sqref="B206"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11562,8 +12868,8 @@
   </sheetPr>
   <dimension ref="A1:AA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T92" sqref="T92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11588,12 +12894,12 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1">
@@ -12795,51 +14101,51 @@
         <v>3</v>
       </c>
       <c r="C44" s="4">
-        <f>C15*$J6</f>
+        <f t="shared" ref="C44:K44" si="15">C15*$J6</f>
         <v>132.57810432719998</v>
       </c>
       <c r="D44" s="4">
-        <f>D15*$J6</f>
+        <f t="shared" si="15"/>
         <v>975.14865670300003</v>
       </c>
       <c r="E44" s="4">
-        <f>E15*$J6</f>
+        <f t="shared" si="15"/>
         <v>959.46156842099992</v>
       </c>
       <c r="F44" s="4">
-        <f>F15*$J6</f>
+        <f t="shared" si="15"/>
         <v>998.52364177099992</v>
       </c>
       <c r="G44" s="4">
-        <f>G15*$J6</f>
+        <f t="shared" si="15"/>
         <v>941.37322079</v>
       </c>
       <c r="H44" s="4">
-        <f>H15*$J6</f>
+        <f t="shared" si="15"/>
         <v>946.49641457299992</v>
       </c>
       <c r="I44" s="4">
-        <f>I15*$J6</f>
+        <f t="shared" si="15"/>
         <v>961.67068202599989</v>
       </c>
       <c r="J44" s="4">
-        <f>J15*$J6</f>
+        <f t="shared" si="15"/>
         <v>929.94470759299998</v>
       </c>
       <c r="K44" s="4">
-        <f>K15*$J6</f>
+        <f t="shared" si="15"/>
         <v>927.88389827399988</v>
       </c>
       <c r="M44" s="4">
-        <f t="shared" ref="M44:M47" si="15">MAX(D44:K44)</f>
+        <f t="shared" ref="M44:M47" si="16">MAX(D44:K44)</f>
         <v>998.52364177099992</v>
       </c>
       <c r="N44" s="4">
-        <f t="shared" ref="N44:N47" si="16">MIN(D44:K44)</f>
+        <f t="shared" ref="N44:N47" si="17">MIN(D44:K44)</f>
         <v>927.88389827399988</v>
       </c>
       <c r="O44" s="4">
-        <f t="shared" ref="O44:O47" si="17">AVERAGE(D44:K44)</f>
+        <f t="shared" ref="O44:O47" si="18">AVERAGE(D44:K44)</f>
         <v>955.06284876887491</v>
       </c>
       <c r="Q44" s="4">
@@ -12863,51 +14169,51 @@
         <v>3</v>
       </c>
       <c r="C45" s="4">
-        <f>C16*$J7</f>
+        <f t="shared" ref="C45:K45" si="19">C16*$J7</f>
         <v>107.74512708999998</v>
       </c>
       <c r="D45" s="4">
-        <f>D16*$J7</f>
+        <f t="shared" si="19"/>
         <v>735.51630859166653</v>
       </c>
       <c r="E45" s="4">
-        <f>E16*$J7</f>
+        <f t="shared" si="19"/>
         <v>708.60236285333326</v>
       </c>
       <c r="F45" s="4">
-        <f>F16*$J7</f>
+        <f t="shared" si="19"/>
         <v>775.70782548</v>
       </c>
       <c r="G45" s="4">
-        <f>G16*$J7</f>
+        <f t="shared" si="19"/>
         <v>729.72669264666661</v>
       </c>
       <c r="H45" s="4">
-        <f>H16*$J7</f>
+        <f t="shared" si="19"/>
         <v>726.00171408999984</v>
       </c>
       <c r="I45" s="4">
-        <f>I16*$J7</f>
+        <f t="shared" si="19"/>
         <v>734.4425488866666</v>
       </c>
       <c r="J45" s="4">
-        <f>J16*$J7</f>
+        <f t="shared" si="19"/>
         <v>685.00525052</v>
       </c>
       <c r="K45" s="4">
-        <f>K16*$J7</f>
+        <f t="shared" si="19"/>
         <v>691.08480349999991</v>
       </c>
       <c r="M45" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>775.70782548</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>685.00525052</v>
       </c>
       <c r="O45" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>723.26093832104164</v>
       </c>
     </row>
@@ -12919,51 +14225,51 @@
         <v>3</v>
       </c>
       <c r="C46" s="4">
-        <f>C17*$J8</f>
+        <f t="shared" ref="C46:K46" si="20">C17*$J8</f>
         <v>122.6555019684</v>
       </c>
       <c r="D46" s="4">
-        <f>D17*$J8</f>
+        <f t="shared" si="20"/>
         <v>759.40420027200003</v>
       </c>
       <c r="E46" s="4">
-        <f>E17*$J8</f>
+        <f t="shared" si="20"/>
         <v>738.80094334800003</v>
       </c>
       <c r="F46" s="4">
-        <f>F17*$J8</f>
+        <f t="shared" si="20"/>
         <v>826.94279889999996</v>
       </c>
       <c r="G46" s="4">
-        <f>G17*$J8</f>
+        <f t="shared" si="20"/>
         <v>748.67044633300009</v>
       </c>
       <c r="H46" s="4">
-        <f>H17*$J8</f>
+        <f t="shared" si="20"/>
         <v>738.79350155400004</v>
       </c>
       <c r="I46" s="4">
-        <f>I17*$J8</f>
+        <f t="shared" si="20"/>
         <v>743.37563060600007</v>
       </c>
       <c r="J46" s="4">
-        <f>J17*$J8</f>
+        <f t="shared" si="20"/>
         <v>729.31306878400005</v>
       </c>
       <c r="K46" s="4">
-        <f>K17*$J8</f>
+        <f t="shared" si="20"/>
         <v>702.26458290200003</v>
       </c>
       <c r="M46" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>826.94279889999996</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>702.26458290200003</v>
       </c>
       <c r="O46" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>748.44564658737511</v>
       </c>
     </row>
@@ -12975,51 +14281,51 @@
         <v>3</v>
       </c>
       <c r="C47" s="4">
-        <f>C18*$J9</f>
+        <f t="shared" ref="C47:K47" si="21">C18*$J9</f>
         <v>174.73035954213333</v>
       </c>
       <c r="D47" s="4">
-        <f>D18*$J9</f>
+        <f t="shared" si="21"/>
         <v>1027.0085517279999</v>
       </c>
       <c r="E47" s="4">
-        <f>E18*$J9</f>
+        <f t="shared" si="21"/>
         <v>1035.5123462759998</v>
       </c>
       <c r="F47" s="4">
-        <f>F18*$J9</f>
+        <f t="shared" si="21"/>
         <v>1028.3225594039998</v>
       </c>
       <c r="G47" s="4">
-        <f>G18*$J9</f>
+        <f t="shared" si="21"/>
         <v>992.4917323279999</v>
       </c>
       <c r="H47" s="4">
-        <f>H18*$J9</f>
+        <f t="shared" si="21"/>
         <v>1036.3878709746666</v>
       </c>
       <c r="I47" s="4">
-        <f>I18*$J9</f>
+        <f t="shared" si="21"/>
         <v>1031.2867762253331</v>
       </c>
       <c r="J47" s="4">
-        <f>J18*$J9</f>
+        <f t="shared" si="21"/>
         <v>992.66196597199996</v>
       </c>
       <c r="K47" s="4">
-        <f>K18*$J9</f>
+        <f t="shared" si="21"/>
         <v>991.59806201066647</v>
       </c>
       <c r="M47" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1036.3878709746666</v>
       </c>
       <c r="N47" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>991.59806201066647</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1016.9087331148331</v>
       </c>
     </row>
@@ -13044,39 +14350,39 @@
         <v>4</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" ref="C50:K50" si="18">MAX(C44:C47)</f>
+        <f t="shared" ref="C50:K50" si="22">MAX(C44:C47)</f>
         <v>174.73035954213333</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1027.0085517279999</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1035.5123462759998</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1028.3225594039998</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>992.4917323279999</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1036.3878709746666</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1031.2867762253331</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>992.66196597199996</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>991.59806201066647</v>
       </c>
     </row>
@@ -13086,39 +14392,39 @@
         <v>5</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" ref="C51:K51" si="19">MIN(C44:C47)</f>
+        <f t="shared" ref="C51:K51" si="23">MIN(C44:C47)</f>
         <v>107.74512708999998</v>
       </c>
       <c r="D51" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>735.51630859166653</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>708.60236285333326</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>775.70782548</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>729.72669264666661</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>726.00171408999984</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>734.4425488866666</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>685.00525052</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>691.08480349999991</v>
       </c>
     </row>
@@ -13128,39 +14434,39 @@
         <v>6</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" ref="C52:K52" si="20">AVERAGE(C44:C47)</f>
+        <f t="shared" ref="C52:K52" si="24">AVERAGE(C44:C47)</f>
         <v>134.42727323193333</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>874.26942932366671</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>860.59430522458331</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>907.37420638874983</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>853.06552302441673</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>861.91987529791663</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>867.6939094359999</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>834.23124821724991</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>828.20783667166666</v>
       </c>
     </row>
@@ -13274,47 +14580,47 @@
         <v>3</v>
       </c>
       <c r="D57" s="4">
-        <f>D28*$J6</f>
+        <f t="shared" ref="D57:K60" si="25">D28*$J6</f>
         <v>842.57055237580005</v>
       </c>
       <c r="E57" s="4">
-        <f>E28*$J6</f>
+        <f t="shared" si="25"/>
         <v>826.88346409379994</v>
       </c>
       <c r="F57" s="4">
-        <f>F28*$J6</f>
+        <f t="shared" si="25"/>
         <v>865.94553744380005</v>
       </c>
       <c r="G57" s="4">
-        <f>G28*$J6</f>
+        <f t="shared" si="25"/>
         <v>808.79511646280002</v>
       </c>
       <c r="H57" s="4">
-        <f>H28*$J6</f>
+        <f t="shared" si="25"/>
         <v>813.91831024579994</v>
       </c>
       <c r="I57" s="4">
-        <f>I28*$J6</f>
+        <f t="shared" si="25"/>
         <v>829.09257769879991</v>
       </c>
       <c r="J57" s="4">
-        <f>J28*$J6</f>
+        <f t="shared" si="25"/>
         <v>797.36660326580011</v>
       </c>
       <c r="K57" s="4">
-        <f>K28*$J6</f>
+        <f t="shared" si="25"/>
         <v>795.30579394680001</v>
       </c>
       <c r="M57" s="4">
-        <f t="shared" ref="M57:M60" si="21">MAX(D57:K57)</f>
+        <f t="shared" ref="M57:M60" si="26">MAX(D57:K57)</f>
         <v>865.94553744380005</v>
       </c>
       <c r="N57" s="4">
-        <f t="shared" ref="N57:N60" si="22">MIN(D57:K57)</f>
+        <f t="shared" ref="N57:N60" si="27">MIN(D57:K57)</f>
         <v>795.30579394680001</v>
       </c>
       <c r="O57" s="4">
-        <f t="shared" ref="O57:O60" si="23">AVERAGE(D57:K57)</f>
+        <f t="shared" ref="O57:O60" si="28">AVERAGE(D57:K57)</f>
         <v>822.48474444167505</v>
       </c>
       <c r="Q57" s="4">
@@ -13338,47 +14644,47 @@
         <v>3</v>
       </c>
       <c r="D58" s="4">
-        <f>D29*$J7</f>
+        <f t="shared" si="25"/>
         <v>627.77118150166666</v>
       </c>
       <c r="E58" s="4">
-        <f>E29*$J7</f>
+        <f t="shared" si="25"/>
         <v>600.85723576333328</v>
       </c>
       <c r="F58" s="4">
-        <f>F29*$J7</f>
+        <f t="shared" si="25"/>
         <v>667.96269839000001</v>
       </c>
       <c r="G58" s="4">
-        <f>G29*$J7</f>
+        <f t="shared" si="25"/>
         <v>621.98156555666662</v>
       </c>
       <c r="H58" s="4">
-        <f>H29*$J7</f>
+        <f t="shared" si="25"/>
         <v>618.25658699999997</v>
       </c>
       <c r="I58" s="4">
-        <f>I29*$J7</f>
+        <f t="shared" si="25"/>
         <v>626.69742179666662</v>
       </c>
       <c r="J58" s="4">
-        <f>J29*$J7</f>
+        <f t="shared" si="25"/>
         <v>577.26012343000002</v>
       </c>
       <c r="K58" s="4">
-        <f>K29*$J7</f>
+        <f t="shared" si="25"/>
         <v>583.33967640999992</v>
       </c>
       <c r="M58" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>667.96269839000001</v>
       </c>
       <c r="N58" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>577.26012343000002</v>
       </c>
       <c r="O58" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>615.51581123104165</v>
       </c>
     </row>
@@ -13390,47 +14696,47 @@
         <v>3</v>
       </c>
       <c r="D59" s="4">
-        <f>D30*$J8</f>
+        <f t="shared" si="25"/>
         <v>636.74869830360001</v>
       </c>
       <c r="E59" s="4">
-        <f>E30*$J8</f>
+        <f t="shared" si="25"/>
         <v>616.14544137960002</v>
       </c>
       <c r="F59" s="4">
-        <f>F30*$J8</f>
+        <f t="shared" si="25"/>
         <v>704.28729693159994</v>
       </c>
       <c r="G59" s="4">
-        <f>G30*$J8</f>
+        <f t="shared" si="25"/>
         <v>626.01494436459996</v>
       </c>
       <c r="H59" s="4">
-        <f>H30*$J8</f>
+        <f t="shared" si="25"/>
         <v>616.13799958560003</v>
       </c>
       <c r="I59" s="4">
-        <f>I30*$J8</f>
+        <f t="shared" si="25"/>
         <v>620.72012863760006</v>
       </c>
       <c r="J59" s="4">
-        <f>J30*$J8</f>
+        <f t="shared" si="25"/>
         <v>606.65756681560003</v>
       </c>
       <c r="K59" s="4">
-        <f>K30*$J8</f>
+        <f t="shared" si="25"/>
         <v>579.60908093360001</v>
       </c>
       <c r="M59" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>704.28729693159994</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>579.60908093360001</v>
       </c>
       <c r="O59" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>625.79014461897509</v>
       </c>
     </row>
@@ -13442,47 +14748,47 @@
         <v>3</v>
       </c>
       <c r="D60" s="4">
-        <f>D31*$J9</f>
+        <f t="shared" si="25"/>
         <v>852.27819218586671</v>
       </c>
       <c r="E60" s="4">
-        <f>E31*$J9</f>
+        <f t="shared" si="25"/>
         <v>860.78198673386657</v>
       </c>
       <c r="F60" s="4">
-        <f>F31*$J9</f>
+        <f t="shared" si="25"/>
         <v>853.59219986186667</v>
       </c>
       <c r="G60" s="4">
-        <f>G31*$J9</f>
+        <f t="shared" si="25"/>
         <v>817.76137278586668</v>
       </c>
       <c r="H60" s="4">
-        <f>H31*$J9</f>
+        <f t="shared" si="25"/>
         <v>861.65751143253317</v>
       </c>
       <c r="I60" s="4">
-        <f>I31*$J9</f>
+        <f t="shared" si="25"/>
         <v>856.55641668319993</v>
       </c>
       <c r="J60" s="4">
-        <f>J31*$J9</f>
+        <f t="shared" si="25"/>
         <v>817.93160642986652</v>
       </c>
       <c r="K60" s="4">
-        <f>K31*$J9</f>
+        <f t="shared" si="25"/>
         <v>816.86770246853325</v>
       </c>
       <c r="M60" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>861.65751143253317</v>
       </c>
       <c r="N60" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>816.86770246853325</v>
       </c>
       <c r="O60" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>842.17837357269991</v>
       </c>
     </row>
@@ -13496,35 +14802,35 @@
         <v>4</v>
       </c>
       <c r="D64" s="4">
-        <f t="shared" ref="D64:K64" si="24">MAX(D57:D60)</f>
+        <f t="shared" ref="D64:K64" si="29">MAX(D57:D60)</f>
         <v>852.27819218586671</v>
       </c>
       <c r="E64" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>860.78198673386657</v>
       </c>
       <c r="F64" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>865.94553744380005</v>
       </c>
       <c r="G64" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>817.76137278586668</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>861.65751143253317</v>
       </c>
       <c r="I64" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>856.55641668319993</v>
       </c>
       <c r="J64" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>817.93160642986652</v>
       </c>
       <c r="K64" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>816.86770246853325</v>
       </c>
     </row>
@@ -13533,35 +14839,35 @@
         <v>5</v>
       </c>
       <c r="D65" s="4">
-        <f t="shared" ref="D65:K65" si="25">MIN(D57:D60)</f>
+        <f t="shared" ref="D65:K65" si="30">MIN(D57:D60)</f>
         <v>627.77118150166666</v>
       </c>
       <c r="E65" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>600.85723576333328</v>
       </c>
       <c r="F65" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>667.96269839000001</v>
       </c>
       <c r="G65" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>621.98156555666662</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>616.13799958560003</v>
       </c>
       <c r="I65" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>620.72012863760006</v>
       </c>
       <c r="J65" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>577.26012343000002</v>
       </c>
       <c r="K65" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>579.60908093360001</v>
       </c>
     </row>
@@ -13570,932 +14876,932 @@
         <v>6</v>
       </c>
       <c r="D66" s="4">
-        <f t="shared" ref="D66:K66" si="26">AVERAGE(D57:D60)</f>
+        <f t="shared" ref="D66:K66" si="31">AVERAGE(D57:D60)</f>
         <v>739.84215609173339</v>
       </c>
       <c r="E66" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>726.16703199264998</v>
       </c>
       <c r="F66" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>772.94693315681661</v>
       </c>
       <c r="G66" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>718.63824979248329</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>727.49260206598331</v>
       </c>
       <c r="I66" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>733.26663620406657</v>
       </c>
       <c r="J66" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>699.8039749853167</v>
       </c>
       <c r="K66" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>693.78056343973321</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A72" s="77"/>
-      <c r="B72" s="77"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="77" t="s">
+      <c r="A72" s="73"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="73"/>
+      <c r="D72" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="E72" s="77" t="s">
+      <c r="E72" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="F72" s="77"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="77"/>
-      <c r="I72" s="77" t="s">
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="J72" s="77" t="s">
+      <c r="J72" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="K72" s="77"/>
-      <c r="L72" s="77"/>
-      <c r="M72" s="77"/>
-      <c r="N72" s="77" t="s">
+      <c r="K72" s="73"/>
+      <c r="L72" s="73"/>
+      <c r="M72" s="73"/>
+      <c r="N72" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="O72" s="77" t="s">
+      <c r="O72" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="P72" s="77"/>
-      <c r="Q72" s="77"/>
-      <c r="R72" s="77"/>
-      <c r="S72" s="77" t="s">
+      <c r="P72" s="73"/>
+      <c r="Q72" s="73"/>
+      <c r="R72" s="73"/>
+      <c r="S72" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="T72" s="77" t="s">
+      <c r="T72" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="U72" s="77"/>
-      <c r="V72" s="77"/>
+      <c r="U72" s="73"/>
+      <c r="V72" s="73"/>
     </row>
     <row r="73" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A73" s="77"/>
-      <c r="B73" s="77" t="s">
+      <c r="A73" s="73"/>
+      <c r="B73" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="C73" s="77" t="s">
+      <c r="C73" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="D73" s="77" t="s">
+      <c r="D73" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="E73" s="77" t="s">
+      <c r="E73" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="F73" s="77" t="s">
+      <c r="F73" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="G73" s="77" t="s">
+      <c r="G73" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="H73" s="77" t="s">
+      <c r="H73" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="I73" s="77" t="s">
+      <c r="I73" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="J73" s="77" t="s">
+      <c r="J73" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="K73" s="77" t="s">
+      <c r="K73" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="L73" s="77" t="s">
+      <c r="L73" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="M73" s="77" t="s">
+      <c r="M73" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="N73" s="77" t="s">
+      <c r="N73" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="O73" s="77" t="s">
+      <c r="O73" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="P73" s="77" t="s">
+      <c r="P73" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="Q73" s="77" t="s">
+      <c r="Q73" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="R73" s="77" t="s">
+      <c r="R73" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="S73" s="77" t="s">
+      <c r="S73" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="T73" s="77" t="s">
+      <c r="T73" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="U73" s="77" t="s">
+      <c r="U73" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="V73" s="77"/>
+      <c r="V73" s="73"/>
     </row>
     <row r="74" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A74" s="77"/>
-      <c r="B74" s="77">
+      <c r="A74" s="73"/>
+      <c r="B74" s="73">
         <v>1</v>
       </c>
-      <c r="C74" s="77">
+      <c r="C74" s="73">
         <v>3</v>
       </c>
-      <c r="D74" s="77">
+      <c r="D74" s="73">
         <v>1.7843621039999999</v>
       </c>
-      <c r="E74" s="77">
+      <c r="E74" s="73">
         <v>13.12447721</v>
       </c>
-      <c r="F74" s="77">
+      <c r="F74" s="73">
         <v>12.913345469999999</v>
       </c>
-      <c r="G74" s="77">
+      <c r="G74" s="73">
         <v>2</v>
       </c>
-      <c r="H74" s="77">
+      <c r="H74" s="73">
         <v>3</v>
       </c>
-      <c r="I74" s="77">
+      <c r="I74" s="73">
         <v>1.6121465399999999</v>
       </c>
-      <c r="J74" s="77">
+      <c r="J74" s="73">
         <v>11.00523155</v>
       </c>
-      <c r="K74" s="77">
+      <c r="K74" s="73">
         <v>10.60252912</v>
       </c>
-      <c r="L74" s="77">
+      <c r="L74" s="73">
         <v>3</v>
       </c>
-      <c r="M74" s="77">
+      <c r="M74" s="73">
         <v>3</v>
       </c>
-      <c r="N74" s="77">
+      <c r="N74" s="73">
         <v>1.8957573720000001</v>
       </c>
-      <c r="O74" s="77">
+      <c r="O74" s="73">
         <v>11.737313759999999</v>
       </c>
-      <c r="P74" s="77">
+      <c r="P74" s="73">
         <v>11.41887084</v>
       </c>
-      <c r="Q74" s="77">
+      <c r="Q74" s="73">
         <v>4</v>
       </c>
-      <c r="R74" s="77">
+      <c r="R74" s="73">
         <v>3</v>
       </c>
-      <c r="S74" s="77">
+      <c r="S74" s="73">
         <v>1.8694403660000001</v>
       </c>
-      <c r="T74" s="77">
+      <c r="T74" s="73">
         <v>10.98796596</v>
       </c>
-      <c r="U74" s="77">
+      <c r="U74" s="73">
         <v>11.078948069999999</v>
       </c>
-      <c r="V74" s="77"/>
+      <c r="V74" s="73"/>
     </row>
     <row r="75" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A75" s="77"/>
-      <c r="B75" s="77">
+      <c r="A75" s="73"/>
+      <c r="B75" s="73">
         <v>1</v>
       </c>
-      <c r="C75" s="77">
+      <c r="C75" s="73">
         <v>2</v>
       </c>
-      <c r="D75" s="77">
+      <c r="D75" s="73">
         <v>1.9533226530000001</v>
       </c>
-      <c r="E75" s="77">
+      <c r="E75" s="73">
         <v>11.698063429999999</v>
       </c>
-      <c r="F75" s="77">
+      <c r="F75" s="73">
         <v>11.91752514</v>
       </c>
-      <c r="G75" s="77">
+      <c r="G75" s="73">
         <v>2</v>
       </c>
-      <c r="H75" s="77">
+      <c r="H75" s="73">
         <v>2</v>
       </c>
-      <c r="I75" s="77">
+      <c r="I75" s="73">
         <v>1.6356537799999999</v>
       </c>
-      <c r="J75" s="77">
+      <c r="J75" s="73">
         <v>10.54304964</v>
       </c>
-      <c r="K75" s="77">
+      <c r="K75" s="73">
         <v>10.4326998</v>
       </c>
-      <c r="L75" s="77">
+      <c r="L75" s="73">
         <v>3</v>
       </c>
-      <c r="M75" s="77">
+      <c r="M75" s="73">
         <v>2</v>
       </c>
-      <c r="N75" s="77">
+      <c r="N75" s="73">
         <v>1.8451964569999999</v>
       </c>
-      <c r="O75" s="77">
+      <c r="O75" s="73">
         <v>11.37779744</v>
       </c>
-      <c r="P75" s="77">
+      <c r="P75" s="73">
         <v>11.05976031</v>
       </c>
-      <c r="Q75" s="77">
+      <c r="Q75" s="73">
         <v>4</v>
       </c>
-      <c r="R75" s="77">
+      <c r="R75" s="73">
         <v>2</v>
       </c>
-      <c r="S75" s="77">
+      <c r="S75" s="73">
         <v>1.698257736</v>
       </c>
-      <c r="T75" s="77">
+      <c r="T75" s="73">
         <v>10.901165600000001</v>
       </c>
-      <c r="U75" s="77">
+      <c r="U75" s="73">
         <v>10.59103932</v>
       </c>
-      <c r="V75" s="77"/>
+      <c r="V75" s="73"/>
     </row>
     <row r="76" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A76" s="77"/>
-      <c r="B76" s="77">
+      <c r="A76" s="73"/>
+      <c r="B76" s="73">
         <v>1</v>
       </c>
-      <c r="C76" s="77">
+      <c r="C76" s="73">
         <v>2</v>
       </c>
-      <c r="D76" s="77">
+      <c r="D76" s="73">
         <v>1.9533226530000001</v>
       </c>
-      <c r="E76" s="77">
+      <c r="E76" s="73">
         <v>12.01710959</v>
       </c>
-      <c r="F76" s="77">
+      <c r="F76" s="73">
         <v>11.531562429999999</v>
       </c>
-      <c r="G76" s="77">
+      <c r="G76" s="73">
         <v>2</v>
       </c>
-      <c r="H76" s="77">
+      <c r="H76" s="73">
         <v>2</v>
       </c>
-      <c r="I76" s="77">
+      <c r="I76" s="73">
         <v>1.6356537799999999</v>
       </c>
-      <c r="J76" s="77">
+      <c r="J76" s="73">
         <v>10.625908580000001</v>
       </c>
-      <c r="K76" s="77">
+      <c r="K76" s="73">
         <v>10.329453880000001</v>
       </c>
-      <c r="L76" s="77">
+      <c r="L76" s="73">
         <v>3</v>
       </c>
-      <c r="M76" s="77">
+      <c r="M76" s="73">
         <v>2</v>
       </c>
-      <c r="N76" s="77">
+      <c r="N76" s="73">
         <v>1.8451964569999999</v>
       </c>
-      <c r="O76" s="77">
+      <c r="O76" s="73">
         <v>11.31499011</v>
       </c>
-      <c r="P76" s="77">
+      <c r="P76" s="73">
         <v>10.668650830000001</v>
       </c>
-      <c r="Q76" s="77">
+      <c r="Q76" s="73">
         <v>4</v>
       </c>
-      <c r="R76" s="77">
+      <c r="R76" s="73">
         <v>2</v>
       </c>
-      <c r="S76" s="77">
+      <c r="S76" s="73">
         <v>1.698257736</v>
       </c>
-      <c r="T76" s="77">
+      <c r="T76" s="73">
         <v>11.25937878</v>
       </c>
-      <c r="U76" s="77">
+      <c r="U76" s="73">
         <v>10.48731806</v>
       </c>
-      <c r="V76" s="77"/>
+      <c r="V76" s="73"/>
     </row>
     <row r="77" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A77" s="77"/>
-      <c r="B77" s="77">
+      <c r="A77" s="73"/>
+      <c r="B77" s="73">
         <v>1</v>
       </c>
-      <c r="C77" s="77">
+      <c r="C77" s="73">
         <v>1</v>
       </c>
-      <c r="D77" s="77">
+      <c r="D77" s="73">
         <v>1.8314126049999999</v>
       </c>
-      <c r="E77" s="77">
+      <c r="E77" s="73">
         <v>11.832379469999999</v>
       </c>
-      <c r="F77" s="77">
+      <c r="F77" s="73">
         <v>11.70265908</v>
       </c>
-      <c r="G77" s="77">
+      <c r="G77" s="73">
         <v>2</v>
       </c>
-      <c r="H77" s="77">
+      <c r="H77" s="73">
         <v>1</v>
       </c>
-      <c r="I77" s="77">
+      <c r="I77" s="73">
         <v>1.577234099</v>
       </c>
-      <c r="J77" s="77">
+      <c r="J77" s="73">
         <v>10.75850441</v>
       </c>
-      <c r="K77" s="77">
+      <c r="K77" s="73">
         <v>10.937471029999999</v>
       </c>
-      <c r="L77" s="77">
+      <c r="L77" s="73">
         <v>3</v>
       </c>
-      <c r="M77" s="77">
+      <c r="M77" s="73">
         <v>1</v>
       </c>
-      <c r="N77" s="77">
+      <c r="N77" s="73">
         <v>1.6330105290000001</v>
       </c>
-      <c r="O77" s="77">
+      <c r="O77" s="73">
         <v>11.814252460000001</v>
       </c>
-      <c r="P77" s="77">
+      <c r="P77" s="73">
         <v>11.43216496</v>
       </c>
-      <c r="Q77" s="77">
+      <c r="Q77" s="73">
         <v>4</v>
       </c>
-      <c r="R77" s="77">
+      <c r="R77" s="73">
         <v>1</v>
       </c>
-      <c r="S77" s="77">
+      <c r="S77" s="73">
         <v>1.887225025</v>
       </c>
-      <c r="T77" s="77">
+      <c r="T77" s="73">
         <v>10.823476680000001</v>
       </c>
-      <c r="U77" s="77">
+      <c r="U77" s="73">
         <v>11.38139209</v>
       </c>
-      <c r="V77" s="77"/>
+      <c r="V77" s="73"/>
     </row>
     <row r="78" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A78" s="77"/>
-      <c r="B78" s="77">
+      <c r="A78" s="73"/>
+      <c r="B78" s="73">
         <v>1</v>
       </c>
-      <c r="C78" s="77">
+      <c r="C78" s="73">
         <v>1</v>
       </c>
-      <c r="D78" s="77">
+      <c r="D78" s="73">
         <v>1.8314126049999999</v>
       </c>
-      <c r="E78" s="77">
+      <c r="E78" s="73">
         <v>11.985200219999999</v>
       </c>
-      <c r="F78" s="77">
+      <c r="F78" s="73">
         <v>11.960113229999999</v>
       </c>
-      <c r="G78" s="77">
+      <c r="G78" s="73">
         <v>2</v>
       </c>
-      <c r="H78" s="77">
+      <c r="H78" s="73">
         <v>1</v>
       </c>
-      <c r="I78" s="77">
+      <c r="I78" s="73">
         <v>1.577234099</v>
       </c>
-      <c r="J78" s="77">
+      <c r="J78" s="73">
         <v>10.264696539999999</v>
       </c>
-      <c r="K78" s="77">
+      <c r="K78" s="73">
         <v>10.16197914</v>
       </c>
-      <c r="L78" s="77">
+      <c r="L78" s="73">
         <v>3</v>
       </c>
-      <c r="M78" s="77">
+      <c r="M78" s="73">
         <v>1</v>
       </c>
-      <c r="N78" s="77">
+      <c r="N78" s="73">
         <v>1.6330105290000001</v>
       </c>
-      <c r="O78" s="77">
+      <c r="O78" s="73">
         <v>11.33792416</v>
       </c>
-      <c r="P78" s="77">
+      <c r="P78" s="73">
         <v>11.511351449999999</v>
       </c>
-      <c r="Q78" s="77">
+      <c r="Q78" s="73">
         <v>4</v>
       </c>
-      <c r="R78" s="77">
+      <c r="R78" s="73">
         <v>1</v>
       </c>
-      <c r="S78" s="77">
+      <c r="S78" s="73">
         <v>1.887225025</v>
       </c>
-      <c r="T78" s="77">
+      <c r="T78" s="73">
         <v>10.649676060000001</v>
       </c>
-      <c r="U78" s="77">
+      <c r="U78" s="73">
         <v>10.95364814</v>
       </c>
-      <c r="V78" s="77"/>
+      <c r="V78" s="73"/>
     </row>
     <row r="79" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A79" s="77"/>
-      <c r="B79" s="77"/>
-      <c r="C79" s="77"/>
-      <c r="D79" s="77"/>
-      <c r="E79" s="77"/>
-      <c r="F79" s="77"/>
-      <c r="G79" s="77"/>
-      <c r="H79" s="77"/>
-      <c r="I79" s="77"/>
-      <c r="J79" s="77"/>
-      <c r="K79" s="77"/>
-      <c r="L79" s="77"/>
-      <c r="M79" s="77"/>
-      <c r="N79" s="77"/>
-      <c r="O79" s="77"/>
-      <c r="P79" s="77"/>
-      <c r="Q79" s="77"/>
-      <c r="R79" s="77"/>
-      <c r="S79" s="77"/>
-      <c r="T79" s="77"/>
-      <c r="U79" s="77"/>
-      <c r="V79" s="77"/>
+      <c r="A79" s="73"/>
+      <c r="B79" s="73"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="73"/>
+      <c r="E79" s="73"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="73"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="73"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="73"/>
+      <c r="L79" s="73"/>
+      <c r="M79" s="73"/>
+      <c r="N79" s="73"/>
+      <c r="O79" s="73"/>
+      <c r="P79" s="73"/>
+      <c r="Q79" s="73"/>
+      <c r="R79" s="73"/>
+      <c r="S79" s="73"/>
+      <c r="T79" s="73"/>
+      <c r="U79" s="73"/>
+      <c r="V79" s="73"/>
     </row>
     <row r="80" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A80" s="77"/>
-      <c r="B80" s="77"/>
-      <c r="C80" s="77" t="s">
+      <c r="A80" s="73"/>
+      <c r="B80" s="73"/>
+      <c r="C80" s="73" t="s">
         <v>308</v>
       </c>
-      <c r="D80" s="77">
+      <c r="D80" s="73">
         <f>AVERAGE(D74:D78)</f>
         <v>1.870766524</v>
       </c>
-      <c r="E80" s="77">
-        <f t="shared" ref="E80:F80" si="27">AVERAGE(E74:E78)</f>
+      <c r="E80" s="73">
+        <f t="shared" ref="E80:F80" si="32">AVERAGE(E74:E78)</f>
         <v>12.131445984000001</v>
       </c>
-      <c r="F80" s="77">
-        <f t="shared" si="27"/>
+      <c r="F80" s="73">
+        <f t="shared" si="32"/>
         <v>12.005041070000001</v>
       </c>
-      <c r="G80" s="77"/>
-      <c r="H80" s="77" t="s">
+      <c r="G80" s="73"/>
+      <c r="H80" s="73" t="s">
         <v>308</v>
       </c>
-      <c r="I80" s="77">
+      <c r="I80" s="73">
         <f>AVERAGE(I74:I78)</f>
         <v>1.6075844596</v>
       </c>
-      <c r="J80" s="77">
-        <f t="shared" ref="J80:K80" si="28">AVERAGE(J74:J78)</f>
+      <c r="J80" s="73">
+        <f t="shared" ref="J80:K80" si="33">AVERAGE(J74:J78)</f>
         <v>10.639478144</v>
       </c>
-      <c r="K80" s="77">
-        <f t="shared" si="28"/>
+      <c r="K80" s="73">
+        <f t="shared" si="33"/>
         <v>10.492826594</v>
       </c>
-      <c r="L80" s="77"/>
-      <c r="M80" s="77" t="s">
+      <c r="L80" s="73"/>
+      <c r="M80" s="73" t="s">
         <v>308</v>
       </c>
-      <c r="N80" s="77">
+      <c r="N80" s="73">
         <f>AVERAGE(N74:N78)</f>
         <v>1.7704342688000001</v>
       </c>
-      <c r="O80" s="77">
-        <f t="shared" ref="O80:P80" si="29">AVERAGE(O74:O78)</f>
+      <c r="O80" s="73">
+        <f t="shared" ref="O80:P80" si="34">AVERAGE(O74:O78)</f>
         <v>11.516455585999999</v>
       </c>
-      <c r="P80" s="77">
-        <f t="shared" si="29"/>
+      <c r="P80" s="73">
+        <f t="shared" si="34"/>
         <v>11.218159678000001</v>
       </c>
-      <c r="Q80" s="77"/>
-      <c r="R80" s="77" t="s">
+      <c r="Q80" s="73"/>
+      <c r="R80" s="73" t="s">
         <v>308</v>
       </c>
-      <c r="S80" s="77">
+      <c r="S80" s="73">
         <f>AVERAGE(S74:S78)</f>
         <v>1.8080811776000001</v>
       </c>
-      <c r="T80" s="77">
-        <f t="shared" ref="T80:U80" si="30">AVERAGE(T74:T78)</f>
+      <c r="T80" s="73">
+        <f t="shared" ref="T80:U80" si="35">AVERAGE(T74:T78)</f>
         <v>10.924332616000001</v>
       </c>
-      <c r="U80" s="77">
-        <f t="shared" si="30"/>
+      <c r="U80" s="73">
+        <f t="shared" si="35"/>
         <v>10.898469135999999</v>
       </c>
-      <c r="V80" s="77"/>
+      <c r="V80" s="73"/>
     </row>
     <row r="81" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A81" s="77"/>
-      <c r="B81" s="77"/>
-      <c r="C81" s="77" t="s">
+      <c r="A81" s="73"/>
+      <c r="B81" s="73"/>
+      <c r="C81" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="77">
+      <c r="D81" s="73">
         <f>MIN(D74:D78)</f>
         <v>1.7843621039999999</v>
       </c>
-      <c r="E81" s="77">
-        <f t="shared" ref="E81:F81" si="31">MIN(E74:E78)</f>
+      <c r="E81" s="73">
+        <f t="shared" ref="E81:F81" si="36">MIN(E74:E78)</f>
         <v>11.698063429999999</v>
       </c>
-      <c r="F81" s="77">
-        <f t="shared" si="31"/>
+      <c r="F81" s="73">
+        <f t="shared" si="36"/>
         <v>11.531562429999999</v>
       </c>
-      <c r="G81" s="77"/>
-      <c r="H81" s="77" t="s">
+      <c r="G81" s="73"/>
+      <c r="H81" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="I81" s="77">
+      <c r="I81" s="73">
         <f>MIN(I74:I78)</f>
         <v>1.577234099</v>
       </c>
-      <c r="J81" s="77">
-        <f t="shared" ref="J81:K81" si="32">MIN(J74:J78)</f>
+      <c r="J81" s="73">
+        <f t="shared" ref="J81:K81" si="37">MIN(J74:J78)</f>
         <v>10.264696539999999</v>
       </c>
-      <c r="K81" s="77">
-        <f t="shared" si="32"/>
+      <c r="K81" s="73">
+        <f t="shared" si="37"/>
         <v>10.16197914</v>
       </c>
-      <c r="L81" s="77"/>
-      <c r="M81" s="77" t="s">
+      <c r="L81" s="73"/>
+      <c r="M81" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="N81" s="77">
+      <c r="N81" s="73">
         <f>MIN(N74:N78)</f>
         <v>1.6330105290000001</v>
       </c>
-      <c r="O81" s="77">
-        <f t="shared" ref="O81:P81" si="33">MIN(O74:O78)</f>
+      <c r="O81" s="73">
+        <f t="shared" ref="O81:P81" si="38">MIN(O74:O78)</f>
         <v>11.31499011</v>
       </c>
-      <c r="P81" s="77">
-        <f t="shared" si="33"/>
+      <c r="P81" s="73">
+        <f t="shared" si="38"/>
         <v>10.668650830000001</v>
       </c>
-      <c r="Q81" s="77"/>
-      <c r="R81" s="77" t="s">
+      <c r="Q81" s="73"/>
+      <c r="R81" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="S81" s="77">
+      <c r="S81" s="73">
         <f>MIN(S74:S78)</f>
         <v>1.698257736</v>
       </c>
-      <c r="T81" s="77">
-        <f t="shared" ref="T81:U81" si="34">MIN(T74:T78)</f>
+      <c r="T81" s="73">
+        <f t="shared" ref="T81:U81" si="39">MIN(T74:T78)</f>
         <v>10.649676060000001</v>
       </c>
-      <c r="U81" s="77">
-        <f t="shared" si="34"/>
+      <c r="U81" s="73">
+        <f t="shared" si="39"/>
         <v>10.48731806</v>
       </c>
-      <c r="V81" s="77"/>
+      <c r="V81" s="73"/>
     </row>
     <row r="82" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A82" s="77"/>
-      <c r="B82" s="77"/>
-      <c r="C82" s="77" t="s">
+      <c r="A82" s="73"/>
+      <c r="B82" s="73"/>
+      <c r="C82" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="77">
+      <c r="D82" s="73">
         <f>MAX(D74:D78)</f>
         <v>1.9533226530000001</v>
       </c>
-      <c r="E82" s="77">
-        <f t="shared" ref="E82:F82" si="35">MAX(E74:E78)</f>
+      <c r="E82" s="73">
+        <f t="shared" ref="E82:F82" si="40">MAX(E74:E78)</f>
         <v>13.12447721</v>
       </c>
-      <c r="F82" s="77">
-        <f t="shared" si="35"/>
+      <c r="F82" s="73">
+        <f t="shared" si="40"/>
         <v>12.913345469999999</v>
       </c>
-      <c r="G82" s="77"/>
-      <c r="H82" s="77" t="s">
+      <c r="G82" s="73"/>
+      <c r="H82" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I82" s="77">
+      <c r="I82" s="73">
         <f>MAX(I74:I78)</f>
         <v>1.6356537799999999</v>
       </c>
-      <c r="J82" s="77">
-        <f t="shared" ref="J82:K82" si="36">MAX(J74:J78)</f>
+      <c r="J82" s="73">
+        <f t="shared" ref="J82:K82" si="41">MAX(J74:J78)</f>
         <v>11.00523155</v>
       </c>
-      <c r="K82" s="77">
-        <f t="shared" si="36"/>
+      <c r="K82" s="73">
+        <f t="shared" si="41"/>
         <v>10.937471029999999</v>
       </c>
-      <c r="L82" s="77"/>
-      <c r="M82" s="77" t="s">
+      <c r="L82" s="73"/>
+      <c r="M82" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="N82" s="77">
+      <c r="N82" s="73">
         <f>MAX(N74:N78)</f>
         <v>1.8957573720000001</v>
       </c>
-      <c r="O82" s="77">
-        <f t="shared" ref="O82:P82" si="37">MAX(O74:O78)</f>
+      <c r="O82" s="73">
+        <f t="shared" ref="O82:P82" si="42">MAX(O74:O78)</f>
         <v>11.814252460000001</v>
       </c>
-      <c r="P82" s="77">
-        <f t="shared" si="37"/>
+      <c r="P82" s="73">
+        <f t="shared" si="42"/>
         <v>11.511351449999999</v>
       </c>
-      <c r="Q82" s="77"/>
-      <c r="R82" s="77" t="s">
+      <c r="Q82" s="73"/>
+      <c r="R82" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="S82" s="77">
+      <c r="S82" s="73">
         <f>MAX(S74:S78)</f>
         <v>1.887225025</v>
       </c>
-      <c r="T82" s="77">
-        <f t="shared" ref="T82:U82" si="38">MAX(T74:T78)</f>
+      <c r="T82" s="73">
+        <f t="shared" ref="T82:U82" si="43">MAX(T74:T78)</f>
         <v>11.25937878</v>
       </c>
-      <c r="U82" s="77">
-        <f t="shared" si="38"/>
+      <c r="U82" s="73">
+        <f t="shared" si="43"/>
         <v>11.38139209</v>
       </c>
-      <c r="V82" s="77"/>
+      <c r="V82" s="73"/>
     </row>
     <row r="83" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A83" s="77"/>
-      <c r="B83" s="77"/>
-      <c r="C83" s="77" t="s">
+      <c r="A83" s="73"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="73" t="s">
         <v>374</v>
       </c>
-      <c r="D83" s="77">
+      <c r="D83" s="73">
         <f>D82-D81</f>
         <v>0.16896054900000013</v>
       </c>
-      <c r="E83" s="77">
-        <f t="shared" ref="E83" si="39">E82-E81</f>
+      <c r="E83" s="73">
+        <f t="shared" ref="E83" si="44">E82-E81</f>
         <v>1.4264137800000007</v>
       </c>
-      <c r="F83" s="77">
-        <f t="shared" ref="F83" si="40">F82-F81</f>
+      <c r="F83" s="73">
+        <f t="shared" ref="F83" si="45">F82-F81</f>
         <v>1.3817830400000002</v>
       </c>
-      <c r="G83" s="77"/>
-      <c r="H83" s="77" t="s">
+      <c r="G83" s="73"/>
+      <c r="H83" s="73" t="s">
         <v>374</v>
       </c>
-      <c r="I83" s="77">
+      <c r="I83" s="73">
         <f>I82-I81</f>
         <v>5.8419680999999946E-2</v>
       </c>
-      <c r="J83" s="77">
-        <f t="shared" ref="J83" si="41">J82-J81</f>
+      <c r="J83" s="73">
+        <f t="shared" ref="J83" si="46">J82-J81</f>
         <v>0.74053501000000033</v>
       </c>
-      <c r="K83" s="77">
-        <f t="shared" ref="K83" si="42">K82-K81</f>
+      <c r="K83" s="73">
+        <f t="shared" ref="K83" si="47">K82-K81</f>
         <v>0.77549188999999963</v>
       </c>
-      <c r="L83" s="77"/>
-      <c r="M83" s="77" t="s">
+      <c r="L83" s="73"/>
+      <c r="M83" s="73" t="s">
         <v>374</v>
       </c>
-      <c r="N83" s="77">
+      <c r="N83" s="73">
         <f>N82-N81</f>
         <v>0.26274684299999995</v>
       </c>
-      <c r="O83" s="77">
-        <f t="shared" ref="O83" si="43">O82-O81</f>
+      <c r="O83" s="73">
+        <f t="shared" ref="O83" si="48">O82-O81</f>
         <v>0.49926235000000041</v>
       </c>
-      <c r="P83" s="77">
-        <f t="shared" ref="P83" si="44">P82-P81</f>
+      <c r="P83" s="73">
+        <f t="shared" ref="P83" si="49">P82-P81</f>
         <v>0.84270061999999868</v>
       </c>
-      <c r="Q83" s="77"/>
-      <c r="R83" s="77" t="s">
+      <c r="Q83" s="73"/>
+      <c r="R83" s="73" t="s">
         <v>374</v>
       </c>
-      <c r="S83" s="77">
+      <c r="S83" s="73">
         <f>S82-S81</f>
         <v>0.18896728900000004</v>
       </c>
-      <c r="T83" s="77">
-        <f t="shared" ref="T83:U83" si="45">T82-T81</f>
+      <c r="T83" s="73">
+        <f t="shared" ref="T83:U83" si="50">T82-T81</f>
         <v>0.60970271999999959</v>
       </c>
-      <c r="U83" s="77">
-        <f t="shared" si="45"/>
+      <c r="U83" s="73">
+        <f t="shared" si="50"/>
         <v>0.89407403000000052</v>
       </c>
-      <c r="V83" s="77"/>
+      <c r="V83" s="73"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A84" s="77"/>
-      <c r="B84" s="77"/>
-      <c r="C84" s="79" t="s">
+      <c r="A84" s="73"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="75" t="s">
         <v>378</v>
       </c>
-      <c r="D84" s="77">
+      <c r="D84" s="73">
         <f>_xlfn.STDEV.P(D74:D78)</f>
         <v>6.9561792023758062E-2</v>
       </c>
-      <c r="E84" s="77">
-        <f t="shared" ref="E84:U84" si="46">_xlfn.STDEV.P(E74:E78)</f>
+      <c r="E84" s="73">
+        <f t="shared" ref="E84:U84" si="51">_xlfn.STDEV.P(E74:E78)</f>
         <v>0.50947676457314639</v>
       </c>
-      <c r="F84" s="77">
-        <f t="shared" si="46"/>
+      <c r="F84" s="73">
+        <f t="shared" si="51"/>
         <v>0.47964806312186858</v>
       </c>
-      <c r="G84" s="77">
-        <f t="shared" si="46"/>
+      <c r="G84" s="73">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="H84" s="77">
-        <f t="shared" si="46"/>
+      <c r="H84" s="73">
+        <f t="shared" si="51"/>
         <v>0.74833147735478833</v>
       </c>
-      <c r="I84" s="77">
-        <f t="shared" si="46"/>
+      <c r="I84" s="73">
+        <f t="shared" si="51"/>
         <v>2.6225464152658324E-2</v>
       </c>
-      <c r="J84" s="77">
-        <f t="shared" si="46"/>
+      <c r="J84" s="73">
+        <f t="shared" si="51"/>
         <v>0.24408467635070619</v>
       </c>
-      <c r="K84" s="77">
-        <f t="shared" si="46"/>
+      <c r="K84" s="73">
+        <f t="shared" si="51"/>
         <v>0.26438957299079113</v>
       </c>
-      <c r="L84" s="77">
-        <f t="shared" si="46"/>
+      <c r="L84" s="73">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="M84" s="77">
-        <f t="shared" si="46"/>
+      <c r="M84" s="73">
+        <f t="shared" si="51"/>
         <v>0.74833147735478833</v>
       </c>
-      <c r="N84" s="77">
-        <f t="shared" si="46"/>
+      <c r="N84" s="73">
+        <f t="shared" si="51"/>
         <v>0.11371474687639985</v>
       </c>
-      <c r="O84" s="77">
-        <f t="shared" si="46"/>
+      <c r="O84" s="73">
+        <f t="shared" si="51"/>
         <v>0.21407905116028678</v>
       </c>
-      <c r="P84" s="77">
-        <f t="shared" si="46"/>
+      <c r="P84" s="73">
+        <f t="shared" si="51"/>
         <v>0.31594144402305796</v>
       </c>
-      <c r="Q84" s="77">
-        <f t="shared" si="46"/>
+      <c r="Q84" s="73">
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="R84" s="77">
-        <f t="shared" si="46"/>
+      <c r="R84" s="73">
+        <f t="shared" si="51"/>
         <v>0.74833147735478833</v>
       </c>
-      <c r="S84" s="77">
-        <f t="shared" si="46"/>
+      <c r="S84" s="73">
+        <f t="shared" si="51"/>
         <v>8.990530998043765E-2</v>
       </c>
-      <c r="T84" s="77">
-        <f t="shared" si="46"/>
+      <c r="T84" s="73">
+        <f t="shared" si="51"/>
         <v>0.20122126562085751</v>
       </c>
-      <c r="U84" s="77">
-        <f t="shared" si="46"/>
+      <c r="U84" s="73">
+        <f t="shared" si="51"/>
         <v>0.32630974446438044</v>
       </c>
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A85" s="77"/>
-      <c r="B85" s="77"/>
-      <c r="C85" s="77"/>
-      <c r="D85" s="77"/>
-      <c r="E85" s="77"/>
-      <c r="F85" s="77"/>
-      <c r="G85" s="77"/>
-      <c r="H85" s="77"/>
-      <c r="I85" s="77"/>
-      <c r="J85" s="77"/>
-      <c r="K85" s="77"/>
-      <c r="L85" s="77"/>
-      <c r="M85" s="77"/>
-      <c r="N85" s="77"/>
-      <c r="O85" s="77"/>
-      <c r="P85" s="77"/>
-      <c r="Q85" s="77"/>
-      <c r="R85" s="77"/>
-      <c r="S85" s="77"/>
-      <c r="T85" s="77"/>
+      <c r="A85" s="73"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="73"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="73"/>
+      <c r="H85" s="73"/>
+      <c r="I85" s="73"/>
+      <c r="J85" s="73"/>
+      <c r="K85" s="73"/>
+      <c r="L85" s="73"/>
+      <c r="M85" s="73"/>
+      <c r="N85" s="73"/>
+      <c r="O85" s="73"/>
+      <c r="P85" s="73"/>
+      <c r="Q85" s="73"/>
+      <c r="R85" s="73"/>
+      <c r="S85" s="73"/>
+      <c r="T85" s="73"/>
     </row>
     <row r="86" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A86" s="77"/>
-      <c r="B86" s="78" t="s">
+      <c r="A86" s="73"/>
+      <c r="B86" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="C86" s="79" t="s">
+      <c r="C86" s="75" t="s">
         <v>377</v>
       </c>
-      <c r="D86" s="79" t="s">
+      <c r="D86" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="E86" s="78" t="s">
+      <c r="E86" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="F86" s="77"/>
-      <c r="G86" s="77"/>
-      <c r="H86" s="77"/>
-      <c r="I86" s="77"/>
-      <c r="J86" s="77"/>
-      <c r="K86" s="77"/>
-      <c r="L86" s="77"/>
-      <c r="M86" s="77"/>
-      <c r="N86" s="77"/>
-      <c r="O86" s="77"/>
-      <c r="P86" s="77"/>
-      <c r="Q86" s="77"/>
-      <c r="R86" s="77"/>
-      <c r="S86" s="77"/>
-      <c r="T86" s="77"/>
-      <c r="U86" s="77"/>
-      <c r="V86" s="77"/>
-      <c r="W86" s="77"/>
-      <c r="X86" s="77"/>
-      <c r="Y86" s="77"/>
-      <c r="Z86" s="77"/>
-      <c r="AA86" s="76"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="73"/>
+      <c r="H86" s="73"/>
+      <c r="I86" s="73"/>
+      <c r="J86" s="73"/>
+      <c r="K86" s="73"/>
+      <c r="L86" s="73"/>
+      <c r="M86" s="73"/>
+      <c r="N86" s="73"/>
+      <c r="O86" s="73"/>
+      <c r="P86" s="73"/>
+      <c r="Q86" s="73"/>
+      <c r="R86" s="73"/>
+      <c r="S86" s="73"/>
+      <c r="T86" s="73"/>
+      <c r="U86" s="73"/>
+      <c r="V86" s="73"/>
+      <c r="W86" s="73"/>
+      <c r="X86" s="73"/>
+      <c r="Y86" s="73"/>
+      <c r="Z86" s="73"/>
+      <c r="AA86" s="72"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A87" s="77"/>
-      <c r="B87" s="77">
+      <c r="A87" s="73"/>
+      <c r="B87" s="73">
         <v>1</v>
       </c>
-      <c r="C87" s="77">
+      <c r="C87" s="73">
         <v>0.16896054900000013</v>
       </c>
-      <c r="D87" s="77">
+      <c r="D87" s="73">
         <v>1.4264137800000007</v>
       </c>
-      <c r="E87" s="77">
+      <c r="E87" s="73">
         <v>1.3817830400000002</v>
       </c>
-      <c r="F87" s="77"/>
-      <c r="G87" s="77"/>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
-      <c r="K87" s="77"/>
-      <c r="L87" s="77"/>
-      <c r="M87" s="77"/>
-      <c r="N87" s="77"/>
-      <c r="O87" s="77"/>
-      <c r="P87" s="77"/>
-      <c r="Q87" s="77"/>
-      <c r="R87" s="77"/>
-      <c r="S87" s="77"/>
-      <c r="T87" s="77"/>
-      <c r="U87" s="77"/>
-      <c r="V87" s="77"/>
-      <c r="W87" s="77"/>
-      <c r="X87" s="77"/>
-      <c r="Y87" s="77"/>
-      <c r="Z87" s="77"/>
-      <c r="AA87" s="76"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="73"/>
+      <c r="H87" s="73"/>
+      <c r="I87" s="73"/>
+      <c r="J87" s="73"/>
+      <c r="K87" s="73"/>
+      <c r="L87" s="73"/>
+      <c r="M87" s="73"/>
+      <c r="N87" s="73"/>
+      <c r="O87" s="73"/>
+      <c r="P87" s="73"/>
+      <c r="Q87" s="73"/>
+      <c r="R87" s="73"/>
+      <c r="S87" s="73"/>
+      <c r="T87" s="73"/>
+      <c r="U87" s="73"/>
+      <c r="V87" s="73"/>
+      <c r="W87" s="73"/>
+      <c r="X87" s="73"/>
+      <c r="Y87" s="73"/>
+      <c r="Z87" s="73"/>
+      <c r="AA87" s="72"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1">
       <c r="B88">
@@ -14510,20 +15816,20 @@
       <c r="E88">
         <v>0.77549188999999963</v>
       </c>
-      <c r="H88" s="77"/>
-      <c r="I88" s="77"/>
-      <c r="J88" s="77"/>
-      <c r="K88" s="77"/>
-      <c r="L88" s="77"/>
-      <c r="M88" s="77"/>
-      <c r="N88" s="77"/>
-      <c r="O88" s="77"/>
-      <c r="P88" s="77"/>
-      <c r="Q88" s="77"/>
-      <c r="R88" s="77"/>
-      <c r="S88" s="77"/>
-      <c r="T88" s="77"/>
-      <c r="U88" s="77"/>
+      <c r="H88" s="73"/>
+      <c r="I88" s="73"/>
+      <c r="J88" s="73"/>
+      <c r="K88" s="73"/>
+      <c r="L88" s="73"/>
+      <c r="M88" s="73"/>
+      <c r="N88" s="73"/>
+      <c r="O88" s="73"/>
+      <c r="P88" s="73"/>
+      <c r="Q88" s="73"/>
+      <c r="R88" s="73"/>
+      <c r="S88" s="73"/>
+      <c r="T88" s="73"/>
+      <c r="U88" s="73"/>
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1">
       <c r="B89">
@@ -14538,20 +15844,20 @@
       <c r="E89">
         <v>0.84270061999999868</v>
       </c>
-      <c r="G89" s="77"/>
-      <c r="H89" s="77"/>
-      <c r="I89" s="77"/>
-      <c r="J89" s="77"/>
-      <c r="K89" s="77"/>
-      <c r="L89" s="77"/>
-      <c r="M89" s="77"/>
-      <c r="N89" s="77"/>
-      <c r="O89" s="77"/>
-      <c r="P89" s="77"/>
-      <c r="Q89" s="77"/>
-      <c r="R89" s="77"/>
-      <c r="S89" s="77"/>
-      <c r="T89" s="77"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="73"/>
+      <c r="J89" s="73"/>
+      <c r="K89" s="73"/>
+      <c r="L89" s="73"/>
+      <c r="M89" s="73"/>
+      <c r="N89" s="73"/>
+      <c r="O89" s="73"/>
+      <c r="P89" s="73"/>
+      <c r="Q89" s="73"/>
+      <c r="R89" s="73"/>
+      <c r="S89" s="73"/>
+      <c r="T89" s="73"/>
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1">
       <c r="B90">
@@ -14566,160 +15872,284 @@
       <c r="E90">
         <v>0.89407403000000052</v>
       </c>
-      <c r="G90" s="77"/>
-      <c r="H90" s="77"/>
-      <c r="I90" s="77"/>
-      <c r="J90" s="77"/>
-      <c r="K90" s="77"/>
-      <c r="L90" s="77"/>
-      <c r="M90" s="77"/>
-      <c r="N90" s="77"/>
-      <c r="O90" s="77"/>
-      <c r="P90" s="77"/>
-      <c r="Q90" s="77"/>
-      <c r="R90" s="77"/>
-      <c r="S90" s="77"/>
-      <c r="T90" s="77"/>
+      <c r="G90" s="73"/>
+      <c r="H90" s="73"/>
+      <c r="I90" s="73"/>
+      <c r="J90" s="73"/>
+      <c r="K90" s="73"/>
+      <c r="L90" s="80" t="s">
+        <v>383</v>
+      </c>
+      <c r="M90" s="73"/>
+      <c r="N90" s="73"/>
+      <c r="O90" s="73"/>
+      <c r="P90" s="73"/>
+      <c r="Q90" s="73"/>
+      <c r="R90" s="73"/>
+      <c r="S90" s="73"/>
+      <c r="T90" s="73"/>
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1">
-      <c r="G91" s="77"/>
-      <c r="H91" s="77"/>
-      <c r="I91" s="77"/>
-      <c r="J91" s="77"/>
-      <c r="K91" s="77"/>
-      <c r="L91" s="77"/>
-      <c r="M91" s="77"/>
-      <c r="N91" s="77"/>
-      <c r="O91" s="77"/>
-      <c r="P91" s="77"/>
-      <c r="Q91" s="77"/>
-      <c r="R91" s="77"/>
-      <c r="S91" s="77"/>
-      <c r="T91" s="77"/>
+      <c r="G91" s="73"/>
+      <c r="H91" s="73"/>
+      <c r="I91" s="73"/>
+      <c r="J91" s="73"/>
+      <c r="K91" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="L91" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="M91" s="73" t="s">
+        <v>380</v>
+      </c>
+      <c r="N91" s="73" t="s">
+        <v>381</v>
+      </c>
+      <c r="O91" s="73" t="s">
+        <v>382</v>
+      </c>
+      <c r="P91" s="73" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q91" s="73" t="s">
+        <v>385</v>
+      </c>
+      <c r="R91" s="73" t="s">
+        <v>386</v>
+      </c>
+      <c r="S91" s="73" t="s">
+        <v>387</v>
+      </c>
+      <c r="T91" s="73"/>
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1">
-      <c r="G92" s="77"/>
-      <c r="H92" s="77"/>
-      <c r="I92" s="77"/>
-      <c r="J92" s="77"/>
-      <c r="K92" s="77"/>
-      <c r="L92" s="77"/>
-      <c r="M92" s="77"/>
-      <c r="N92" s="77"/>
-      <c r="O92" s="77"/>
-      <c r="P92" s="77"/>
-      <c r="Q92" s="77"/>
-      <c r="R92" s="77"/>
-      <c r="S92" s="77"/>
-      <c r="T92" s="77"/>
+      <c r="G92" s="73"/>
+      <c r="H92" s="73"/>
+      <c r="I92" s="73"/>
+      <c r="J92" s="73"/>
+      <c r="K92" s="73">
+        <v>1</v>
+      </c>
+      <c r="L92" s="73">
+        <f>AVERAGE(E77:E78)</f>
+        <v>11.908789844999999</v>
+      </c>
+      <c r="M92" s="73">
+        <f>AVERAGE(E75:E76)</f>
+        <v>11.857586510000001</v>
+      </c>
+      <c r="N92" s="73">
+        <f>E74</f>
+        <v>13.12447721</v>
+      </c>
+      <c r="O92" s="73">
+        <f>AVERAGE(11.79,11.97)</f>
+        <v>11.879999999999999</v>
+      </c>
+      <c r="P92" s="73">
+        <f>AVERAGE(F77:F78)</f>
+        <v>11.831386155000001</v>
+      </c>
+      <c r="Q92" s="73">
+        <f>AVERAGE(F75:F76)</f>
+        <v>11.724543785</v>
+      </c>
+      <c r="R92">
+        <f>F74</f>
+        <v>12.913345469999999</v>
+      </c>
+      <c r="S92" s="73">
+        <f>AVERAGE(11.05,11.59)</f>
+        <v>11.32</v>
+      </c>
+      <c r="T92" s="73"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1">
-      <c r="G93" s="77"/>
-      <c r="H93" s="77"/>
-      <c r="I93" s="77"/>
-      <c r="J93" s="77"/>
-      <c r="K93" s="77"/>
-      <c r="L93" s="77"/>
-      <c r="M93" s="77"/>
-      <c r="N93" s="77"/>
-      <c r="O93" s="77"/>
-      <c r="P93" s="77"/>
-      <c r="Q93" s="77"/>
-      <c r="R93" s="77"/>
-      <c r="S93" s="77"/>
-      <c r="T93" s="77"/>
+      <c r="G93" s="73"/>
+      <c r="H93" s="73"/>
+      <c r="I93" s="73"/>
+      <c r="J93" s="73"/>
+      <c r="K93" s="73">
+        <v>2</v>
+      </c>
+      <c r="L93" s="73">
+        <f>AVERAGE(J77:J78)</f>
+        <v>10.511600475</v>
+      </c>
+      <c r="M93" s="73">
+        <f>AVERAGE(J75:J76)</f>
+        <v>10.58447911</v>
+      </c>
+      <c r="N93" s="73">
+        <f>J74</f>
+        <v>11.00523155</v>
+      </c>
+      <c r="O93" s="73">
+        <f>AVERAGE(11.91,12.88)</f>
+        <v>12.395</v>
+      </c>
+      <c r="P93" s="73">
+        <f>AVERAGE(K77:K78)</f>
+        <v>10.549725084999999</v>
+      </c>
+      <c r="Q93" s="73">
+        <f>AVERAGE(K75:K76)</f>
+        <v>10.38107684</v>
+      </c>
+      <c r="R93" s="73">
+        <f>K74</f>
+        <v>10.60252912</v>
+      </c>
+      <c r="S93" s="73">
+        <f>AVERAGE(11.51,11.41)</f>
+        <v>11.46</v>
+      </c>
+      <c r="T93" s="73"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1">
-      <c r="G94" s="77"/>
-      <c r="H94" s="77"/>
-      <c r="I94" s="77"/>
-      <c r="J94" s="77"/>
-      <c r="K94" s="77"/>
-      <c r="L94" s="77"/>
-      <c r="M94" s="77"/>
-      <c r="N94" s="77"/>
-      <c r="O94" s="77"/>
-      <c r="P94" s="77"/>
-      <c r="Q94" s="77"/>
-      <c r="R94" s="77"/>
-      <c r="S94" s="77"/>
-      <c r="T94" s="77"/>
+      <c r="G94" s="73"/>
+      <c r="H94" s="73"/>
+      <c r="I94" s="73"/>
+      <c r="J94" s="73"/>
+      <c r="K94" s="73">
+        <v>3</v>
+      </c>
+      <c r="L94" s="73">
+        <f>AVERAGE(O77:O78)</f>
+        <v>11.576088309999999</v>
+      </c>
+      <c r="M94" s="73">
+        <f>AVERAGE(O75:O76)</f>
+        <v>11.346393774999999</v>
+      </c>
+      <c r="N94" s="73">
+        <f>O74</f>
+        <v>11.737313759999999</v>
+      </c>
+      <c r="O94" s="73">
+        <f>AVERAGE(11.43,11.51)</f>
+        <v>11.469999999999999</v>
+      </c>
+      <c r="P94" s="73">
+        <f>AVERAGE(P77:P78)</f>
+        <v>11.471758205</v>
+      </c>
+      <c r="Q94" s="73">
+        <f>AVERAGE(P75:P76)</f>
+        <v>10.864205569999999</v>
+      </c>
+      <c r="R94" s="73">
+        <f>P74</f>
+        <v>11.41887084</v>
+      </c>
+      <c r="S94" s="73">
+        <f>AVERAGE(10.93,10.98)</f>
+        <v>10.955</v>
+      </c>
+      <c r="T94" s="73"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1">
-      <c r="G95" s="77"/>
-      <c r="H95" s="77"/>
-      <c r="I95" s="77"/>
-      <c r="J95" s="77"/>
-      <c r="K95" s="77"/>
-      <c r="L95" s="77"/>
-      <c r="M95" s="77"/>
-      <c r="N95" s="77"/>
-      <c r="O95" s="77"/>
-      <c r="P95" s="77"/>
-      <c r="Q95" s="77"/>
-      <c r="R95" s="77"/>
-      <c r="S95" s="77"/>
-      <c r="T95" s="77"/>
+      <c r="G95" s="73"/>
+      <c r="H95" s="73"/>
+      <c r="I95" s="73"/>
+      <c r="J95" s="73"/>
+      <c r="K95" s="73">
+        <v>4</v>
+      </c>
+      <c r="L95" s="73">
+        <f>AVERAGE(T77:T78)</f>
+        <v>10.736576370000002</v>
+      </c>
+      <c r="M95" s="73">
+        <f>AVERAGE(T75:T76)</f>
+        <v>11.080272190000001</v>
+      </c>
+      <c r="N95" s="73">
+        <f>T74</f>
+        <v>10.98796596</v>
+      </c>
+      <c r="O95" s="73">
+        <f>AVERAGE(11.63,11.26)</f>
+        <v>11.445</v>
+      </c>
+      <c r="P95" s="73">
+        <f>AVERAGE(U77:U78)</f>
+        <v>11.167520115</v>
+      </c>
+      <c r="Q95" s="73">
+        <f>AVERAGE(U75:U76)</f>
+        <v>10.53917869</v>
+      </c>
+      <c r="R95" s="73">
+        <f>U74</f>
+        <v>11.078948069999999</v>
+      </c>
+      <c r="S95" s="73">
+        <f>AVERAGE(10.93,10.9)</f>
+        <v>10.914999999999999</v>
+      </c>
+      <c r="T95" s="73"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1">
-      <c r="G96" s="77"/>
-      <c r="H96" s="77"/>
-      <c r="I96" s="77"/>
-      <c r="J96" s="77"/>
-      <c r="K96" s="77"/>
-      <c r="L96" s="77"/>
-      <c r="M96" s="77"/>
-      <c r="N96" s="77"/>
-      <c r="O96" s="77"/>
-      <c r="P96" s="77"/>
-      <c r="Q96" s="77"/>
-      <c r="R96" s="77"/>
-      <c r="S96" s="77"/>
-      <c r="T96" s="77"/>
+      <c r="G96" s="73"/>
+      <c r="H96" s="73"/>
+      <c r="I96" s="73"/>
+      <c r="J96" s="73"/>
+      <c r="K96" s="73"/>
+      <c r="L96" s="73"/>
+      <c r="M96" s="73"/>
+      <c r="N96" s="73"/>
+      <c r="O96" s="73"/>
+      <c r="P96" s="73"/>
+      <c r="Q96" s="73"/>
+      <c r="R96" s="73"/>
+      <c r="S96" s="73"/>
+      <c r="T96" s="73"/>
     </row>
     <row r="97" spans="7:20" ht="15.75" customHeight="1">
-      <c r="G97" s="77"/>
-      <c r="H97" s="77"/>
-      <c r="I97" s="77"/>
-      <c r="J97" s="77"/>
-      <c r="K97" s="77"/>
-      <c r="L97" s="77"/>
-      <c r="M97" s="77"/>
-      <c r="N97" s="77"/>
-      <c r="O97" s="77"/>
-      <c r="P97" s="77"/>
-      <c r="Q97" s="77"/>
-      <c r="R97" s="77"/>
-      <c r="S97" s="77"/>
-      <c r="T97" s="77"/>
+      <c r="G97" s="73"/>
+      <c r="H97" s="73"/>
+      <c r="I97" s="73"/>
+      <c r="J97" s="73"/>
+      <c r="K97" s="73"/>
+      <c r="L97" s="73"/>
+      <c r="M97" s="73"/>
+      <c r="N97" s="73"/>
+      <c r="O97" s="73"/>
+      <c r="P97" s="73"/>
+      <c r="Q97" s="73"/>
+      <c r="R97" s="73"/>
+      <c r="S97" s="73"/>
+      <c r="T97" s="73"/>
     </row>
     <row r="98" spans="7:20" ht="15.75" customHeight="1">
-      <c r="G98" s="77"/>
-      <c r="H98" s="77"/>
-      <c r="I98" s="77"/>
-      <c r="J98" s="77"/>
-      <c r="K98" s="77"/>
-      <c r="L98" s="77"/>
-      <c r="M98" s="77"/>
-      <c r="N98" s="77"/>
-      <c r="O98" s="77"/>
-      <c r="P98" s="77"/>
-      <c r="Q98" s="77"/>
-      <c r="R98" s="77"/>
-      <c r="S98" s="77"/>
-      <c r="T98" s="77"/>
+      <c r="G98" s="73"/>
+      <c r="H98" s="73"/>
+      <c r="I98" s="73"/>
+      <c r="J98" s="73"/>
+      <c r="K98" s="73"/>
+      <c r="L98" s="73"/>
+      <c r="M98" s="73"/>
+      <c r="N98" s="73"/>
+      <c r="O98" s="73"/>
+      <c r="P98" s="73"/>
+      <c r="Q98" s="73"/>
+      <c r="R98" s="73"/>
+      <c r="S98" s="73"/>
+      <c r="T98" s="73"/>
     </row>
     <row r="99" spans="7:20" ht="15.75" customHeight="1">
-      <c r="K99" s="77"/>
-      <c r="L99" s="77"/>
-      <c r="M99" s="77"/>
-      <c r="N99" s="77"/>
-      <c r="O99" s="77"/>
-      <c r="P99" s="77"/>
-      <c r="Q99" s="77"/>
-      <c r="R99" s="77"/>
-      <c r="S99" s="77"/>
-      <c r="T99" s="77"/>
+      <c r="K99" s="73"/>
+      <c r="L99" s="73"/>
+      <c r="M99" s="73"/>
+      <c r="N99" s="73"/>
+      <c r="O99" s="73"/>
+      <c r="P99" s="73"/>
+      <c r="Q99" s="73"/>
+      <c r="R99" s="73"/>
+      <c r="S99" s="73"/>
+      <c r="T99" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14796,36 +16226,36 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="75" t="s">
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="79" t="s">
         <v>226</v>
       </c>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
       <c r="O10" s="1" t="s">
         <v>227</v>
       </c>
@@ -15501,36 +16931,36 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="75" t="s">
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="79" t="s">
         <v>226</v>
       </c>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
       <c r="O32" s="1" t="s">
         <v>227</v>
       </c>

--- a/metabolicsData_revised.xlsx
+++ b/metabolicsData_revised.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\code\repos\Stanford\delplab\projects\muscleModel\muscleEnergyModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2134A4-D220-4903-B4C0-ED848356537E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854A4B31-F920-42BD-B08E-D686D7E80E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1125" yWindow="1125" windowWidth="14625" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="key" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="sild" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="391">
   <si>
     <t>Metabolic power [W/kg]</t>
   </si>
@@ -1237,6 +1238,15 @@
   <si>
     <t>exo sim</t>
   </si>
+  <si>
+    <t>All data</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
 </sst>
 </file>
 
@@ -1407,7 +1417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1548,6 +1558,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1556,7 +1567,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2356,16 +2368,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13.12447721</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.00523155</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.737313759999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.98796596</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2530,16 +2542,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12.913345469999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.60252912</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.41887084</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.078948069999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4118,15 +4130,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>321129</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>96613</xdr:rowOff>
+      <xdr:colOff>8164</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>42185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>140153</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>793295</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>160565</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4369,12 +4381,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="D1" s="76"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -12868,8 +12880,8 @@
   </sheetPr>
   <dimension ref="A1:AA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T92" sqref="T92"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -12894,12 +12906,12 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1">
@@ -14908,6 +14920,77 @@
         <v>693.78056343973321</v>
       </c>
     </row>
+    <row r="68" spans="1:22" ht="15.75" customHeight="1">
+      <c r="D68" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="N68" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="S68" s="82" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="15.75" customHeight="1">
+      <c r="D69" s="74">
+        <v>1.7843621039999999</v>
+      </c>
+      <c r="E69" s="74">
+        <v>13.12447721</v>
+      </c>
+      <c r="F69" s="74">
+        <v>12.913345469999999</v>
+      </c>
+      <c r="N69" s="74">
+        <v>1.964192763</v>
+      </c>
+      <c r="O69" s="74">
+        <v>11.914036019999999</v>
+      </c>
+      <c r="P69" s="74">
+        <v>11.509005480000001</v>
+      </c>
+      <c r="S69" s="73">
+        <v>1.8694403660000001</v>
+      </c>
+      <c r="T69" s="73">
+        <v>10.98796596</v>
+      </c>
+      <c r="U69" s="73">
+        <v>11.078948069999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="15.75" customHeight="1">
+      <c r="I70" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="N70" s="82" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="15.75" customHeight="1">
+      <c r="B71" s="81" t="s">
+        <v>388</v>
+      </c>
+      <c r="I71" s="74">
+        <v>1.6121465399999999</v>
+      </c>
+      <c r="J71" s="74">
+        <v>11.00523155</v>
+      </c>
+      <c r="K71" s="74">
+        <v>10.60252912</v>
+      </c>
+      <c r="N71" s="73">
+        <v>1.8957573720000001</v>
+      </c>
+      <c r="O71" s="73">
+        <v>11.737313759999999</v>
+      </c>
+      <c r="P71" s="73">
+        <v>11.41887084</v>
+      </c>
+    </row>
     <row r="72" spans="1:22" ht="15.75" customHeight="1">
       <c r="A72" s="73"/>
       <c r="B72" s="73"/>
@@ -15020,60 +15103,36 @@
       <c r="C74" s="73">
         <v>3</v>
       </c>
-      <c r="D74" s="73">
-        <v>1.7843621039999999</v>
-      </c>
-      <c r="E74" s="73">
-        <v>13.12447721</v>
-      </c>
-      <c r="F74" s="73">
-        <v>12.913345469999999</v>
-      </c>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
       <c r="G74" s="73">
         <v>2</v>
       </c>
       <c r="H74" s="73">
         <v>3</v>
       </c>
-      <c r="I74" s="73">
-        <v>1.6121465399999999</v>
-      </c>
-      <c r="J74" s="73">
-        <v>11.00523155</v>
-      </c>
-      <c r="K74" s="73">
-        <v>10.60252912</v>
-      </c>
+      <c r="I74" s="74"/>
+      <c r="J74" s="74"/>
+      <c r="K74" s="74"/>
       <c r="L74" s="73">
         <v>3</v>
       </c>
       <c r="M74" s="73">
         <v>3</v>
       </c>
-      <c r="N74" s="73">
-        <v>1.8957573720000001</v>
-      </c>
-      <c r="O74" s="73">
-        <v>11.737313759999999</v>
-      </c>
-      <c r="P74" s="73">
-        <v>11.41887084</v>
-      </c>
+      <c r="N74" s="74"/>
+      <c r="O74" s="74"/>
+      <c r="P74" s="74"/>
       <c r="Q74" s="73">
         <v>4</v>
       </c>
       <c r="R74" s="73">
         <v>3</v>
       </c>
-      <c r="S74" s="73">
-        <v>1.8694403660000001</v>
-      </c>
-      <c r="T74" s="73">
-        <v>10.98796596</v>
-      </c>
-      <c r="U74" s="73">
-        <v>11.078948069999999</v>
-      </c>
+      <c r="S74" s="73"/>
+      <c r="T74" s="73"/>
+      <c r="U74" s="73"/>
       <c r="V74" s="73"/>
     </row>
     <row r="75" spans="1:22" ht="15.75" customHeight="1">
@@ -15084,13 +15143,13 @@
       <c r="C75" s="73">
         <v>2</v>
       </c>
-      <c r="D75" s="73">
+      <c r="D75" s="76">
         <v>1.9533226530000001</v>
       </c>
-      <c r="E75" s="73">
+      <c r="E75" s="76">
         <v>11.698063429999999</v>
       </c>
-      <c r="F75" s="73">
+      <c r="F75" s="76">
         <v>11.91752514</v>
       </c>
       <c r="G75" s="73">
@@ -15099,13 +15158,13 @@
       <c r="H75" s="73">
         <v>2</v>
       </c>
-      <c r="I75" s="73">
+      <c r="I75" s="76">
         <v>1.6356537799999999</v>
       </c>
-      <c r="J75" s="73">
+      <c r="J75" s="76">
         <v>10.54304964</v>
       </c>
-      <c r="K75" s="73">
+      <c r="K75" s="76">
         <v>10.4326998</v>
       </c>
       <c r="L75" s="73">
@@ -15114,13 +15173,13 @@
       <c r="M75" s="73">
         <v>2</v>
       </c>
-      <c r="N75" s="73">
+      <c r="N75" s="76">
         <v>1.8451964569999999</v>
       </c>
-      <c r="O75" s="73">
+      <c r="O75" s="76">
         <v>11.37779744</v>
       </c>
-      <c r="P75" s="73">
+      <c r="P75" s="76">
         <v>11.05976031</v>
       </c>
       <c r="Q75" s="73">
@@ -15129,13 +15188,13 @@
       <c r="R75" s="73">
         <v>2</v>
       </c>
-      <c r="S75" s="73">
+      <c r="S75" s="76">
         <v>1.698257736</v>
       </c>
-      <c r="T75" s="73">
+      <c r="T75" s="76">
         <v>10.901165600000001</v>
       </c>
-      <c r="U75" s="73">
+      <c r="U75" s="76">
         <v>10.59103932</v>
       </c>
       <c r="V75" s="73"/>
@@ -15148,13 +15207,13 @@
       <c r="C76" s="73">
         <v>2</v>
       </c>
-      <c r="D76" s="73">
+      <c r="D76" s="76">
         <v>1.9533226530000001</v>
       </c>
-      <c r="E76" s="73">
+      <c r="E76" s="76">
         <v>12.01710959</v>
       </c>
-      <c r="F76" s="73">
+      <c r="F76" s="76">
         <v>11.531562429999999</v>
       </c>
       <c r="G76" s="73">
@@ -15163,13 +15222,13 @@
       <c r="H76" s="73">
         <v>2</v>
       </c>
-      <c r="I76" s="73">
+      <c r="I76" s="76">
         <v>1.6356537799999999</v>
       </c>
-      <c r="J76" s="73">
+      <c r="J76" s="76">
         <v>10.625908580000001</v>
       </c>
-      <c r="K76" s="73">
+      <c r="K76" s="76">
         <v>10.329453880000001</v>
       </c>
       <c r="L76" s="73">
@@ -15178,13 +15237,13 @@
       <c r="M76" s="73">
         <v>2</v>
       </c>
-      <c r="N76" s="73">
+      <c r="N76" s="76">
         <v>1.8451964569999999</v>
       </c>
-      <c r="O76" s="73">
+      <c r="O76" s="76">
         <v>11.31499011</v>
       </c>
-      <c r="P76" s="73">
+      <c r="P76" s="76">
         <v>10.668650830000001</v>
       </c>
       <c r="Q76" s="73">
@@ -15193,13 +15252,13 @@
       <c r="R76" s="73">
         <v>2</v>
       </c>
-      <c r="S76" s="73">
+      <c r="S76" s="76">
         <v>1.698257736</v>
       </c>
-      <c r="T76" s="73">
+      <c r="T76" s="76">
         <v>11.25937878</v>
       </c>
-      <c r="U76" s="73">
+      <c r="U76" s="76">
         <v>10.48731806</v>
       </c>
       <c r="V76" s="73"/>
@@ -15212,13 +15271,13 @@
       <c r="C77" s="73">
         <v>1</v>
       </c>
-      <c r="D77" s="73">
+      <c r="D77" s="76">
         <v>1.8314126049999999</v>
       </c>
-      <c r="E77" s="73">
+      <c r="E77" s="76">
         <v>11.832379469999999</v>
       </c>
-      <c r="F77" s="73">
+      <c r="F77" s="76">
         <v>11.70265908</v>
       </c>
       <c r="G77" s="73">
@@ -15227,13 +15286,13 @@
       <c r="H77" s="73">
         <v>1</v>
       </c>
-      <c r="I77" s="73">
+      <c r="I77" s="76">
         <v>1.577234099</v>
       </c>
-      <c r="J77" s="73">
+      <c r="J77" s="76">
         <v>10.75850441</v>
       </c>
-      <c r="K77" s="73">
+      <c r="K77" s="76">
         <v>10.937471029999999</v>
       </c>
       <c r="L77" s="73">
@@ -15242,13 +15301,13 @@
       <c r="M77" s="73">
         <v>1</v>
       </c>
-      <c r="N77" s="73">
+      <c r="N77" s="76">
         <v>1.6330105290000001</v>
       </c>
-      <c r="O77" s="73">
+      <c r="O77" s="76">
         <v>11.814252460000001</v>
       </c>
-      <c r="P77" s="73">
+      <c r="P77" s="76">
         <v>11.43216496</v>
       </c>
       <c r="Q77" s="73">
@@ -15257,13 +15316,13 @@
       <c r="R77" s="73">
         <v>1</v>
       </c>
-      <c r="S77" s="73">
+      <c r="S77" s="76">
         <v>1.887225025</v>
       </c>
-      <c r="T77" s="73">
+      <c r="T77" s="76">
         <v>10.823476680000001</v>
       </c>
-      <c r="U77" s="73">
+      <c r="U77" s="76">
         <v>11.38139209</v>
       </c>
       <c r="V77" s="73"/>
@@ -15276,13 +15335,13 @@
       <c r="C78" s="73">
         <v>1</v>
       </c>
-      <c r="D78" s="73">
+      <c r="D78" s="76">
         <v>1.8314126049999999</v>
       </c>
-      <c r="E78" s="73">
+      <c r="E78" s="76">
         <v>11.985200219999999</v>
       </c>
-      <c r="F78" s="73">
+      <c r="F78" s="76">
         <v>11.960113229999999</v>
       </c>
       <c r="G78" s="73">
@@ -15291,13 +15350,13 @@
       <c r="H78" s="73">
         <v>1</v>
       </c>
-      <c r="I78" s="73">
+      <c r="I78" s="76">
         <v>1.577234099</v>
       </c>
-      <c r="J78" s="73">
+      <c r="J78" s="76">
         <v>10.264696539999999</v>
       </c>
-      <c r="K78" s="73">
+      <c r="K78" s="76">
         <v>10.16197914</v>
       </c>
       <c r="L78" s="73">
@@ -15306,13 +15365,13 @@
       <c r="M78" s="73">
         <v>1</v>
       </c>
-      <c r="N78" s="73">
+      <c r="N78" s="76">
         <v>1.6330105290000001</v>
       </c>
-      <c r="O78" s="73">
+      <c r="O78" s="76">
         <v>11.33792416</v>
       </c>
-      <c r="P78" s="73">
+      <c r="P78" s="76">
         <v>11.511351449999999</v>
       </c>
       <c r="Q78" s="73">
@@ -15321,13 +15380,13 @@
       <c r="R78" s="73">
         <v>1</v>
       </c>
-      <c r="S78" s="73">
+      <c r="S78" s="76">
         <v>1.887225025</v>
       </c>
-      <c r="T78" s="73">
+      <c r="T78" s="76">
         <v>10.649676060000001</v>
       </c>
-      <c r="U78" s="73">
+      <c r="U78" s="76">
         <v>10.95364814</v>
       </c>
       <c r="V78" s="73"/>
@@ -15364,15 +15423,15 @@
       </c>
       <c r="D80" s="73">
         <f>AVERAGE(D74:D78)</f>
-        <v>1.870766524</v>
+        <v>1.892367629</v>
       </c>
       <c r="E80" s="73">
         <f t="shared" ref="E80:F80" si="32">AVERAGE(E74:E78)</f>
-        <v>12.131445984000001</v>
+        <v>11.883188177499999</v>
       </c>
       <c r="F80" s="73">
         <f t="shared" si="32"/>
-        <v>12.005041070000001</v>
+        <v>11.777964969999999</v>
       </c>
       <c r="G80" s="73"/>
       <c r="H80" s="73" t="s">
@@ -15380,15 +15439,15 @@
       </c>
       <c r="I80" s="73">
         <f>AVERAGE(I74:I78)</f>
-        <v>1.6075844596</v>
+        <v>1.6064439395000001</v>
       </c>
       <c r="J80" s="73">
         <f t="shared" ref="J80:K80" si="33">AVERAGE(J74:J78)</f>
-        <v>10.639478144</v>
+        <v>10.548039792499999</v>
       </c>
       <c r="K80" s="73">
         <f t="shared" si="33"/>
-        <v>10.492826594</v>
+        <v>10.4654009625</v>
       </c>
       <c r="L80" s="73"/>
       <c r="M80" s="73" t="s">
@@ -15396,15 +15455,15 @@
       </c>
       <c r="N80" s="73">
         <f>AVERAGE(N74:N78)</f>
-        <v>1.7704342688000001</v>
+        <v>1.739103493</v>
       </c>
       <c r="O80" s="73">
         <f t="shared" ref="O80:P80" si="34">AVERAGE(O74:O78)</f>
-        <v>11.516455585999999</v>
+        <v>11.461241042499999</v>
       </c>
       <c r="P80" s="73">
         <f t="shared" si="34"/>
-        <v>11.218159678000001</v>
+        <v>11.1679818875</v>
       </c>
       <c r="Q80" s="73"/>
       <c r="R80" s="73" t="s">
@@ -15412,15 +15471,15 @@
       </c>
       <c r="S80" s="73">
         <f>AVERAGE(S74:S78)</f>
-        <v>1.8080811776000001</v>
+        <v>1.7927413805000001</v>
       </c>
       <c r="T80" s="73">
         <f t="shared" ref="T80:U80" si="35">AVERAGE(T74:T78)</f>
-        <v>10.924332616000001</v>
+        <v>10.908424280000002</v>
       </c>
       <c r="U80" s="73">
         <f t="shared" si="35"/>
-        <v>10.898469135999999</v>
+        <v>10.853349402499999</v>
       </c>
       <c r="V80" s="73"/>
     </row>
@@ -15432,7 +15491,7 @@
       </c>
       <c r="D81" s="73">
         <f>MIN(D74:D78)</f>
-        <v>1.7843621039999999</v>
+        <v>1.8314126049999999</v>
       </c>
       <c r="E81" s="73">
         <f t="shared" ref="E81:F81" si="36">MIN(E74:E78)</f>
@@ -15504,11 +15563,11 @@
       </c>
       <c r="E82" s="73">
         <f t="shared" ref="E82:F82" si="40">MAX(E74:E78)</f>
-        <v>13.12447721</v>
+        <v>12.01710959</v>
       </c>
       <c r="F82" s="73">
         <f t="shared" si="40"/>
-        <v>12.913345469999999</v>
+        <v>11.960113229999999</v>
       </c>
       <c r="G82" s="73"/>
       <c r="H82" s="73" t="s">
@@ -15520,7 +15579,7 @@
       </c>
       <c r="J82" s="73">
         <f t="shared" ref="J82:K82" si="41">MAX(J74:J78)</f>
-        <v>11.00523155</v>
+        <v>10.75850441</v>
       </c>
       <c r="K82" s="73">
         <f t="shared" si="41"/>
@@ -15532,7 +15591,7 @@
       </c>
       <c r="N82" s="73">
         <f>MAX(N74:N78)</f>
-        <v>1.8957573720000001</v>
+        <v>1.8451964569999999</v>
       </c>
       <c r="O82" s="73">
         <f t="shared" ref="O82:P82" si="42">MAX(O74:O78)</f>
@@ -15568,15 +15627,15 @@
       </c>
       <c r="D83" s="73">
         <f>D82-D81</f>
-        <v>0.16896054900000013</v>
+        <v>0.12191004800000016</v>
       </c>
       <c r="E83" s="73">
         <f t="shared" ref="E83" si="44">E82-E81</f>
-        <v>1.4264137800000007</v>
+        <v>0.31904616000000097</v>
       </c>
       <c r="F83" s="73">
         <f t="shared" ref="F83" si="45">F82-F81</f>
-        <v>1.3817830400000002</v>
+        <v>0.42855080000000001</v>
       </c>
       <c r="G83" s="73"/>
       <c r="H83" s="73" t="s">
@@ -15588,7 +15647,7 @@
       </c>
       <c r="J83" s="73">
         <f t="shared" ref="J83" si="46">J82-J81</f>
-        <v>0.74053501000000033</v>
+        <v>0.49380787000000126</v>
       </c>
       <c r="K83" s="73">
         <f t="shared" ref="K83" si="47">K82-K81</f>
@@ -15600,7 +15659,7 @@
       </c>
       <c r="N83" s="73">
         <f>N82-N81</f>
-        <v>0.26274684299999995</v>
+        <v>0.2121859279999998</v>
       </c>
       <c r="O83" s="73">
         <f t="shared" ref="O83" si="48">O82-O81</f>
@@ -15636,15 +15695,15 @@
       </c>
       <c r="D84" s="73">
         <f>_xlfn.STDEV.P(D74:D78)</f>
-        <v>6.9561792023758062E-2</v>
+        <v>6.095502400000008E-2</v>
       </c>
       <c r="E84" s="73">
         <f t="shared" ref="E84:U84" si="51">_xlfn.STDEV.P(E74:E78)</f>
-        <v>0.50947676457314639</v>
+        <v>0.12766567513996913</v>
       </c>
       <c r="F84" s="73">
         <f t="shared" si="51"/>
-        <v>0.47964806312186858</v>
+        <v>0.17251102751606953</v>
       </c>
       <c r="G84" s="73">
         <f t="shared" si="51"/>
@@ -15656,15 +15715,15 @@
       </c>
       <c r="I84" s="73">
         <f t="shared" si="51"/>
-        <v>2.6225464152658324E-2</v>
+        <v>2.9209840499999973E-2</v>
       </c>
       <c r="J84" s="73">
         <f t="shared" si="51"/>
-        <v>0.24408467635070619</v>
+        <v>0.18073959419935789</v>
       </c>
       <c r="K84" s="73">
         <f t="shared" si="51"/>
-        <v>0.26438957299079113</v>
+        <v>0.28916514583702363</v>
       </c>
       <c r="L84" s="73">
         <f t="shared" si="51"/>
@@ -15676,15 +15735,15 @@
       </c>
       <c r="N84" s="73">
         <f t="shared" si="51"/>
-        <v>0.11371474687639985</v>
+        <v>0.1060929639999999</v>
       </c>
       <c r="O84" s="73">
         <f t="shared" si="51"/>
-        <v>0.21407905116028678</v>
+        <v>0.2050465096326782</v>
       </c>
       <c r="P84" s="73">
         <f t="shared" si="51"/>
-        <v>0.31594144402305796</v>
+        <v>0.33493983305499708</v>
       </c>
       <c r="Q84" s="73">
         <f t="shared" si="51"/>
@@ -15696,15 +15755,15 @@
       </c>
       <c r="S84" s="73">
         <f t="shared" si="51"/>
-        <v>8.990530998043765E-2</v>
+        <v>9.4483644500000019E-2</v>
       </c>
       <c r="T84" s="73">
         <f t="shared" si="51"/>
-        <v>0.20122126562085751</v>
+        <v>0.22214211982676796</v>
       </c>
       <c r="U84" s="73">
         <f t="shared" si="51"/>
-        <v>0.32630974446438044</v>
+        <v>0.35059750414108276</v>
       </c>
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
@@ -15877,7 +15936,7 @@
       <c r="I90" s="73"/>
       <c r="J90" s="73"/>
       <c r="K90" s="73"/>
-      <c r="L90" s="80" t="s">
+      <c r="L90" s="76" t="s">
         <v>383</v>
       </c>
       <c r="M90" s="73"/>
@@ -15941,7 +16000,7 @@
       </c>
       <c r="N92" s="73">
         <f>E74</f>
-        <v>13.12447721</v>
+        <v>0</v>
       </c>
       <c r="O92" s="73">
         <f>AVERAGE(11.79,11.97)</f>
@@ -15957,7 +16016,7 @@
       </c>
       <c r="R92">
         <f>F74</f>
-        <v>12.913345469999999</v>
+        <v>0</v>
       </c>
       <c r="S92" s="73">
         <f>AVERAGE(11.05,11.59)</f>
@@ -15983,7 +16042,7 @@
       </c>
       <c r="N93" s="73">
         <f>J74</f>
-        <v>11.00523155</v>
+        <v>0</v>
       </c>
       <c r="O93" s="73">
         <f>AVERAGE(11.91,12.88)</f>
@@ -15999,7 +16058,7 @@
       </c>
       <c r="R93" s="73">
         <f>K74</f>
-        <v>10.60252912</v>
+        <v>0</v>
       </c>
       <c r="S93" s="73">
         <f>AVERAGE(11.51,11.41)</f>
@@ -16025,7 +16084,7 @@
       </c>
       <c r="N94" s="73">
         <f>O74</f>
-        <v>11.737313759999999</v>
+        <v>0</v>
       </c>
       <c r="O94" s="73">
         <f>AVERAGE(11.43,11.51)</f>
@@ -16041,7 +16100,7 @@
       </c>
       <c r="R94" s="73">
         <f>P74</f>
-        <v>11.41887084</v>
+        <v>0</v>
       </c>
       <c r="S94" s="73">
         <f>AVERAGE(10.93,10.98)</f>
@@ -16067,7 +16126,7 @@
       </c>
       <c r="N95" s="73">
         <f>T74</f>
-        <v>10.98796596</v>
+        <v>0</v>
       </c>
       <c r="O95" s="73">
         <f>AVERAGE(11.63,11.26)</f>
@@ -16083,7 +16142,7 @@
       </c>
       <c r="R95" s="73">
         <f>U74</f>
-        <v>11.078948069999999</v>
+        <v>0</v>
       </c>
       <c r="S95" s="73">
         <f>AVERAGE(10.93,10.9)</f>
@@ -16226,36 +16285,36 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="79" t="s">
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
       <c r="O10" s="1" t="s">
         <v>227</v>
       </c>
@@ -16931,36 +16990,36 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="77" t="s">
         <v>230</v>
       </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="79" t="s">
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
       <c r="O32" s="1" t="s">
         <v>227</v>
       </c>

--- a/metabolicsData_revised.xlsx
+++ b/metabolicsData_revised.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\code\repos\Stanford\delplab\projects\muscleModel\muscleEnergyModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854A4B31-F920-42BD-B08E-D686D7E80E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C181825C-C9F9-4B71-8CBE-3E2817F86D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1125" yWindow="1125" windowWidth="14625" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="key" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="389">
   <si>
     <t>Metabolic power [W/kg]</t>
   </si>
@@ -1241,12 +1241,6 @@
   <si>
     <t>All data</t>
   </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>partial</t>
-  </si>
 </sst>
 </file>
 
@@ -1255,7 +1249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1342,8 +1336,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1380,6 +1381,11 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1414,10 +1420,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1559,6 +1566,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1567,10 +1576,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1718,16 +1731,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.16896054900000013</c:v>
+                  <c:v>0.17421305799999987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8419680999999946E-2</c:v>
+                  <c:v>0.10115337700000016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26274684299999995</c:v>
+                  <c:v>0.32648271800000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18896728900000004</c:v>
+                  <c:v>0.12857113099999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1796,16 +1809,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.4264137800000007</c:v>
+                  <c:v>1.5342937600000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74053501000000033</c:v>
+                  <c:v>0.90151375000000122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49926235000000041</c:v>
+                  <c:v>0.59257189000000032</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60970271999999959</c:v>
+                  <c:v>0.59759501999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1874,16 +1887,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.3817830400000002</c:v>
+                  <c:v>1.4378871599999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77549188999999963</c:v>
+                  <c:v>0.73048421999999924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84270061999999868</c:v>
+                  <c:v>0.84198493999999968</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89407403000000052</c:v>
+                  <c:v>0.84118643999999954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2282,16 +2295,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11.908789844999999</c:v>
+                  <c:v>11.7544605</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.511600475</c:v>
+                  <c:v>10.38771596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.576088309999999</c:v>
+                  <c:v>11.489311234999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.736576370000002</c:v>
+                  <c:v>10.57791746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2325,16 +2338,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11.857586510000001</c:v>
+                  <c:v>11.691313415</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.58447911</c:v>
+                  <c:v>10.463576085</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.346393774999999</c:v>
+                  <c:v>11.216629624999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.080272190000001</c:v>
+                  <c:v>10.936670769999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2368,16 +2381,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>13.027399920000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>11.0059532</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11.734510090000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10.807169289999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2410,18 +2423,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>11.879999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.395</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.469999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.445</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2454,16 +2455,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11.831386155000001</c:v>
+                  <c:v>11.645599149999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.549725084999999</c:v>
+                  <c:v>10.441008180000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.471758205</c:v>
+                  <c:v>11.271648604999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.167520115</c:v>
+                  <c:v>10.98816105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2497,16 +2498,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11.724543785</c:v>
+                  <c:v>11.593726929999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.38107684</c:v>
+                  <c:v>10.294050915</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.864205569999999</c:v>
+                  <c:v>10.740147685</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.53917869</c:v>
+                  <c:v>10.401058115000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2542,16 +2543,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12.812353359999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10.588295240000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11.42584708</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10.923264469999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2586,18 +2587,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>11.32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.46</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.955</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.914999999999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4381,12 +4370,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -12880,8 +12869,8 @@
   </sheetPr>
   <dimension ref="A1:AA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -12906,12 +12895,12 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1">
@@ -14921,475 +14910,459 @@
       </c>
     </row>
     <row r="68" spans="1:22" ht="15.75" customHeight="1">
-      <c r="D68" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="N68" s="82" t="s">
-        <v>389</v>
-      </c>
-      <c r="S68" s="82" t="s">
-        <v>389</v>
-      </c>
+      <c r="D68" s="77"/>
+      <c r="N68" s="77"/>
+      <c r="S68" s="77"/>
     </row>
     <row r="69" spans="1:22" ht="15.75" customHeight="1">
-      <c r="D69" s="74">
-        <v>1.7843621039999999</v>
-      </c>
-      <c r="E69" s="74">
-        <v>13.12447721</v>
-      </c>
-      <c r="F69" s="74">
-        <v>12.913345469999999</v>
-      </c>
-      <c r="N69" s="74">
-        <v>1.964192763</v>
-      </c>
-      <c r="O69" s="74">
-        <v>11.914036019999999</v>
-      </c>
-      <c r="P69" s="74">
-        <v>11.509005480000001</v>
-      </c>
-      <c r="S69" s="73">
-        <v>1.8694403660000001</v>
-      </c>
-      <c r="T69" s="73">
-        <v>10.98796596</v>
-      </c>
-      <c r="U69" s="73">
-        <v>11.078948069999999</v>
-      </c>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="74"/>
+      <c r="N69" s="74"/>
+      <c r="O69" s="74"/>
+      <c r="P69" s="74"/>
+      <c r="S69" s="73"/>
+      <c r="T69" s="73"/>
+      <c r="U69" s="73"/>
     </row>
     <row r="70" spans="1:22" ht="15.75" customHeight="1">
-      <c r="I70" s="82" t="s">
-        <v>390</v>
-      </c>
-      <c r="N70" s="82" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" ht="15.75" customHeight="1">
-      <c r="B71" s="81" t="s">
+      <c r="I70" s="77"/>
+      <c r="N70" s="77"/>
+    </row>
+    <row r="71" spans="1:22" s="83" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B71" s="83" t="s">
         <v>388</v>
       </c>
-      <c r="I71" s="74">
-        <v>1.6121465399999999</v>
-      </c>
-      <c r="J71" s="74">
-        <v>11.00523155</v>
-      </c>
-      <c r="K71" s="74">
-        <v>10.60252912</v>
-      </c>
-      <c r="N71" s="73">
-        <v>1.8957573720000001</v>
-      </c>
-      <c r="O71" s="73">
-        <v>11.737313759999999</v>
-      </c>
-      <c r="P71" s="73">
-        <v>11.41887084</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A72" s="73"/>
-      <c r="B72" s="73"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73" t="s">
+      <c r="I71" s="84"/>
+      <c r="J71" s="84"/>
+      <c r="K71" s="84"/>
+      <c r="N71" s="84"/>
+      <c r="O71" s="84"/>
+      <c r="P71" s="84"/>
+    </row>
+    <row r="72" spans="1:22" s="83" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A72" s="84"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="E72" s="73" t="s">
+      <c r="E72" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="73" t="s">
+      <c r="F72" s="84"/>
+      <c r="G72" s="84"/>
+      <c r="H72" s="84"/>
+      <c r="I72" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="J72" s="73" t="s">
+      <c r="J72" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="K72" s="73"/>
-      <c r="L72" s="73"/>
-      <c r="M72" s="73"/>
-      <c r="N72" s="73" t="s">
+      <c r="K72" s="84"/>
+      <c r="L72" s="84"/>
+      <c r="M72" s="84"/>
+      <c r="N72" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="O72" s="73" t="s">
+      <c r="O72" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="P72" s="73"/>
-      <c r="Q72" s="73"/>
-      <c r="R72" s="73"/>
-      <c r="S72" s="73" t="s">
+      <c r="P72" s="84"/>
+      <c r="Q72" s="84"/>
+      <c r="R72" s="84"/>
+      <c r="S72" s="84" t="s">
         <v>192</v>
       </c>
-      <c r="T72" s="73" t="s">
+      <c r="T72" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="U72" s="73"/>
-      <c r="V72" s="73"/>
-    </row>
-    <row r="73" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A73" s="73"/>
-      <c r="B73" s="73" t="s">
+      <c r="U72" s="84"/>
+      <c r="V72" s="84"/>
+    </row>
+    <row r="73" spans="1:22" s="83" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A73" s="84"/>
+      <c r="B73" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="C73" s="73" t="s">
+      <c r="C73" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="D73" s="73" t="s">
+      <c r="D73" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="E73" s="73" t="s">
+      <c r="E73" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="F73" s="73" t="s">
+      <c r="F73" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="G73" s="73" t="s">
+      <c r="G73" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="H73" s="73" t="s">
+      <c r="H73" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="I73" s="73" t="s">
+      <c r="I73" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="J73" s="73" t="s">
+      <c r="J73" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="K73" s="73" t="s">
+      <c r="K73" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="L73" s="73" t="s">
+      <c r="L73" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="M73" s="73" t="s">
+      <c r="M73" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="N73" s="73" t="s">
+      <c r="N73" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="O73" s="73" t="s">
+      <c r="O73" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="P73" s="73" t="s">
+      <c r="P73" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="Q73" s="73" t="s">
+      <c r="Q73" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="R73" s="73" t="s">
+      <c r="R73" s="84" t="s">
         <v>197</v>
       </c>
-      <c r="S73" s="73" t="s">
+      <c r="S73" s="84" t="s">
         <v>198</v>
       </c>
-      <c r="T73" s="73" t="s">
+      <c r="T73" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="U73" s="73" t="s">
+      <c r="U73" s="84" t="s">
         <v>200</v>
       </c>
-      <c r="V73" s="73"/>
-    </row>
-    <row r="74" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A74" s="73"/>
-      <c r="B74" s="73">
+      <c r="V73" s="84"/>
+    </row>
+    <row r="74" spans="1:22" s="83" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A74" s="84"/>
+      <c r="B74" s="84">
         <v>1</v>
       </c>
-      <c r="C74" s="73">
+      <c r="C74" s="84">
         <v>3</v>
       </c>
-      <c r="D74" s="74"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
-      <c r="G74" s="73">
+      <c r="D74" s="83">
+        <v>1.751345334</v>
+      </c>
+      <c r="E74" s="83">
+        <v>13.027399920000001</v>
+      </c>
+      <c r="F74" s="83">
+        <v>12.812353359999999</v>
+      </c>
+      <c r="G74" s="84">
         <v>2</v>
       </c>
-      <c r="H74" s="73">
+      <c r="H74" s="84">
         <v>3</v>
       </c>
-      <c r="I74" s="74"/>
-      <c r="J74" s="74"/>
-      <c r="K74" s="74"/>
-      <c r="L74" s="73">
+      <c r="I74" s="83">
+        <v>1.6153839210000001</v>
+      </c>
+      <c r="J74" s="83">
+        <v>11.0059532</v>
+      </c>
+      <c r="K74" s="83">
+        <v>10.588295240000001</v>
+      </c>
+      <c r="L74" s="84">
         <v>3</v>
       </c>
-      <c r="M74" s="73">
+      <c r="M74" s="84">
         <v>3</v>
       </c>
-      <c r="N74" s="74"/>
-      <c r="O74" s="74"/>
-      <c r="P74" s="74"/>
-      <c r="Q74" s="73">
+      <c r="N74" s="83">
+        <v>1.9051938390000001</v>
+      </c>
+      <c r="O74" s="83">
+        <v>11.734510090000001</v>
+      </c>
+      <c r="P74" s="83">
+        <v>11.42584708</v>
+      </c>
+      <c r="Q74" s="84">
         <v>4</v>
       </c>
-      <c r="R74" s="73">
+      <c r="R74" s="84">
         <v>3</v>
       </c>
-      <c r="S74" s="73"/>
-      <c r="T74" s="73"/>
-      <c r="U74" s="73"/>
-      <c r="V74" s="73"/>
-    </row>
-    <row r="75" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A75" s="73"/>
-      <c r="B75" s="73">
+      <c r="S74" s="83">
+        <v>1.797774521</v>
+      </c>
+      <c r="T74" s="83">
+        <v>10.807169289999999</v>
+      </c>
+      <c r="U74" s="83">
+        <v>10.923264469999999</v>
+      </c>
+      <c r="V74" s="84"/>
+    </row>
+    <row r="75" spans="1:22" s="83" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A75" s="84"/>
+      <c r="B75" s="84">
         <v>1</v>
       </c>
-      <c r="C75" s="73">
+      <c r="C75" s="84">
         <v>2</v>
       </c>
-      <c r="D75" s="76">
-        <v>1.9533226530000001</v>
-      </c>
-      <c r="E75" s="76">
-        <v>11.698063429999999</v>
-      </c>
-      <c r="F75" s="76">
-        <v>11.91752514</v>
-      </c>
-      <c r="G75" s="73">
+      <c r="D75" s="83">
+        <v>1.8857474729999999</v>
+      </c>
+      <c r="E75" s="83">
+        <v>11.88952067</v>
+      </c>
+      <c r="F75" s="83">
+        <v>11.374466200000001</v>
+      </c>
+      <c r="G75" s="84">
         <v>2</v>
       </c>
-      <c r="H75" s="73">
+      <c r="H75" s="84">
         <v>2</v>
       </c>
-      <c r="I75" s="76">
-        <v>1.6356537799999999</v>
-      </c>
-      <c r="J75" s="76">
-        <v>10.54304964</v>
-      </c>
-      <c r="K75" s="76">
-        <v>10.4326998</v>
-      </c>
-      <c r="L75" s="73">
+      <c r="I75" s="83">
+        <v>1.582638532</v>
+      </c>
+      <c r="J75" s="83">
+        <v>10.466353270000001</v>
+      </c>
+      <c r="K75" s="83">
+        <v>10.248913780000001</v>
+      </c>
+      <c r="L75" s="84">
         <v>3</v>
       </c>
-      <c r="M75" s="73">
+      <c r="M75" s="84">
         <v>2</v>
       </c>
-      <c r="N75" s="76">
-        <v>1.8451964569999999</v>
-      </c>
-      <c r="O75" s="76">
-        <v>11.37779744</v>
-      </c>
-      <c r="P75" s="76">
-        <v>11.05976031</v>
-      </c>
-      <c r="Q75" s="73">
+      <c r="N75" s="83">
+        <v>1.791405567</v>
+      </c>
+      <c r="O75" s="83">
+        <v>11.1419382</v>
+      </c>
+      <c r="P75" s="83">
+        <v>10.583862140000001</v>
+      </c>
+      <c r="Q75" s="84">
         <v>4</v>
       </c>
-      <c r="R75" s="73">
+      <c r="R75" s="84">
         <v>2</v>
       </c>
-      <c r="S75" s="76">
-        <v>1.698257736</v>
-      </c>
-      <c r="T75" s="76">
-        <v>10.901165600000001</v>
-      </c>
-      <c r="U75" s="76">
-        <v>10.59103932</v>
-      </c>
-      <c r="V75" s="73"/>
-    </row>
-    <row r="76" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A76" s="73"/>
-      <c r="B76" s="73">
+      <c r="S75" s="83">
+        <v>1.6692033900000001</v>
+      </c>
+      <c r="T75" s="83">
+        <v>11.08524332</v>
+      </c>
+      <c r="U75" s="83">
+        <v>10.360162170000001</v>
+      </c>
+      <c r="V75" s="84"/>
+    </row>
+    <row r="76" spans="1:22" s="83" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A76" s="84"/>
+      <c r="B76" s="84">
         <v>1</v>
       </c>
-      <c r="C76" s="73">
+      <c r="C76" s="84">
         <v>2</v>
       </c>
-      <c r="D76" s="76">
-        <v>1.9533226530000001</v>
-      </c>
-      <c r="E76" s="76">
-        <v>12.01710959</v>
-      </c>
-      <c r="F76" s="76">
-        <v>11.531562429999999</v>
-      </c>
-      <c r="G76" s="73">
+      <c r="D76" s="83">
+        <v>1.8857474729999999</v>
+      </c>
+      <c r="E76" s="83">
+        <v>11.49310616</v>
+      </c>
+      <c r="F76" s="83">
+        <v>11.812987659999999</v>
+      </c>
+      <c r="G76" s="84">
         <v>2</v>
       </c>
-      <c r="H76" s="73">
+      <c r="H76" s="84">
         <v>2</v>
       </c>
-      <c r="I76" s="76">
-        <v>1.6356537799999999</v>
-      </c>
-      <c r="J76" s="76">
-        <v>10.625908580000001</v>
-      </c>
-      <c r="K76" s="76">
-        <v>10.329453880000001</v>
-      </c>
-      <c r="L76" s="73">
+      <c r="I76" s="83">
+        <v>1.582638532</v>
+      </c>
+      <c r="J76" s="83">
+        <v>10.4607989</v>
+      </c>
+      <c r="K76" s="83">
+        <v>10.339188050000001</v>
+      </c>
+      <c r="L76" s="84">
         <v>3</v>
       </c>
-      <c r="M76" s="73">
+      <c r="M76" s="84">
         <v>2</v>
       </c>
-      <c r="N76" s="76">
-        <v>1.8451964569999999</v>
-      </c>
-      <c r="O76" s="76">
-        <v>11.31499011</v>
-      </c>
-      <c r="P76" s="76">
-        <v>10.668650830000001</v>
-      </c>
-      <c r="Q76" s="73">
+      <c r="N76" s="83">
+        <v>1.791405567</v>
+      </c>
+      <c r="O76" s="83">
+        <v>11.291321050000001</v>
+      </c>
+      <c r="P76" s="83">
+        <v>10.89643323</v>
+      </c>
+      <c r="Q76" s="84">
         <v>4</v>
       </c>
-      <c r="R76" s="73">
+      <c r="R76" s="84">
         <v>2</v>
       </c>
-      <c r="S76" s="76">
-        <v>1.698257736</v>
-      </c>
-      <c r="T76" s="76">
-        <v>11.25937878</v>
-      </c>
-      <c r="U76" s="76">
-        <v>10.48731806</v>
-      </c>
-      <c r="V76" s="73"/>
-    </row>
-    <row r="77" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A77" s="73"/>
-      <c r="B77" s="73">
+      <c r="S76" s="83">
+        <v>1.6692033900000001</v>
+      </c>
+      <c r="T76" s="83">
+        <v>10.78809822</v>
+      </c>
+      <c r="U76" s="83">
+        <v>10.44195406</v>
+      </c>
+      <c r="V76" s="84"/>
+    </row>
+    <row r="77" spans="1:22" s="83" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A77" s="84"/>
+      <c r="B77" s="84">
         <v>1</v>
       </c>
-      <c r="C77" s="73">
+      <c r="C77" s="84">
         <v>1</v>
       </c>
-      <c r="D77" s="76">
-        <v>1.8314126049999999</v>
-      </c>
-      <c r="E77" s="76">
-        <v>11.832379469999999</v>
-      </c>
-      <c r="F77" s="76">
-        <v>11.70265908</v>
-      </c>
-      <c r="G77" s="73">
+      <c r="D77" s="83">
+        <v>1.711534415</v>
+      </c>
+      <c r="E77" s="83">
+        <v>11.77550426</v>
+      </c>
+      <c r="F77" s="83">
+        <v>11.760609199999999</v>
+      </c>
+      <c r="G77" s="84">
         <v>2</v>
       </c>
-      <c r="H77" s="73">
+      <c r="H77" s="84">
         <v>1</v>
       </c>
-      <c r="I77" s="76">
-        <v>1.577234099</v>
-      </c>
-      <c r="J77" s="76">
-        <v>10.75850441</v>
-      </c>
-      <c r="K77" s="76">
-        <v>10.937471029999999</v>
-      </c>
-      <c r="L77" s="73">
+      <c r="I77" s="83">
+        <v>1.5142305439999999</v>
+      </c>
+      <c r="J77" s="85">
+        <v>10.104439449999999</v>
+      </c>
+      <c r="K77" s="85">
+        <v>10.07576607</v>
+      </c>
+      <c r="L77" s="84">
         <v>3</v>
       </c>
-      <c r="M77" s="73">
+      <c r="M77" s="84">
         <v>1</v>
       </c>
-      <c r="N77" s="76">
-        <v>1.6330105290000001</v>
-      </c>
-      <c r="O77" s="76">
-        <v>11.814252460000001</v>
-      </c>
-      <c r="P77" s="76">
-        <v>11.43216496</v>
-      </c>
-      <c r="Q77" s="73">
+      <c r="N77" s="83">
+        <v>1.578711121</v>
+      </c>
+      <c r="O77" s="83">
+        <v>11.25170795</v>
+      </c>
+      <c r="P77" s="83">
+        <v>11.321315609999999</v>
+      </c>
+      <c r="Q77" s="84">
         <v>4</v>
       </c>
-      <c r="R77" s="73">
+      <c r="R77" s="84">
         <v>1</v>
       </c>
-      <c r="S77" s="76">
-        <v>1.887225025</v>
-      </c>
-      <c r="T77" s="76">
-        <v>10.823476680000001</v>
-      </c>
-      <c r="U77" s="76">
-        <v>11.38139209</v>
-      </c>
-      <c r="V77" s="73"/>
-    </row>
-    <row r="78" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A78" s="73"/>
-      <c r="B78" s="73">
+      <c r="S77" s="83">
+        <v>1.7902534109999999</v>
+      </c>
+      <c r="T77" s="83">
+        <v>10.4876483</v>
+      </c>
+      <c r="U77" s="83">
+        <v>10.774973490000001</v>
+      </c>
+      <c r="V77" s="84"/>
+    </row>
+    <row r="78" spans="1:22" s="83" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A78" s="84"/>
+      <c r="B78" s="84">
         <v>1</v>
       </c>
-      <c r="C78" s="73">
+      <c r="C78" s="84">
         <v>1</v>
       </c>
-      <c r="D78" s="76">
-        <v>1.8314126049999999</v>
-      </c>
-      <c r="E78" s="76">
-        <v>11.985200219999999</v>
-      </c>
-      <c r="F78" s="76">
-        <v>11.960113229999999</v>
-      </c>
-      <c r="G78" s="73">
+      <c r="D78" s="83">
+        <v>1.711534415</v>
+      </c>
+      <c r="E78" s="83">
+        <v>11.733416739999999</v>
+      </c>
+      <c r="F78" s="83">
+        <v>11.5305891</v>
+      </c>
+      <c r="G78" s="84">
         <v>2</v>
       </c>
-      <c r="H78" s="73">
+      <c r="H78" s="84">
         <v>1</v>
       </c>
-      <c r="I78" s="76">
-        <v>1.577234099</v>
-      </c>
-      <c r="J78" s="76">
-        <v>10.264696539999999</v>
-      </c>
-      <c r="K78" s="76">
-        <v>10.16197914</v>
-      </c>
-      <c r="L78" s="73">
+      <c r="I78" s="83">
+        <v>1.5142305439999999</v>
+      </c>
+      <c r="J78" s="85">
+        <v>10.67099247</v>
+      </c>
+      <c r="K78" s="85">
+        <v>10.806250289999999</v>
+      </c>
+      <c r="L78" s="84">
         <v>3</v>
       </c>
-      <c r="M78" s="73">
+      <c r="M78" s="84">
         <v>1</v>
       </c>
-      <c r="N78" s="76">
-        <v>1.6330105290000001</v>
-      </c>
-      <c r="O78" s="76">
-        <v>11.33792416</v>
-      </c>
-      <c r="P78" s="76">
-        <v>11.511351449999999</v>
-      </c>
-      <c r="Q78" s="73">
+      <c r="N78" s="83">
+        <v>1.578711121</v>
+      </c>
+      <c r="O78" s="83">
+        <v>11.726914519999999</v>
+      </c>
+      <c r="P78" s="83">
+        <v>11.221981599999999</v>
+      </c>
+      <c r="Q78" s="84">
         <v>4</v>
       </c>
-      <c r="R78" s="73">
+      <c r="R78" s="84">
         <v>1</v>
       </c>
-      <c r="S78" s="76">
-        <v>1.887225025</v>
-      </c>
-      <c r="T78" s="76">
-        <v>10.649676060000001</v>
-      </c>
-      <c r="U78" s="76">
-        <v>10.95364814</v>
-      </c>
-      <c r="V78" s="73"/>
+      <c r="S78" s="83">
+        <v>1.7902534109999999</v>
+      </c>
+      <c r="T78" s="83">
+        <v>10.66818662</v>
+      </c>
+      <c r="U78" s="83">
+        <v>11.20134861</v>
+      </c>
+      <c r="V78" s="84"/>
     </row>
     <row r="79" spans="1:22" ht="15.75" customHeight="1">
       <c r="A79" s="73"/>
@@ -15423,15 +15396,15 @@
       </c>
       <c r="D80" s="73">
         <f>AVERAGE(D74:D78)</f>
-        <v>1.892367629</v>
+        <v>1.7891818220000002</v>
       </c>
       <c r="E80" s="73">
         <f t="shared" ref="E80:F80" si="32">AVERAGE(E74:E78)</f>
-        <v>11.883188177499999</v>
+        <v>11.983789550000001</v>
       </c>
       <c r="F80" s="73">
         <f t="shared" si="32"/>
-        <v>11.777964969999999</v>
+        <v>11.858201103999999</v>
       </c>
       <c r="G80" s="73"/>
       <c r="H80" s="73" t="s">
@@ -15439,15 +15412,15 @@
       </c>
       <c r="I80" s="73">
         <f>AVERAGE(I74:I78)</f>
-        <v>1.6064439395000001</v>
+        <v>1.5618244146</v>
       </c>
       <c r="J80" s="73">
         <f t="shared" ref="J80:K80" si="33">AVERAGE(J74:J78)</f>
-        <v>10.548039792499999</v>
+        <v>10.541707458000001</v>
       </c>
       <c r="K80" s="73">
         <f t="shared" si="33"/>
-        <v>10.4654009625</v>
+        <v>10.411682686000002</v>
       </c>
       <c r="L80" s="73"/>
       <c r="M80" s="73" t="s">
@@ -15455,15 +15428,15 @@
       </c>
       <c r="N80" s="73">
         <f>AVERAGE(N74:N78)</f>
-        <v>1.739103493</v>
+        <v>1.729085443</v>
       </c>
       <c r="O80" s="73">
         <f t="shared" ref="O80:P80" si="34">AVERAGE(O74:O78)</f>
-        <v>11.461241042499999</v>
+        <v>11.429278362000002</v>
       </c>
       <c r="P80" s="73">
         <f t="shared" si="34"/>
-        <v>11.1679818875</v>
+        <v>11.089887932</v>
       </c>
       <c r="Q80" s="73"/>
       <c r="R80" s="73" t="s">
@@ -15471,15 +15444,15 @@
       </c>
       <c r="S80" s="73">
         <f>AVERAGE(S74:S78)</f>
-        <v>1.7927413805000001</v>
+        <v>1.7433376245999999</v>
       </c>
       <c r="T80" s="73">
         <f t="shared" ref="T80:U80" si="35">AVERAGE(T74:T78)</f>
-        <v>10.908424280000002</v>
+        <v>10.767269150000001</v>
       </c>
       <c r="U80" s="73">
         <f t="shared" si="35"/>
-        <v>10.853349402499999</v>
+        <v>10.740340560000002</v>
       </c>
       <c r="V80" s="73"/>
     </row>
@@ -15491,15 +15464,15 @@
       </c>
       <c r="D81" s="73">
         <f>MIN(D74:D78)</f>
-        <v>1.8314126049999999</v>
+        <v>1.711534415</v>
       </c>
       <c r="E81" s="73">
         <f t="shared" ref="E81:F81" si="36">MIN(E74:E78)</f>
-        <v>11.698063429999999</v>
+        <v>11.49310616</v>
       </c>
       <c r="F81" s="73">
         <f t="shared" si="36"/>
-        <v>11.531562429999999</v>
+        <v>11.374466200000001</v>
       </c>
       <c r="G81" s="73"/>
       <c r="H81" s="73" t="s">
@@ -15507,15 +15480,15 @@
       </c>
       <c r="I81" s="73">
         <f>MIN(I74:I78)</f>
-        <v>1.577234099</v>
+        <v>1.5142305439999999</v>
       </c>
       <c r="J81" s="73">
         <f t="shared" ref="J81:K81" si="37">MIN(J74:J78)</f>
-        <v>10.264696539999999</v>
+        <v>10.104439449999999</v>
       </c>
       <c r="K81" s="73">
         <f t="shared" si="37"/>
-        <v>10.16197914</v>
+        <v>10.07576607</v>
       </c>
       <c r="L81" s="73"/>
       <c r="M81" s="73" t="s">
@@ -15523,15 +15496,15 @@
       </c>
       <c r="N81" s="73">
         <f>MIN(N74:N78)</f>
-        <v>1.6330105290000001</v>
+        <v>1.578711121</v>
       </c>
       <c r="O81" s="73">
         <f t="shared" ref="O81:P81" si="38">MIN(O74:O78)</f>
-        <v>11.31499011</v>
+        <v>11.1419382</v>
       </c>
       <c r="P81" s="73">
         <f t="shared" si="38"/>
-        <v>10.668650830000001</v>
+        <v>10.583862140000001</v>
       </c>
       <c r="Q81" s="73"/>
       <c r="R81" s="73" t="s">
@@ -15539,15 +15512,15 @@
       </c>
       <c r="S81" s="73">
         <f>MIN(S74:S78)</f>
-        <v>1.698257736</v>
+        <v>1.6692033900000001</v>
       </c>
       <c r="T81" s="73">
         <f t="shared" ref="T81:U81" si="39">MIN(T74:T78)</f>
-        <v>10.649676060000001</v>
+        <v>10.4876483</v>
       </c>
       <c r="U81" s="73">
         <f t="shared" si="39"/>
-        <v>10.48731806</v>
+        <v>10.360162170000001</v>
       </c>
       <c r="V81" s="73"/>
     </row>
@@ -15559,15 +15532,15 @@
       </c>
       <c r="D82" s="73">
         <f>MAX(D74:D78)</f>
-        <v>1.9533226530000001</v>
+        <v>1.8857474729999999</v>
       </c>
       <c r="E82" s="73">
         <f t="shared" ref="E82:F82" si="40">MAX(E74:E78)</f>
-        <v>12.01710959</v>
+        <v>13.027399920000001</v>
       </c>
       <c r="F82" s="73">
         <f t="shared" si="40"/>
-        <v>11.960113229999999</v>
+        <v>12.812353359999999</v>
       </c>
       <c r="G82" s="73"/>
       <c r="H82" s="73" t="s">
@@ -15575,15 +15548,15 @@
       </c>
       <c r="I82" s="73">
         <f>MAX(I74:I78)</f>
-        <v>1.6356537799999999</v>
+        <v>1.6153839210000001</v>
       </c>
       <c r="J82" s="73">
         <f t="shared" ref="J82:K82" si="41">MAX(J74:J78)</f>
-        <v>10.75850441</v>
+        <v>11.0059532</v>
       </c>
       <c r="K82" s="73">
         <f t="shared" si="41"/>
-        <v>10.937471029999999</v>
+        <v>10.806250289999999</v>
       </c>
       <c r="L82" s="73"/>
       <c r="M82" s="73" t="s">
@@ -15591,15 +15564,15 @@
       </c>
       <c r="N82" s="73">
         <f>MAX(N74:N78)</f>
-        <v>1.8451964569999999</v>
+        <v>1.9051938390000001</v>
       </c>
       <c r="O82" s="73">
         <f t="shared" ref="O82:P82" si="42">MAX(O74:O78)</f>
-        <v>11.814252460000001</v>
+        <v>11.734510090000001</v>
       </c>
       <c r="P82" s="73">
         <f t="shared" si="42"/>
-        <v>11.511351449999999</v>
+        <v>11.42584708</v>
       </c>
       <c r="Q82" s="73"/>
       <c r="R82" s="73" t="s">
@@ -15607,15 +15580,15 @@
       </c>
       <c r="S82" s="73">
         <f>MAX(S74:S78)</f>
-        <v>1.887225025</v>
+        <v>1.797774521</v>
       </c>
       <c r="T82" s="73">
         <f t="shared" ref="T82:U82" si="43">MAX(T74:T78)</f>
-        <v>11.25937878</v>
+        <v>11.08524332</v>
       </c>
       <c r="U82" s="73">
         <f t="shared" si="43"/>
-        <v>11.38139209</v>
+        <v>11.20134861</v>
       </c>
       <c r="V82" s="73"/>
     </row>
@@ -15627,15 +15600,15 @@
       </c>
       <c r="D83" s="73">
         <f>D82-D81</f>
-        <v>0.12191004800000016</v>
+        <v>0.17421305799999987</v>
       </c>
       <c r="E83" s="73">
         <f t="shared" ref="E83" si="44">E82-E81</f>
-        <v>0.31904616000000097</v>
+        <v>1.5342937600000006</v>
       </c>
       <c r="F83" s="73">
         <f t="shared" ref="F83" si="45">F82-F81</f>
-        <v>0.42855080000000001</v>
+        <v>1.4378871599999989</v>
       </c>
       <c r="G83" s="73"/>
       <c r="H83" s="73" t="s">
@@ -15643,15 +15616,15 @@
       </c>
       <c r="I83" s="73">
         <f>I82-I81</f>
-        <v>5.8419680999999946E-2</v>
+        <v>0.10115337700000016</v>
       </c>
       <c r="J83" s="73">
         <f t="shared" ref="J83" si="46">J82-J81</f>
-        <v>0.49380787000000126</v>
+        <v>0.90151375000000122</v>
       </c>
       <c r="K83" s="73">
         <f t="shared" ref="K83" si="47">K82-K81</f>
-        <v>0.77549188999999963</v>
+        <v>0.73048421999999924</v>
       </c>
       <c r="L83" s="73"/>
       <c r="M83" s="73" t="s">
@@ -15659,15 +15632,15 @@
       </c>
       <c r="N83" s="73">
         <f>N82-N81</f>
-        <v>0.2121859279999998</v>
+        <v>0.32648271800000006</v>
       </c>
       <c r="O83" s="73">
         <f t="shared" ref="O83" si="48">O82-O81</f>
-        <v>0.49926235000000041</v>
+        <v>0.59257189000000032</v>
       </c>
       <c r="P83" s="73">
         <f t="shared" ref="P83" si="49">P82-P81</f>
-        <v>0.84270061999999868</v>
+        <v>0.84198493999999968</v>
       </c>
       <c r="Q83" s="73"/>
       <c r="R83" s="73" t="s">
@@ -15675,15 +15648,15 @@
       </c>
       <c r="S83" s="73">
         <f>S82-S81</f>
-        <v>0.18896728900000004</v>
+        <v>0.12857113099999995</v>
       </c>
       <c r="T83" s="73">
         <f t="shared" ref="T83:U83" si="50">T82-T81</f>
-        <v>0.60970271999999959</v>
+        <v>0.59759501999999998</v>
       </c>
       <c r="U83" s="73">
         <f t="shared" si="50"/>
-        <v>0.89407403000000052</v>
+        <v>0.84118643999999954</v>
       </c>
       <c r="V83" s="73"/>
     </row>
@@ -15695,15 +15668,15 @@
       </c>
       <c r="D84" s="73">
         <f>_xlfn.STDEV.P(D74:D78)</f>
-        <v>6.095502400000008E-2</v>
+        <v>8.01744215544197E-2</v>
       </c>
       <c r="E84" s="73">
         <f t="shared" ref="E84:U84" si="51">_xlfn.STDEV.P(E74:E78)</f>
-        <v>0.12766567513996913</v>
+        <v>0.53755906119189645</v>
       </c>
       <c r="F84" s="73">
         <f t="shared" si="51"/>
-        <v>0.17251102751606953</v>
+        <v>0.50265376660030303</v>
       </c>
       <c r="G84" s="73">
         <f t="shared" si="51"/>
@@ -15715,15 +15688,15 @@
       </c>
       <c r="I84" s="73">
         <f t="shared" si="51"/>
-        <v>2.9209840499999973E-2</v>
+        <v>4.0658157187636344E-2</v>
       </c>
       <c r="J84" s="73">
         <f t="shared" si="51"/>
-        <v>0.18073959419935789</v>
+        <v>0.29518349632729751</v>
       </c>
       <c r="K84" s="73">
         <f t="shared" si="51"/>
-        <v>0.28916514583702363</v>
+        <v>0.25747417356729352</v>
       </c>
       <c r="L84" s="73">
         <f t="shared" si="51"/>
@@ -15735,15 +15708,15 @@
       </c>
       <c r="N84" s="73">
         <f t="shared" si="51"/>
-        <v>0.1060929639999999</v>
+        <v>0.12961993387312226</v>
       </c>
       <c r="O84" s="73">
         <f t="shared" si="51"/>
-        <v>0.2050465096326782</v>
+        <v>0.25095080401431985</v>
       </c>
       <c r="P84" s="73">
         <f t="shared" si="51"/>
-        <v>0.33493983305499708</v>
+        <v>0.3089863687252844</v>
       </c>
       <c r="Q84" s="73">
         <f t="shared" si="51"/>
@@ -15755,15 +15728,15 @@
       </c>
       <c r="S84" s="73">
         <f t="shared" si="51"/>
-        <v>9.4483644500000019E-2</v>
+        <v>6.0592618686075655E-2</v>
       </c>
       <c r="T84" s="73">
         <f t="shared" si="51"/>
-        <v>0.22214211982676796</v>
+        <v>0.19551910987021023</v>
       </c>
       <c r="U84" s="73">
         <f t="shared" si="51"/>
-        <v>0.35059750414108276</v>
+        <v>0.31008357920409679</v>
       </c>
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" thickBot="1">
@@ -15831,13 +15804,16 @@
         <v>1</v>
       </c>
       <c r="C87" s="73">
-        <v>0.16896054900000013</v>
+        <f>D83</f>
+        <v>0.17421305799999987</v>
       </c>
       <c r="D87" s="73">
-        <v>1.4264137800000007</v>
+        <f t="shared" ref="D87:E87" si="52">E83</f>
+        <v>1.5342937600000006</v>
       </c>
       <c r="E87" s="73">
-        <v>1.3817830400000002</v>
+        <f t="shared" si="52"/>
+        <v>1.4378871599999989</v>
       </c>
       <c r="F87" s="73"/>
       <c r="G87" s="73"/>
@@ -15867,13 +15843,16 @@
         <v>2</v>
       </c>
       <c r="C88" s="70">
-        <v>5.8419680999999946E-2</v>
-      </c>
-      <c r="D88">
-        <v>0.74053501000000033</v>
-      </c>
-      <c r="E88">
-        <v>0.77549188999999963</v>
+        <f>I83</f>
+        <v>0.10115337700000016</v>
+      </c>
+      <c r="D88" s="78">
+        <f t="shared" ref="D88:E88" si="53">J83</f>
+        <v>0.90151375000000122</v>
+      </c>
+      <c r="E88" s="78">
+        <f t="shared" si="53"/>
+        <v>0.73048421999999924</v>
       </c>
       <c r="H88" s="73"/>
       <c r="I88" s="73"/>
@@ -15895,13 +15874,16 @@
         <v>3</v>
       </c>
       <c r="C89">
-        <v>0.26274684299999995</v>
-      </c>
-      <c r="D89">
-        <v>0.49926235000000041</v>
-      </c>
-      <c r="E89">
-        <v>0.84270061999999868</v>
+        <f>N83</f>
+        <v>0.32648271800000006</v>
+      </c>
+      <c r="D89" s="78">
+        <f t="shared" ref="D89:E89" si="54">O83</f>
+        <v>0.59257189000000032</v>
+      </c>
+      <c r="E89" s="78">
+        <f t="shared" si="54"/>
+        <v>0.84198493999999968</v>
       </c>
       <c r="G89" s="73"/>
       <c r="H89" s="73"/>
@@ -15923,13 +15905,16 @@
         <v>4</v>
       </c>
       <c r="C90">
-        <v>0.18896728900000004</v>
-      </c>
-      <c r="D90">
-        <v>0.60970271999999959</v>
-      </c>
-      <c r="E90">
-        <v>0.89407403000000052</v>
+        <f>S83</f>
+        <v>0.12857113099999995</v>
+      </c>
+      <c r="D90" s="78">
+        <f t="shared" ref="D90:E90" si="55">T83</f>
+        <v>0.59759501999999998</v>
+      </c>
+      <c r="E90" s="78">
+        <f t="shared" si="55"/>
+        <v>0.84118643999999954</v>
       </c>
       <c r="G90" s="73"/>
       <c r="H90" s="73"/>
@@ -15992,36 +15977,30 @@
       </c>
       <c r="L92" s="73">
         <f>AVERAGE(E77:E78)</f>
-        <v>11.908789844999999</v>
+        <v>11.7544605</v>
       </c>
       <c r="M92" s="73">
         <f>AVERAGE(E75:E76)</f>
-        <v>11.857586510000001</v>
+        <v>11.691313415</v>
       </c>
       <c r="N92" s="73">
         <f>E74</f>
-        <v>0</v>
-      </c>
-      <c r="O92" s="73">
-        <f>AVERAGE(11.79,11.97)</f>
-        <v>11.879999999999999</v>
-      </c>
+        <v>13.027399920000001</v>
+      </c>
+      <c r="O92" s="73"/>
       <c r="P92" s="73">
         <f>AVERAGE(F77:F78)</f>
-        <v>11.831386155000001</v>
+        <v>11.645599149999999</v>
       </c>
       <c r="Q92" s="73">
         <f>AVERAGE(F75:F76)</f>
-        <v>11.724543785</v>
+        <v>11.593726929999999</v>
       </c>
       <c r="R92">
         <f>F74</f>
-        <v>0</v>
-      </c>
-      <c r="S92" s="73">
-        <f>AVERAGE(11.05,11.59)</f>
-        <v>11.32</v>
-      </c>
+        <v>12.812353359999999</v>
+      </c>
+      <c r="S92" s="73"/>
       <c r="T92" s="73"/>
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1">
@@ -16034,36 +16013,30 @@
       </c>
       <c r="L93" s="73">
         <f>AVERAGE(J77:J78)</f>
-        <v>10.511600475</v>
+        <v>10.38771596</v>
       </c>
       <c r="M93" s="73">
         <f>AVERAGE(J75:J76)</f>
-        <v>10.58447911</v>
+        <v>10.463576085</v>
       </c>
       <c r="N93" s="73">
         <f>J74</f>
-        <v>0</v>
-      </c>
-      <c r="O93" s="73">
-        <f>AVERAGE(11.91,12.88)</f>
-        <v>12.395</v>
-      </c>
+        <v>11.0059532</v>
+      </c>
+      <c r="O93" s="73"/>
       <c r="P93" s="73">
         <f>AVERAGE(K77:K78)</f>
-        <v>10.549725084999999</v>
+        <v>10.441008180000001</v>
       </c>
       <c r="Q93" s="73">
         <f>AVERAGE(K75:K76)</f>
-        <v>10.38107684</v>
+        <v>10.294050915</v>
       </c>
       <c r="R93" s="73">
         <f>K74</f>
-        <v>0</v>
-      </c>
-      <c r="S93" s="73">
-        <f>AVERAGE(11.51,11.41)</f>
-        <v>11.46</v>
-      </c>
+        <v>10.588295240000001</v>
+      </c>
+      <c r="S93" s="73"/>
       <c r="T93" s="73"/>
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1">
@@ -16076,36 +16049,30 @@
       </c>
       <c r="L94" s="73">
         <f>AVERAGE(O77:O78)</f>
-        <v>11.576088309999999</v>
+        <v>11.489311234999999</v>
       </c>
       <c r="M94" s="73">
         <f>AVERAGE(O75:O76)</f>
-        <v>11.346393774999999</v>
+        <v>11.216629624999999</v>
       </c>
       <c r="N94" s="73">
         <f>O74</f>
-        <v>0</v>
-      </c>
-      <c r="O94" s="73">
-        <f>AVERAGE(11.43,11.51)</f>
-        <v>11.469999999999999</v>
-      </c>
+        <v>11.734510090000001</v>
+      </c>
+      <c r="O94" s="73"/>
       <c r="P94" s="73">
         <f>AVERAGE(P77:P78)</f>
-        <v>11.471758205</v>
+        <v>11.271648604999999</v>
       </c>
       <c r="Q94" s="73">
         <f>AVERAGE(P75:P76)</f>
-        <v>10.864205569999999</v>
+        <v>10.740147685</v>
       </c>
       <c r="R94" s="73">
         <f>P74</f>
-        <v>0</v>
-      </c>
-      <c r="S94" s="73">
-        <f>AVERAGE(10.93,10.98)</f>
-        <v>10.955</v>
-      </c>
+        <v>11.42584708</v>
+      </c>
+      <c r="S94" s="73"/>
       <c r="T94" s="73"/>
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1">
@@ -16118,36 +16085,30 @@
       </c>
       <c r="L95" s="73">
         <f>AVERAGE(T77:T78)</f>
-        <v>10.736576370000002</v>
+        <v>10.57791746</v>
       </c>
       <c r="M95" s="73">
         <f>AVERAGE(T75:T76)</f>
-        <v>11.080272190000001</v>
+        <v>10.936670769999999</v>
       </c>
       <c r="N95" s="73">
         <f>T74</f>
-        <v>0</v>
-      </c>
-      <c r="O95" s="73">
-        <f>AVERAGE(11.63,11.26)</f>
-        <v>11.445</v>
-      </c>
+        <v>10.807169289999999</v>
+      </c>
+      <c r="O95" s="73"/>
       <c r="P95" s="73">
         <f>AVERAGE(U77:U78)</f>
-        <v>11.167520115</v>
+        <v>10.98816105</v>
       </c>
       <c r="Q95" s="73">
         <f>AVERAGE(U75:U76)</f>
-        <v>10.53917869</v>
+        <v>10.401058115000001</v>
       </c>
       <c r="R95" s="73">
         <f>U74</f>
-        <v>0</v>
-      </c>
-      <c r="S95" s="73">
-        <f>AVERAGE(10.93,10.9)</f>
-        <v>10.914999999999999</v>
-      </c>
+        <v>10.923264469999999</v>
+      </c>
+      <c r="S95" s="73"/>
       <c r="T95" s="73"/>
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1">
@@ -16285,36 +16246,36 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="80" t="s">
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
       <c r="O10" s="1" t="s">
         <v>227</v>
       </c>
@@ -16990,36 +16951,36 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="C32" s="77" t="s">
+      <c r="C32" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="80" t="s">
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
       <c r="O32" s="1" t="s">
         <v>227</v>
       </c>

--- a/metabolicsData_revised.xlsx
+++ b/metabolicsData_revised.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\code\repos\Stanford\delplab\projects\muscleModel\muscleEnergyModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C181825C-C9F9-4B71-8CBE-3E2817F86D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A21749-EACE-41DD-8152-6581364E9DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="key" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="sild" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1424,7 +1423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1568,6 +1567,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1576,11 +1581,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -4370,12 +4370,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -12869,8 +12869,8 @@
   </sheetPr>
   <dimension ref="A1:AA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -12895,12 +12895,12 @@
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1">
@@ -13216,204 +13216,204 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" ht="15">
       <c r="A15" s="3">
         <v>1</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
       </c>
-      <c r="C15" s="3">
-        <v>1.7843621039999999</v>
-      </c>
-      <c r="D15" s="26">
-        <v>13.12447721</v>
-      </c>
-      <c r="E15" s="26">
-        <v>12.913345469999999</v>
-      </c>
-      <c r="F15" s="26">
-        <v>13.43907997</v>
-      </c>
-      <c r="G15" s="26">
-        <v>12.6698953</v>
-      </c>
-      <c r="H15" s="26">
-        <v>12.738848109999999</v>
-      </c>
-      <c r="I15" s="26">
-        <v>12.943077819999999</v>
-      </c>
-      <c r="J15" s="26">
-        <v>12.516079510000001</v>
-      </c>
-      <c r="K15" s="26">
-        <v>12.488343179999999</v>
+      <c r="C15" s="79">
+        <v>1.751345334</v>
+      </c>
+      <c r="D15" s="79">
+        <v>13.027399920000001</v>
+      </c>
+      <c r="E15" s="79">
+        <v>12.812353359999999</v>
+      </c>
+      <c r="F15" s="79">
+        <v>13.310797470000001</v>
+      </c>
+      <c r="G15" s="79">
+        <v>12.367950560000001</v>
+      </c>
+      <c r="H15" s="79">
+        <v>12.62920433</v>
+      </c>
+      <c r="I15" s="79">
+        <v>12.72295995</v>
+      </c>
+      <c r="J15" s="79">
+        <v>12.33160528</v>
+      </c>
+      <c r="K15" s="79">
+        <v>12.392633</v>
       </c>
       <c r="M15" s="4">
-        <f t="shared" ref="M15:M18" si="1">MAX(D15:K15)</f>
-        <v>13.43907997</v>
+        <f>MAX(D15:K15)</f>
+        <v>13.310797470000001</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" ref="N15:N18" si="2">MIN(D15:K15)</f>
-        <v>12.488343179999999</v>
+        <f t="shared" ref="N15:N18" si="1">MIN(D15:K15)</f>
+        <v>12.33160528</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" ref="O15:O18" si="3">AVERAGE(D15:K15)</f>
-        <v>12.85414332125</v>
+        <f t="shared" ref="O15:O18" si="2">AVERAGE(D15:K15)</f>
+        <v>12.699362983750001</v>
       </c>
       <c r="Q15" s="4">
         <f>MAX(D15:K18)</f>
-        <v>13.43907997</v>
+        <v>13.310797470000001</v>
       </c>
       <c r="R15" s="4">
         <f>MIN(D15:K18)</f>
-        <v>10.24945512</v>
+        <v>10.24386281</v>
       </c>
       <c r="S15" s="4">
         <f>AVERAGE(D15:K18)</f>
-        <v>11.530962407500001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>11.447995978124998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15">
       <c r="A16" s="3">
         <v>2</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
       </c>
-      <c r="C16" s="26">
-        <v>1.6121465399999999</v>
-      </c>
-      <c r="D16" s="28">
-        <v>11.00523155</v>
-      </c>
-      <c r="E16" s="28">
-        <v>10.60252912</v>
-      </c>
-      <c r="F16" s="28">
-        <v>11.60660088</v>
-      </c>
-      <c r="G16" s="28">
-        <v>10.918603879999999</v>
-      </c>
-      <c r="H16" s="28">
-        <v>10.862868539999999</v>
-      </c>
-      <c r="I16" s="28">
-        <v>10.98916532</v>
-      </c>
-      <c r="J16" s="26">
-        <v>10.24945512</v>
-      </c>
-      <c r="K16" s="28">
-        <v>10.340420999999999</v>
+      <c r="C16" s="79">
+        <v>1.6153839210000001</v>
+      </c>
+      <c r="D16" s="79">
+        <v>11.0059532</v>
+      </c>
+      <c r="E16" s="79">
+        <v>10.588295240000001</v>
+      </c>
+      <c r="F16" s="79">
+        <v>11.55513827</v>
+      </c>
+      <c r="G16" s="79">
+        <v>10.92502738</v>
+      </c>
+      <c r="H16" s="79">
+        <v>10.86090008</v>
+      </c>
+      <c r="I16" s="79">
+        <v>10.98918377</v>
+      </c>
+      <c r="J16" s="79">
+        <v>10.24386281</v>
+      </c>
+      <c r="K16" s="79">
+        <v>10.336277819999999</v>
       </c>
       <c r="M16" s="4">
+        <f t="shared" ref="M15:M18" si="3">MAX(D16:K16)</f>
+        <v>11.55513827</v>
+      </c>
+      <c r="N16" s="4">
         <f t="shared" si="1"/>
-        <v>11.60660088</v>
-      </c>
-      <c r="N16" s="4">
+        <v>10.24386281</v>
+      </c>
+      <c r="O16" s="4">
         <f t="shared" si="2"/>
-        <v>10.24945512</v>
-      </c>
-      <c r="O16" s="4">
-        <f t="shared" si="3"/>
-        <v>10.821859426250001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>10.81307982125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15">
       <c r="A17" s="3">
         <v>3</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="26">
-        <v>1.8957573720000001</v>
-      </c>
-      <c r="D17" s="28">
-        <v>11.737313759999999</v>
-      </c>
-      <c r="E17" s="26">
-        <v>11.41887084</v>
-      </c>
-      <c r="F17" s="28">
-        <v>12.781186999999999</v>
-      </c>
-      <c r="G17" s="28">
-        <v>11.57141339</v>
-      </c>
-      <c r="H17" s="28">
-        <v>11.418755819999999</v>
-      </c>
-      <c r="I17" s="28">
-        <v>11.489576980000001</v>
-      </c>
-      <c r="J17" s="28">
-        <v>11.272226720000001</v>
-      </c>
-      <c r="K17" s="28">
-        <v>10.854166660000001</v>
+      <c r="C17" s="79">
+        <v>1.9051938390000001</v>
+      </c>
+      <c r="D17" s="79">
+        <v>11.734510090000001</v>
+      </c>
+      <c r="E17" s="79">
+        <v>11.42584708</v>
+      </c>
+      <c r="F17" s="79">
+        <v>12.60082197</v>
+      </c>
+      <c r="G17" s="79">
+        <v>11.57117963</v>
+      </c>
+      <c r="H17" s="79">
+        <v>11.42935855</v>
+      </c>
+      <c r="I17" s="79">
+        <v>11.49916747</v>
+      </c>
+      <c r="J17" s="79">
+        <v>11.23061113</v>
+      </c>
+      <c r="K17" s="79">
+        <v>10.855900719999999</v>
       </c>
       <c r="M17" s="4">
+        <f t="shared" si="3"/>
+        <v>12.60082197</v>
+      </c>
+      <c r="N17" s="4">
         <f t="shared" si="1"/>
-        <v>12.781186999999999</v>
-      </c>
-      <c r="N17" s="4">
+        <v>10.855900719999999</v>
+      </c>
+      <c r="O17" s="4">
         <f t="shared" si="2"/>
-        <v>10.854166660000001</v>
-      </c>
-      <c r="O17" s="4">
-        <f t="shared" si="3"/>
-        <v>11.56793889625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>11.54342458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15">
       <c r="A18" s="3">
         <v>4</v>
       </c>
       <c r="B18" s="3">
         <v>3</v>
       </c>
-      <c r="C18" s="26">
-        <v>1.8694403660000001</v>
-      </c>
-      <c r="D18" s="26">
-        <v>10.98796596</v>
-      </c>
-      <c r="E18" s="26">
-        <v>11.078948069999999</v>
-      </c>
-      <c r="F18" s="26">
-        <v>11.00202453</v>
-      </c>
-      <c r="G18" s="26">
-        <v>10.618670460000001</v>
-      </c>
-      <c r="H18" s="26">
-        <v>11.08831531</v>
-      </c>
-      <c r="I18" s="26">
-        <v>11.03373869</v>
-      </c>
-      <c r="J18" s="26">
-        <v>10.620491790000001</v>
-      </c>
-      <c r="K18" s="26">
-        <v>10.60910908</v>
+      <c r="C18" s="79">
+        <v>1.797774521</v>
+      </c>
+      <c r="D18" s="79">
+        <v>10.807169289999999</v>
+      </c>
+      <c r="E18" s="79">
+        <v>10.923264469999999</v>
+      </c>
+      <c r="F18" s="79">
+        <v>10.83669117</v>
+      </c>
+      <c r="G18" s="79">
+        <v>10.449408869999999</v>
+      </c>
+      <c r="H18" s="79">
+        <v>10.92302059</v>
+      </c>
+      <c r="I18" s="79">
+        <v>10.89053167</v>
+      </c>
+      <c r="J18" s="79">
+        <v>10.536766350000001</v>
+      </c>
+      <c r="K18" s="79">
+        <v>10.522079809999999</v>
       </c>
       <c r="M18" s="4">
+        <f t="shared" si="3"/>
+        <v>10.923264469999999</v>
+      </c>
+      <c r="N18" s="4">
         <f t="shared" si="1"/>
-        <v>11.08831531</v>
-      </c>
-      <c r="N18" s="4">
+        <v>10.449408869999999</v>
+      </c>
+      <c r="O18" s="4">
         <f t="shared" si="2"/>
-        <v>10.60910908</v>
-      </c>
-      <c r="O18" s="4">
-        <f t="shared" si="3"/>
-        <v>10.879907986249998</v>
+        <v>10.7361165275</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="12.75">
@@ -13438,39 +13438,39 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" ref="C21:K21" si="4">MAX(C15:C18)</f>
-        <v>1.8957573720000001</v>
+        <v>1.9051938390000001</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="4"/>
-        <v>13.12447721</v>
+        <v>13.027399920000001</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="4"/>
-        <v>12.913345469999999</v>
+        <v>12.812353359999999</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="4"/>
-        <v>13.43907997</v>
+        <v>13.310797470000001</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="4"/>
-        <v>12.6698953</v>
+        <v>12.367950560000001</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="4"/>
-        <v>12.738848109999999</v>
+        <v>12.62920433</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="4"/>
-        <v>12.943077819999999</v>
+        <v>12.72295995</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="4"/>
-        <v>12.516079510000001</v>
+        <v>12.33160528</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="4"/>
-        <v>12.488343179999999</v>
+        <v>12.392633</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="12.75">
@@ -13480,39 +13480,39 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ref="C22:K22" si="5">MIN(C15:C18)</f>
-        <v>1.6121465399999999</v>
+        <v>1.6153839210000001</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="5"/>
-        <v>10.98796596</v>
+        <v>10.807169289999999</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="5"/>
-        <v>10.60252912</v>
+        <v>10.588295240000001</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="5"/>
-        <v>11.00202453</v>
+        <v>10.83669117</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="5"/>
-        <v>10.618670460000001</v>
+        <v>10.449408869999999</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="5"/>
-        <v>10.862868539999999</v>
+        <v>10.86090008</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="5"/>
-        <v>10.98916532</v>
+        <v>10.89053167</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="5"/>
-        <v>10.24945512</v>
+        <v>10.24386281</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="5"/>
-        <v>10.340420999999999</v>
+        <v>10.336277819999999</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="12.75">
@@ -13522,39 +13522,39 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ref="C23:K23" si="6">AVERAGE(C15:C18)</f>
-        <v>1.7904265955000001</v>
+        <v>1.76742440375</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="6"/>
-        <v>11.713747120000001</v>
+        <v>11.643758125</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="6"/>
-        <v>11.503423375000001</v>
+        <v>11.4374400375</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="6"/>
-        <v>12.207223095</v>
+        <v>12.075862220000001</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="6"/>
-        <v>11.444645757500002</v>
+        <v>11.328391610000001</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="6"/>
-        <v>11.527196945</v>
+        <v>11.460620887500001</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="6"/>
-        <v>11.6138897025</v>
+        <v>11.525460715000001</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="6"/>
-        <v>11.164563285000002</v>
+        <v>11.0857113925</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="6"/>
-        <v>11.073009979999998</v>
+        <v>11.026722837499999</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="12.75">
@@ -13670,59 +13670,59 @@
       </c>
       <c r="D28" s="3">
         <f>D15-$C15</f>
-        <v>11.340115106000001</v>
+        <v>11.276054586000001</v>
       </c>
       <c r="E28" s="71">
         <f t="shared" ref="E28:K28" si="7">E15-$C15</f>
-        <v>11.128983366</v>
+        <v>11.061008026</v>
       </c>
       <c r="F28" s="71">
         <f t="shared" si="7"/>
-        <v>11.654717866</v>
+        <v>11.559452136000001</v>
       </c>
       <c r="G28" s="71">
         <f t="shared" si="7"/>
-        <v>10.885533196000001</v>
+        <v>10.616605226000001</v>
       </c>
       <c r="H28" s="71">
         <f t="shared" si="7"/>
-        <v>10.954486006</v>
+        <v>10.877858996000001</v>
       </c>
       <c r="I28" s="71">
         <f t="shared" si="7"/>
-        <v>11.158715716</v>
+        <v>10.971614616</v>
       </c>
       <c r="J28" s="71">
         <f t="shared" si="7"/>
-        <v>10.731717406000001</v>
+        <v>10.580259946</v>
       </c>
       <c r="K28" s="71">
         <f t="shared" si="7"/>
-        <v>10.703981076</v>
+        <v>10.641287666</v>
       </c>
       <c r="M28" s="4">
         <f t="shared" ref="M28:M31" si="8">MAX(D28:K28)</f>
-        <v>11.654717866</v>
+        <v>11.559452136000001</v>
       </c>
       <c r="N28" s="4">
         <f t="shared" ref="N28:N31" si="9">MIN(D28:K28)</f>
-        <v>10.703981076</v>
+        <v>10.580259946</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" ref="O28:O31" si="10">AVERAGE(D28:K28)</f>
-        <v>11.06978121725</v>
+        <v>10.94801764975</v>
       </c>
       <c r="Q28" s="4">
         <f>MAX(D28:K31)</f>
-        <v>11.654717866</v>
+        <v>11.559452136000001</v>
       </c>
       <c r="R28" s="4">
         <f>MIN(D28:K31)</f>
-        <v>8.6373085800000009</v>
+        <v>8.6284788890000002</v>
       </c>
       <c r="S28" s="4">
         <f>AVERAGE(D28:K31)</f>
-        <v>9.7405358119999992</v>
+        <v>9.6805715743750014</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="12.75">
@@ -13734,47 +13734,47 @@
       </c>
       <c r="D29" s="71">
         <f t="shared" ref="D29:K31" si="11">D16-$C16</f>
-        <v>9.3930850100000001</v>
+        <v>9.390569279000001</v>
       </c>
       <c r="E29" s="71">
         <f t="shared" si="11"/>
-        <v>8.9903825800000003</v>
+        <v>8.9729113190000014</v>
       </c>
       <c r="F29" s="71">
         <f t="shared" si="11"/>
-        <v>9.9944543400000008</v>
+        <v>9.9397543490000011</v>
       </c>
       <c r="G29" s="71">
         <f t="shared" si="11"/>
-        <v>9.3064573399999997</v>
+        <v>9.3096434590000001</v>
       </c>
       <c r="H29" s="71">
         <f t="shared" si="11"/>
-        <v>9.2507219999999997</v>
+        <v>9.245516159000001</v>
       </c>
       <c r="I29" s="71">
         <f t="shared" si="11"/>
-        <v>9.3770187800000002</v>
+        <v>9.373799849000001</v>
       </c>
       <c r="J29" s="71">
         <f t="shared" si="11"/>
-        <v>8.6373085800000009</v>
+        <v>8.6284788890000002</v>
       </c>
       <c r="K29" s="71">
         <f t="shared" si="11"/>
-        <v>8.7282744599999997</v>
+        <v>8.720893899</v>
       </c>
       <c r="M29" s="4">
         <f t="shared" si="8"/>
-        <v>9.9944543400000008</v>
+        <v>9.9397543490000011</v>
       </c>
       <c r="N29" s="4">
         <f t="shared" si="9"/>
-        <v>8.6373085800000009</v>
+        <v>8.6284788890000002</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="10"/>
-        <v>9.2097128862499993</v>
+        <v>9.1976959002500021</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="12.75">
@@ -13786,47 +13786,47 @@
       </c>
       <c r="D30" s="71">
         <f t="shared" si="11"/>
-        <v>9.841556387999999</v>
+        <v>9.8293162509999998</v>
       </c>
       <c r="E30" s="71">
         <f t="shared" si="11"/>
-        <v>9.523113468</v>
+        <v>9.5206532409999998</v>
       </c>
       <c r="F30" s="71">
         <f t="shared" si="11"/>
-        <v>10.885429627999999</v>
+        <v>10.695628130999999</v>
       </c>
       <c r="G30" s="71">
         <f t="shared" si="11"/>
-        <v>9.6756560179999997</v>
+        <v>9.6659857909999989</v>
       </c>
       <c r="H30" s="71">
         <f t="shared" si="11"/>
-        <v>9.5229984479999992</v>
+        <v>9.5241647109999992</v>
       </c>
       <c r="I30" s="71">
         <f t="shared" si="11"/>
-        <v>9.5938196080000004</v>
+        <v>9.593973630999999</v>
       </c>
       <c r="J30" s="71">
         <f t="shared" si="11"/>
-        <v>9.3764693480000005</v>
+        <v>9.3254172909999991</v>
       </c>
       <c r="K30" s="71">
         <f t="shared" si="11"/>
-        <v>8.9584092880000004</v>
+        <v>8.9507068809999986</v>
       </c>
       <c r="M30" s="4">
         <f t="shared" si="8"/>
-        <v>10.885429627999999</v>
+        <v>10.695628130999999</v>
       </c>
       <c r="N30" s="4">
         <f t="shared" si="9"/>
-        <v>8.9584092880000004</v>
+        <v>8.9507068809999986</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="10"/>
-        <v>9.67218152425</v>
+        <v>9.6382307409999992</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="12.75">
@@ -13838,47 +13838,47 @@
       </c>
       <c r="D31" s="71">
         <f t="shared" si="11"/>
-        <v>9.1185255940000012</v>
+        <v>9.009394769</v>
       </c>
       <c r="E31" s="71">
         <f t="shared" si="11"/>
-        <v>9.209507704</v>
+        <v>9.1254899489999985</v>
       </c>
       <c r="F31" s="71">
         <f t="shared" si="11"/>
-        <v>9.1325841640000007</v>
+        <v>9.0389166490000008</v>
       </c>
       <c r="G31" s="71">
         <f t="shared" si="11"/>
-        <v>8.7492300940000014</v>
+        <v>8.6516343489999983</v>
       </c>
       <c r="H31" s="71">
         <f t="shared" si="11"/>
-        <v>9.2188749439999995</v>
+        <v>9.1252460689999992</v>
       </c>
       <c r="I31" s="71">
         <f t="shared" si="11"/>
-        <v>9.1642983240000007</v>
+        <v>9.0927571490000005</v>
       </c>
       <c r="J31" s="71">
         <f t="shared" si="11"/>
-        <v>8.7510514239999999</v>
+        <v>8.7389918289999997</v>
       </c>
       <c r="K31" s="71">
         <f t="shared" si="11"/>
-        <v>8.7396687140000004</v>
+        <v>8.7243052890000001</v>
       </c>
       <c r="M31" s="4">
         <f t="shared" si="8"/>
-        <v>9.2188749439999995</v>
+        <v>9.1254899489999985</v>
       </c>
       <c r="N31" s="4">
         <f t="shared" si="9"/>
-        <v>8.7396687140000004</v>
+        <v>8.6516343489999983</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="10"/>
-        <v>9.0104676202500009</v>
+        <v>8.938342006500001</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="12.75">
@@ -13892,35 +13892,35 @@
       </c>
       <c r="D35" s="4">
         <f t="shared" ref="D35:K35" si="12">MAX(D28:D31)</f>
-        <v>11.340115106000001</v>
+        <v>11.276054586000001</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="12"/>
-        <v>11.128983366</v>
+        <v>11.061008026</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="12"/>
-        <v>11.654717866</v>
+        <v>11.559452136000001</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="12"/>
-        <v>10.885533196000001</v>
+        <v>10.616605226000001</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="12"/>
-        <v>10.954486006</v>
+        <v>10.877858996000001</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" si="12"/>
-        <v>11.158715716</v>
+        <v>10.971614616</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="12"/>
-        <v>10.731717406000001</v>
+        <v>10.580259946</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" si="12"/>
-        <v>10.703981076</v>
+        <v>10.641287666</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="12.75">
@@ -13929,35 +13929,35 @@
       </c>
       <c r="D36" s="4">
         <f t="shared" ref="D36:K36" si="13">MIN(D28:D31)</f>
-        <v>9.1185255940000012</v>
+        <v>9.009394769</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="13"/>
-        <v>8.9903825800000003</v>
+        <v>8.9729113190000014</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="13"/>
-        <v>9.1325841640000007</v>
+        <v>9.0389166490000008</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="13"/>
-        <v>8.7492300940000014</v>
+        <v>8.6516343489999983</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" si="13"/>
-        <v>9.2188749439999995</v>
+        <v>9.1252460689999992</v>
       </c>
       <c r="I36" s="4">
         <f t="shared" si="13"/>
-        <v>9.1642983240000007</v>
+        <v>9.0927571490000005</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="13"/>
-        <v>8.6373085800000009</v>
+        <v>8.6284788890000002</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" si="13"/>
-        <v>8.7282744599999997</v>
+        <v>8.720893899</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="12.75">
@@ -13966,35 +13966,35 @@
       </c>
       <c r="D37" s="4">
         <f t="shared" ref="D37:K37" si="14">AVERAGE(D28:D31)</f>
-        <v>9.9233205244999994</v>
+        <v>9.8763337212499991</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="14"/>
-        <v>9.7129967794999992</v>
+        <v>9.6700156337499994</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" si="14"/>
-        <v>10.4167964995</v>
+        <v>10.308437816250001</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="14"/>
-        <v>9.6542191620000004</v>
+        <v>9.56096720625</v>
       </c>
       <c r="H37" s="4">
         <f t="shared" si="14"/>
-        <v>9.7367703494999986</v>
+        <v>9.6931964837500004</v>
       </c>
       <c r="I37" s="4">
         <f t="shared" si="14"/>
-        <v>9.8234631070000002</v>
+        <v>9.7580363112500006</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="14"/>
-        <v>9.374136689500002</v>
+        <v>9.3182869887499997</v>
       </c>
       <c r="K37" s="4">
         <f t="shared" si="14"/>
-        <v>9.2825833845000005</v>
+        <v>9.2592984337500006</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="12.75">
@@ -14103,63 +14103,63 @@
       </c>
       <c r="C44" s="4">
         <f t="shared" ref="C44:K44" si="15">C15*$J6</f>
-        <v>132.57810432719998</v>
+        <v>130.12495831620001</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="15"/>
-        <v>975.14865670300003</v>
+        <v>967.93581405600003</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="15"/>
-        <v>959.46156842099992</v>
+        <v>951.95785464799997</v>
       </c>
       <c r="F44" s="4">
         <f t="shared" si="15"/>
-        <v>998.52364177099992</v>
+        <v>988.99225202100001</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="15"/>
-        <v>941.37322079</v>
+        <v>918.93872660800002</v>
       </c>
       <c r="H44" s="4">
         <f t="shared" si="15"/>
-        <v>946.49641457299992</v>
+        <v>938.349881719</v>
       </c>
       <c r="I44" s="4">
         <f t="shared" si="15"/>
-        <v>961.67068202599989</v>
+        <v>945.31592428499994</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="15"/>
-        <v>929.94470759299998</v>
+        <v>916.23827230399991</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="15"/>
-        <v>927.88389827399988</v>
+        <v>920.77263189999996</v>
       </c>
       <c r="M44" s="4">
         <f t="shared" ref="M44:M47" si="16">MAX(D44:K44)</f>
-        <v>998.52364177099992</v>
+        <v>988.99225202100001</v>
       </c>
       <c r="N44" s="4">
         <f t="shared" ref="N44:N47" si="17">MIN(D44:K44)</f>
-        <v>927.88389827399988</v>
+        <v>916.23827230399991</v>
       </c>
       <c r="O44" s="4">
         <f t="shared" ref="O44:O47" si="18">AVERAGE(D44:K44)</f>
-        <v>955.06284876887491</v>
+        <v>943.56266969262504</v>
       </c>
       <c r="Q44" s="4">
         <f>MAX(D44:K47)</f>
-        <v>1036.3878709746666</v>
+        <v>1020.9611191293332</v>
       </c>
       <c r="R44" s="4">
         <f>MIN(D44:K47)</f>
-        <v>685.00525052</v>
+        <v>684.63149780166657</v>
       </c>
       <c r="S44" s="4">
         <f>AVERAGE(D44:K47)</f>
-        <v>860.91954169803114</v>
+        <v>854.14135821062484</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="12.75">
@@ -14171,51 +14171,51 @@
       </c>
       <c r="C45" s="4">
         <f t="shared" ref="C45:K45" si="19">C16*$J7</f>
-        <v>107.74512708999998</v>
+        <v>107.9614920535</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" si="19"/>
-        <v>735.51630859166653</v>
+        <v>735.56453886666668</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" si="19"/>
-        <v>708.60236285333326</v>
+        <v>707.65106520666666</v>
       </c>
       <c r="F45" s="4">
         <f t="shared" si="19"/>
-        <v>775.70782548</v>
+        <v>772.26840771166667</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="19"/>
-        <v>729.72669264666661</v>
+        <v>730.15599656333325</v>
       </c>
       <c r="H45" s="4">
         <f t="shared" si="19"/>
-        <v>726.00171408999984</v>
+        <v>725.87015534666659</v>
       </c>
       <c r="I45" s="4">
         <f t="shared" si="19"/>
-        <v>734.4425488866666</v>
+        <v>734.44378196166667</v>
       </c>
       <c r="J45" s="4">
         <f t="shared" si="19"/>
-        <v>685.00525052</v>
+        <v>684.63149780166657</v>
       </c>
       <c r="K45" s="4">
         <f t="shared" si="19"/>
-        <v>691.08480349999991</v>
+        <v>690.80790096999988</v>
       </c>
       <c r="M45" s="4">
         <f t="shared" si="16"/>
-        <v>775.70782548</v>
+        <v>772.26840771166667</v>
       </c>
       <c r="N45" s="4">
         <f t="shared" si="17"/>
-        <v>685.00525052</v>
+        <v>684.63149780166657</v>
       </c>
       <c r="O45" s="4">
         <f t="shared" si="18"/>
-        <v>723.26093832104164</v>
+        <v>722.67416805354151</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="12.75">
@@ -14227,51 +14227,51 @@
       </c>
       <c r="C46" s="4">
         <f t="shared" ref="C46:K46" si="20">C17*$J8</f>
-        <v>122.6555019684</v>
+        <v>123.26604138330001</v>
       </c>
       <c r="D46" s="4">
         <f t="shared" si="20"/>
-        <v>759.40420027200003</v>
+        <v>759.22280282300005</v>
       </c>
       <c r="E46" s="4">
         <f t="shared" si="20"/>
-        <v>738.80094334800003</v>
+        <v>739.25230607600008</v>
       </c>
       <c r="F46" s="4">
         <f t="shared" si="20"/>
-        <v>826.94279889999996</v>
+        <v>815.27318145900006</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="20"/>
-        <v>748.67044633300009</v>
+        <v>748.65532206099999</v>
       </c>
       <c r="H46" s="4">
         <f t="shared" si="20"/>
-        <v>738.79350155400004</v>
+        <v>739.47949818500001</v>
       </c>
       <c r="I46" s="4">
         <f t="shared" si="20"/>
-        <v>743.37563060600007</v>
+        <v>743.99613530900001</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" si="20"/>
-        <v>729.31306878400005</v>
+        <v>726.62054011099997</v>
       </c>
       <c r="K46" s="4">
         <f t="shared" si="20"/>
-        <v>702.26458290200003</v>
+        <v>702.37677658400003</v>
       </c>
       <c r="M46" s="4">
         <f t="shared" si="16"/>
-        <v>826.94279889999996</v>
+        <v>815.27318145900006</v>
       </c>
       <c r="N46" s="4">
         <f t="shared" si="17"/>
-        <v>702.26458290200003</v>
+        <v>702.37677658400003</v>
       </c>
       <c r="O46" s="4">
         <f t="shared" si="18"/>
-        <v>748.44564658737511</v>
+        <v>746.85957032600004</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="12.75">
@@ -14283,51 +14283,51 @@
       </c>
       <c r="C47" s="4">
         <f t="shared" ref="C47:K47" si="21">C18*$J9</f>
-        <v>174.73035954213333</v>
+        <v>168.03199189613332</v>
       </c>
       <c r="D47" s="4">
         <f t="shared" si="21"/>
-        <v>1027.0085517279999</v>
+        <v>1010.1100896386664</v>
       </c>
       <c r="E47" s="4">
         <f t="shared" si="21"/>
-        <v>1035.5123462759998</v>
+        <v>1020.9611191293332</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" si="21"/>
-        <v>1028.3225594039998</v>
+        <v>1012.8694013559999</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="21"/>
-        <v>992.4917323279999</v>
+        <v>976.67141571599984</v>
       </c>
       <c r="H47" s="4">
         <f t="shared" si="21"/>
-        <v>1036.3878709746666</v>
+        <v>1020.9383244786666</v>
       </c>
       <c r="I47" s="4">
         <f t="shared" si="21"/>
-        <v>1031.2867762253331</v>
+        <v>1017.9016934226665</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" si="21"/>
-        <v>992.66196597199996</v>
+        <v>984.83642817999998</v>
       </c>
       <c r="K47" s="4">
         <f t="shared" si="21"/>
-        <v>991.59806201066647</v>
+        <v>983.46372624133312</v>
       </c>
       <c r="M47" s="4">
         <f t="shared" si="16"/>
-        <v>1036.3878709746666</v>
+        <v>1020.9611191293332</v>
       </c>
       <c r="N47" s="4">
         <f t="shared" si="17"/>
-        <v>991.59806201066647</v>
+        <v>976.67141571599984</v>
       </c>
       <c r="O47" s="4">
         <f t="shared" si="18"/>
-        <v>1016.9087331148331</v>
+        <v>1003.4690247703332</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="12.75">
@@ -14352,39 +14352,39 @@
       </c>
       <c r="C50" s="3">
         <f t="shared" ref="C50:K50" si="22">MAX(C44:C47)</f>
-        <v>174.73035954213333</v>
+        <v>168.03199189613332</v>
       </c>
       <c r="D50" s="3">
         <f t="shared" si="22"/>
-        <v>1027.0085517279999</v>
+        <v>1010.1100896386664</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" si="22"/>
-        <v>1035.5123462759998</v>
+        <v>1020.9611191293332</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="22"/>
-        <v>1028.3225594039998</v>
+        <v>1012.8694013559999</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="22"/>
-        <v>992.4917323279999</v>
+        <v>976.67141571599984</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="22"/>
-        <v>1036.3878709746666</v>
+        <v>1020.9383244786666</v>
       </c>
       <c r="I50" s="3">
         <f t="shared" si="22"/>
-        <v>1031.2867762253331</v>
+        <v>1017.9016934226665</v>
       </c>
       <c r="J50" s="3">
         <f t="shared" si="22"/>
-        <v>992.66196597199996</v>
+        <v>984.83642817999998</v>
       </c>
       <c r="K50" s="3">
         <f t="shared" si="22"/>
-        <v>991.59806201066647</v>
+        <v>983.46372624133312</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="12.75">
@@ -14394,39 +14394,39 @@
       </c>
       <c r="C51" s="3">
         <f t="shared" ref="C51:K51" si="23">MIN(C44:C47)</f>
-        <v>107.74512708999998</v>
+        <v>107.9614920535</v>
       </c>
       <c r="D51" s="3">
         <f t="shared" si="23"/>
-        <v>735.51630859166653</v>
+        <v>735.56453886666668</v>
       </c>
       <c r="E51" s="3">
         <f t="shared" si="23"/>
-        <v>708.60236285333326</v>
+        <v>707.65106520666666</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" si="23"/>
-        <v>775.70782548</v>
+        <v>772.26840771166667</v>
       </c>
       <c r="G51" s="3">
         <f t="shared" si="23"/>
-        <v>729.72669264666661</v>
+        <v>730.15599656333325</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="23"/>
-        <v>726.00171408999984</v>
+        <v>725.87015534666659</v>
       </c>
       <c r="I51" s="3">
         <f t="shared" si="23"/>
-        <v>734.4425488866666</v>
+        <v>734.44378196166667</v>
       </c>
       <c r="J51" s="3">
         <f t="shared" si="23"/>
-        <v>685.00525052</v>
+        <v>684.63149780166657</v>
       </c>
       <c r="K51" s="3">
         <f t="shared" si="23"/>
-        <v>691.08480349999991</v>
+        <v>690.80790096999988</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="12.75">
@@ -14436,39 +14436,39 @@
       </c>
       <c r="C52" s="3">
         <f t="shared" ref="C52:K52" si="24">AVERAGE(C44:C47)</f>
-        <v>134.42727323193333</v>
+        <v>132.34612091228331</v>
       </c>
       <c r="D52" s="3">
         <f t="shared" si="24"/>
-        <v>874.26942932366671</v>
+        <v>868.20831134608329</v>
       </c>
       <c r="E52" s="3">
         <f t="shared" si="24"/>
-        <v>860.59430522458331</v>
+        <v>854.95558626499997</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="24"/>
-        <v>907.37420638874983</v>
+        <v>897.35081063691666</v>
       </c>
       <c r="G52" s="3">
         <f t="shared" si="24"/>
-        <v>853.06552302441673</v>
+        <v>843.60536523708333</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="24"/>
-        <v>861.91987529791663</v>
+        <v>856.15946493233332</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" si="24"/>
-        <v>867.6939094359999</v>
+        <v>860.41438374458335</v>
       </c>
       <c r="J52" s="3">
         <f t="shared" si="24"/>
-        <v>834.23124821724991</v>
+        <v>828.08168459916658</v>
       </c>
       <c r="K52" s="3">
         <f t="shared" si="24"/>
-        <v>828.20783667166666</v>
+        <v>824.35525892383328</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="12.75">
@@ -14582,59 +14582,59 @@
       </c>
       <c r="D57" s="4">
         <f t="shared" ref="D57:K60" si="25">D28*$J6</f>
-        <v>842.57055237580005</v>
+        <v>837.81085573979999</v>
       </c>
       <c r="E57" s="4">
         <f t="shared" si="25"/>
-        <v>826.88346409379994</v>
+        <v>821.83289633179993</v>
       </c>
       <c r="F57" s="4">
         <f t="shared" si="25"/>
-        <v>865.94553744380005</v>
+        <v>858.86729370479998</v>
       </c>
       <c r="G57" s="4">
         <f t="shared" si="25"/>
-        <v>808.79511646280002</v>
+        <v>788.81376829179999</v>
       </c>
       <c r="H57" s="4">
         <f t="shared" si="25"/>
-        <v>813.91831024579994</v>
+        <v>808.22492340279996</v>
       </c>
       <c r="I57" s="4">
         <f t="shared" si="25"/>
-        <v>829.09257769879991</v>
+        <v>815.19096596880001</v>
       </c>
       <c r="J57" s="4">
         <f t="shared" si="25"/>
-        <v>797.36660326580011</v>
+        <v>786.11331398779998</v>
       </c>
       <c r="K57" s="4">
         <f t="shared" si="25"/>
-        <v>795.30579394680001</v>
+        <v>790.64767358379993</v>
       </c>
       <c r="M57" s="4">
         <f t="shared" ref="M57:M60" si="26">MAX(D57:K57)</f>
-        <v>865.94553744380005</v>
+        <v>858.86729370479998</v>
       </c>
       <c r="N57" s="4">
         <f t="shared" ref="N57:N60" si="27">MIN(D57:K57)</f>
-        <v>795.30579394680001</v>
+        <v>786.11331398779998</v>
       </c>
       <c r="O57" s="4">
         <f t="shared" ref="O57:O60" si="28">AVERAGE(D57:K57)</f>
-        <v>822.48474444167505</v>
+        <v>813.43771137642489</v>
       </c>
       <c r="Q57" s="4">
         <f>MAX(D57:K60)</f>
-        <v>865.94553744380005</v>
+        <v>858.86729370479998</v>
       </c>
       <c r="R57" s="4">
         <f>MIN(D57:K60)</f>
-        <v>577.26012343000002</v>
+        <v>576.67000574816666</v>
       </c>
       <c r="S57" s="4">
         <f>AVERAGE(D57:K60)</f>
-        <v>726.49226846609781</v>
+        <v>721.79523729834159</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="12.75">
@@ -14646,47 +14646,47 @@
       </c>
       <c r="D58" s="4">
         <f t="shared" si="25"/>
-        <v>627.77118150166666</v>
+        <v>627.60304681316666</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="25"/>
-        <v>600.85723576333328</v>
+        <v>599.68957315316675</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="25"/>
-        <v>667.96269839000001</v>
+        <v>664.30691565816664</v>
       </c>
       <c r="G58" s="4">
         <f t="shared" si="25"/>
-        <v>621.98156555666662</v>
+        <v>622.19450450983334</v>
       </c>
       <c r="H58" s="4">
         <f t="shared" si="25"/>
-        <v>618.25658699999997</v>
+        <v>617.90866329316668</v>
       </c>
       <c r="I58" s="4">
         <f t="shared" si="25"/>
-        <v>626.69742179666662</v>
+        <v>626.48228990816665</v>
       </c>
       <c r="J58" s="4">
         <f t="shared" si="25"/>
-        <v>577.26012343000002</v>
+        <v>576.67000574816666</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" si="25"/>
-        <v>583.33967640999992</v>
+        <v>582.84640891649997</v>
       </c>
       <c r="M58" s="4">
         <f t="shared" si="26"/>
-        <v>667.96269839000001</v>
+        <v>664.30691565816664</v>
       </c>
       <c r="N58" s="4">
         <f t="shared" si="27"/>
-        <v>577.26012343000002</v>
+        <v>576.67000574816666</v>
       </c>
       <c r="O58" s="4">
         <f t="shared" si="28"/>
-        <v>615.51581123104165</v>
+        <v>614.71267600004171</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="12.75">
@@ -14698,47 +14698,47 @@
       </c>
       <c r="D59" s="4">
         <f t="shared" si="25"/>
-        <v>636.74869830360001</v>
+        <v>635.95676143970002</v>
       </c>
       <c r="E59" s="4">
         <f t="shared" si="25"/>
-        <v>616.14544137960002</v>
+        <v>615.98626469270005</v>
       </c>
       <c r="F59" s="4">
         <f t="shared" si="25"/>
-        <v>704.28729693159994</v>
+        <v>692.00714007570002</v>
       </c>
       <c r="G59" s="4">
         <f t="shared" si="25"/>
-        <v>626.01494436459996</v>
+        <v>625.38928067769996</v>
       </c>
       <c r="H59" s="4">
         <f t="shared" si="25"/>
-        <v>616.13799958560003</v>
+        <v>616.21345680169998</v>
       </c>
       <c r="I59" s="4">
         <f t="shared" si="25"/>
-        <v>620.72012863760006</v>
+        <v>620.73009392569998</v>
       </c>
       <c r="J59" s="4">
         <f t="shared" si="25"/>
-        <v>606.65756681560003</v>
+        <v>603.35449872769993</v>
       </c>
       <c r="K59" s="4">
         <f t="shared" si="25"/>
-        <v>579.60908093360001</v>
+        <v>579.11073520069988</v>
       </c>
       <c r="M59" s="4">
         <f t="shared" si="26"/>
-        <v>704.28729693159994</v>
+        <v>692.00714007570002</v>
       </c>
       <c r="N59" s="4">
         <f t="shared" si="27"/>
-        <v>579.60908093360001</v>
+        <v>579.11073520069988</v>
       </c>
       <c r="O59" s="4">
         <f t="shared" si="28"/>
-        <v>625.79014461897509</v>
+        <v>623.5935289427</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="12.75">
@@ -14750,47 +14750,47 @@
       </c>
       <c r="D60" s="4">
         <f t="shared" si="25"/>
-        <v>852.27819218586671</v>
+        <v>842.07809774253326</v>
       </c>
       <c r="E60" s="4">
         <f t="shared" si="25"/>
-        <v>860.78198673386657</v>
+        <v>852.92912723319978</v>
       </c>
       <c r="F60" s="4">
         <f t="shared" si="25"/>
-        <v>853.59219986186667</v>
+        <v>844.83740945986665</v>
       </c>
       <c r="G60" s="4">
         <f t="shared" si="25"/>
-        <v>817.76137278586668</v>
+        <v>808.63942381986635</v>
       </c>
       <c r="H60" s="4">
         <f t="shared" si="25"/>
-        <v>861.65751143253317</v>
+        <v>852.9063325825332</v>
       </c>
       <c r="I60" s="4">
         <f t="shared" si="25"/>
-        <v>856.55641668319993</v>
+        <v>849.86970152653328</v>
       </c>
       <c r="J60" s="4">
         <f t="shared" si="25"/>
-        <v>817.93160642986652</v>
+        <v>816.80443628386649</v>
       </c>
       <c r="K60" s="4">
         <f t="shared" si="25"/>
-        <v>816.86770246853325</v>
+        <v>815.43173434519986</v>
       </c>
       <c r="M60" s="4">
         <f t="shared" si="26"/>
-        <v>861.65751143253317</v>
+        <v>852.92912723319978</v>
       </c>
       <c r="N60" s="4">
         <f t="shared" si="27"/>
-        <v>816.86770246853325</v>
+        <v>808.63942381986635</v>
       </c>
       <c r="O60" s="4">
         <f t="shared" si="28"/>
-        <v>842.17837357269991</v>
+        <v>835.43703287419999</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="12.75">
@@ -14804,35 +14804,35 @@
       </c>
       <c r="D64" s="4">
         <f t="shared" ref="D64:K64" si="29">MAX(D57:D60)</f>
-        <v>852.27819218586671</v>
+        <v>842.07809774253326</v>
       </c>
       <c r="E64" s="4">
         <f t="shared" si="29"/>
-        <v>860.78198673386657</v>
+        <v>852.92912723319978</v>
       </c>
       <c r="F64" s="4">
         <f t="shared" si="29"/>
-        <v>865.94553744380005</v>
+        <v>858.86729370479998</v>
       </c>
       <c r="G64" s="4">
         <f t="shared" si="29"/>
-        <v>817.76137278586668</v>
+        <v>808.63942381986635</v>
       </c>
       <c r="H64" s="4">
         <f t="shared" si="29"/>
-        <v>861.65751143253317</v>
+        <v>852.9063325825332</v>
       </c>
       <c r="I64" s="4">
         <f t="shared" si="29"/>
-        <v>856.55641668319993</v>
+        <v>849.86970152653328</v>
       </c>
       <c r="J64" s="4">
         <f t="shared" si="29"/>
-        <v>817.93160642986652</v>
+        <v>816.80443628386649</v>
       </c>
       <c r="K64" s="4">
         <f t="shared" si="29"/>
-        <v>816.86770246853325</v>
+        <v>815.43173434519986</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="12.75">
@@ -14841,35 +14841,35 @@
       </c>
       <c r="D65" s="4">
         <f t="shared" ref="D65:K65" si="30">MIN(D57:D60)</f>
-        <v>627.77118150166666</v>
+        <v>627.60304681316666</v>
       </c>
       <c r="E65" s="4">
         <f t="shared" si="30"/>
-        <v>600.85723576333328</v>
+        <v>599.68957315316675</v>
       </c>
       <c r="F65" s="4">
         <f t="shared" si="30"/>
-        <v>667.96269839000001</v>
+        <v>664.30691565816664</v>
       </c>
       <c r="G65" s="4">
         <f t="shared" si="30"/>
-        <v>621.98156555666662</v>
+        <v>622.19450450983334</v>
       </c>
       <c r="H65" s="4">
         <f t="shared" si="30"/>
-        <v>616.13799958560003</v>
+        <v>616.21345680169998</v>
       </c>
       <c r="I65" s="4">
         <f t="shared" si="30"/>
-        <v>620.72012863760006</v>
+        <v>620.73009392569998</v>
       </c>
       <c r="J65" s="4">
         <f t="shared" si="30"/>
-        <v>577.26012343000002</v>
+        <v>576.67000574816666</v>
       </c>
       <c r="K65" s="4">
         <f t="shared" si="30"/>
-        <v>579.60908093360001</v>
+        <v>579.11073520069988</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="12.75">
@@ -14878,35 +14878,35 @@
       </c>
       <c r="D66" s="4">
         <f t="shared" ref="D66:K66" si="31">AVERAGE(D57:D60)</f>
-        <v>739.84215609173339</v>
+        <v>735.86219043380004</v>
       </c>
       <c r="E66" s="4">
         <f t="shared" si="31"/>
-        <v>726.16703199264998</v>
+        <v>722.6094653527166</v>
       </c>
       <c r="F66" s="4">
         <f t="shared" si="31"/>
-        <v>772.94693315681661</v>
+        <v>765.00468972463329</v>
       </c>
       <c r="G66" s="4">
         <f t="shared" si="31"/>
-        <v>718.63824979248329</v>
+        <v>711.25924432479985</v>
       </c>
       <c r="H66" s="4">
         <f t="shared" si="31"/>
-        <v>727.49260206598331</v>
+        <v>723.81334402004995</v>
       </c>
       <c r="I66" s="4">
         <f t="shared" si="31"/>
-        <v>733.26663620406657</v>
+        <v>728.06826283229998</v>
       </c>
       <c r="J66" s="4">
         <f t="shared" si="31"/>
-        <v>699.8039749853167</v>
+        <v>695.73556368688321</v>
       </c>
       <c r="K66" s="4">
         <f t="shared" si="31"/>
-        <v>693.78056343973321</v>
+        <v>692.00913801154991</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="15.75" customHeight="1">
@@ -14929,440 +14929,440 @@
       <c r="I70" s="77"/>
       <c r="N70" s="77"/>
     </row>
-    <row r="71" spans="1:22" s="83" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B71" s="83" t="s">
+    <row r="71" spans="1:22" s="80" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B71" s="80" t="s">
         <v>388</v>
       </c>
-      <c r="I71" s="84"/>
-      <c r="J71" s="84"/>
-      <c r="K71" s="84"/>
-      <c r="N71" s="84"/>
-      <c r="O71" s="84"/>
-      <c r="P71" s="84"/>
-    </row>
-    <row r="72" spans="1:22" s="83" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A72" s="84"/>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84" t="s">
+      <c r="I71" s="81"/>
+      <c r="J71" s="81"/>
+      <c r="K71" s="81"/>
+      <c r="N71" s="81"/>
+      <c r="O71" s="81"/>
+      <c r="P71" s="81"/>
+    </row>
+    <row r="72" spans="1:22" s="80" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A72" s="81"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="E72" s="84" t="s">
+      <c r="E72" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="F72" s="84"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="84" t="s">
+      <c r="F72" s="81"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="81"/>
+      <c r="I72" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="J72" s="84" t="s">
+      <c r="J72" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="K72" s="84"/>
-      <c r="L72" s="84"/>
-      <c r="M72" s="84"/>
-      <c r="N72" s="84" t="s">
+      <c r="K72" s="81"/>
+      <c r="L72" s="81"/>
+      <c r="M72" s="81"/>
+      <c r="N72" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="O72" s="84" t="s">
+      <c r="O72" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="P72" s="84"/>
-      <c r="Q72" s="84"/>
-      <c r="R72" s="84"/>
-      <c r="S72" s="84" t="s">
+      <c r="P72" s="81"/>
+      <c r="Q72" s="81"/>
+      <c r="R72" s="81"/>
+      <c r="S72" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="T72" s="84" t="s">
+      <c r="T72" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="U72" s="84"/>
-      <c r="V72" s="84"/>
-    </row>
-    <row r="73" spans="1:22" s="83" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A73" s="84"/>
-      <c r="B73" s="84" t="s">
+      <c r="U72" s="81"/>
+      <c r="V72" s="81"/>
+    </row>
+    <row r="73" spans="1:22" s="80" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A73" s="81"/>
+      <c r="B73" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="C73" s="84" t="s">
+      <c r="C73" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="D73" s="84" t="s">
+      <c r="D73" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="E73" s="84" t="s">
+      <c r="E73" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="F73" s="84" t="s">
+      <c r="F73" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="G73" s="84" t="s">
+      <c r="G73" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="H73" s="84" t="s">
+      <c r="H73" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="I73" s="84" t="s">
+      <c r="I73" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="J73" s="84" t="s">
+      <c r="J73" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="K73" s="84" t="s">
+      <c r="K73" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="L73" s="84" t="s">
+      <c r="L73" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="M73" s="84" t="s">
+      <c r="M73" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="N73" s="84" t="s">
+      <c r="N73" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="O73" s="84" t="s">
+      <c r="O73" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="P73" s="84" t="s">
+      <c r="P73" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="Q73" s="84" t="s">
+      <c r="Q73" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="R73" s="84" t="s">
+      <c r="R73" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="S73" s="84" t="s">
+      <c r="S73" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="T73" s="84" t="s">
+      <c r="T73" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="U73" s="84" t="s">
+      <c r="U73" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="V73" s="84"/>
-    </row>
-    <row r="74" spans="1:22" s="83" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A74" s="84"/>
-      <c r="B74" s="84">
+      <c r="V73" s="81"/>
+    </row>
+    <row r="74" spans="1:22" s="80" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A74" s="81"/>
+      <c r="B74" s="81">
         <v>1</v>
       </c>
-      <c r="C74" s="84">
+      <c r="C74" s="81">
         <v>3</v>
       </c>
-      <c r="D74" s="83">
+      <c r="D74" s="80">
         <v>1.751345334</v>
       </c>
-      <c r="E74" s="83">
+      <c r="E74" s="80">
         <v>13.027399920000001</v>
       </c>
-      <c r="F74" s="83">
+      <c r="F74" s="80">
         <v>12.812353359999999</v>
       </c>
-      <c r="G74" s="84">
+      <c r="G74" s="81">
         <v>2</v>
       </c>
-      <c r="H74" s="84">
+      <c r="H74" s="81">
         <v>3</v>
       </c>
-      <c r="I74" s="83">
+      <c r="I74" s="80">
         <v>1.6153839210000001</v>
       </c>
-      <c r="J74" s="83">
+      <c r="J74" s="80">
         <v>11.0059532</v>
       </c>
-      <c r="K74" s="83">
+      <c r="K74" s="80">
         <v>10.588295240000001</v>
       </c>
-      <c r="L74" s="84">
+      <c r="L74" s="81">
         <v>3</v>
       </c>
-      <c r="M74" s="84">
+      <c r="M74" s="81">
         <v>3</v>
       </c>
-      <c r="N74" s="83">
+      <c r="N74" s="80">
         <v>1.9051938390000001</v>
       </c>
-      <c r="O74" s="83">
+      <c r="O74" s="80">
         <v>11.734510090000001</v>
       </c>
-      <c r="P74" s="83">
+      <c r="P74" s="80">
         <v>11.42584708</v>
       </c>
-      <c r="Q74" s="84">
+      <c r="Q74" s="81">
         <v>4</v>
       </c>
-      <c r="R74" s="84">
+      <c r="R74" s="81">
         <v>3</v>
       </c>
-      <c r="S74" s="83">
+      <c r="S74" s="80">
         <v>1.797774521</v>
       </c>
-      <c r="T74" s="83">
+      <c r="T74" s="80">
         <v>10.807169289999999</v>
       </c>
-      <c r="U74" s="83">
+      <c r="U74" s="80">
         <v>10.923264469999999</v>
       </c>
-      <c r="V74" s="84"/>
-    </row>
-    <row r="75" spans="1:22" s="83" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A75" s="84"/>
-      <c r="B75" s="84">
+      <c r="V74" s="81"/>
+    </row>
+    <row r="75" spans="1:22" s="80" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A75" s="81"/>
+      <c r="B75" s="81">
         <v>1</v>
       </c>
-      <c r="C75" s="84">
+      <c r="C75" s="81">
         <v>2</v>
       </c>
-      <c r="D75" s="83">
+      <c r="D75" s="80">
         <v>1.8857474729999999</v>
       </c>
-      <c r="E75" s="83">
+      <c r="E75" s="80">
         <v>11.88952067</v>
       </c>
-      <c r="F75" s="83">
+      <c r="F75" s="80">
         <v>11.374466200000001</v>
       </c>
-      <c r="G75" s="84">
+      <c r="G75" s="81">
         <v>2</v>
       </c>
-      <c r="H75" s="84">
+      <c r="H75" s="81">
         <v>2</v>
       </c>
-      <c r="I75" s="83">
+      <c r="I75" s="80">
         <v>1.582638532</v>
       </c>
-      <c r="J75" s="83">
+      <c r="J75" s="80">
         <v>10.466353270000001</v>
       </c>
-      <c r="K75" s="83">
+      <c r="K75" s="80">
         <v>10.248913780000001</v>
       </c>
-      <c r="L75" s="84">
+      <c r="L75" s="81">
         <v>3</v>
       </c>
-      <c r="M75" s="84">
+      <c r="M75" s="81">
         <v>2</v>
       </c>
-      <c r="N75" s="83">
+      <c r="N75" s="80">
         <v>1.791405567</v>
       </c>
-      <c r="O75" s="83">
+      <c r="O75" s="80">
         <v>11.1419382</v>
       </c>
-      <c r="P75" s="83">
+      <c r="P75" s="80">
         <v>10.583862140000001</v>
       </c>
-      <c r="Q75" s="84">
+      <c r="Q75" s="81">
         <v>4</v>
       </c>
-      <c r="R75" s="84">
+      <c r="R75" s="81">
         <v>2</v>
       </c>
-      <c r="S75" s="83">
+      <c r="S75" s="80">
         <v>1.6692033900000001</v>
       </c>
-      <c r="T75" s="83">
+      <c r="T75" s="80">
         <v>11.08524332</v>
       </c>
-      <c r="U75" s="83">
+      <c r="U75" s="80">
         <v>10.360162170000001</v>
       </c>
-      <c r="V75" s="84"/>
-    </row>
-    <row r="76" spans="1:22" s="83" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A76" s="84"/>
-      <c r="B76" s="84">
+      <c r="V75" s="81"/>
+    </row>
+    <row r="76" spans="1:22" s="80" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A76" s="81"/>
+      <c r="B76" s="81">
         <v>1</v>
       </c>
-      <c r="C76" s="84">
+      <c r="C76" s="81">
         <v>2</v>
       </c>
-      <c r="D76" s="83">
+      <c r="D76" s="80">
         <v>1.8857474729999999</v>
       </c>
-      <c r="E76" s="83">
+      <c r="E76" s="80">
         <v>11.49310616</v>
       </c>
-      <c r="F76" s="83">
+      <c r="F76" s="80">
         <v>11.812987659999999</v>
       </c>
-      <c r="G76" s="84">
+      <c r="G76" s="81">
         <v>2</v>
       </c>
-      <c r="H76" s="84">
+      <c r="H76" s="81">
         <v>2</v>
       </c>
-      <c r="I76" s="83">
+      <c r="I76" s="80">
         <v>1.582638532</v>
       </c>
-      <c r="J76" s="83">
+      <c r="J76" s="80">
         <v>10.4607989</v>
       </c>
-      <c r="K76" s="83">
+      <c r="K76" s="80">
         <v>10.339188050000001</v>
       </c>
-      <c r="L76" s="84">
+      <c r="L76" s="81">
         <v>3</v>
       </c>
-      <c r="M76" s="84">
+      <c r="M76" s="81">
         <v>2</v>
       </c>
-      <c r="N76" s="83">
+      <c r="N76" s="80">
         <v>1.791405567</v>
       </c>
-      <c r="O76" s="83">
+      <c r="O76" s="80">
         <v>11.291321050000001</v>
       </c>
-      <c r="P76" s="83">
+      <c r="P76" s="80">
         <v>10.89643323</v>
       </c>
-      <c r="Q76" s="84">
+      <c r="Q76" s="81">
         <v>4</v>
       </c>
-      <c r="R76" s="84">
+      <c r="R76" s="81">
         <v>2</v>
       </c>
-      <c r="S76" s="83">
+      <c r="S76" s="80">
         <v>1.6692033900000001</v>
       </c>
-      <c r="T76" s="83">
+      <c r="T76" s="80">
         <v>10.78809822</v>
       </c>
-      <c r="U76" s="83">
+      <c r="U76" s="80">
         <v>10.44195406</v>
       </c>
-      <c r="V76" s="84"/>
-    </row>
-    <row r="77" spans="1:22" s="83" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A77" s="84"/>
-      <c r="B77" s="84">
+      <c r="V76" s="81"/>
+    </row>
+    <row r="77" spans="1:22" s="80" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A77" s="81"/>
+      <c r="B77" s="81">
         <v>1</v>
       </c>
-      <c r="C77" s="84">
+      <c r="C77" s="81">
         <v>1</v>
       </c>
-      <c r="D77" s="83">
+      <c r="D77" s="80">
         <v>1.711534415</v>
       </c>
-      <c r="E77" s="83">
+      <c r="E77" s="80">
         <v>11.77550426</v>
       </c>
-      <c r="F77" s="83">
+      <c r="F77" s="80">
         <v>11.760609199999999</v>
       </c>
-      <c r="G77" s="84">
+      <c r="G77" s="81">
         <v>2</v>
       </c>
-      <c r="H77" s="84">
+      <c r="H77" s="81">
         <v>1</v>
       </c>
-      <c r="I77" s="83">
+      <c r="I77" s="80">
         <v>1.5142305439999999</v>
       </c>
-      <c r="J77" s="85">
+      <c r="J77" s="82">
         <v>10.104439449999999</v>
       </c>
-      <c r="K77" s="85">
+      <c r="K77" s="82">
         <v>10.07576607</v>
       </c>
-      <c r="L77" s="84">
+      <c r="L77" s="81">
         <v>3</v>
       </c>
-      <c r="M77" s="84">
+      <c r="M77" s="81">
         <v>1</v>
       </c>
-      <c r="N77" s="83">
+      <c r="N77" s="80">
         <v>1.578711121</v>
       </c>
-      <c r="O77" s="83">
+      <c r="O77" s="80">
         <v>11.25170795</v>
       </c>
-      <c r="P77" s="83">
+      <c r="P77" s="80">
         <v>11.321315609999999</v>
       </c>
-      <c r="Q77" s="84">
+      <c r="Q77" s="81">
         <v>4</v>
       </c>
-      <c r="R77" s="84">
+      <c r="R77" s="81">
         <v>1</v>
       </c>
-      <c r="S77" s="83">
+      <c r="S77" s="80">
         <v>1.7902534109999999</v>
       </c>
-      <c r="T77" s="83">
+      <c r="T77" s="80">
         <v>10.4876483</v>
       </c>
-      <c r="U77" s="83">
+      <c r="U77" s="80">
         <v>10.774973490000001</v>
       </c>
-      <c r="V77" s="84"/>
-    </row>
-    <row r="78" spans="1:22" s="83" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A78" s="84"/>
-      <c r="B78" s="84">
+      <c r="V77" s="81"/>
+    </row>
+    <row r="78" spans="1:22" s="80" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A78" s="81"/>
+      <c r="B78" s="81">
         <v>1</v>
       </c>
-      <c r="C78" s="84">
+      <c r="C78" s="81">
         <v>1</v>
       </c>
-      <c r="D78" s="83">
+      <c r="D78" s="80">
         <v>1.711534415</v>
       </c>
-      <c r="E78" s="83">
+      <c r="E78" s="80">
         <v>11.733416739999999</v>
       </c>
-      <c r="F78" s="83">
+      <c r="F78" s="80">
         <v>11.5305891</v>
       </c>
-      <c r="G78" s="84">
+      <c r="G78" s="81">
         <v>2</v>
       </c>
-      <c r="H78" s="84">
+      <c r="H78" s="81">
         <v>1</v>
       </c>
-      <c r="I78" s="83">
+      <c r="I78" s="80">
         <v>1.5142305439999999</v>
       </c>
-      <c r="J78" s="85">
+      <c r="J78" s="82">
         <v>10.67099247</v>
       </c>
-      <c r="K78" s="85">
+      <c r="K78" s="82">
         <v>10.806250289999999</v>
       </c>
-      <c r="L78" s="84">
+      <c r="L78" s="81">
         <v>3</v>
       </c>
-      <c r="M78" s="84">
+      <c r="M78" s="81">
         <v>1</v>
       </c>
-      <c r="N78" s="83">
+      <c r="N78" s="80">
         <v>1.578711121</v>
       </c>
-      <c r="O78" s="83">
+      <c r="O78" s="80">
         <v>11.726914519999999</v>
       </c>
-      <c r="P78" s="83">
+      <c r="P78" s="80">
         <v>11.221981599999999</v>
       </c>
-      <c r="Q78" s="84">
+      <c r="Q78" s="81">
         <v>4</v>
       </c>
-      <c r="R78" s="84">
+      <c r="R78" s="81">
         <v>1</v>
       </c>
-      <c r="S78" s="83">
+      <c r="S78" s="80">
         <v>1.7902534109999999</v>
       </c>
-      <c r="T78" s="83">
+      <c r="T78" s="80">
         <v>10.66818662</v>
       </c>
-      <c r="U78" s="83">
+      <c r="U78" s="80">
         <v>11.20134861</v>
       </c>
-      <c r="V78" s="84"/>
+      <c r="V78" s="81"/>
     </row>
     <row r="79" spans="1:22" ht="15.75" customHeight="1">
       <c r="A79" s="73"/>
@@ -16246,36 +16246,36 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="82" t="s">
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
       <c r="O10" s="1" t="s">
         <v>227</v>
       </c>
@@ -16951,36 +16951,36 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="82" t="s">
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
       <c r="O32" s="1" t="s">
         <v>227</v>
       </c>

--- a/metabolicsData_revised.xlsx
+++ b/metabolicsData_revised.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\code\repos\Stanford\delplab\projects\muscleModel\muscleEnergyModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D774B1-FEA9-4EFE-A5DC-F63FF894F9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F403A0E-4BE1-4622-9488-2959B75C2775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="key" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="sild" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,15 +33,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="393">
   <si>
     <t>study</t>
   </si>
@@ -1210,6 +1208,15 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>percent reduction on day 2</t>
+  </si>
+  <si>
+    <t>percent reduction on day 1</t>
+  </si>
+  <si>
+    <t>percent reduction on day 3</t>
   </si>
 </sst>
 </file>
@@ -2506,7 +2513,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>welk!$P$92:$P$95</c:f>
+              <c:f>welk!$S$92:$S$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2587,7 +2594,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>welk!$Q$92:$Q$95</c:f>
+              <c:f>welk!$T$92:$T$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2668,7 +2675,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>welk!$R$92:$R$95</c:f>
+              <c:f>welk!$U$92:$U$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2766,7 +2773,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>welk!$O$92:$O$95</c15:sqref>
+                          <c15:sqref>welk!$R$92:$R$95</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2843,7 +2850,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>welk!$S$92:$S$95</c15:sqref>
+                          <c15:sqref>welk!$V$92:$V$95</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3136,8 +3143,8 @@
       <xdr:rowOff>42120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>793080</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1385747</xdr:colOff>
       <xdr:row>133</xdr:row>
       <xdr:rowOff>109140</xdr:rowOff>
     </xdr:to>
@@ -11971,11 +11978,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="D86" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q92" sqref="Q92:Q95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="15" max="17" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
@@ -14859,18 +14870,27 @@
         <v>227</v>
       </c>
       <c r="O91" t="s">
+        <v>391</v>
+      </c>
+      <c r="P91" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>392</v>
+      </c>
+      <c r="R91" t="s">
         <v>228</v>
       </c>
-      <c r="P91" t="s">
+      <c r="S91" t="s">
         <v>229</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="T91" t="s">
         <v>230</v>
       </c>
-      <c r="R91" t="s">
+      <c r="U91" t="s">
         <v>231</v>
       </c>
-      <c r="S91" t="s">
+      <c r="V91" t="s">
         <v>232</v>
       </c>
     </row>
@@ -14890,15 +14910,27 @@
         <f>E74</f>
         <v>13.027399920000001</v>
       </c>
+      <c r="O92">
+        <f t="shared" ref="O92:Q95" si="19">(S92-L92)/L92*100</f>
+        <v>-0.92612800051522159</v>
+      </c>
       <c r="P92">
+        <f t="shared" si="19"/>
+        <v>-0.83469223290855366</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="19"/>
+        <v>-1.6507250972610128</v>
+      </c>
+      <c r="S92">
         <f>AVERAGE(F77:F78)</f>
         <v>11.645599149999999</v>
       </c>
-      <c r="Q92">
+      <c r="T92">
         <f>AVERAGE(F75:F76)</f>
         <v>11.593726929999999</v>
       </c>
-      <c r="R92">
+      <c r="U92">
         <f>F74</f>
         <v>12.812353359999999</v>
       </c>
@@ -14919,15 +14951,27 @@
         <f>J74</f>
         <v>11.0059532</v>
       </c>
+      <c r="O93">
+        <f t="shared" si="19"/>
+        <v>0.51303116301228957</v>
+      </c>
       <c r="P93">
+        <f t="shared" si="19"/>
+        <v>-1.6201456234740039</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="19"/>
+        <v>-3.7948367797893199</v>
+      </c>
+      <c r="S93">
         <f>AVERAGE(K77:K78)</f>
         <v>10.441008180000001</v>
       </c>
-      <c r="Q93">
+      <c r="T93">
         <f>AVERAGE(K75:K76)</f>
         <v>10.294050915</v>
       </c>
-      <c r="R93">
+      <c r="U93">
         <f>K74</f>
         <v>10.588295240000001</v>
       </c>
@@ -14948,15 +14992,27 @@
         <f>O74</f>
         <v>11.734510090000001</v>
       </c>
+      <c r="O94">
+        <f t="shared" si="19"/>
+        <v>-1.8944793604070171</v>
+      </c>
       <c r="P94">
+        <f t="shared" si="19"/>
+        <v>-4.2479956629574396</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="19"/>
+        <v>-2.6303868472791101</v>
+      </c>
+      <c r="S94">
         <f>AVERAGE(P77:P78)</f>
         <v>11.271648604999999</v>
       </c>
-      <c r="Q94">
+      <c r="T94">
         <f>AVERAGE(P75:P76)</f>
         <v>10.740147685</v>
       </c>
-      <c r="R94">
+      <c r="U94">
         <f>P74</f>
         <v>11.42584708</v>
       </c>
@@ -14977,15 +15033,27 @@
         <f>T74</f>
         <v>10.807169289999999</v>
       </c>
+      <c r="O95">
+        <f t="shared" si="19"/>
+        <v>3.8783020528503944</v>
+      </c>
       <c r="P95">
+        <f t="shared" si="19"/>
+        <v>-4.897401286589135</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="19"/>
+        <v>1.07424226348915</v>
+      </c>
+      <c r="S95">
         <f>AVERAGE(U77:U78)</f>
         <v>10.98816105</v>
       </c>
-      <c r="Q95">
+      <c r="T95">
         <f>AVERAGE(U75:U76)</f>
         <v>10.401058115000001</v>
       </c>
-      <c r="R95">
+      <c r="U95">
         <f>U74</f>
         <v>10.923264469999999</v>
       </c>

--- a/metabolicsData_revised.xlsx
+++ b/metabolicsData_revised.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\code\repos\Stanford\delplab\projects\muscleModel\muscleEnergyModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Exotendon\muscleModel\muscleEnergyModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F403A0E-4BE1-4622-9488-2959B75C2775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ADDF9D-26D9-43C9-B9E5-5B44C4799D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="key" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,61 @@
     <sheet name="demb" sheetId="6" r:id="rId6"/>
     <sheet name="sild" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">welk!$O$91</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">welk!$O$92:$O$95</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">welk!$O$91</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">welk!$O$92:$O$95</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">welk!$P$91</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">welk!$P$92:$P$95</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">welk!$Q$91</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">welk!$Q$92:$Q$95</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">welk!$O$91</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">welk!$O$92:$O$95</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">welk!$P$91</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">welk!$P$92:$P$95</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">welk!$P$91</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">welk!$Q$91</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">welk!$Q$92:$Q$95</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">welk!$O$91</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">welk!$O$92:$O$95</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">welk!$P$91</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">welk!$P$92:$P$95</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">welk!$Q$91</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">welk!$Q$92:$Q$95</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">welk!$O$91</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">welk!$O$92:$O$95</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">welk!$P$92:$P$95</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">welk!$P$91</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">welk!$P$92:$P$95</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">welk!$Q$91</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">welk!$Q$92:$Q$95</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">welk!$O$91</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">welk!$O$92:$O$95</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">welk!$P$91</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">welk!$P$92:$P$95</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">welk!$Q$91</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">welk!$Q$92:$Q$95</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">welk!$Q$91</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">welk!$O$114</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">welk!$O$115:$O$118</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">welk!$P$114</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">welk!$P$115:$P$118</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">welk!$Q$114</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">welk!$Q$115:$Q$118</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">welk!$O$91</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">welk!$O$92:$O$95</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">welk!$P$91</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">welk!$P$92:$P$95</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">welk!$Q$92:$Q$95</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">welk!$Q$91</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">welk!$Q$92:$Q$95</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">welk!$K$115:$K$117</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">welk!$O$115:$O$118</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">welk!$P$115:$P$118</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">welk!$Q$115:$Q$118</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="397">
   <si>
     <t>study</t>
   </si>
@@ -1207,9 +1260,6 @@
     <t>full exp Net cost</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>percent reduction on day 2</t>
   </si>
   <si>
@@ -1217,6 +1267,21 @@
   </si>
   <si>
     <t>percent reduction on day 3</t>
+  </si>
+  <si>
+    <t>Johanna O'Day</t>
+  </si>
+  <si>
+    <t>Brian Wu</t>
+  </si>
+  <si>
+    <t>Marissa Lee</t>
+  </si>
+  <si>
+    <t>Nick Bianco</t>
+  </si>
+  <si>
+    <t>Elliot Weiss</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1291,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1299,6 +1364,18 @@
       <color rgb="FF0C7DBB"/>
       <name val="NexusSerif"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1382,7 +1459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1490,6 +1567,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1686,7 +1769,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>welk!$B$87:$B$90</c:f>
+              <c:f>welk!$B$110:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1707,7 +1790,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>welk!$C$87:$C$90</c:f>
+              <c:f>welk!$C$110:$C$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1794,7 +1877,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>welk!$B$87:$B$90</c:f>
+              <c:f>welk!$B$110:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1815,7 +1898,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>welk!$D$87:$D$90</c:f>
+              <c:f>welk!$D$110:$D$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1902,7 +1985,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>welk!$B$87:$B$90</c:f>
+              <c:f>welk!$B$110:$B$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1923,7 +2006,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>welk!$E$87:$E$90</c:f>
+              <c:f>welk!$E$110:$E$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2270,7 +2353,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>welk!$L$92:$L$95</c:f>
+              <c:f>welk!$L$115:$L$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2351,7 +2434,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>welk!$M$92:$M$95</c:f>
+              <c:f>welk!$M$115:$M$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2432,7 +2515,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>welk!$N$92:$N$95</c:f>
+              <c:f>welk!$N$115:$N$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2513,7 +2596,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>welk!$S$92:$S$95</c:f>
+              <c:f>welk!$S$115:$S$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2594,7 +2677,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>welk!$T$92:$T$95</c:f>
+              <c:f>welk!$T$115:$T$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2675,7 +2758,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>welk!$U$92:$U$95</c:f>
+              <c:f>welk!$U$115:$U$118</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2773,7 +2856,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>welk!$R$92:$R$95</c15:sqref>
+                          <c15:sqref>welk!$R$115:$R$118</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2850,7 +2933,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>welk!$V$92:$V$95</c15:sqref>
+                          <c15:sqref>welk!$V$115:$V$118</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3097,19 +3180,1004 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Day 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>welk!$O$115:$O$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.92612800051522159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51303116301228957</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8944793604070171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8783020528503944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A3FA-464D-99AF-A7FDAC91483C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Day 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>welk!$P$115:$P$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.83469223290855366</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.6201456234740039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.2479956629574396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.897401286589135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A3FA-464D-99AF-A7FDAC91483C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Day 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="4"/>
+              <c:pt idx="0">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>welk!$Q$115:$Q$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-1.6507250972610128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.7948367797893199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.6303868472791101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.07424226348915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A3FA-464D-99AF-A7FDAC91483C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="739150992"/>
+        <c:axId val="739151320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="739150992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="739151320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="739151320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="739150992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>324000</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>28440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>228240</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3138,15 +4206,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>674688</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:colOff>738188</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>158536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1385747</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>109140</xdr:rowOff>
+      <xdr:colOff>1449247</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>66806</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3166,6 +4234,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>486834</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A05079-53CF-460A-A9F0-851D42B86B97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11976,10 +13080,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AA95"/>
+  <dimension ref="A1:AA118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D86" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q92" sqref="Q92:Q95"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -11988,12 +13092,12 @@
     <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>172</v>
       </c>
@@ -12001,7 +13105,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -12016,7 +13120,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>175</v>
       </c>
@@ -12051,7 +13155,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -12078,7 +13182,7 @@
       </c>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="19">
         <v>43891</v>
       </c>
@@ -12091,8 +13195,8 @@
       <c r="D6" s="18">
         <v>24</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>389</v>
+      <c r="E6" s="20">
+        <v>177.8</v>
       </c>
       <c r="F6" s="20">
         <v>95</v>
@@ -12114,7 +13218,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="19">
         <v>43892</v>
       </c>
@@ -12143,14 +13247,14 @@
         <v>67</v>
       </c>
       <c r="J7" s="20">
-        <f>AVERAGE(G7:I7)</f>
+        <f t="shared" ref="J7:J23" si="0">AVERAGE(G7:I7)</f>
         <v>66.833333333333329</v>
       </c>
       <c r="K7" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="19">
         <v>43893</v>
       </c>
@@ -12179,14 +13283,14 @@
         <v>64.400000000000006</v>
       </c>
       <c r="J8" s="20">
-        <f>AVERAGE(G8:I8)</f>
+        <f t="shared" si="0"/>
         <v>64.7</v>
       </c>
       <c r="K8" s="18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="19">
         <v>43894</v>
       </c>
@@ -12215,488 +13319,262 @@
         <v>93.1</v>
       </c>
       <c r="J9" s="20">
-        <f>AVERAGE(G9:I9)</f>
+        <f t="shared" si="0"/>
         <v>93.466666666666654</v>
       </c>
       <c r="K9" s="18" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="19">
+        <v>44625</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="20">
+        <v>27</v>
+      </c>
+      <c r="E10" s="20">
+        <v>177.8</v>
+      </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="M13" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="21">
-        <v>1.751345334</v>
-      </c>
-      <c r="D15" s="21">
-        <v>13.027399920000001</v>
-      </c>
-      <c r="E15" s="21">
-        <v>12.812353359999999</v>
-      </c>
-      <c r="F15" s="21">
-        <v>13.310797470000001</v>
-      </c>
-      <c r="G15" s="21">
-        <v>12.367950560000001</v>
-      </c>
-      <c r="H15" s="21">
-        <v>12.62920433</v>
-      </c>
-      <c r="I15" s="21">
-        <v>12.72295995</v>
-      </c>
-      <c r="J15" s="21">
-        <v>12.33160528</v>
-      </c>
-      <c r="K15" s="21">
-        <v>12.392633</v>
-      </c>
-      <c r="M15" s="3">
-        <f>MAX(D15:K15)</f>
-        <v>13.310797470000001</v>
-      </c>
-      <c r="N15" s="3">
-        <f>MIN(D15:K15)</f>
-        <v>12.33160528</v>
-      </c>
-      <c r="O15" s="3">
-        <f>AVERAGE(D15:K15)</f>
-        <v>12.699362983750001</v>
-      </c>
-      <c r="Q15" s="3">
-        <f>MAX(D15:K18)</f>
-        <v>13.310797470000001</v>
-      </c>
-      <c r="R15" s="3">
-        <f>MIN(D15:K18)</f>
-        <v>10.24386281</v>
-      </c>
-      <c r="S15" s="3">
-        <f>AVERAGE(D15:K18)</f>
-        <v>11.447995978124998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="21">
-        <v>1.6153839210000001</v>
-      </c>
-      <c r="D16" s="21">
-        <v>11.0059532</v>
-      </c>
-      <c r="E16" s="21">
-        <v>10.588295240000001</v>
-      </c>
-      <c r="F16" s="21">
-        <v>11.55513827</v>
-      </c>
-      <c r="G16" s="21">
-        <v>10.92502738</v>
-      </c>
-      <c r="H16" s="21">
-        <v>10.86090008</v>
-      </c>
-      <c r="I16" s="21">
-        <v>10.98918377</v>
-      </c>
-      <c r="J16" s="21">
-        <v>10.24386281</v>
-      </c>
-      <c r="K16" s="21">
-        <v>10.336277819999999</v>
-      </c>
-      <c r="M16" s="3">
-        <f>MAX(D16:K16)</f>
-        <v>11.55513827</v>
-      </c>
-      <c r="N16" s="3">
-        <f>MIN(D16:K16)</f>
-        <v>10.24386281</v>
-      </c>
-      <c r="O16" s="3">
-        <f>AVERAGE(D16:K16)</f>
-        <v>10.81307982125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15">
-      <c r="A17" s="2">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="21">
-        <v>1.9051938390000001</v>
-      </c>
-      <c r="D17" s="21">
-        <v>11.734510090000001</v>
-      </c>
-      <c r="E17" s="21">
-        <v>11.42584708</v>
-      </c>
-      <c r="F17" s="21">
-        <v>12.60082197</v>
-      </c>
-      <c r="G17" s="21">
-        <v>11.57117963</v>
-      </c>
-      <c r="H17" s="21">
-        <v>11.42935855</v>
-      </c>
-      <c r="I17" s="21">
-        <v>11.49916747</v>
-      </c>
-      <c r="J17" s="21">
-        <v>11.23061113</v>
-      </c>
-      <c r="K17" s="21">
-        <v>10.855900719999999</v>
-      </c>
-      <c r="M17" s="3">
-        <f>MAX(D17:K17)</f>
-        <v>12.60082197</v>
-      </c>
-      <c r="N17" s="3">
-        <f>MIN(D17:K17)</f>
-        <v>10.855900719999999</v>
-      </c>
-      <c r="O17" s="3">
-        <f>AVERAGE(D17:K17)</f>
-        <v>11.54342458</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15">
-      <c r="A18" s="2">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2">
-        <v>3</v>
-      </c>
-      <c r="C18" s="21">
-        <v>1.797774521</v>
-      </c>
-      <c r="D18" s="21">
-        <v>10.807169289999999</v>
-      </c>
-      <c r="E18" s="21">
-        <v>10.923264469999999</v>
-      </c>
-      <c r="F18" s="21">
-        <v>10.83669117</v>
-      </c>
-      <c r="G18" s="21">
-        <v>10.449408869999999</v>
-      </c>
-      <c r="H18" s="21">
-        <v>10.92302059</v>
-      </c>
-      <c r="I18" s="21">
-        <v>10.89053167</v>
-      </c>
-      <c r="J18" s="21">
-        <v>10.536766350000001</v>
-      </c>
-      <c r="K18" s="21">
-        <v>10.522079809999999</v>
-      </c>
-      <c r="M18" s="3">
-        <f>MAX(D18:K18)</f>
-        <v>10.923264469999999</v>
-      </c>
-      <c r="N18" s="3">
-        <f>MIN(D18:K18)</f>
-        <v>10.449408869999999</v>
-      </c>
-      <c r="O18" s="3">
-        <f>AVERAGE(D18:K18)</f>
-        <v>10.7361165275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="5"/>
-      <c r="B20" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="5"/>
-      <c r="B21" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" ref="C21:K21" si="0">MAX(C15:C18)</f>
-        <v>1.9051938390000001</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="J10" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>13.027399920000001</v>
-      </c>
-      <c r="E21" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A11" s="19">
+        <v>44626</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>12.812353359999999</v>
-      </c>
-      <c r="F21" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A12" s="19">
+        <v>44627</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="18">
+        <v>28</v>
+      </c>
+      <c r="E12" s="18">
+        <v>160</v>
+      </c>
+      <c r="F12" s="18">
+        <v>84</v>
+      </c>
+      <c r="G12" s="18">
+        <v>57.2</v>
+      </c>
+      <c r="H12" s="18">
+        <v>57.2</v>
+      </c>
+      <c r="I12" s="18">
+        <v>57.2</v>
+      </c>
+      <c r="J12" s="20">
         <f t="shared" si="0"/>
-        <v>13.310797470000001</v>
-      </c>
-      <c r="G21" s="2">
+        <v>57.20000000000001</v>
+      </c>
+      <c r="K12" s="58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A13" s="19">
+        <v>44628</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="60">
+        <v>178</v>
+      </c>
+      <c r="F13" s="60">
+        <v>91</v>
+      </c>
+      <c r="G13" s="60">
+        <v>68.040000000000006</v>
+      </c>
+      <c r="H13" s="60">
+        <v>68.040000000000006</v>
+      </c>
+      <c r="I13" s="60">
+        <v>68.040000000000006</v>
+      </c>
+      <c r="J13" s="20">
         <f t="shared" si="0"/>
-        <v>12.367950560000001</v>
-      </c>
-      <c r="H21" s="2">
+        <v>68.040000000000006</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A14" s="19">
+        <v>44629</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>394</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="J14" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>12.62920433</v>
-      </c>
-      <c r="I21" s="2">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A15" s="19">
+        <v>44630</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="J15" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>12.72295995</v>
-      </c>
-      <c r="J21" s="2">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" s="19">
+        <v>44631</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>396</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="J16" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>12.33160528</v>
-      </c>
-      <c r="K21" s="2">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A17" s="19">
+        <v>44632</v>
+      </c>
+      <c r="J17" s="20" t="e">
         <f t="shared" si="0"/>
-        <v>12.392633</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="5"/>
-      <c r="B22" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" ref="C22:K22" si="1">MIN(C15:C18)</f>
-        <v>1.6153839210000001</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="1"/>
-        <v>10.807169289999999</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="1"/>
-        <v>10.588295240000001</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>10.83669117</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="1"/>
-        <v>10.449408869999999</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="1"/>
-        <v>10.86090008</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="1"/>
-        <v>10.89053167</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="1"/>
-        <v>10.24386281</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="1"/>
-        <v>10.336277819999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="5"/>
-      <c r="B23" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" ref="C23:K23" si="2">AVERAGE(C15:C18)</f>
-        <v>1.76742440375</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="2"/>
-        <v>11.643758125</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="2"/>
-        <v>11.4374400375</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="2"/>
-        <v>12.075862220000001</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="2"/>
-        <v>11.328391610000001</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="2"/>
-        <v>11.460620887500001</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="2"/>
-        <v>11.525460715000001</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="2"/>
-        <v>11.0857113925</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="2"/>
-        <v>11.026722837499999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A18" s="19">
+        <v>44633</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A19" s="19">
+        <v>44634</v>
+      </c>
+      <c r="J19" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A20" s="19">
+        <v>44635</v>
+      </c>
+      <c r="J20" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A21" s="19">
+        <v>44636</v>
+      </c>
+      <c r="J21" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A22" s="19">
+        <v>44637</v>
+      </c>
+      <c r="J22" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="J23" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A24" s="57"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" customHeight="1">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="5"/>
@@ -12705,7 +13583,7 @@
         <v>196</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -12717,8 +13595,6 @@
       <c r="M26" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
       <c r="Q26" s="1" t="s">
         <v>199</v>
       </c>
@@ -12732,7 +13608,9 @@
       <c r="B27" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>203</v>
       </c>
@@ -12776,682 +13654,542 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" ht="15">
       <c r="A28" s="2">
         <v>1</v>
       </c>
       <c r="B28" s="2">
         <v>3</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" ref="D28:K31" si="3">D15-$C15</f>
-        <v>11.276054586000001</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="3"/>
-        <v>11.061008026</v>
-      </c>
-      <c r="F28" s="2">
-        <f t="shared" si="3"/>
-        <v>11.559452136000001</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="3"/>
-        <v>10.616605226000001</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="3"/>
-        <v>10.877858996000001</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="3"/>
-        <v>10.971614616</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="3"/>
-        <v>10.580259946</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" si="3"/>
-        <v>10.641287666</v>
+      <c r="C28" s="21">
+        <v>1.751345334</v>
+      </c>
+      <c r="D28" s="21">
+        <v>13.027399920000001</v>
+      </c>
+      <c r="E28" s="21">
+        <v>12.812353359999999</v>
+      </c>
+      <c r="F28" s="21">
+        <v>13.310797470000001</v>
+      </c>
+      <c r="G28" s="21">
+        <v>12.367950560000001</v>
+      </c>
+      <c r="H28" s="21">
+        <v>12.62920433</v>
+      </c>
+      <c r="I28" s="21">
+        <v>12.72295995</v>
+      </c>
+      <c r="J28" s="21">
+        <v>12.33160528</v>
+      </c>
+      <c r="K28" s="21">
+        <v>12.392633</v>
       </c>
       <c r="M28" s="3">
         <f>MAX(D28:K28)</f>
-        <v>11.559452136000001</v>
+        <v>13.310797470000001</v>
       </c>
       <c r="N28" s="3">
         <f>MIN(D28:K28)</f>
-        <v>10.580259946</v>
+        <v>12.33160528</v>
       </c>
       <c r="O28" s="3">
         <f>AVERAGE(D28:K28)</f>
-        <v>10.94801764975</v>
+        <v>12.699362983750001</v>
       </c>
       <c r="Q28" s="3">
         <f>MAX(D28:K31)</f>
-        <v>11.559452136000001</v>
+        <v>13.310797470000001</v>
       </c>
       <c r="R28" s="3">
         <f>MIN(D28:K31)</f>
-        <v>8.6284788890000002</v>
+        <v>10.24386281</v>
       </c>
       <c r="S28" s="3">
         <f>AVERAGE(D28:K31)</f>
-        <v>9.6805715743750014</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>11.447995978124998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15">
       <c r="A29" s="2">
         <v>2</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
-      <c r="D29" s="2">
-        <f t="shared" si="3"/>
-        <v>9.390569279000001</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="3"/>
-        <v>8.9729113190000014</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" si="3"/>
-        <v>9.9397543490000011</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="3"/>
-        <v>9.3096434590000001</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="3"/>
-        <v>9.245516159000001</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="3"/>
-        <v>9.373799849000001</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="3"/>
-        <v>8.6284788890000002</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="3"/>
-        <v>8.720893899</v>
+      <c r="C29" s="21">
+        <v>1.6153839210000001</v>
+      </c>
+      <c r="D29" s="21">
+        <v>11.0059532</v>
+      </c>
+      <c r="E29" s="21">
+        <v>10.588295240000001</v>
+      </c>
+      <c r="F29" s="21">
+        <v>11.55513827</v>
+      </c>
+      <c r="G29" s="21">
+        <v>10.92502738</v>
+      </c>
+      <c r="H29" s="21">
+        <v>10.86090008</v>
+      </c>
+      <c r="I29" s="21">
+        <v>10.98918377</v>
+      </c>
+      <c r="J29" s="21">
+        <v>10.24386281</v>
+      </c>
+      <c r="K29" s="21">
+        <v>10.336277819999999</v>
       </c>
       <c r="M29" s="3">
         <f>MAX(D29:K29)</f>
-        <v>9.9397543490000011</v>
+        <v>11.55513827</v>
       </c>
       <c r="N29" s="3">
         <f>MIN(D29:K29)</f>
-        <v>8.6284788890000002</v>
+        <v>10.24386281</v>
       </c>
       <c r="O29" s="3">
         <f>AVERAGE(D29:K29)</f>
-        <v>9.1976959002500021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>10.81307982125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15">
       <c r="A30" s="2">
         <v>3</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
       </c>
-      <c r="D30" s="2">
-        <f t="shared" si="3"/>
-        <v>9.8293162509999998</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="3"/>
-        <v>9.5206532409999998</v>
-      </c>
-      <c r="F30" s="2">
-        <f t="shared" si="3"/>
-        <v>10.695628130999999</v>
-      </c>
-      <c r="G30" s="2">
-        <f t="shared" si="3"/>
-        <v>9.6659857909999989</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="3"/>
-        <v>9.5241647109999992</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="3"/>
-        <v>9.593973630999999</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" si="3"/>
-        <v>9.3254172909999991</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" si="3"/>
-        <v>8.9507068809999986</v>
+      <c r="C30" s="21">
+        <v>1.9051938390000001</v>
+      </c>
+      <c r="D30" s="21">
+        <v>11.734510090000001</v>
+      </c>
+      <c r="E30" s="21">
+        <v>11.42584708</v>
+      </c>
+      <c r="F30" s="21">
+        <v>12.60082197</v>
+      </c>
+      <c r="G30" s="21">
+        <v>11.57117963</v>
+      </c>
+      <c r="H30" s="21">
+        <v>11.42935855</v>
+      </c>
+      <c r="I30" s="21">
+        <v>11.49916747</v>
+      </c>
+      <c r="J30" s="21">
+        <v>11.23061113</v>
+      </c>
+      <c r="K30" s="21">
+        <v>10.855900719999999</v>
       </c>
       <c r="M30" s="3">
         <f>MAX(D30:K30)</f>
-        <v>10.695628130999999</v>
+        <v>12.60082197</v>
       </c>
       <c r="N30" s="3">
         <f>MIN(D30:K30)</f>
-        <v>8.9507068809999986</v>
+        <v>10.855900719999999</v>
       </c>
       <c r="O30" s="3">
         <f>AVERAGE(D30:K30)</f>
-        <v>9.6382307409999992</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>11.54342458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15">
       <c r="A31" s="2">
         <v>4</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
       </c>
-      <c r="D31" s="2">
-        <f t="shared" si="3"/>
-        <v>9.009394769</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="3"/>
-        <v>9.1254899489999985</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="3"/>
-        <v>9.0389166490000008</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" si="3"/>
-        <v>8.6516343489999983</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="3"/>
-        <v>9.1252460689999992</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="3"/>
-        <v>9.0927571490000005</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" si="3"/>
-        <v>8.7389918289999997</v>
-      </c>
-      <c r="K31" s="2">
-        <f t="shared" si="3"/>
-        <v>8.7243052890000001</v>
+      <c r="C31" s="21">
+        <v>1.797774521</v>
+      </c>
+      <c r="D31" s="21">
+        <v>10.807169289999999</v>
+      </c>
+      <c r="E31" s="21">
+        <v>10.923264469999999</v>
+      </c>
+      <c r="F31" s="21">
+        <v>10.83669117</v>
+      </c>
+      <c r="G31" s="21">
+        <v>10.449408869999999</v>
+      </c>
+      <c r="H31" s="21">
+        <v>10.92302059</v>
+      </c>
+      <c r="I31" s="21">
+        <v>10.89053167</v>
+      </c>
+      <c r="J31" s="21">
+        <v>10.536766350000001</v>
+      </c>
+      <c r="K31" s="21">
+        <v>10.522079809999999</v>
       </c>
       <c r="M31" s="3">
         <f>MAX(D31:K31)</f>
-        <v>9.1254899489999985</v>
+        <v>10.923264469999999</v>
       </c>
       <c r="N31" s="3">
         <f>MIN(D31:K31)</f>
-        <v>8.6516343489999983</v>
+        <v>10.449408869999999</v>
       </c>
       <c r="O31" s="3">
         <f>AVERAGE(D31:K31)</f>
-        <v>8.938342006500001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="B34" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
-      <c r="B35" s="1" t="s">
+        <v>10.7361165275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" ht="15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:15" ht="15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" ht="15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" ht="15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" ht="15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" ht="15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" ht="15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" ht="15">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" ht="15">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="5"/>
+      <c r="B43" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="5"/>
+      <c r="B44" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D35" s="3">
-        <f t="shared" ref="D35:K35" si="4">MAX(D28:D31)</f>
-        <v>11.276054586000001</v>
-      </c>
-      <c r="E35" s="3">
-        <f t="shared" si="4"/>
-        <v>11.061008026</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" si="4"/>
-        <v>11.559452136000001</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="4"/>
-        <v>10.616605226000001</v>
-      </c>
-      <c r="H35" s="3">
-        <f t="shared" si="4"/>
-        <v>10.877858996000001</v>
-      </c>
-      <c r="I35" s="3">
-        <f t="shared" si="4"/>
-        <v>10.971614616</v>
-      </c>
-      <c r="J35" s="3">
-        <f t="shared" si="4"/>
-        <v>10.580259946</v>
-      </c>
-      <c r="K35" s="3">
-        <f t="shared" si="4"/>
-        <v>10.641287666</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="B36" s="1" t="s">
+      <c r="C44" s="2">
+        <f t="shared" ref="C44:K44" si="1">MAX(C28:C31)</f>
+        <v>1.9051938390000001</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="1"/>
+        <v>13.027399920000001</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="1"/>
+        <v>12.812353359999999</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="1"/>
+        <v>13.310797470000001</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="1"/>
+        <v>12.367950560000001</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="1"/>
+        <v>12.62920433</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="1"/>
+        <v>12.72295995</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="1"/>
+        <v>12.33160528</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="1"/>
+        <v>12.392633</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="5"/>
+      <c r="B45" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D36" s="3">
-        <f t="shared" ref="D36:K36" si="5">MIN(D28:D31)</f>
-        <v>9.009394769</v>
-      </c>
-      <c r="E36" s="3">
-        <f t="shared" si="5"/>
-        <v>8.9729113190000014</v>
-      </c>
-      <c r="F36" s="3">
-        <f t="shared" si="5"/>
-        <v>9.0389166490000008</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" si="5"/>
-        <v>8.6516343489999983</v>
-      </c>
-      <c r="H36" s="3">
-        <f t="shared" si="5"/>
-        <v>9.1252460689999992</v>
-      </c>
-      <c r="I36" s="3">
-        <f t="shared" si="5"/>
-        <v>9.0927571490000005</v>
-      </c>
-      <c r="J36" s="3">
-        <f t="shared" si="5"/>
-        <v>8.6284788890000002</v>
-      </c>
-      <c r="K36" s="3">
-        <f t="shared" si="5"/>
-        <v>8.720893899</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="B37" s="1" t="s">
+      <c r="C45" s="2">
+        <f t="shared" ref="C45:K45" si="2">MIN(C28:C31)</f>
+        <v>1.6153839210000001</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="2"/>
+        <v>10.807169289999999</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="2"/>
+        <v>10.588295240000001</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="2"/>
+        <v>10.83669117</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="2"/>
+        <v>10.449408869999999</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="2"/>
+        <v>10.86090008</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="2"/>
+        <v>10.89053167</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="2"/>
+        <v>10.24386281</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="2"/>
+        <v>10.336277819999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="5"/>
+      <c r="B46" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D37" s="3">
-        <f t="shared" ref="D37:K37" si="6">AVERAGE(D28:D31)</f>
-        <v>9.8763337212499991</v>
-      </c>
-      <c r="E37" s="3">
-        <f t="shared" si="6"/>
-        <v>9.6700156337499994</v>
-      </c>
-      <c r="F37" s="3">
-        <f t="shared" si="6"/>
-        <v>10.308437816250001</v>
-      </c>
-      <c r="G37" s="3">
-        <f t="shared" si="6"/>
-        <v>9.56096720625</v>
-      </c>
-      <c r="H37" s="3">
-        <f t="shared" si="6"/>
-        <v>9.6931964837500004</v>
-      </c>
-      <c r="I37" s="3">
-        <f t="shared" si="6"/>
-        <v>9.7580363112500006</v>
-      </c>
-      <c r="J37" s="3">
-        <f t="shared" si="6"/>
-        <v>9.3182869887499997</v>
-      </c>
-      <c r="K37" s="3">
-        <f t="shared" si="6"/>
-        <v>9.2592984337500006</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
-      <c r="A40" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-    </row>
-    <row r="42" spans="1:19">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="M42" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-    </row>
-    <row r="43" spans="1:19">
-      <c r="A43" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
-      <c r="A44" s="2">
-        <v>1</v>
-      </c>
-      <c r="B44" s="2">
-        <v>3</v>
-      </c>
-      <c r="C44" s="3">
-        <f t="shared" ref="C44:K44" si="7">C15*$J6</f>
-        <v>130.12495831620001</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" si="7"/>
-        <v>967.93581405600003</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="7"/>
-        <v>951.95785464799997</v>
-      </c>
-      <c r="F44" s="3">
-        <f t="shared" si="7"/>
-        <v>988.99225202100001</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="7"/>
-        <v>918.93872660800002</v>
-      </c>
-      <c r="H44" s="3">
-        <f t="shared" si="7"/>
-        <v>938.349881719</v>
-      </c>
-      <c r="I44" s="3">
-        <f t="shared" si="7"/>
-        <v>945.31592428499994</v>
-      </c>
-      <c r="J44" s="3">
-        <f t="shared" si="7"/>
-        <v>916.23827230399991</v>
-      </c>
-      <c r="K44" s="3">
-        <f t="shared" si="7"/>
-        <v>920.77263189999996</v>
-      </c>
-      <c r="M44" s="3">
-        <f>MAX(D44:K44)</f>
-        <v>988.99225202100001</v>
-      </c>
-      <c r="N44" s="3">
-        <f>MIN(D44:K44)</f>
-        <v>916.23827230399991</v>
-      </c>
-      <c r="O44" s="3">
-        <f>AVERAGE(D44:K44)</f>
-        <v>943.56266969262504</v>
-      </c>
-      <c r="Q44" s="3">
-        <f>MAX(D44:K47)</f>
-        <v>1020.9611191293332</v>
-      </c>
-      <c r="R44" s="3">
-        <f>MIN(D44:K47)</f>
-        <v>684.63149780166657</v>
-      </c>
-      <c r="S44" s="3">
-        <f>AVERAGE(D44:K47)</f>
-        <v>854.14135821062484</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="A45" s="2">
-        <v>2</v>
-      </c>
-      <c r="B45" s="2">
-        <v>3</v>
-      </c>
-      <c r="C45" s="3">
-        <f t="shared" ref="C45:K45" si="8">C16*$J7</f>
-        <v>107.9614920535</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" si="8"/>
-        <v>735.56453886666668</v>
-      </c>
-      <c r="E45" s="3">
-        <f t="shared" si="8"/>
-        <v>707.65106520666666</v>
-      </c>
-      <c r="F45" s="3">
-        <f t="shared" si="8"/>
-        <v>772.26840771166667</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" si="8"/>
-        <v>730.15599656333325</v>
-      </c>
-      <c r="H45" s="3">
-        <f t="shared" si="8"/>
-        <v>725.87015534666659</v>
-      </c>
-      <c r="I45" s="3">
-        <f t="shared" si="8"/>
-        <v>734.44378196166667</v>
-      </c>
-      <c r="J45" s="3">
-        <f t="shared" si="8"/>
-        <v>684.63149780166657</v>
-      </c>
-      <c r="K45" s="3">
-        <f t="shared" si="8"/>
-        <v>690.80790096999988</v>
-      </c>
-      <c r="M45" s="3">
-        <f>MAX(D45:K45)</f>
-        <v>772.26840771166667</v>
-      </c>
-      <c r="N45" s="3">
-        <f>MIN(D45:K45)</f>
-        <v>684.63149780166657</v>
-      </c>
-      <c r="O45" s="3">
-        <f>AVERAGE(D45:K45)</f>
-        <v>722.67416805354151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="A46" s="2">
-        <v>3</v>
-      </c>
-      <c r="B46" s="2">
-        <v>3</v>
-      </c>
-      <c r="C46" s="3">
-        <f t="shared" ref="C46:K46" si="9">C17*$J8</f>
-        <v>123.26604138330001</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" si="9"/>
-        <v>759.22280282300005</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" si="9"/>
-        <v>739.25230607600008</v>
-      </c>
-      <c r="F46" s="3">
-        <f t="shared" si="9"/>
-        <v>815.27318145900006</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" si="9"/>
-        <v>748.65532206099999</v>
-      </c>
-      <c r="H46" s="3">
-        <f t="shared" si="9"/>
-        <v>739.47949818500001</v>
-      </c>
-      <c r="I46" s="3">
-        <f t="shared" si="9"/>
-        <v>743.99613530900001</v>
-      </c>
-      <c r="J46" s="3">
-        <f t="shared" si="9"/>
-        <v>726.62054011099997</v>
-      </c>
-      <c r="K46" s="3">
-        <f t="shared" si="9"/>
-        <v>702.37677658400003</v>
-      </c>
-      <c r="M46" s="3">
-        <f>MAX(D46:K46)</f>
-        <v>815.27318145900006</v>
-      </c>
-      <c r="N46" s="3">
-        <f>MIN(D46:K46)</f>
-        <v>702.37677658400003</v>
-      </c>
-      <c r="O46" s="3">
-        <f>AVERAGE(D46:K46)</f>
-        <v>746.85957032600004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
-      <c r="A47" s="2">
-        <v>4</v>
-      </c>
-      <c r="B47" s="2">
-        <v>3</v>
-      </c>
-      <c r="C47" s="3">
-        <f t="shared" ref="C47:K47" si="10">C18*$J9</f>
-        <v>168.03199189613332</v>
-      </c>
-      <c r="D47" s="3">
-        <f t="shared" si="10"/>
-        <v>1010.1100896386664</v>
-      </c>
-      <c r="E47" s="3">
-        <f t="shared" si="10"/>
-        <v>1020.9611191293332</v>
-      </c>
-      <c r="F47" s="3">
-        <f t="shared" si="10"/>
-        <v>1012.8694013559999</v>
-      </c>
-      <c r="G47" s="3">
-        <f t="shared" si="10"/>
-        <v>976.67141571599984</v>
-      </c>
-      <c r="H47" s="3">
-        <f t="shared" si="10"/>
-        <v>1020.9383244786666</v>
-      </c>
-      <c r="I47" s="3">
-        <f t="shared" si="10"/>
-        <v>1017.9016934226665</v>
-      </c>
-      <c r="J47" s="3">
-        <f t="shared" si="10"/>
-        <v>984.83642817999998</v>
-      </c>
-      <c r="K47" s="3">
-        <f t="shared" si="10"/>
-        <v>983.46372624133312</v>
-      </c>
-      <c r="M47" s="3">
-        <f>MAX(D47:K47)</f>
-        <v>1020.9611191293332</v>
-      </c>
-      <c r="N47" s="3">
-        <f>MIN(D47:K47)</f>
-        <v>976.67141571599984</v>
-      </c>
-      <c r="O47" s="3">
-        <f>AVERAGE(D47:K47)</f>
-        <v>1003.4690247703332</v>
-      </c>
+      <c r="C46" s="2">
+        <f t="shared" ref="C46:K46" si="3">AVERAGE(C28:C31)</f>
+        <v>1.76742440375</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="3"/>
+        <v>11.643758125</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="3"/>
+        <v>11.4374400375</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="3"/>
+        <v>12.075862220000001</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="3"/>
+        <v>11.328391610000001</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="3"/>
+        <v>11.460620887500001</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="3"/>
+        <v>11.525460715000001</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="3"/>
+        <v>11.0857113925</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="3"/>
+        <v>11.026722837499999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="5"/>
-      <c r="B49" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
@@ -13459,1602 +14197,2347 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
+      <c r="M49" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="Q49" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="5"/>
+      <c r="A50" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="B50" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M50" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="2">
-        <f t="shared" ref="C50:K50" si="11">MAX(C44:C47)</f>
+      <c r="N50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="2">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2">
+        <f>D28-$C28</f>
+        <v>11.276054586000001</v>
+      </c>
+      <c r="E51" s="2">
+        <f>E28-$C28</f>
+        <v>11.061008026</v>
+      </c>
+      <c r="F51" s="2">
+        <f>F28-$C28</f>
+        <v>11.559452136000001</v>
+      </c>
+      <c r="G51" s="2">
+        <f>G28-$C28</f>
+        <v>10.616605226000001</v>
+      </c>
+      <c r="H51" s="2">
+        <f>H28-$C28</f>
+        <v>10.877858996000001</v>
+      </c>
+      <c r="I51" s="2">
+        <f>I28-$C28</f>
+        <v>10.971614616</v>
+      </c>
+      <c r="J51" s="2">
+        <f>J28-$C28</f>
+        <v>10.580259946</v>
+      </c>
+      <c r="K51" s="2">
+        <f>K28-$C28</f>
+        <v>10.641287666</v>
+      </c>
+      <c r="M51" s="3">
+        <f>MAX(D51:K51)</f>
+        <v>11.559452136000001</v>
+      </c>
+      <c r="N51" s="3">
+        <f>MIN(D51:K51)</f>
+        <v>10.580259946</v>
+      </c>
+      <c r="O51" s="3">
+        <f>AVERAGE(D51:K51)</f>
+        <v>10.94801764975</v>
+      </c>
+      <c r="Q51" s="3">
+        <f>MAX(D51:K54)</f>
+        <v>11.559452136000001</v>
+      </c>
+      <c r="R51" s="3">
+        <f>MIN(D51:K54)</f>
+        <v>8.6284788890000002</v>
+      </c>
+      <c r="S51" s="3">
+        <f>AVERAGE(D51:K54)</f>
+        <v>9.6805715743750014</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="2">
+        <v>2</v>
+      </c>
+      <c r="B52" s="2">
+        <v>3</v>
+      </c>
+      <c r="D52" s="2">
+        <f>D29-$C29</f>
+        <v>9.390569279000001</v>
+      </c>
+      <c r="E52" s="2">
+        <f>E29-$C29</f>
+        <v>8.9729113190000014</v>
+      </c>
+      <c r="F52" s="2">
+        <f>F29-$C29</f>
+        <v>9.9397543490000011</v>
+      </c>
+      <c r="G52" s="2">
+        <f>G29-$C29</f>
+        <v>9.3096434590000001</v>
+      </c>
+      <c r="H52" s="2">
+        <f>H29-$C29</f>
+        <v>9.245516159000001</v>
+      </c>
+      <c r="I52" s="2">
+        <f>I29-$C29</f>
+        <v>9.373799849000001</v>
+      </c>
+      <c r="J52" s="2">
+        <f>J29-$C29</f>
+        <v>8.6284788890000002</v>
+      </c>
+      <c r="K52" s="2">
+        <f>K29-$C29</f>
+        <v>8.720893899</v>
+      </c>
+      <c r="M52" s="3">
+        <f>MAX(D52:K52)</f>
+        <v>9.9397543490000011</v>
+      </c>
+      <c r="N52" s="3">
+        <f>MIN(D52:K52)</f>
+        <v>8.6284788890000002</v>
+      </c>
+      <c r="O52" s="3">
+        <f>AVERAGE(D52:K52)</f>
+        <v>9.1976959002500021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="2">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2">
+        <f>D30-$C30</f>
+        <v>9.8293162509999998</v>
+      </c>
+      <c r="E53" s="2">
+        <f>E30-$C30</f>
+        <v>9.5206532409999998</v>
+      </c>
+      <c r="F53" s="2">
+        <f>F30-$C30</f>
+        <v>10.695628130999999</v>
+      </c>
+      <c r="G53" s="2">
+        <f>G30-$C30</f>
+        <v>9.6659857909999989</v>
+      </c>
+      <c r="H53" s="2">
+        <f>H30-$C30</f>
+        <v>9.5241647109999992</v>
+      </c>
+      <c r="I53" s="2">
+        <f>I30-$C30</f>
+        <v>9.593973630999999</v>
+      </c>
+      <c r="J53" s="2">
+        <f>J30-$C30</f>
+        <v>9.3254172909999991</v>
+      </c>
+      <c r="K53" s="2">
+        <f>K30-$C30</f>
+        <v>8.9507068809999986</v>
+      </c>
+      <c r="M53" s="3">
+        <f>MAX(D53:K53)</f>
+        <v>10.695628130999999</v>
+      </c>
+      <c r="N53" s="3">
+        <f>MIN(D53:K53)</f>
+        <v>8.9507068809999986</v>
+      </c>
+      <c r="O53" s="3">
+        <f>AVERAGE(D53:K53)</f>
+        <v>9.6382307409999992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="2">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2">
+        <f>D31-$C31</f>
+        <v>9.009394769</v>
+      </c>
+      <c r="E54" s="2">
+        <f>E31-$C31</f>
+        <v>9.1254899489999985</v>
+      </c>
+      <c r="F54" s="2">
+        <f>F31-$C31</f>
+        <v>9.0389166490000008</v>
+      </c>
+      <c r="G54" s="2">
+        <f>G31-$C31</f>
+        <v>8.6516343489999983</v>
+      </c>
+      <c r="H54" s="2">
+        <f>H31-$C31</f>
+        <v>9.1252460689999992</v>
+      </c>
+      <c r="I54" s="2">
+        <f>I31-$C31</f>
+        <v>9.0927571490000005</v>
+      </c>
+      <c r="J54" s="2">
+        <f>J31-$C31</f>
+        <v>8.7389918289999997</v>
+      </c>
+      <c r="K54" s="2">
+        <f>K31-$C31</f>
+        <v>8.7243052890000001</v>
+      </c>
+      <c r="M54" s="3">
+        <f>MAX(D54:K54)</f>
+        <v>9.1254899489999985</v>
+      </c>
+      <c r="N54" s="3">
+        <f>MIN(D54:K54)</f>
+        <v>8.6516343489999983</v>
+      </c>
+      <c r="O54" s="3">
+        <f>AVERAGE(D54:K54)</f>
+        <v>8.938342006500001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="B57" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="B58" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" ref="D58:K58" si="4">MAX(D51:D54)</f>
+        <v>11.276054586000001</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="4"/>
+        <v>11.061008026</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="4"/>
+        <v>11.559452136000001</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="4"/>
+        <v>10.616605226000001</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="4"/>
+        <v>10.877858996000001</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="4"/>
+        <v>10.971614616</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="4"/>
+        <v>10.580259946</v>
+      </c>
+      <c r="K58" s="3">
+        <f t="shared" si="4"/>
+        <v>10.641287666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="B59" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" ref="D59:K59" si="5">MIN(D51:D54)</f>
+        <v>9.009394769</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="5"/>
+        <v>8.9729113190000014</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="5"/>
+        <v>9.0389166490000008</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="5"/>
+        <v>8.6516343489999983</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="5"/>
+        <v>9.1252460689999992</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="5"/>
+        <v>9.0927571490000005</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="5"/>
+        <v>8.6284788890000002</v>
+      </c>
+      <c r="K59" s="3">
+        <f t="shared" si="5"/>
+        <v>8.720893899</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="B60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" ref="D60:K60" si="6">AVERAGE(D51:D54)</f>
+        <v>9.8763337212499991</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="6"/>
+        <v>9.6700156337499994</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="6"/>
+        <v>10.308437816250001</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="6"/>
+        <v>9.56096720625</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="6"/>
+        <v>9.6931964837500004</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="6"/>
+        <v>9.7580363112500006</v>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="6"/>
+        <v>9.3182869887499997</v>
+      </c>
+      <c r="K60" s="3">
+        <f t="shared" si="6"/>
+        <v>9.2592984337500006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="M65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S66" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" s="2">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2">
+        <v>3</v>
+      </c>
+      <c r="C67" s="3">
+        <f>C28*$J6</f>
+        <v>130.12495831620001</v>
+      </c>
+      <c r="D67" s="3">
+        <f>D28*$J6</f>
+        <v>967.93581405600003</v>
+      </c>
+      <c r="E67" s="3">
+        <f>E28*$J6</f>
+        <v>951.95785464799997</v>
+      </c>
+      <c r="F67" s="3">
+        <f>F28*$J6</f>
+        <v>988.99225202100001</v>
+      </c>
+      <c r="G67" s="3">
+        <f>G28*$J6</f>
+        <v>918.93872660800002</v>
+      </c>
+      <c r="H67" s="3">
+        <f>H28*$J6</f>
+        <v>938.349881719</v>
+      </c>
+      <c r="I67" s="3">
+        <f>I28*$J6</f>
+        <v>945.31592428499994</v>
+      </c>
+      <c r="J67" s="3">
+        <f>J28*$J6</f>
+        <v>916.23827230399991</v>
+      </c>
+      <c r="K67" s="3">
+        <f>K28*$J6</f>
+        <v>920.77263189999996</v>
+      </c>
+      <c r="M67" s="3">
+        <f>MAX(D67:K67)</f>
+        <v>988.99225202100001</v>
+      </c>
+      <c r="N67" s="3">
+        <f>MIN(D67:K67)</f>
+        <v>916.23827230399991</v>
+      </c>
+      <c r="O67" s="3">
+        <f>AVERAGE(D67:K67)</f>
+        <v>943.56266969262504</v>
+      </c>
+      <c r="Q67" s="3">
+        <f>MAX(D67:K70)</f>
+        <v>1020.9611191293332</v>
+      </c>
+      <c r="R67" s="3">
+        <f>MIN(D67:K70)</f>
+        <v>684.63149780166657</v>
+      </c>
+      <c r="S67" s="3">
+        <f>AVERAGE(D67:K70)</f>
+        <v>854.14135821062484</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" s="2">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2">
+        <v>3</v>
+      </c>
+      <c r="C68" s="3">
+        <f>C29*$J7</f>
+        <v>107.9614920535</v>
+      </c>
+      <c r="D68" s="3">
+        <f>D29*$J7</f>
+        <v>735.56453886666668</v>
+      </c>
+      <c r="E68" s="3">
+        <f>E29*$J7</f>
+        <v>707.65106520666666</v>
+      </c>
+      <c r="F68" s="3">
+        <f>F29*$J7</f>
+        <v>772.26840771166667</v>
+      </c>
+      <c r="G68" s="3">
+        <f>G29*$J7</f>
+        <v>730.15599656333325</v>
+      </c>
+      <c r="H68" s="3">
+        <f>H29*$J7</f>
+        <v>725.87015534666659</v>
+      </c>
+      <c r="I68" s="3">
+        <f>I29*$J7</f>
+        <v>734.44378196166667</v>
+      </c>
+      <c r="J68" s="3">
+        <f>J29*$J7</f>
+        <v>684.63149780166657</v>
+      </c>
+      <c r="K68" s="3">
+        <f>K29*$J7</f>
+        <v>690.80790096999988</v>
+      </c>
+      <c r="M68" s="3">
+        <f>MAX(D68:K68)</f>
+        <v>772.26840771166667</v>
+      </c>
+      <c r="N68" s="3">
+        <f>MIN(D68:K68)</f>
+        <v>684.63149780166657</v>
+      </c>
+      <c r="O68" s="3">
+        <f>AVERAGE(D68:K68)</f>
+        <v>722.67416805354151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" s="2">
+        <v>3</v>
+      </c>
+      <c r="B69" s="2">
+        <v>3</v>
+      </c>
+      <c r="C69" s="3">
+        <f>C30*$J8</f>
+        <v>123.26604138330001</v>
+      </c>
+      <c r="D69" s="3">
+        <f>D30*$J8</f>
+        <v>759.22280282300005</v>
+      </c>
+      <c r="E69" s="3">
+        <f>E30*$J8</f>
+        <v>739.25230607600008</v>
+      </c>
+      <c r="F69" s="3">
+        <f>F30*$J8</f>
+        <v>815.27318145900006</v>
+      </c>
+      <c r="G69" s="3">
+        <f>G30*$J8</f>
+        <v>748.65532206099999</v>
+      </c>
+      <c r="H69" s="3">
+        <f>H30*$J8</f>
+        <v>739.47949818500001</v>
+      </c>
+      <c r="I69" s="3">
+        <f>I30*$J8</f>
+        <v>743.99613530900001</v>
+      </c>
+      <c r="J69" s="3">
+        <f>J30*$J8</f>
+        <v>726.62054011099997</v>
+      </c>
+      <c r="K69" s="3">
+        <f>K30*$J8</f>
+        <v>702.37677658400003</v>
+      </c>
+      <c r="M69" s="3">
+        <f>MAX(D69:K69)</f>
+        <v>815.27318145900006</v>
+      </c>
+      <c r="N69" s="3">
+        <f>MIN(D69:K69)</f>
+        <v>702.37677658400003</v>
+      </c>
+      <c r="O69" s="3">
+        <f>AVERAGE(D69:K69)</f>
+        <v>746.85957032600004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70" s="2">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2">
+        <v>3</v>
+      </c>
+      <c r="C70" s="3">
+        <f>C31*$J9</f>
         <v>168.03199189613332</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D70" s="3">
+        <f>D31*$J9</f>
+        <v>1010.1100896386664</v>
+      </c>
+      <c r="E70" s="3">
+        <f>E31*$J9</f>
+        <v>1020.9611191293332</v>
+      </c>
+      <c r="F70" s="3">
+        <f>F31*$J9</f>
+        <v>1012.8694013559999</v>
+      </c>
+      <c r="G70" s="3">
+        <f>G31*$J9</f>
+        <v>976.67141571599984</v>
+      </c>
+      <c r="H70" s="3">
+        <f>H31*$J9</f>
+        <v>1020.9383244786666</v>
+      </c>
+      <c r="I70" s="3">
+        <f>I31*$J9</f>
+        <v>1017.9016934226665</v>
+      </c>
+      <c r="J70" s="3">
+        <f>J31*$J9</f>
+        <v>984.83642817999998</v>
+      </c>
+      <c r="K70" s="3">
+        <f>K31*$J9</f>
+        <v>983.46372624133312</v>
+      </c>
+      <c r="M70" s="3">
+        <f>MAX(D70:K70)</f>
+        <v>1020.9611191293332</v>
+      </c>
+      <c r="N70" s="3">
+        <f>MIN(D70:K70)</f>
+        <v>976.67141571599984</v>
+      </c>
+      <c r="O70" s="3">
+        <f>AVERAGE(D70:K70)</f>
+        <v>1003.4690247703332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" s="5"/>
+      <c r="B72" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" s="5"/>
+      <c r="B73" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" s="2">
+        <f t="shared" ref="C73:K73" si="7">MAX(C67:C70)</f>
+        <v>168.03199189613332</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="7"/>
+        <v>1010.1100896386664</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="7"/>
+        <v>1020.9611191293332</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="7"/>
+        <v>1012.8694013559999</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" si="7"/>
+        <v>976.67141571599984</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" si="7"/>
+        <v>1020.9383244786666</v>
+      </c>
+      <c r="I73" s="2">
+        <f t="shared" si="7"/>
+        <v>1017.9016934226665</v>
+      </c>
+      <c r="J73" s="2">
+        <f t="shared" si="7"/>
+        <v>984.83642817999998</v>
+      </c>
+      <c r="K73" s="2">
+        <f t="shared" si="7"/>
+        <v>983.46372624133312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" s="5"/>
+      <c r="B74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" s="2">
+        <f t="shared" ref="C74:K74" si="8">MIN(C67:C70)</f>
+        <v>107.9614920535</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="8"/>
+        <v>735.56453886666668</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="8"/>
+        <v>707.65106520666666</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="8"/>
+        <v>772.26840771166667</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" si="8"/>
+        <v>730.15599656333325</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" si="8"/>
+        <v>725.87015534666659</v>
+      </c>
+      <c r="I74" s="2">
+        <f t="shared" si="8"/>
+        <v>734.44378196166667</v>
+      </c>
+      <c r="J74" s="2">
+        <f t="shared" si="8"/>
+        <v>684.63149780166657</v>
+      </c>
+      <c r="K74" s="2">
+        <f t="shared" si="8"/>
+        <v>690.80790096999988</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" s="5"/>
+      <c r="B75" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="2">
+        <f t="shared" ref="C75:K75" si="9">AVERAGE(C67:C70)</f>
+        <v>132.34612091228331</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="9"/>
+        <v>868.20831134608329</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="9"/>
+        <v>854.95558626499997</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="9"/>
+        <v>897.35081063691666</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" si="9"/>
+        <v>843.60536523708333</v>
+      </c>
+      <c r="H75" s="2">
+        <f t="shared" si="9"/>
+        <v>856.15946493233332</v>
+      </c>
+      <c r="I75" s="2">
+        <f t="shared" si="9"/>
+        <v>860.41438374458335</v>
+      </c>
+      <c r="J75" s="2">
+        <f t="shared" si="9"/>
+        <v>828.08168459916658</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" si="9"/>
+        <v>824.35525892383328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="M78" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" s="2">
+        <v>1</v>
+      </c>
+      <c r="B80" s="2">
+        <v>3</v>
+      </c>
+      <c r="D80" s="3">
+        <f>D51*$J6</f>
+        <v>837.81085573979999</v>
+      </c>
+      <c r="E80" s="3">
+        <f>E51*$J6</f>
+        <v>821.83289633179993</v>
+      </c>
+      <c r="F80" s="3">
+        <f>F51*$J6</f>
+        <v>858.86729370479998</v>
+      </c>
+      <c r="G80" s="3">
+        <f>G51*$J6</f>
+        <v>788.81376829179999</v>
+      </c>
+      <c r="H80" s="3">
+        <f>H51*$J6</f>
+        <v>808.22492340279996</v>
+      </c>
+      <c r="I80" s="3">
+        <f>I51*$J6</f>
+        <v>815.19096596880001</v>
+      </c>
+      <c r="J80" s="3">
+        <f>J51*$J6</f>
+        <v>786.11331398779998</v>
+      </c>
+      <c r="K80" s="3">
+        <f>K51*$J6</f>
+        <v>790.64767358379993</v>
+      </c>
+      <c r="M80" s="3">
+        <f>MAX(D80:K80)</f>
+        <v>858.86729370479998</v>
+      </c>
+      <c r="N80" s="3">
+        <f>MIN(D80:K80)</f>
+        <v>786.11331398779998</v>
+      </c>
+      <c r="O80" s="3">
+        <f>AVERAGE(D80:K80)</f>
+        <v>813.43771137642489</v>
+      </c>
+      <c r="Q80" s="3">
+        <f>MAX(D80:K83)</f>
+        <v>858.86729370479998</v>
+      </c>
+      <c r="R80" s="3">
+        <f>MIN(D80:K83)</f>
+        <v>576.67000574816666</v>
+      </c>
+      <c r="S80" s="3">
+        <f>AVERAGE(D80:K83)</f>
+        <v>721.79523729834159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81" s="2">
+        <v>2</v>
+      </c>
+      <c r="B81" s="2">
+        <v>3</v>
+      </c>
+      <c r="D81" s="3">
+        <f>D52*$J7</f>
+        <v>627.60304681316666</v>
+      </c>
+      <c r="E81" s="3">
+        <f>E52*$J7</f>
+        <v>599.68957315316675</v>
+      </c>
+      <c r="F81" s="3">
+        <f>F52*$J7</f>
+        <v>664.30691565816664</v>
+      </c>
+      <c r="G81" s="3">
+        <f>G52*$J7</f>
+        <v>622.19450450983334</v>
+      </c>
+      <c r="H81" s="3">
+        <f>H52*$J7</f>
+        <v>617.90866329316668</v>
+      </c>
+      <c r="I81" s="3">
+        <f>I52*$J7</f>
+        <v>626.48228990816665</v>
+      </c>
+      <c r="J81" s="3">
+        <f>J52*$J7</f>
+        <v>576.67000574816666</v>
+      </c>
+      <c r="K81" s="3">
+        <f>K52*$J7</f>
+        <v>582.84640891649997</v>
+      </c>
+      <c r="M81" s="3">
+        <f>MAX(D81:K81)</f>
+        <v>664.30691565816664</v>
+      </c>
+      <c r="N81" s="3">
+        <f>MIN(D81:K81)</f>
+        <v>576.67000574816666</v>
+      </c>
+      <c r="O81" s="3">
+        <f>AVERAGE(D81:K81)</f>
+        <v>614.71267600004171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" s="2">
+        <v>3</v>
+      </c>
+      <c r="B82" s="2">
+        <v>3</v>
+      </c>
+      <c r="D82" s="3">
+        <f>D53*$J8</f>
+        <v>635.95676143970002</v>
+      </c>
+      <c r="E82" s="3">
+        <f>E53*$J8</f>
+        <v>615.98626469270005</v>
+      </c>
+      <c r="F82" s="3">
+        <f>F53*$J8</f>
+        <v>692.00714007570002</v>
+      </c>
+      <c r="G82" s="3">
+        <f>G53*$J8</f>
+        <v>625.38928067769996</v>
+      </c>
+      <c r="H82" s="3">
+        <f>H53*$J8</f>
+        <v>616.21345680169998</v>
+      </c>
+      <c r="I82" s="3">
+        <f>I53*$J8</f>
+        <v>620.73009392569998</v>
+      </c>
+      <c r="J82" s="3">
+        <f>J53*$J8</f>
+        <v>603.35449872769993</v>
+      </c>
+      <c r="K82" s="3">
+        <f>K53*$J8</f>
+        <v>579.11073520069988</v>
+      </c>
+      <c r="M82" s="3">
+        <f>MAX(D82:K82)</f>
+        <v>692.00714007570002</v>
+      </c>
+      <c r="N82" s="3">
+        <f>MIN(D82:K82)</f>
+        <v>579.11073520069988</v>
+      </c>
+      <c r="O82" s="3">
+        <f>AVERAGE(D82:K82)</f>
+        <v>623.5935289427</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" s="2">
+        <v>4</v>
+      </c>
+      <c r="B83" s="2">
+        <v>3</v>
+      </c>
+      <c r="D83" s="3">
+        <f>D54*$J9</f>
+        <v>842.07809774253326</v>
+      </c>
+      <c r="E83" s="3">
+        <f>E54*$J9</f>
+        <v>852.92912723319978</v>
+      </c>
+      <c r="F83" s="3">
+        <f>F54*$J9</f>
+        <v>844.83740945986665</v>
+      </c>
+      <c r="G83" s="3">
+        <f>G54*$J9</f>
+        <v>808.63942381986635</v>
+      </c>
+      <c r="H83" s="3">
+        <f>H54*$J9</f>
+        <v>852.9063325825332</v>
+      </c>
+      <c r="I83" s="3">
+        <f>I54*$J9</f>
+        <v>849.86970152653328</v>
+      </c>
+      <c r="J83" s="3">
+        <f>J54*$J9</f>
+        <v>816.80443628386649</v>
+      </c>
+      <c r="K83" s="3">
+        <f>K54*$J9</f>
+        <v>815.43173434519986</v>
+      </c>
+      <c r="M83" s="3">
+        <f>MAX(D83:K83)</f>
+        <v>852.92912723319978</v>
+      </c>
+      <c r="N83" s="3">
+        <f>MIN(D83:K83)</f>
+        <v>808.63942381986635</v>
+      </c>
+      <c r="O83" s="3">
+        <f>AVERAGE(D83:K83)</f>
+        <v>835.43703287419999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="B86" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="B87" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" s="3">
+        <f t="shared" ref="D87:K87" si="10">MAX(D80:D83)</f>
+        <v>842.07809774253326</v>
+      </c>
+      <c r="E87" s="3">
+        <f t="shared" si="10"/>
+        <v>852.92912723319978</v>
+      </c>
+      <c r="F87" s="3">
+        <f t="shared" si="10"/>
+        <v>858.86729370479998</v>
+      </c>
+      <c r="G87" s="3">
+        <f t="shared" si="10"/>
+        <v>808.63942381986635</v>
+      </c>
+      <c r="H87" s="3">
+        <f t="shared" si="10"/>
+        <v>852.9063325825332</v>
+      </c>
+      <c r="I87" s="3">
+        <f t="shared" si="10"/>
+        <v>849.86970152653328</v>
+      </c>
+      <c r="J87" s="3">
+        <f t="shared" si="10"/>
+        <v>816.80443628386649</v>
+      </c>
+      <c r="K87" s="3">
+        <f t="shared" si="10"/>
+        <v>815.43173434519986</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="B88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="3">
+        <f t="shared" ref="D88:K88" si="11">MIN(D80:D83)</f>
+        <v>627.60304681316666</v>
+      </c>
+      <c r="E88" s="3">
         <f t="shared" si="11"/>
-        <v>1010.1100896386664</v>
-      </c>
-      <c r="E50" s="2">
+        <v>599.68957315316675</v>
+      </c>
+      <c r="F88" s="3">
         <f t="shared" si="11"/>
-        <v>1020.9611191293332</v>
-      </c>
-      <c r="F50" s="2">
+        <v>664.30691565816664</v>
+      </c>
+      <c r="G88" s="3">
         <f t="shared" si="11"/>
-        <v>1012.8694013559999</v>
-      </c>
-      <c r="G50" s="2">
+        <v>622.19450450983334</v>
+      </c>
+      <c r="H88" s="3">
         <f t="shared" si="11"/>
-        <v>976.67141571599984</v>
-      </c>
-      <c r="H50" s="2">
+        <v>616.21345680169998</v>
+      </c>
+      <c r="I88" s="3">
         <f t="shared" si="11"/>
-        <v>1020.9383244786666</v>
-      </c>
-      <c r="I50" s="2">
+        <v>620.73009392569998</v>
+      </c>
+      <c r="J88" s="3">
         <f t="shared" si="11"/>
-        <v>1017.9016934226665</v>
-      </c>
-      <c r="J50" s="2">
+        <v>576.67000574816666</v>
+      </c>
+      <c r="K88" s="3">
         <f t="shared" si="11"/>
-        <v>984.83642817999998</v>
-      </c>
-      <c r="K50" s="2">
-        <f t="shared" si="11"/>
-        <v>983.46372624133312</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
-      <c r="A51" s="5"/>
-      <c r="B51" s="1" t="s">
+        <v>579.11073520069988</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="B89" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D89" s="3">
+        <f t="shared" ref="D89:K89" si="12">AVERAGE(D80:D83)</f>
+        <v>735.86219043380004</v>
+      </c>
+      <c r="E89" s="3">
+        <f t="shared" si="12"/>
+        <v>722.6094653527166</v>
+      </c>
+      <c r="F89" s="3">
+        <f t="shared" si="12"/>
+        <v>765.00468972463329</v>
+      </c>
+      <c r="G89" s="3">
+        <f t="shared" si="12"/>
+        <v>711.25924432479985</v>
+      </c>
+      <c r="H89" s="3">
+        <f t="shared" si="12"/>
+        <v>723.81334402004995</v>
+      </c>
+      <c r="I89" s="3">
+        <f t="shared" si="12"/>
+        <v>728.06826283229998</v>
+      </c>
+      <c r="J89" s="3">
+        <f t="shared" si="12"/>
+        <v>695.73556368688321</v>
+      </c>
+      <c r="K89" s="3">
+        <f t="shared" si="12"/>
+        <v>692.00913801154991</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" ht="15.75" customHeight="1">
+      <c r="D91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="S91" s="23"/>
+    </row>
+    <row r="92" spans="1:21" ht="15.75" customHeight="1">
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="24"/>
+      <c r="P92" s="24"/>
+    </row>
+    <row r="93" spans="1:21" ht="15.75" customHeight="1">
+      <c r="I93" s="23"/>
+      <c r="N93" s="23"/>
+    </row>
+    <row r="94" spans="1:21" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B94" s="25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="D95" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="I95" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J95" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="N95" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="O95" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="S95" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="T95" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B96" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G96" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="H96" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="I96" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J96" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K96" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="L96" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="M96" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="N96" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="O96" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="P96" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q96" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="R96" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="S96" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="T96" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="U96" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="2:27" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B97" s="25">
+        <v>1</v>
+      </c>
+      <c r="C97" s="25">
+        <v>3</v>
+      </c>
+      <c r="D97" s="25">
+        <v>1.751345334</v>
+      </c>
+      <c r="E97" s="25">
+        <v>13.027399920000001</v>
+      </c>
+      <c r="F97" s="25">
+        <v>12.812353359999999</v>
+      </c>
+      <c r="G97" s="25">
+        <v>2</v>
+      </c>
+      <c r="H97" s="25">
+        <v>3</v>
+      </c>
+      <c r="I97" s="25">
+        <v>1.6153839210000001</v>
+      </c>
+      <c r="J97" s="25">
+        <v>11.0059532</v>
+      </c>
+      <c r="K97" s="25">
+        <v>10.588295240000001</v>
+      </c>
+      <c r="L97" s="25">
+        <v>3</v>
+      </c>
+      <c r="M97" s="25">
+        <v>3</v>
+      </c>
+      <c r="N97" s="25">
+        <v>1.9051938390000001</v>
+      </c>
+      <c r="O97" s="25">
+        <v>11.734510090000001</v>
+      </c>
+      <c r="P97" s="25">
+        <v>11.42584708</v>
+      </c>
+      <c r="Q97" s="25">
+        <v>4</v>
+      </c>
+      <c r="R97" s="25">
+        <v>3</v>
+      </c>
+      <c r="S97" s="25">
+        <v>1.797774521</v>
+      </c>
+      <c r="T97" s="25">
+        <v>10.807169289999999</v>
+      </c>
+      <c r="U97" s="25">
+        <v>10.923264469999999</v>
+      </c>
+    </row>
+    <row r="98" spans="2:27" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B98" s="25">
+        <v>1</v>
+      </c>
+      <c r="C98" s="25">
+        <v>2</v>
+      </c>
+      <c r="D98" s="25">
+        <v>1.8857474729999999</v>
+      </c>
+      <c r="E98" s="25">
+        <v>11.88952067</v>
+      </c>
+      <c r="F98" s="25">
+        <v>11.374466200000001</v>
+      </c>
+      <c r="G98" s="25">
+        <v>2</v>
+      </c>
+      <c r="H98" s="25">
+        <v>2</v>
+      </c>
+      <c r="I98" s="25">
+        <v>1.582638532</v>
+      </c>
+      <c r="J98" s="25">
+        <v>10.466353270000001</v>
+      </c>
+      <c r="K98" s="25">
+        <v>10.248913780000001</v>
+      </c>
+      <c r="L98" s="25">
+        <v>3</v>
+      </c>
+      <c r="M98" s="25">
+        <v>2</v>
+      </c>
+      <c r="N98" s="25">
+        <v>1.791405567</v>
+      </c>
+      <c r="O98" s="25">
+        <v>11.1419382</v>
+      </c>
+      <c r="P98" s="25">
+        <v>10.583862140000001</v>
+      </c>
+      <c r="Q98" s="25">
+        <v>4</v>
+      </c>
+      <c r="R98" s="25">
+        <v>2</v>
+      </c>
+      <c r="S98" s="25">
+        <v>1.6692033900000001</v>
+      </c>
+      <c r="T98" s="25">
+        <v>11.08524332</v>
+      </c>
+      <c r="U98" s="25">
+        <v>10.360162170000001</v>
+      </c>
+    </row>
+    <row r="99" spans="2:27" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B99" s="25">
+        <v>1</v>
+      </c>
+      <c r="C99" s="25">
+        <v>2</v>
+      </c>
+      <c r="D99" s="25">
+        <v>1.8857474729999999</v>
+      </c>
+      <c r="E99" s="25">
+        <v>11.49310616</v>
+      </c>
+      <c r="F99" s="25">
+        <v>11.812987659999999</v>
+      </c>
+      <c r="G99" s="25">
+        <v>2</v>
+      </c>
+      <c r="H99" s="25">
+        <v>2</v>
+      </c>
+      <c r="I99" s="25">
+        <v>1.582638532</v>
+      </c>
+      <c r="J99" s="25">
+        <v>10.4607989</v>
+      </c>
+      <c r="K99" s="25">
+        <v>10.339188050000001</v>
+      </c>
+      <c r="L99" s="25">
+        <v>3</v>
+      </c>
+      <c r="M99" s="25">
+        <v>2</v>
+      </c>
+      <c r="N99" s="25">
+        <v>1.791405567</v>
+      </c>
+      <c r="O99" s="25">
+        <v>11.291321050000001</v>
+      </c>
+      <c r="P99" s="25">
+        <v>10.89643323</v>
+      </c>
+      <c r="Q99" s="25">
+        <v>4</v>
+      </c>
+      <c r="R99" s="25">
+        <v>2</v>
+      </c>
+      <c r="S99" s="25">
+        <v>1.6692033900000001</v>
+      </c>
+      <c r="T99" s="25">
+        <v>10.78809822</v>
+      </c>
+      <c r="U99" s="25">
+        <v>10.44195406</v>
+      </c>
+    </row>
+    <row r="100" spans="2:27" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B100" s="25">
+        <v>1</v>
+      </c>
+      <c r="C100" s="25">
+        <v>1</v>
+      </c>
+      <c r="D100" s="25">
+        <v>1.711534415</v>
+      </c>
+      <c r="E100" s="25">
+        <v>11.77550426</v>
+      </c>
+      <c r="F100" s="25">
+        <v>11.760609199999999</v>
+      </c>
+      <c r="G100" s="25">
+        <v>2</v>
+      </c>
+      <c r="H100" s="25">
+        <v>1</v>
+      </c>
+      <c r="I100" s="25">
+        <v>1.5142305439999999</v>
+      </c>
+      <c r="J100" s="26">
+        <v>10.104439449999999</v>
+      </c>
+      <c r="K100" s="26">
+        <v>10.07576607</v>
+      </c>
+      <c r="L100" s="25">
+        <v>3</v>
+      </c>
+      <c r="M100" s="25">
+        <v>1</v>
+      </c>
+      <c r="N100" s="25">
+        <v>1.578711121</v>
+      </c>
+      <c r="O100" s="25">
+        <v>11.25170795</v>
+      </c>
+      <c r="P100" s="25">
+        <v>11.321315609999999</v>
+      </c>
+      <c r="Q100" s="25">
+        <v>4</v>
+      </c>
+      <c r="R100" s="25">
+        <v>1</v>
+      </c>
+      <c r="S100" s="25">
+        <v>1.7902534109999999</v>
+      </c>
+      <c r="T100" s="25">
+        <v>10.4876483</v>
+      </c>
+      <c r="U100" s="25">
+        <v>10.774973490000001</v>
+      </c>
+    </row>
+    <row r="101" spans="2:27" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B101" s="25">
+        <v>1</v>
+      </c>
+      <c r="C101" s="25">
+        <v>1</v>
+      </c>
+      <c r="D101" s="25">
+        <v>1.711534415</v>
+      </c>
+      <c r="E101" s="25">
+        <v>11.733416739999999</v>
+      </c>
+      <c r="F101" s="25">
+        <v>11.5305891</v>
+      </c>
+      <c r="G101" s="25">
+        <v>2</v>
+      </c>
+      <c r="H101" s="25">
+        <v>1</v>
+      </c>
+      <c r="I101" s="25">
+        <v>1.5142305439999999</v>
+      </c>
+      <c r="J101" s="26">
+        <v>10.67099247</v>
+      </c>
+      <c r="K101" s="26">
+        <v>10.806250289999999</v>
+      </c>
+      <c r="L101" s="25">
+        <v>3</v>
+      </c>
+      <c r="M101" s="25">
+        <v>1</v>
+      </c>
+      <c r="N101" s="25">
+        <v>1.578711121</v>
+      </c>
+      <c r="O101" s="25">
+        <v>11.726914519999999</v>
+      </c>
+      <c r="P101" s="25">
+        <v>11.221981599999999</v>
+      </c>
+      <c r="Q101" s="25">
+        <v>4</v>
+      </c>
+      <c r="R101" s="25">
+        <v>1</v>
+      </c>
+      <c r="S101" s="25">
+        <v>1.7902534109999999</v>
+      </c>
+      <c r="T101" s="25">
+        <v>10.66818662</v>
+      </c>
+      <c r="U101" s="25">
+        <v>11.20134861</v>
+      </c>
+    </row>
+    <row r="103" spans="2:27" ht="15.75" customHeight="1">
+      <c r="C103" t="s">
+        <v>218</v>
+      </c>
+      <c r="D103">
+        <f>AVERAGE(D97:D101)</f>
+        <v>1.7891818220000002</v>
+      </c>
+      <c r="E103">
+        <f>AVERAGE(E97:E101)</f>
+        <v>11.983789550000001</v>
+      </c>
+      <c r="F103">
+        <f>AVERAGE(F97:F101)</f>
+        <v>11.858201103999999</v>
+      </c>
+      <c r="H103" t="s">
+        <v>218</v>
+      </c>
+      <c r="I103">
+        <f>AVERAGE(I97:I101)</f>
+        <v>1.5618244146</v>
+      </c>
+      <c r="J103">
+        <f>AVERAGE(J97:J101)</f>
+        <v>10.541707458000001</v>
+      </c>
+      <c r="K103">
+        <f>AVERAGE(K97:K101)</f>
+        <v>10.411682686000002</v>
+      </c>
+      <c r="M103" t="s">
+        <v>218</v>
+      </c>
+      <c r="N103">
+        <f>AVERAGE(N97:N101)</f>
+        <v>1.729085443</v>
+      </c>
+      <c r="O103">
+        <f>AVERAGE(O97:O101)</f>
+        <v>11.429278362000002</v>
+      </c>
+      <c r="P103">
+        <f>AVERAGE(P97:P101)</f>
+        <v>11.089887932</v>
+      </c>
+      <c r="R103" t="s">
+        <v>218</v>
+      </c>
+      <c r="S103">
+        <f>AVERAGE(S97:S101)</f>
+        <v>1.7433376245999999</v>
+      </c>
+      <c r="T103">
+        <f>AVERAGE(T97:T101)</f>
+        <v>10.767269150000001</v>
+      </c>
+      <c r="U103">
+        <f>AVERAGE(U97:U101)</f>
+        <v>10.740340560000002</v>
+      </c>
+    </row>
+    <row r="104" spans="2:27" ht="15.75" customHeight="1">
+      <c r="C104" t="s">
         <v>167</v>
       </c>
-      <c r="C51" s="2">
-        <f t="shared" ref="C51:K51" si="12">MIN(C44:C47)</f>
-        <v>107.9614920535</v>
-      </c>
-      <c r="D51" s="2">
-        <f t="shared" si="12"/>
-        <v>735.56453886666668</v>
-      </c>
-      <c r="E51" s="2">
-        <f t="shared" si="12"/>
-        <v>707.65106520666666</v>
-      </c>
-      <c r="F51" s="2">
-        <f t="shared" si="12"/>
-        <v>772.26840771166667</v>
-      </c>
-      <c r="G51" s="2">
-        <f t="shared" si="12"/>
-        <v>730.15599656333325</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" si="12"/>
-        <v>725.87015534666659</v>
-      </c>
-      <c r="I51" s="2">
-        <f t="shared" si="12"/>
-        <v>734.44378196166667</v>
-      </c>
-      <c r="J51" s="2">
-        <f t="shared" si="12"/>
-        <v>684.63149780166657</v>
-      </c>
-      <c r="K51" s="2">
-        <f t="shared" si="12"/>
-        <v>690.80790096999988</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
-      <c r="A52" s="5"/>
-      <c r="B52" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C52" s="2">
-        <f t="shared" ref="C52:K52" si="13">AVERAGE(C44:C47)</f>
-        <v>132.34612091228331</v>
-      </c>
-      <c r="D52" s="2">
+      <c r="D104">
+        <f>MIN(D97:D101)</f>
+        <v>1.711534415</v>
+      </c>
+      <c r="E104">
+        <f>MIN(E97:E101)</f>
+        <v>11.49310616</v>
+      </c>
+      <c r="F104">
+        <f>MIN(F97:F101)</f>
+        <v>11.374466200000001</v>
+      </c>
+      <c r="H104" t="s">
+        <v>167</v>
+      </c>
+      <c r="I104">
+        <f>MIN(I97:I101)</f>
+        <v>1.5142305439999999</v>
+      </c>
+      <c r="J104">
+        <f>MIN(J97:J101)</f>
+        <v>10.104439449999999</v>
+      </c>
+      <c r="K104">
+        <f>MIN(K97:K101)</f>
+        <v>10.07576607</v>
+      </c>
+      <c r="M104" t="s">
+        <v>167</v>
+      </c>
+      <c r="N104">
+        <f>MIN(N97:N101)</f>
+        <v>1.578711121</v>
+      </c>
+      <c r="O104">
+        <f>MIN(O97:O101)</f>
+        <v>11.1419382</v>
+      </c>
+      <c r="P104">
+        <f>MIN(P97:P101)</f>
+        <v>10.583862140000001</v>
+      </c>
+      <c r="R104" t="s">
+        <v>167</v>
+      </c>
+      <c r="S104">
+        <f>MIN(S97:S101)</f>
+        <v>1.6692033900000001</v>
+      </c>
+      <c r="T104">
+        <f>MIN(T97:T101)</f>
+        <v>10.4876483</v>
+      </c>
+      <c r="U104">
+        <f>MIN(U97:U101)</f>
+        <v>10.360162170000001</v>
+      </c>
+    </row>
+    <row r="105" spans="2:27" ht="15.75" customHeight="1">
+      <c r="C105" t="s">
+        <v>166</v>
+      </c>
+      <c r="D105">
+        <f>MAX(D97:D101)</f>
+        <v>1.8857474729999999</v>
+      </c>
+      <c r="E105">
+        <f>MAX(E97:E101)</f>
+        <v>13.027399920000001</v>
+      </c>
+      <c r="F105">
+        <f>MAX(F97:F101)</f>
+        <v>12.812353359999999</v>
+      </c>
+      <c r="H105" t="s">
+        <v>166</v>
+      </c>
+      <c r="I105">
+        <f>MAX(I97:I101)</f>
+        <v>1.6153839210000001</v>
+      </c>
+      <c r="J105">
+        <f>MAX(J97:J101)</f>
+        <v>11.0059532</v>
+      </c>
+      <c r="K105">
+        <f>MAX(K97:K101)</f>
+        <v>10.806250289999999</v>
+      </c>
+      <c r="M105" t="s">
+        <v>166</v>
+      </c>
+      <c r="N105">
+        <f>MAX(N97:N101)</f>
+        <v>1.9051938390000001</v>
+      </c>
+      <c r="O105">
+        <f>MAX(O97:O101)</f>
+        <v>11.734510090000001</v>
+      </c>
+      <c r="P105">
+        <f>MAX(P97:P101)</f>
+        <v>11.42584708</v>
+      </c>
+      <c r="R105" t="s">
+        <v>166</v>
+      </c>
+      <c r="S105">
+        <f>MAX(S97:S101)</f>
+        <v>1.797774521</v>
+      </c>
+      <c r="T105">
+        <f>MAX(T97:T101)</f>
+        <v>11.08524332</v>
+      </c>
+      <c r="U105">
+        <f>MAX(U97:U101)</f>
+        <v>11.20134861</v>
+      </c>
+    </row>
+    <row r="106" spans="2:27" ht="15.75" customHeight="1">
+      <c r="C106" t="s">
+        <v>219</v>
+      </c>
+      <c r="D106">
+        <f>D105-D104</f>
+        <v>0.17421305799999987</v>
+      </c>
+      <c r="E106">
+        <f>E105-E104</f>
+        <v>1.5342937600000006</v>
+      </c>
+      <c r="F106">
+        <f>F105-F104</f>
+        <v>1.4378871599999989</v>
+      </c>
+      <c r="H106" t="s">
+        <v>219</v>
+      </c>
+      <c r="I106">
+        <f>I105-I104</f>
+        <v>0.10115337700000016</v>
+      </c>
+      <c r="J106">
+        <f>J105-J104</f>
+        <v>0.90151375000000122</v>
+      </c>
+      <c r="K106">
+        <f>K105-K104</f>
+        <v>0.73048421999999924</v>
+      </c>
+      <c r="M106" t="s">
+        <v>219</v>
+      </c>
+      <c r="N106">
+        <f>N105-N104</f>
+        <v>0.32648271800000006</v>
+      </c>
+      <c r="O106">
+        <f>O105-O104</f>
+        <v>0.59257189000000032</v>
+      </c>
+      <c r="P106">
+        <f>P105-P104</f>
+        <v>0.84198493999999968</v>
+      </c>
+      <c r="R106" t="s">
+        <v>219</v>
+      </c>
+      <c r="S106">
+        <f>S105-S104</f>
+        <v>0.12857113099999995</v>
+      </c>
+      <c r="T106">
+        <f>T105-T104</f>
+        <v>0.59759501999999998</v>
+      </c>
+      <c r="U106">
+        <f>U105-U104</f>
+        <v>0.84118643999999954</v>
+      </c>
+    </row>
+    <row r="107" spans="2:27" ht="15.75" customHeight="1">
+      <c r="C107" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D107">
+        <f t="shared" ref="D107:U107" si="13">_xlfn.STDEV.P(D97:D101)</f>
+        <v>8.01744215544197E-2</v>
+      </c>
+      <c r="E107">
         <f t="shared" si="13"/>
-        <v>868.20831134608329</v>
-      </c>
-      <c r="E52" s="2">
+        <v>0.53755906119189645</v>
+      </c>
+      <c r="F107">
         <f t="shared" si="13"/>
-        <v>854.95558626499997</v>
-      </c>
-      <c r="F52" s="2">
+        <v>0.50265376660030303</v>
+      </c>
+      <c r="G107">
         <f t="shared" si="13"/>
-        <v>897.35081063691666</v>
-      </c>
-      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H107">
         <f t="shared" si="13"/>
-        <v>843.60536523708333</v>
-      </c>
-      <c r="H52" s="2">
+        <v>0.74833147735478833</v>
+      </c>
+      <c r="I107">
         <f t="shared" si="13"/>
-        <v>856.15946493233332</v>
-      </c>
-      <c r="I52" s="2">
+        <v>4.0658157187636344E-2</v>
+      </c>
+      <c r="J107">
         <f t="shared" si="13"/>
-        <v>860.41438374458335</v>
-      </c>
-      <c r="J52" s="2">
+        <v>0.29518349632729751</v>
+      </c>
+      <c r="K107">
         <f t="shared" si="13"/>
-        <v>828.08168459916658</v>
-      </c>
-      <c r="K52" s="2">
+        <v>0.25747417356729352</v>
+      </c>
+      <c r="L107">
         <f t="shared" si="13"/>
-        <v>824.35525892383328</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="1:19">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-    </row>
-    <row r="55" spans="1:19">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="M55" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-    </row>
-    <row r="56" spans="1:19">
-      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="13"/>
+        <v>0.74833147735478833</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="13"/>
+        <v>0.12961993387312226</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="13"/>
+        <v>0.25095080401431985</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="13"/>
+        <v>0.3089863687252844</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="13"/>
+        <v>0.74833147735478833</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="13"/>
+        <v>6.0592618686075655E-2</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="13"/>
+        <v>0.19551910987021023</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="13"/>
+        <v>0.31008357920409679</v>
+      </c>
+    </row>
+    <row r="109" spans="2:27" ht="15.75" customHeight="1">
+      <c r="B109" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
-      <c r="A57" s="2">
+      <c r="C109" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA109" s="27"/>
+    </row>
+    <row r="110" spans="2:27" ht="15.75" customHeight="1">
+      <c r="B110">
         <v>1</v>
       </c>
-      <c r="B57" s="2">
+      <c r="C110">
+        <f>D106</f>
+        <v>0.17421305799999987</v>
+      </c>
+      <c r="D110">
+        <f>E106</f>
+        <v>1.5342937600000006</v>
+      </c>
+      <c r="E110">
+        <f>F106</f>
+        <v>1.4378871599999989</v>
+      </c>
+      <c r="AA110" s="27"/>
+    </row>
+    <row r="111" spans="2:27" ht="15.75" customHeight="1">
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111" s="2">
+        <f>I106</f>
+        <v>0.10115337700000016</v>
+      </c>
+      <c r="D111" s="2">
+        <f>J106</f>
+        <v>0.90151375000000122</v>
+      </c>
+      <c r="E111" s="2">
+        <f>K106</f>
+        <v>0.73048421999999924</v>
+      </c>
+    </row>
+    <row r="112" spans="2:27" ht="15.75" customHeight="1">
+      <c r="B112">
         <v>3</v>
       </c>
-      <c r="D57" s="3">
-        <f t="shared" ref="D57:K60" si="14">D28*$J6</f>
-        <v>837.81085573979999</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="C112">
+        <f>N106</f>
+        <v>0.32648271800000006</v>
+      </c>
+      <c r="D112" s="2">
+        <f>O106</f>
+        <v>0.59257189000000032</v>
+      </c>
+      <c r="E112" s="2">
+        <f>P106</f>
+        <v>0.84198493999999968</v>
+      </c>
+    </row>
+    <row r="113" spans="2:22" ht="15.75" customHeight="1">
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <f>S106</f>
+        <v>0.12857113099999995</v>
+      </c>
+      <c r="D113" s="2">
+        <f>T106</f>
+        <v>0.59759501999999998</v>
+      </c>
+      <c r="E113" s="2">
+        <f>U106</f>
+        <v>0.84118643999999954</v>
+      </c>
+      <c r="L113" s="28" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="2:22" ht="15.75" customHeight="1">
+      <c r="K114" t="s">
+        <v>200</v>
+      </c>
+      <c r="L114" t="s">
+        <v>225</v>
+      </c>
+      <c r="M114" t="s">
+        <v>226</v>
+      </c>
+      <c r="N114" t="s">
+        <v>227</v>
+      </c>
+      <c r="O114" t="s">
+        <v>390</v>
+      </c>
+      <c r="P114" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>391</v>
+      </c>
+      <c r="R114" t="s">
+        <v>228</v>
+      </c>
+      <c r="S114" t="s">
+        <v>229</v>
+      </c>
+      <c r="T114" t="s">
+        <v>230</v>
+      </c>
+      <c r="U114" t="s">
+        <v>231</v>
+      </c>
+      <c r="V114" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" spans="2:22" ht="15.75" customHeight="1">
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <f>AVERAGE(E100:E101)</f>
+        <v>11.7544605</v>
+      </c>
+      <c r="M115">
+        <f>AVERAGE(E98:E99)</f>
+        <v>11.691313415</v>
+      </c>
+      <c r="N115">
+        <f>E97</f>
+        <v>13.027399920000001</v>
+      </c>
+      <c r="O115">
+        <f t="shared" ref="O115:Q118" si="14">(S115-L115)/L115*100</f>
+        <v>-0.92612800051522159</v>
+      </c>
+      <c r="P115">
         <f t="shared" si="14"/>
-        <v>821.83289633179993</v>
-      </c>
-      <c r="F57" s="3">
+        <v>-0.83469223290855366</v>
+      </c>
+      <c r="Q115">
         <f t="shared" si="14"/>
-        <v>858.86729370479998</v>
-      </c>
-      <c r="G57" s="3">
+        <v>-1.6507250972610128</v>
+      </c>
+      <c r="S115">
+        <f>AVERAGE(F100:F101)</f>
+        <v>11.645599149999999</v>
+      </c>
+      <c r="T115">
+        <f>AVERAGE(F98:F99)</f>
+        <v>11.593726929999999</v>
+      </c>
+      <c r="U115">
+        <f>F97</f>
+        <v>12.812353359999999</v>
+      </c>
+    </row>
+    <row r="116" spans="2:22" ht="15.75" customHeight="1">
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <f>AVERAGE(J100:J101)</f>
+        <v>10.38771596</v>
+      </c>
+      <c r="M116">
+        <f>AVERAGE(J98:J99)</f>
+        <v>10.463576085</v>
+      </c>
+      <c r="N116">
+        <f>J97</f>
+        <v>11.0059532</v>
+      </c>
+      <c r="O116">
         <f t="shared" si="14"/>
-        <v>788.81376829179999</v>
-      </c>
-      <c r="H57" s="3">
+        <v>0.51303116301228957</v>
+      </c>
+      <c r="P116">
         <f t="shared" si="14"/>
-        <v>808.22492340279996</v>
-      </c>
-      <c r="I57" s="3">
+        <v>-1.6201456234740039</v>
+      </c>
+      <c r="Q116">
         <f t="shared" si="14"/>
-        <v>815.19096596880001</v>
-      </c>
-      <c r="J57" s="3">
+        <v>-3.7948367797893199</v>
+      </c>
+      <c r="S116">
+        <f>AVERAGE(K100:K101)</f>
+        <v>10.441008180000001</v>
+      </c>
+      <c r="T116">
+        <f>AVERAGE(K98:K99)</f>
+        <v>10.294050915</v>
+      </c>
+      <c r="U116">
+        <f>K97</f>
+        <v>10.588295240000001</v>
+      </c>
+    </row>
+    <row r="117" spans="2:22" ht="15.75" customHeight="1">
+      <c r="K117">
+        <v>3</v>
+      </c>
+      <c r="L117">
+        <f>AVERAGE(O100:O101)</f>
+        <v>11.489311234999999</v>
+      </c>
+      <c r="M117">
+        <f>AVERAGE(O98:O99)</f>
+        <v>11.216629624999999</v>
+      </c>
+      <c r="N117">
+        <f>O97</f>
+        <v>11.734510090000001</v>
+      </c>
+      <c r="O117">
         <f t="shared" si="14"/>
-        <v>786.11331398779998</v>
-      </c>
-      <c r="K57" s="3">
+        <v>-1.8944793604070171</v>
+      </c>
+      <c r="P117">
         <f t="shared" si="14"/>
-        <v>790.64767358379993</v>
-      </c>
-      <c r="M57" s="3">
-        <f>MAX(D57:K57)</f>
-        <v>858.86729370479998</v>
-      </c>
-      <c r="N57" s="3">
-        <f>MIN(D57:K57)</f>
-        <v>786.11331398779998</v>
-      </c>
-      <c r="O57" s="3">
-        <f>AVERAGE(D57:K57)</f>
-        <v>813.43771137642489</v>
-      </c>
-      <c r="Q57" s="3">
-        <f>MAX(D57:K60)</f>
-        <v>858.86729370479998</v>
-      </c>
-      <c r="R57" s="3">
-        <f>MIN(D57:K60)</f>
-        <v>576.67000574816666</v>
-      </c>
-      <c r="S57" s="3">
-        <f>AVERAGE(D57:K60)</f>
-        <v>721.79523729834159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
-      <c r="A58" s="2">
-        <v>2</v>
-      </c>
-      <c r="B58" s="2">
-        <v>3</v>
-      </c>
-      <c r="D58" s="3">
+        <v>-4.2479956629574396</v>
+      </c>
+      <c r="Q117">
         <f t="shared" si="14"/>
-        <v>627.60304681316666</v>
-      </c>
-      <c r="E58" s="3">
+        <v>-2.6303868472791101</v>
+      </c>
+      <c r="S117">
+        <f>AVERAGE(P100:P101)</f>
+        <v>11.271648604999999</v>
+      </c>
+      <c r="T117">
+        <f>AVERAGE(P98:P99)</f>
+        <v>10.740147685</v>
+      </c>
+      <c r="U117">
+        <f>P97</f>
+        <v>11.42584708</v>
+      </c>
+    </row>
+    <row r="118" spans="2:22" ht="15.75" customHeight="1">
+      <c r="K118">
+        <v>4</v>
+      </c>
+      <c r="L118">
+        <f>AVERAGE(T100:T101)</f>
+        <v>10.57791746</v>
+      </c>
+      <c r="M118">
+        <f>AVERAGE(T98:T99)</f>
+        <v>10.936670769999999</v>
+      </c>
+      <c r="N118">
+        <f>T97</f>
+        <v>10.807169289999999</v>
+      </c>
+      <c r="O118">
         <f t="shared" si="14"/>
-        <v>599.68957315316675</v>
-      </c>
-      <c r="F58" s="3">
+        <v>3.8783020528503944</v>
+      </c>
+      <c r="P118">
         <f t="shared" si="14"/>
-        <v>664.30691565816664</v>
-      </c>
-      <c r="G58" s="3">
+        <v>-4.897401286589135</v>
+      </c>
+      <c r="Q118">
         <f t="shared" si="14"/>
-        <v>622.19450450983334</v>
-      </c>
-      <c r="H58" s="3">
-        <f t="shared" si="14"/>
-        <v>617.90866329316668</v>
-      </c>
-      <c r="I58" s="3">
-        <f t="shared" si="14"/>
-        <v>626.48228990816665</v>
-      </c>
-      <c r="J58" s="3">
-        <f t="shared" si="14"/>
-        <v>576.67000574816666</v>
-      </c>
-      <c r="K58" s="3">
-        <f t="shared" si="14"/>
-        <v>582.84640891649997</v>
-      </c>
-      <c r="M58" s="3">
-        <f>MAX(D58:K58)</f>
-        <v>664.30691565816664</v>
-      </c>
-      <c r="N58" s="3">
-        <f>MIN(D58:K58)</f>
-        <v>576.67000574816666</v>
-      </c>
-      <c r="O58" s="3">
-        <f>AVERAGE(D58:K58)</f>
-        <v>614.71267600004171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
-      <c r="A59" s="2">
-        <v>3</v>
-      </c>
-      <c r="B59" s="2">
-        <v>3</v>
-      </c>
-      <c r="D59" s="3">
-        <f t="shared" si="14"/>
-        <v>635.95676143970002</v>
-      </c>
-      <c r="E59" s="3">
-        <f t="shared" si="14"/>
-        <v>615.98626469270005</v>
-      </c>
-      <c r="F59" s="3">
-        <f t="shared" si="14"/>
-        <v>692.00714007570002</v>
-      </c>
-      <c r="G59" s="3">
-        <f t="shared" si="14"/>
-        <v>625.38928067769996</v>
-      </c>
-      <c r="H59" s="3">
-        <f t="shared" si="14"/>
-        <v>616.21345680169998</v>
-      </c>
-      <c r="I59" s="3">
-        <f t="shared" si="14"/>
-        <v>620.73009392569998</v>
-      </c>
-      <c r="J59" s="3">
-        <f t="shared" si="14"/>
-        <v>603.35449872769993</v>
-      </c>
-      <c r="K59" s="3">
-        <f t="shared" si="14"/>
-        <v>579.11073520069988</v>
-      </c>
-      <c r="M59" s="3">
-        <f>MAX(D59:K59)</f>
-        <v>692.00714007570002</v>
-      </c>
-      <c r="N59" s="3">
-        <f>MIN(D59:K59)</f>
-        <v>579.11073520069988</v>
-      </c>
-      <c r="O59" s="3">
-        <f>AVERAGE(D59:K59)</f>
-        <v>623.5935289427</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
-      <c r="A60" s="2">
-        <v>4</v>
-      </c>
-      <c r="B60" s="2">
-        <v>3</v>
-      </c>
-      <c r="D60" s="3">
-        <f t="shared" si="14"/>
-        <v>842.07809774253326</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" si="14"/>
-        <v>852.92912723319978</v>
-      </c>
-      <c r="F60" s="3">
-        <f t="shared" si="14"/>
-        <v>844.83740945986665</v>
-      </c>
-      <c r="G60" s="3">
-        <f t="shared" si="14"/>
-        <v>808.63942381986635</v>
-      </c>
-      <c r="H60" s="3">
-        <f t="shared" si="14"/>
-        <v>852.9063325825332</v>
-      </c>
-      <c r="I60" s="3">
-        <f t="shared" si="14"/>
-        <v>849.86970152653328</v>
-      </c>
-      <c r="J60" s="3">
-        <f t="shared" si="14"/>
-        <v>816.80443628386649</v>
-      </c>
-      <c r="K60" s="3">
-        <f t="shared" si="14"/>
-        <v>815.43173434519986</v>
-      </c>
-      <c r="M60" s="3">
-        <f>MAX(D60:K60)</f>
-        <v>852.92912723319978</v>
-      </c>
-      <c r="N60" s="3">
-        <f>MIN(D60:K60)</f>
-        <v>808.63942381986635</v>
-      </c>
-      <c r="O60" s="3">
-        <f>AVERAGE(D60:K60)</f>
-        <v>835.43703287419999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
-      <c r="B63" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
-      <c r="B64" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" s="3">
-        <f t="shared" ref="D64:K64" si="15">MAX(D57:D60)</f>
-        <v>842.07809774253326</v>
-      </c>
-      <c r="E64" s="3">
-        <f t="shared" si="15"/>
-        <v>852.92912723319978</v>
-      </c>
-      <c r="F64" s="3">
-        <f t="shared" si="15"/>
-        <v>858.86729370479998</v>
-      </c>
-      <c r="G64" s="3">
-        <f t="shared" si="15"/>
-        <v>808.63942381986635</v>
-      </c>
-      <c r="H64" s="3">
-        <f t="shared" si="15"/>
-        <v>852.9063325825332</v>
-      </c>
-      <c r="I64" s="3">
-        <f t="shared" si="15"/>
-        <v>849.86970152653328</v>
-      </c>
-      <c r="J64" s="3">
-        <f t="shared" si="15"/>
-        <v>816.80443628386649</v>
-      </c>
-      <c r="K64" s="3">
-        <f t="shared" si="15"/>
-        <v>815.43173434519986</v>
-      </c>
-    </row>
-    <row r="65" spans="2:21">
-      <c r="B65" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D65" s="3">
-        <f t="shared" ref="D65:K65" si="16">MIN(D57:D60)</f>
-        <v>627.60304681316666</v>
-      </c>
-      <c r="E65" s="3">
-        <f t="shared" si="16"/>
-        <v>599.68957315316675</v>
-      </c>
-      <c r="F65" s="3">
-        <f t="shared" si="16"/>
-        <v>664.30691565816664</v>
-      </c>
-      <c r="G65" s="3">
-        <f t="shared" si="16"/>
-        <v>622.19450450983334</v>
-      </c>
-      <c r="H65" s="3">
-        <f t="shared" si="16"/>
-        <v>616.21345680169998</v>
-      </c>
-      <c r="I65" s="3">
-        <f t="shared" si="16"/>
-        <v>620.73009392569998</v>
-      </c>
-      <c r="J65" s="3">
-        <f t="shared" si="16"/>
-        <v>576.67000574816666</v>
-      </c>
-      <c r="K65" s="3">
-        <f t="shared" si="16"/>
-        <v>579.11073520069988</v>
-      </c>
-    </row>
-    <row r="66" spans="2:21">
-      <c r="B66" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D66" s="3">
-        <f t="shared" ref="D66:K66" si="17">AVERAGE(D57:D60)</f>
-        <v>735.86219043380004</v>
-      </c>
-      <c r="E66" s="3">
-        <f t="shared" si="17"/>
-        <v>722.6094653527166</v>
-      </c>
-      <c r="F66" s="3">
-        <f t="shared" si="17"/>
-        <v>765.00468972463329</v>
-      </c>
-      <c r="G66" s="3">
-        <f t="shared" si="17"/>
-        <v>711.25924432479985</v>
-      </c>
-      <c r="H66" s="3">
-        <f t="shared" si="17"/>
-        <v>723.81334402004995</v>
-      </c>
-      <c r="I66" s="3">
-        <f t="shared" si="17"/>
-        <v>728.06826283229998</v>
-      </c>
-      <c r="J66" s="3">
-        <f t="shared" si="17"/>
-        <v>695.73556368688321</v>
-      </c>
-      <c r="K66" s="3">
-        <f t="shared" si="17"/>
-        <v>692.00913801154991</v>
-      </c>
-    </row>
-    <row r="68" spans="2:21" ht="15.75" customHeight="1">
-      <c r="D68" s="23"/>
-      <c r="N68" s="23"/>
-      <c r="S68" s="23"/>
-    </row>
-    <row r="69" spans="2:21" ht="15.75" customHeight="1">
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-    </row>
-    <row r="70" spans="2:21" ht="15.75" customHeight="1">
-      <c r="I70" s="23"/>
-      <c r="N70" s="23"/>
-    </row>
-    <row r="71" spans="2:21" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B71" s="25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="72" spans="2:21" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D72" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="I72" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="J72" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="N72" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="O72" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="S72" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="T72" s="25" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B73" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="D73" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="F73" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="G73" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="H73" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="I73" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="J73" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="K73" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="L73" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="M73" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="N73" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="O73" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="P73" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q73" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="R73" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="S73" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="T73" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="U73" s="25" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="74" spans="2:21" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B74" s="25">
-        <v>1</v>
-      </c>
-      <c r="C74" s="25">
-        <v>3</v>
-      </c>
-      <c r="D74" s="25">
-        <v>1.751345334</v>
-      </c>
-      <c r="E74" s="25">
-        <v>13.027399920000001</v>
-      </c>
-      <c r="F74" s="25">
-        <v>12.812353359999999</v>
-      </c>
-      <c r="G74" s="25">
-        <v>2</v>
-      </c>
-      <c r="H74" s="25">
-        <v>3</v>
-      </c>
-      <c r="I74" s="25">
-        <v>1.6153839210000001</v>
-      </c>
-      <c r="J74" s="25">
-        <v>11.0059532</v>
-      </c>
-      <c r="K74" s="25">
-        <v>10.588295240000001</v>
-      </c>
-      <c r="L74" s="25">
-        <v>3</v>
-      </c>
-      <c r="M74" s="25">
-        <v>3</v>
-      </c>
-      <c r="N74" s="25">
-        <v>1.9051938390000001</v>
-      </c>
-      <c r="O74" s="25">
-        <v>11.734510090000001</v>
-      </c>
-      <c r="P74" s="25">
-        <v>11.42584708</v>
-      </c>
-      <c r="Q74" s="25">
-        <v>4</v>
-      </c>
-      <c r="R74" s="25">
-        <v>3</v>
-      </c>
-      <c r="S74" s="25">
-        <v>1.797774521</v>
-      </c>
-      <c r="T74" s="25">
-        <v>10.807169289999999</v>
-      </c>
-      <c r="U74" s="25">
-        <v>10.923264469999999</v>
-      </c>
-    </row>
-    <row r="75" spans="2:21" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B75" s="25">
-        <v>1</v>
-      </c>
-      <c r="C75" s="25">
-        <v>2</v>
-      </c>
-      <c r="D75" s="25">
-        <v>1.8857474729999999</v>
-      </c>
-      <c r="E75" s="25">
-        <v>11.88952067</v>
-      </c>
-      <c r="F75" s="25">
-        <v>11.374466200000001</v>
-      </c>
-      <c r="G75" s="25">
-        <v>2</v>
-      </c>
-      <c r="H75" s="25">
-        <v>2</v>
-      </c>
-      <c r="I75" s="25">
-        <v>1.582638532</v>
-      </c>
-      <c r="J75" s="25">
-        <v>10.466353270000001</v>
-      </c>
-      <c r="K75" s="25">
-        <v>10.248913780000001</v>
-      </c>
-      <c r="L75" s="25">
-        <v>3</v>
-      </c>
-      <c r="M75" s="25">
-        <v>2</v>
-      </c>
-      <c r="N75" s="25">
-        <v>1.791405567</v>
-      </c>
-      <c r="O75" s="25">
-        <v>11.1419382</v>
-      </c>
-      <c r="P75" s="25">
-        <v>10.583862140000001</v>
-      </c>
-      <c r="Q75" s="25">
-        <v>4</v>
-      </c>
-      <c r="R75" s="25">
-        <v>2</v>
-      </c>
-      <c r="S75" s="25">
-        <v>1.6692033900000001</v>
-      </c>
-      <c r="T75" s="25">
-        <v>11.08524332</v>
-      </c>
-      <c r="U75" s="25">
-        <v>10.360162170000001</v>
-      </c>
-    </row>
-    <row r="76" spans="2:21" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B76" s="25">
-        <v>1</v>
-      </c>
-      <c r="C76" s="25">
-        <v>2</v>
-      </c>
-      <c r="D76" s="25">
-        <v>1.8857474729999999</v>
-      </c>
-      <c r="E76" s="25">
-        <v>11.49310616</v>
-      </c>
-      <c r="F76" s="25">
-        <v>11.812987659999999</v>
-      </c>
-      <c r="G76" s="25">
-        <v>2</v>
-      </c>
-      <c r="H76" s="25">
-        <v>2</v>
-      </c>
-      <c r="I76" s="25">
-        <v>1.582638532</v>
-      </c>
-      <c r="J76" s="25">
-        <v>10.4607989</v>
-      </c>
-      <c r="K76" s="25">
-        <v>10.339188050000001</v>
-      </c>
-      <c r="L76" s="25">
-        <v>3</v>
-      </c>
-      <c r="M76" s="25">
-        <v>2</v>
-      </c>
-      <c r="N76" s="25">
-        <v>1.791405567</v>
-      </c>
-      <c r="O76" s="25">
-        <v>11.291321050000001</v>
-      </c>
-      <c r="P76" s="25">
-        <v>10.89643323</v>
-      </c>
-      <c r="Q76" s="25">
-        <v>4</v>
-      </c>
-      <c r="R76" s="25">
-        <v>2</v>
-      </c>
-      <c r="S76" s="25">
-        <v>1.6692033900000001</v>
-      </c>
-      <c r="T76" s="25">
-        <v>10.78809822</v>
-      </c>
-      <c r="U76" s="25">
-        <v>10.44195406</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B77" s="25">
-        <v>1</v>
-      </c>
-      <c r="C77" s="25">
-        <v>1</v>
-      </c>
-      <c r="D77" s="25">
-        <v>1.711534415</v>
-      </c>
-      <c r="E77" s="25">
-        <v>11.77550426</v>
-      </c>
-      <c r="F77" s="25">
-        <v>11.760609199999999</v>
-      </c>
-      <c r="G77" s="25">
-        <v>2</v>
-      </c>
-      <c r="H77" s="25">
-        <v>1</v>
-      </c>
-      <c r="I77" s="25">
-        <v>1.5142305439999999</v>
-      </c>
-      <c r="J77" s="26">
-        <v>10.104439449999999</v>
-      </c>
-      <c r="K77" s="26">
-        <v>10.07576607</v>
-      </c>
-      <c r="L77" s="25">
-        <v>3</v>
-      </c>
-      <c r="M77" s="25">
-        <v>1</v>
-      </c>
-      <c r="N77" s="25">
-        <v>1.578711121</v>
-      </c>
-      <c r="O77" s="25">
-        <v>11.25170795</v>
-      </c>
-      <c r="P77" s="25">
-        <v>11.321315609999999</v>
-      </c>
-      <c r="Q77" s="25">
-        <v>4</v>
-      </c>
-      <c r="R77" s="25">
-        <v>1</v>
-      </c>
-      <c r="S77" s="25">
-        <v>1.7902534109999999</v>
-      </c>
-      <c r="T77" s="25">
-        <v>10.4876483</v>
-      </c>
-      <c r="U77" s="25">
-        <v>10.774973490000001</v>
-      </c>
-    </row>
-    <row r="78" spans="2:21" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B78" s="25">
-        <v>1</v>
-      </c>
-      <c r="C78" s="25">
-        <v>1</v>
-      </c>
-      <c r="D78" s="25">
-        <v>1.711534415</v>
-      </c>
-      <c r="E78" s="25">
-        <v>11.733416739999999</v>
-      </c>
-      <c r="F78" s="25">
-        <v>11.5305891</v>
-      </c>
-      <c r="G78" s="25">
-        <v>2</v>
-      </c>
-      <c r="H78" s="25">
-        <v>1</v>
-      </c>
-      <c r="I78" s="25">
-        <v>1.5142305439999999</v>
-      </c>
-      <c r="J78" s="26">
-        <v>10.67099247</v>
-      </c>
-      <c r="K78" s="26">
-        <v>10.806250289999999</v>
-      </c>
-      <c r="L78" s="25">
-        <v>3</v>
-      </c>
-      <c r="M78" s="25">
-        <v>1</v>
-      </c>
-      <c r="N78" s="25">
-        <v>1.578711121</v>
-      </c>
-      <c r="O78" s="25">
-        <v>11.726914519999999</v>
-      </c>
-      <c r="P78" s="25">
-        <v>11.221981599999999</v>
-      </c>
-      <c r="Q78" s="25">
-        <v>4</v>
-      </c>
-      <c r="R78" s="25">
-        <v>1</v>
-      </c>
-      <c r="S78" s="25">
-        <v>1.7902534109999999</v>
-      </c>
-      <c r="T78" s="25">
-        <v>10.66818662</v>
-      </c>
-      <c r="U78" s="25">
-        <v>11.20134861</v>
-      </c>
-    </row>
-    <row r="80" spans="2:21" ht="15.75" customHeight="1">
-      <c r="C80" t="s">
-        <v>218</v>
-      </c>
-      <c r="D80">
-        <f>AVERAGE(D74:D78)</f>
-        <v>1.7891818220000002</v>
-      </c>
-      <c r="E80">
-        <f>AVERAGE(E74:E78)</f>
-        <v>11.983789550000001</v>
-      </c>
-      <c r="F80">
-        <f>AVERAGE(F74:F78)</f>
-        <v>11.858201103999999</v>
-      </c>
-      <c r="H80" t="s">
-        <v>218</v>
-      </c>
-      <c r="I80">
-        <f>AVERAGE(I74:I78)</f>
-        <v>1.5618244146</v>
-      </c>
-      <c r="J80">
-        <f>AVERAGE(J74:J78)</f>
-        <v>10.541707458000001</v>
-      </c>
-      <c r="K80">
-        <f>AVERAGE(K74:K78)</f>
-        <v>10.411682686000002</v>
-      </c>
-      <c r="M80" t="s">
-        <v>218</v>
-      </c>
-      <c r="N80">
-        <f>AVERAGE(N74:N78)</f>
-        <v>1.729085443</v>
-      </c>
-      <c r="O80">
-        <f>AVERAGE(O74:O78)</f>
-        <v>11.429278362000002</v>
-      </c>
-      <c r="P80">
-        <f>AVERAGE(P74:P78)</f>
-        <v>11.089887932</v>
-      </c>
-      <c r="R80" t="s">
-        <v>218</v>
-      </c>
-      <c r="S80">
-        <f>AVERAGE(S74:S78)</f>
-        <v>1.7433376245999999</v>
-      </c>
-      <c r="T80">
-        <f>AVERAGE(T74:T78)</f>
-        <v>10.767269150000001</v>
-      </c>
-      <c r="U80">
-        <f>AVERAGE(U74:U78)</f>
-        <v>10.740340560000002</v>
-      </c>
-    </row>
-    <row r="81" spans="2:27" ht="15.75" customHeight="1">
-      <c r="C81" t="s">
-        <v>167</v>
-      </c>
-      <c r="D81">
-        <f>MIN(D74:D78)</f>
-        <v>1.711534415</v>
-      </c>
-      <c r="E81">
-        <f>MIN(E74:E78)</f>
-        <v>11.49310616</v>
-      </c>
-      <c r="F81">
-        <f>MIN(F74:F78)</f>
-        <v>11.374466200000001</v>
-      </c>
-      <c r="H81" t="s">
-        <v>167</v>
-      </c>
-      <c r="I81">
-        <f>MIN(I74:I78)</f>
-        <v>1.5142305439999999</v>
-      </c>
-      <c r="J81">
-        <f>MIN(J74:J78)</f>
-        <v>10.104439449999999</v>
-      </c>
-      <c r="K81">
-        <f>MIN(K74:K78)</f>
-        <v>10.07576607</v>
-      </c>
-      <c r="M81" t="s">
-        <v>167</v>
-      </c>
-      <c r="N81">
-        <f>MIN(N74:N78)</f>
-        <v>1.578711121</v>
-      </c>
-      <c r="O81">
-        <f>MIN(O74:O78)</f>
-        <v>11.1419382</v>
-      </c>
-      <c r="P81">
-        <f>MIN(P74:P78)</f>
-        <v>10.583862140000001</v>
-      </c>
-      <c r="R81" t="s">
-        <v>167</v>
-      </c>
-      <c r="S81">
-        <f>MIN(S74:S78)</f>
-        <v>1.6692033900000001</v>
-      </c>
-      <c r="T81">
-        <f>MIN(T74:T78)</f>
-        <v>10.4876483</v>
-      </c>
-      <c r="U81">
-        <f>MIN(U74:U78)</f>
-        <v>10.360162170000001</v>
-      </c>
-    </row>
-    <row r="82" spans="2:27" ht="15.75" customHeight="1">
-      <c r="C82" t="s">
-        <v>166</v>
-      </c>
-      <c r="D82">
-        <f>MAX(D74:D78)</f>
-        <v>1.8857474729999999</v>
-      </c>
-      <c r="E82">
-        <f>MAX(E74:E78)</f>
-        <v>13.027399920000001</v>
-      </c>
-      <c r="F82">
-        <f>MAX(F74:F78)</f>
-        <v>12.812353359999999</v>
-      </c>
-      <c r="H82" t="s">
-        <v>166</v>
-      </c>
-      <c r="I82">
-        <f>MAX(I74:I78)</f>
-        <v>1.6153839210000001</v>
-      </c>
-      <c r="J82">
-        <f>MAX(J74:J78)</f>
-        <v>11.0059532</v>
-      </c>
-      <c r="K82">
-        <f>MAX(K74:K78)</f>
-        <v>10.806250289999999</v>
-      </c>
-      <c r="M82" t="s">
-        <v>166</v>
-      </c>
-      <c r="N82">
-        <f>MAX(N74:N78)</f>
-        <v>1.9051938390000001</v>
-      </c>
-      <c r="O82">
-        <f>MAX(O74:O78)</f>
-        <v>11.734510090000001</v>
-      </c>
-      <c r="P82">
-        <f>MAX(P74:P78)</f>
-        <v>11.42584708</v>
-      </c>
-      <c r="R82" t="s">
-        <v>166</v>
-      </c>
-      <c r="S82">
-        <f>MAX(S74:S78)</f>
-        <v>1.797774521</v>
-      </c>
-      <c r="T82">
-        <f>MAX(T74:T78)</f>
-        <v>11.08524332</v>
-      </c>
-      <c r="U82">
-        <f>MAX(U74:U78)</f>
-        <v>11.20134861</v>
-      </c>
-    </row>
-    <row r="83" spans="2:27" ht="15.75" customHeight="1">
-      <c r="C83" t="s">
-        <v>219</v>
-      </c>
-      <c r="D83">
-        <f>D82-D81</f>
-        <v>0.17421305799999987</v>
-      </c>
-      <c r="E83">
-        <f>E82-E81</f>
-        <v>1.5342937600000006</v>
-      </c>
-      <c r="F83">
-        <f>F82-F81</f>
-        <v>1.4378871599999989</v>
-      </c>
-      <c r="H83" t="s">
-        <v>219</v>
-      </c>
-      <c r="I83">
-        <f>I82-I81</f>
-        <v>0.10115337700000016</v>
-      </c>
-      <c r="J83">
-        <f>J82-J81</f>
-        <v>0.90151375000000122</v>
-      </c>
-      <c r="K83">
-        <f>K82-K81</f>
-        <v>0.73048421999999924</v>
-      </c>
-      <c r="M83" t="s">
-        <v>219</v>
-      </c>
-      <c r="N83">
-        <f>N82-N81</f>
-        <v>0.32648271800000006</v>
-      </c>
-      <c r="O83">
-        <f>O82-O81</f>
-        <v>0.59257189000000032</v>
-      </c>
-      <c r="P83">
-        <f>P82-P81</f>
-        <v>0.84198493999999968</v>
-      </c>
-      <c r="R83" t="s">
-        <v>219</v>
-      </c>
-      <c r="S83">
-        <f>S82-S81</f>
-        <v>0.12857113099999995</v>
-      </c>
-      <c r="T83">
-        <f>T82-T81</f>
-        <v>0.59759501999999998</v>
-      </c>
-      <c r="U83">
-        <f>U82-U81</f>
-        <v>0.84118643999999954</v>
-      </c>
-    </row>
-    <row r="84" spans="2:27" ht="15.75" customHeight="1">
-      <c r="C84" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D84">
-        <f t="shared" ref="D84:U84" si="18">_xlfn.STDEV.P(D74:D78)</f>
-        <v>8.01744215544197E-2</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="18"/>
-        <v>0.53755906119189645</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="18"/>
-        <v>0.50265376660030303</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="18"/>
-        <v>0.74833147735478833</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="18"/>
-        <v>4.0658157187636344E-2</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="18"/>
-        <v>0.29518349632729751</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="18"/>
-        <v>0.25747417356729352</v>
-      </c>
-      <c r="L84">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <f t="shared" si="18"/>
-        <v>0.74833147735478833</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="18"/>
-        <v>0.12961993387312226</v>
-      </c>
-      <c r="O84">
-        <f t="shared" si="18"/>
-        <v>0.25095080401431985</v>
-      </c>
-      <c r="P84">
-        <f t="shared" si="18"/>
-        <v>0.3089863687252844</v>
-      </c>
-      <c r="Q84">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R84">
-        <f t="shared" si="18"/>
-        <v>0.74833147735478833</v>
-      </c>
-      <c r="S84">
-        <f t="shared" si="18"/>
-        <v>6.0592618686075655E-2</v>
-      </c>
-      <c r="T84">
-        <f t="shared" si="18"/>
-        <v>0.19551910987021023</v>
-      </c>
-      <c r="U84">
-        <f t="shared" si="18"/>
-        <v>0.31008357920409679</v>
-      </c>
-    </row>
-    <row r="86" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B86" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E86" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA86" s="27"/>
-    </row>
-    <row r="87" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <f>D83</f>
-        <v>0.17421305799999987</v>
-      </c>
-      <c r="D87">
-        <f>E83</f>
-        <v>1.5342937600000006</v>
-      </c>
-      <c r="E87">
-        <f>F83</f>
-        <v>1.4378871599999989</v>
-      </c>
-      <c r="AA87" s="27"/>
-    </row>
-    <row r="88" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B88">
-        <v>2</v>
-      </c>
-      <c r="C88" s="2">
-        <f>I83</f>
-        <v>0.10115337700000016</v>
-      </c>
-      <c r="D88" s="2">
-        <f>J83</f>
-        <v>0.90151375000000122</v>
-      </c>
-      <c r="E88" s="2">
-        <f>K83</f>
-        <v>0.73048421999999924</v>
-      </c>
-    </row>
-    <row r="89" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B89">
-        <v>3</v>
-      </c>
-      <c r="C89">
-        <f>N83</f>
-        <v>0.32648271800000006</v>
-      </c>
-      <c r="D89" s="2">
-        <f>O83</f>
-        <v>0.59257189000000032</v>
-      </c>
-      <c r="E89" s="2">
-        <f>P83</f>
-        <v>0.84198493999999968</v>
-      </c>
-    </row>
-    <row r="90" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B90">
-        <v>4</v>
-      </c>
-      <c r="C90">
-        <f>S83</f>
-        <v>0.12857113099999995</v>
-      </c>
-      <c r="D90" s="2">
-        <f>T83</f>
-        <v>0.59759501999999998</v>
-      </c>
-      <c r="E90" s="2">
-        <f>U83</f>
-        <v>0.84118643999999954</v>
-      </c>
-      <c r="L90" s="28" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="91" spans="2:27" ht="15.75" customHeight="1">
-      <c r="K91" t="s">
-        <v>200</v>
-      </c>
-      <c r="L91" t="s">
-        <v>225</v>
-      </c>
-      <c r="M91" t="s">
-        <v>226</v>
-      </c>
-      <c r="N91" t="s">
-        <v>227</v>
-      </c>
-      <c r="O91" t="s">
-        <v>391</v>
-      </c>
-      <c r="P91" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>392</v>
-      </c>
-      <c r="R91" t="s">
-        <v>228</v>
-      </c>
-      <c r="S91" t="s">
-        <v>229</v>
-      </c>
-      <c r="T91" t="s">
-        <v>230</v>
-      </c>
-      <c r="U91" t="s">
-        <v>231</v>
-      </c>
-      <c r="V91" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="92" spans="2:27" ht="15.75" customHeight="1">
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92">
-        <f>AVERAGE(E77:E78)</f>
-        <v>11.7544605</v>
-      </c>
-      <c r="M92">
-        <f>AVERAGE(E75:E76)</f>
-        <v>11.691313415</v>
-      </c>
-      <c r="N92">
-        <f>E74</f>
-        <v>13.027399920000001</v>
-      </c>
-      <c r="O92">
-        <f t="shared" ref="O92:Q95" si="19">(S92-L92)/L92*100</f>
-        <v>-0.92612800051522159</v>
-      </c>
-      <c r="P92">
-        <f t="shared" si="19"/>
-        <v>-0.83469223290855366</v>
-      </c>
-      <c r="Q92">
-        <f t="shared" si="19"/>
-        <v>-1.6507250972610128</v>
-      </c>
-      <c r="S92">
-        <f>AVERAGE(F77:F78)</f>
-        <v>11.645599149999999</v>
-      </c>
-      <c r="T92">
-        <f>AVERAGE(F75:F76)</f>
-        <v>11.593726929999999</v>
-      </c>
-      <c r="U92">
-        <f>F74</f>
-        <v>12.812353359999999</v>
-      </c>
-    </row>
-    <row r="93" spans="2:27" ht="15.75" customHeight="1">
-      <c r="K93">
-        <v>2</v>
-      </c>
-      <c r="L93">
-        <f>AVERAGE(J77:J78)</f>
-        <v>10.38771596</v>
-      </c>
-      <c r="M93">
-        <f>AVERAGE(J75:J76)</f>
-        <v>10.463576085</v>
-      </c>
-      <c r="N93">
-        <f>J74</f>
-        <v>11.0059532</v>
-      </c>
-      <c r="O93">
-        <f t="shared" si="19"/>
-        <v>0.51303116301228957</v>
-      </c>
-      <c r="P93">
-        <f t="shared" si="19"/>
-        <v>-1.6201456234740039</v>
-      </c>
-      <c r="Q93">
-        <f t="shared" si="19"/>
-        <v>-3.7948367797893199</v>
-      </c>
-      <c r="S93">
-        <f>AVERAGE(K77:K78)</f>
-        <v>10.441008180000001</v>
-      </c>
-      <c r="T93">
-        <f>AVERAGE(K75:K76)</f>
-        <v>10.294050915</v>
-      </c>
-      <c r="U93">
-        <f>K74</f>
-        <v>10.588295240000001</v>
-      </c>
-    </row>
-    <row r="94" spans="2:27" ht="15.75" customHeight="1">
-      <c r="K94">
-        <v>3</v>
-      </c>
-      <c r="L94">
-        <f>AVERAGE(O77:O78)</f>
-        <v>11.489311234999999</v>
-      </c>
-      <c r="M94">
-        <f>AVERAGE(O75:O76)</f>
-        <v>11.216629624999999</v>
-      </c>
-      <c r="N94">
-        <f>O74</f>
-        <v>11.734510090000001</v>
-      </c>
-      <c r="O94">
-        <f t="shared" si="19"/>
-        <v>-1.8944793604070171</v>
-      </c>
-      <c r="P94">
-        <f t="shared" si="19"/>
-        <v>-4.2479956629574396</v>
-      </c>
-      <c r="Q94">
-        <f t="shared" si="19"/>
-        <v>-2.6303868472791101</v>
-      </c>
-      <c r="S94">
-        <f>AVERAGE(P77:P78)</f>
-        <v>11.271648604999999</v>
-      </c>
-      <c r="T94">
-        <f>AVERAGE(P75:P76)</f>
-        <v>10.740147685</v>
-      </c>
-      <c r="U94">
-        <f>P74</f>
-        <v>11.42584708</v>
-      </c>
-    </row>
-    <row r="95" spans="2:27" ht="15.75" customHeight="1">
-      <c r="K95">
-        <v>4</v>
-      </c>
-      <c r="L95">
-        <f>AVERAGE(T77:T78)</f>
-        <v>10.57791746</v>
-      </c>
-      <c r="M95">
-        <f>AVERAGE(T75:T76)</f>
-        <v>10.936670769999999</v>
-      </c>
-      <c r="N95">
-        <f>T74</f>
-        <v>10.807169289999999</v>
-      </c>
-      <c r="O95">
-        <f t="shared" si="19"/>
-        <v>3.8783020528503944</v>
-      </c>
-      <c r="P95">
-        <f t="shared" si="19"/>
-        <v>-4.897401286589135</v>
-      </c>
-      <c r="Q95">
-        <f t="shared" si="19"/>
         <v>1.07424226348915</v>
       </c>
-      <c r="S95">
-        <f>AVERAGE(U77:U78)</f>
+      <c r="S118">
+        <f>AVERAGE(U100:U101)</f>
         <v>10.98816105</v>
       </c>
-      <c r="T95">
-        <f>AVERAGE(U75:U76)</f>
+      <c r="T118">
+        <f>AVERAGE(U98:U99)</f>
         <v>10.401058115000001</v>
       </c>
-      <c r="U95">
-        <f>U74</f>
+      <c r="U118">
+        <f>U97</f>
         <v>10.923264469999999</v>
       </c>
     </row>
@@ -15063,8 +16546,8 @@
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/metabolicsData_revised.xlsx
+++ b/metabolicsData_revised.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Exotendon\muscleModel\muscleEnergyModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ADDF9D-26D9-43C9-B9E5-5B44C4799D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75AF34B-5416-4C91-9CF8-2D4E3F40293C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="key" sheetId="1" r:id="rId1"/>
@@ -21,60 +21,6 @@
     <sheet name="demb" sheetId="6" r:id="rId6"/>
     <sheet name="sild" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">welk!$O$91</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">welk!$O$92:$O$95</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">welk!$O$91</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">welk!$O$92:$O$95</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">welk!$P$91</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">welk!$P$92:$P$95</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">welk!$Q$91</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">welk!$Q$92:$Q$95</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">welk!$O$91</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">welk!$O$92:$O$95</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">welk!$P$91</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">welk!$P$92:$P$95</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">welk!$P$91</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">welk!$Q$91</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">welk!$Q$92:$Q$95</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">welk!$O$91</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">welk!$O$92:$O$95</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">welk!$P$91</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">welk!$P$92:$P$95</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">welk!$Q$91</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">welk!$Q$92:$Q$95</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">welk!$O$91</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">welk!$O$92:$O$95</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">welk!$P$92:$P$95</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">welk!$P$91</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">welk!$P$92:$P$95</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">welk!$Q$91</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">welk!$Q$92:$Q$95</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">welk!$O$91</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">welk!$O$92:$O$95</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">welk!$P$91</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">welk!$P$92:$P$95</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">welk!$Q$91</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">welk!$Q$92:$Q$95</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">welk!$Q$91</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">welk!$O$114</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">welk!$O$115:$O$118</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">welk!$P$114</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">welk!$P$115:$P$118</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">welk!$Q$114</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">welk!$Q$115:$Q$118</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">welk!$O$91</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">welk!$O$92:$O$95</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">welk!$P$91</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">welk!$P$92:$P$95</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">welk!$Q$92:$Q$95</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">welk!$Q$91</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">welk!$Q$92:$Q$95</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">welk!$K$115:$K$117</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">welk!$O$115:$O$118</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">welk!$P$115:$P$118</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">welk!$Q$115:$Q$118</definedName>
-  </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -91,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="405">
   <si>
     <t>study</t>
   </si>
@@ -1278,10 +1224,34 @@
     <t>Marissa Lee</t>
   </si>
   <si>
-    <t>Nick Bianco</t>
+    <t>Elliot Weiss</t>
   </si>
   <si>
-    <t>Elliot Weiss</t>
+    <t>Kirsten Seagers</t>
+  </si>
+  <si>
+    <t>Sarah Geiss</t>
+  </si>
+  <si>
+    <t>percent change</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>percent reduction</t>
+  </si>
+  <si>
+    <t>helper</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>training 1</t>
+  </si>
+  <si>
+    <t>training 2</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1261,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1377,8 +1347,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1421,8 +1411,13 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1454,12 +1449,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1560,6 +1572,12 @@
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1567,16 +1585,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{5F443F72-545C-4141-81D3-24A2C63E955F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1647,6 +1676,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF460000"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1769,7 +1801,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>welk!$B$110:$B$113</c:f>
+              <c:f>welk!$B$170:$B$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1790,7 +1822,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>welk!$C$110:$C$113</c:f>
+              <c:f>welk!$C$170:$C$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1877,7 +1909,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>welk!$B$110:$B$113</c:f>
+              <c:f>welk!$B$170:$B$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1898,7 +1930,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>welk!$D$110:$D$113</c:f>
+              <c:f>welk!$D$170:$D$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1985,7 +2017,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>welk!$B$110:$B$113</c:f>
+              <c:f>welk!$B$170:$B$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2006,7 +2038,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>welk!$E$110:$E$113</c:f>
+              <c:f>welk!$E$170:$E$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2353,7 +2385,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>welk!$L$115:$L$118</c:f>
+              <c:f>welk!$L$175:$L$178</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2434,7 +2466,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>welk!$M$115:$M$118</c:f>
+              <c:f>welk!$M$175:$M$178</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2515,7 +2547,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>welk!$N$115:$N$118</c:f>
+              <c:f>welk!$N$175:$N$178</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2596,7 +2628,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>welk!$S$115:$S$118</c:f>
+              <c:f>welk!$S$175:$S$178</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2677,7 +2709,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>welk!$T$115:$T$118</c:f>
+              <c:f>welk!$T$175:$T$178</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2758,7 +2790,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>welk!$U$115:$U$118</c:f>
+              <c:f>welk!$U$175:$U$178</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2856,7 +2888,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>welk!$R$115:$R$118</c15:sqref>
+                          <c15:sqref>welk!$R$175:$R$178</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2933,7 +2965,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>welk!$V$115:$V$118</c15:sqref>
+                          <c15:sqref>welk!$V$175:$V$178</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3248,7 +3280,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>welk!$O$115:$O$118</c:f>
+              <c:f>welk!$O$175:$O$178</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3322,7 +3354,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>welk!$P$115:$P$118</c:f>
+              <c:f>welk!$P$175:$P$178</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3396,7 +3428,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>welk!$Q$115:$Q$118</c:f>
+              <c:f>welk!$Q$175:$Q$178</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3609,7 +3641,1268 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Metabolic Savings</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>welk!$G$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>training 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>welk!$G$93:$G$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.7560594344773475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.8767085522482997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3291228891913505E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-98BF-4EB3-A49E-C1BE0001ED01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>welk!$H$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>training 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="460000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>welk!$H$93:$H$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.99835355102403012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.3408691535037871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6450555915572977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-98BF-4EB3-A49E-C1BE0001ED01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="200"/>
+        <c:overlap val="-100"/>
+        <c:axId val="726211032"/>
+        <c:axId val="726207424"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>welk!$F$92</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Day</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>welk!$F$93:$F$95</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-98BF-4EB3-A49E-C1BE0001ED01}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="726211032"/>
+        <c:axId val="726207424"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>Day 3 train 2</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>welk!$B$80:$B$86</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>welk!$C$80:$C$86</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>-13.674272545382285</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-1.9914171281253879E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-1.6788005910046693</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-0.87921728971654922</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-8.5168267607933981</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.1762497889194208</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9.0773924283576495</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-98BF-4EB3-A49E-C1BE0001ED01}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>day3 train 1</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>welk!$F$80:$F$86</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(welk!$G$80:$G$81,welk!$G$83:$G$86)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>-7.2614440838779952</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.5672947431985103</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-5.2164962586989088</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1.2085642676845951</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-6.2611380925783653</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16.940095332992836</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-98BF-4EB3-A49E-C1BE0001ED01}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>Day 2 train 2</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>welk!$J$80:$J$86</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>welk!$K$80:$K$86</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>-9.5834133172715994</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-2.0114327804399466</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-7.8958089704889058</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-5.0845988957664341</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-3.1703934783330543</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-1.7556654087406074</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-0.88477122348596027</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-98BF-4EB3-A49E-C1BE0001ED01}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:v>Day 2 train 1</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>welk!$N$80:$N$86</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>welk!$O$80:$O$86</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>-6.030400753793665</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-3.9102955662934562</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-7.1040092025718575</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-4.4386235472947382</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.0146546873351685</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-3.7183929324393072</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>16.565697716400475</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-98BF-4EB3-A49E-C1BE0001ED01}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:v>Day 1 train 2</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(welk!$R$80:$R$81,welk!$R$83:$R$86)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>(welk!$S$80:$S$81,welk!$S$83:$S$86)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>-8.1288027067341631</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-3.1590795777039902</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-2.0402587148814075</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.357594153091128</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>13.962314601348583</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-98BF-4EB3-A49E-C1BE0001ED01}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:v>Day 1 train 1</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>welk!$V$80:$V$86</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>welk!$W$80:$W$86</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>-9.5422852013753356</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.5029352355681951</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.9380477871064228</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>17.336915949290951</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-1.3283758324129034</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-1.7771692011744875</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12.162347304338587</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-98BF-4EB3-A49E-C1BE0001ED01}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="726211032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Training Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="726207424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="726207424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Percent Reduction from</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                  <a:t> Natural to Exotendon</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="726211032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4165,19 +5458,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>324000</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>28440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228240</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161565</xdr:colOff>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4207,13 +6003,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>738188</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>158536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1449247</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>172897</xdr:colOff>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>66806</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4243,13 +6039,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>21167</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>486834</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4270,6 +6066,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>300038</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC0710C-207F-27F3-708F-D32C593D0414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4589,12 +6421,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -13080,16 +14912,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AA118"/>
+  <dimension ref="A1:AA178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="N77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="15" max="17" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -13112,12 +14963,12 @@
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
       <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
@@ -13342,7 +15193,9 @@
       <c r="E10" s="20">
         <v>177.8</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="20">
+        <v>93</v>
+      </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -13350,7 +15203,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="58" t="s">
+      <c r="K10" s="55" t="s">
         <v>190</v>
       </c>
     </row>
@@ -13358,19 +15211,35 @@
       <c r="A11" s="19">
         <v>44626</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="20" t="e">
+      <c r="B11" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="18">
+        <v>29</v>
+      </c>
+      <c r="E11" s="18">
+        <v>162.6</v>
+      </c>
+      <c r="F11" s="18">
+        <v>86</v>
+      </c>
+      <c r="G11" s="18">
+        <v>61.7</v>
+      </c>
+      <c r="H11" s="18">
+        <v>61.7</v>
+      </c>
+      <c r="I11" s="18">
+        <v>61.7</v>
+      </c>
+      <c r="J11" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="58" t="s">
+        <v>61.70000000000001</v>
+      </c>
+      <c r="K11" s="55" t="s">
         <v>193</v>
       </c>
     </row>
@@ -13378,10 +15247,10 @@
       <c r="A12" s="19">
         <v>44627</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="55" t="s">
         <v>392</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="55" t="s">
         <v>192</v>
       </c>
       <c r="D12" s="18">
@@ -13406,7 +15275,7 @@
         <f t="shared" si="0"/>
         <v>57.20000000000001</v>
       </c>
-      <c r="K12" s="58" t="s">
+      <c r="K12" s="55" t="s">
         <v>190</v>
       </c>
     </row>
@@ -13414,32 +15283,35 @@
       <c r="A13" s="19">
         <v>44628</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="56" t="s">
         <v>393</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="E13" s="60">
+      <c r="D13" s="20">
+        <v>24</v>
+      </c>
+      <c r="E13" s="57">
         <v>178</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="57">
         <v>91</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="57">
         <v>68.040000000000006</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="57">
         <v>68.040000000000006</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="57">
         <v>68.040000000000006</v>
       </c>
       <c r="J13" s="20">
         <f t="shared" si="0"/>
         <v>68.040000000000006</v>
       </c>
-      <c r="K13" s="59" t="s">
+      <c r="K13" s="56" t="s">
         <v>193</v>
       </c>
     </row>
@@ -13447,46 +15319,92 @@
       <c r="A14" s="19">
         <v>44629</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="56" t="s">
         <v>394</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="J14" s="20" t="e">
+      <c r="D14" s="20">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>157.5</v>
+      </c>
+      <c r="F14">
+        <v>81.5</v>
+      </c>
+      <c r="G14">
+        <v>53.98</v>
+      </c>
+      <c r="H14">
+        <v>53.98</v>
+      </c>
+      <c r="I14">
+        <v>53.98</v>
+      </c>
+      <c r="J14" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>53.98</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="19">
         <v>44630</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="56" t="s">
         <v>395</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="J15" s="20" t="e">
+      <c r="D15" s="20">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>172.7</v>
+      </c>
+      <c r="F15">
+        <v>95</v>
+      </c>
+      <c r="G15">
+        <v>59.2</v>
+      </c>
+      <c r="H15">
+        <v>59.2</v>
+      </c>
+      <c r="I15">
+        <v>59.2</v>
+      </c>
+      <c r="J15" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>59.20000000000001</v>
+      </c>
+      <c r="K15" s="55" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="19">
         <v>44631</v>
       </c>
-      <c r="B16" s="59" t="s">
-        <v>396</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>189</v>
-      </c>
+      <c r="B16" s="56" t="s">
+        <v>397</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="20"/>
       <c r="J16" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="K16" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1">
       <c r="A17" s="19">
@@ -13495,6 +15413,9 @@
       <c r="J17" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="K17" s="55" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1">
@@ -13513,7 +15434,9 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="18"/>
+      <c r="K18" s="18" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1">
       <c r="A19" s="19">
@@ -13523,6 +15446,9 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="K19" s="55" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1">
       <c r="A20" s="19">
@@ -13532,6 +15458,9 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="K20" s="55" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1">
       <c r="A21" s="19">
@@ -13541,6 +15470,9 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="K21" s="55" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1">
       <c r="A22" s="19">
@@ -13549,6 +15481,9 @@
       <c r="J22" s="20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="55" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:19" s="2" customFormat="1" ht="15.75" customHeight="1">
@@ -13556,9 +15491,12 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="K23" s="55" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A24" s="57"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -13701,16 +15639,16 @@
         <v>12.699362983750001</v>
       </c>
       <c r="Q28" s="3">
-        <f>MAX(D28:K31)</f>
-        <v>13.310797470000001</v>
+        <f>MAX(D28:K41)</f>
+        <v>13.934491816530082</v>
       </c>
       <c r="R28" s="3">
-        <f>MIN(D28:K31)</f>
+        <f>MIN(D28:K41)</f>
         <v>10.24386281</v>
       </c>
       <c r="S28" s="3">
-        <f>AVERAGE(D28:K31)</f>
-        <v>11.447995978124998</v>
+        <f>AVERAGE(D28:K41)</f>
+        <v>11.571021132510506</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15">
@@ -13748,15 +15686,15 @@
         <v>10.336277819999999</v>
       </c>
       <c r="M29" s="3">
-        <f>MAX(D29:K29)</f>
+        <f t="shared" ref="M29:M41" si="1">MAX(D29:K29)</f>
         <v>11.55513827</v>
       </c>
       <c r="N29" s="3">
-        <f>MIN(D29:K29)</f>
+        <f t="shared" ref="N29:N41" si="2">MIN(D29:K29)</f>
         <v>10.24386281</v>
       </c>
       <c r="O29" s="3">
-        <f>AVERAGE(D29:K29)</f>
+        <f t="shared" ref="O29:O41" si="3">AVERAGE(D29:K29)</f>
         <v>10.81307982125</v>
       </c>
     </row>
@@ -13795,15 +15733,15 @@
         <v>10.855900719999999</v>
       </c>
       <c r="M30" s="3">
-        <f>MAX(D30:K30)</f>
+        <f t="shared" si="1"/>
         <v>12.60082197</v>
       </c>
       <c r="N30" s="3">
-        <f>MIN(D30:K30)</f>
+        <f t="shared" si="2"/>
         <v>10.855900719999999</v>
       </c>
       <c r="O30" s="3">
-        <f>AVERAGE(D30:K30)</f>
+        <f t="shared" si="3"/>
         <v>11.54342458</v>
       </c>
     </row>
@@ -13842,23 +15780,28 @@
         <v>10.522079809999999</v>
       </c>
       <c r="M31" s="3">
-        <f>MAX(D31:K31)</f>
+        <f t="shared" si="1"/>
         <v>10.923264469999999</v>
       </c>
       <c r="N31" s="3">
-        <f>MIN(D31:K31)</f>
+        <f t="shared" si="2"/>
         <v>10.449408869999999</v>
       </c>
       <c r="O31" s="3">
-        <f>AVERAGE(D31:K31)</f>
+        <f t="shared" si="3"/>
         <v>10.7361165275</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="A32" s="2">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>1.6976829624574967</v>
+      </c>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
@@ -13866,13 +15809,26 @@
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="M32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="33" spans="1:15" ht="15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="2">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
@@ -13882,77 +15838,166 @@
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="M33" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="34" spans="1:15" ht="15">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
+      <c r="A34" s="2">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="64">
+        <v>1.66</v>
+      </c>
+      <c r="D34" s="65">
+        <v>11.201986789085272</v>
+      </c>
+      <c r="E34" s="66">
+        <v>11.041795858476521</v>
+      </c>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
+      <c r="M34" s="3">
+        <f t="shared" si="1"/>
+        <v>11.201986789085272</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" si="2"/>
+        <v>11.041795858476521</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="3"/>
+        <v>11.121891323780897</v>
+      </c>
     </row>
     <row r="35" spans="1:15" ht="15">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
+      <c r="A35" s="2">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="61">
+        <v>1.8944286798988959</v>
+      </c>
+      <c r="D35" s="62">
+        <v>12.182023954445322</v>
+      </c>
+      <c r="E35" s="63">
+        <v>11.250131230637555</v>
+      </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
+      <c r="M35" s="3">
+        <f t="shared" si="1"/>
+        <v>12.182023954445322</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="2"/>
+        <v>11.250131230637555</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="3"/>
+        <v>11.716077592541438</v>
+      </c>
     </row>
     <row r="36" spans="1:15" ht="15">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
+      <c r="A36" s="2">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="69">
+        <v>1.539131046333339</v>
+      </c>
+      <c r="D36" s="67">
+        <v>12.648756910354251</v>
+      </c>
+      <c r="E36" s="68">
+        <v>11.355068779031235</v>
+      </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="M36" s="3">
+        <f t="shared" si="1"/>
+        <v>12.648756910354251</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" si="2"/>
+        <v>11.355068779031235</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="3"/>
+        <v>12.001912844692743</v>
+      </c>
     </row>
     <row r="37" spans="1:15" ht="15">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="A37" s="2">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37" s="70">
+        <v>1.6374369228592083</v>
+      </c>
+      <c r="D37" s="71">
+        <v>13.934491816530082</v>
+      </c>
+      <c r="E37" s="72">
+        <v>12.89071866186006</v>
+      </c>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
+      <c r="M37" s="3">
+        <f t="shared" si="1"/>
+        <v>13.934491816530082</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" si="2"/>
+        <v>12.89071866186006</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="3"/>
+        <v>13.41260523919507</v>
+      </c>
     </row>
     <row r="38" spans="1:15" ht="15">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="2">
+        <v>11</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3</v>
+      </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
@@ -13962,13 +16007,26 @@
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
+      <c r="M38" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="39" spans="1:15" ht="15">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="2">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
@@ -13978,13 +16036,26 @@
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
+      <c r="M39" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="40" spans="1:15" ht="15">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="A40" s="2">
+        <v>13</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
@@ -13994,13 +16065,26 @@
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
+      <c r="M40" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="41" spans="1:15" ht="15">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="A41" s="2">
+        <v>14</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
@@ -14010,9 +16094,18 @@
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
+      <c r="M41" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="5"/>
@@ -14035,39 +16128,39 @@
         <v>166</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" ref="C44:K44" si="1">MAX(C28:C31)</f>
+        <f>MAX(C28:C41)</f>
         <v>1.9051938390000001</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" si="1"/>
-        <v>13.027399920000001</v>
+        <f t="shared" ref="D44:K44" si="4">MAX(D28:D41)</f>
+        <v>13.934491816530082</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="1"/>
-        <v>12.812353359999999</v>
+        <f t="shared" si="4"/>
+        <v>12.89071866186006</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13.310797470000001</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.367950560000001</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.62920433</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.72295995</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.33160528</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12.392633</v>
       </c>
     </row>
@@ -14077,39 +16170,39 @@
         <v>167</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" ref="C45:K45" si="2">MIN(C28:C31)</f>
-        <v>1.6153839210000001</v>
+        <f>MIN(C28:C41)</f>
+        <v>1.539131046333339</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D45:K45" si="5">MIN(D28:D41)</f>
         <v>10.807169289999999</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10.588295240000001</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10.83669117</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10.449408869999999</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10.86090008</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10.89053167</v>
       </c>
       <c r="J45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10.24386281</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10.336277819999999</v>
       </c>
     </row>
@@ -14119,39 +16212,39 @@
         <v>168</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" ref="C46:K46" si="3">AVERAGE(C28:C31)</f>
-        <v>1.76742440375</v>
+        <f>AVERAGE(C28:C41)</f>
+        <v>1.7220419140609933</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" si="3"/>
-        <v>11.643758125</v>
+        <f t="shared" ref="D46:K46" si="6">AVERAGE(D28:D41)</f>
+        <v>12.067786496301867</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="3"/>
-        <v>11.4374400375</v>
+        <f t="shared" si="6"/>
+        <v>11.535934335000672</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12.075862220000001</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.328391610000001</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.460620887500001</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.525460715000001</v>
       </c>
       <c r="J46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.0857113925</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11.026722837499999</v>
       </c>
     </row>
@@ -14271,31 +16364,31 @@
         <v>11.276054586000001</v>
       </c>
       <c r="E51" s="2">
-        <f>E28-$C28</f>
+        <f t="shared" ref="E51:K51" si="7">E28-$C28</f>
         <v>11.061008026</v>
       </c>
       <c r="F51" s="2">
-        <f>F28-$C28</f>
+        <f t="shared" si="7"/>
         <v>11.559452136000001</v>
       </c>
       <c r="G51" s="2">
-        <f>G28-$C28</f>
+        <f t="shared" si="7"/>
         <v>10.616605226000001</v>
       </c>
       <c r="H51" s="2">
-        <f>H28-$C28</f>
+        <f t="shared" si="7"/>
         <v>10.877858996000001</v>
       </c>
       <c r="I51" s="2">
-        <f>I28-$C28</f>
+        <f t="shared" si="7"/>
         <v>10.971614616</v>
       </c>
       <c r="J51" s="2">
-        <f>J28-$C28</f>
+        <f t="shared" si="7"/>
         <v>10.580259946</v>
       </c>
       <c r="K51" s="2">
-        <f>K28-$C28</f>
+        <f t="shared" si="7"/>
         <v>10.641287666</v>
       </c>
       <c r="M51" s="3">
@@ -14311,16 +16404,16 @@
         <v>10.94801764975</v>
       </c>
       <c r="Q51" s="3">
-        <f>MAX(D51:K54)</f>
-        <v>11.559452136000001</v>
+        <f>MAX(D51:K64)</f>
+        <v>12.297054893670873</v>
       </c>
       <c r="R51" s="3">
-        <f>MIN(D51:K54)</f>
-        <v>8.6284788890000002</v>
+        <f>MIN(D51:K64)</f>
+        <v>-1.8944286798988959</v>
       </c>
       <c r="S51" s="3">
-        <f>AVERAGE(D51:K54)</f>
-        <v>9.6805715743750014</v>
+        <f>AVERAGE(D51:K64)</f>
+        <v>3.0254806025716823</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -14331,49 +16424,52 @@
         <v>3</v>
       </c>
       <c r="D52" s="2">
-        <f>D29-$C29</f>
+        <f t="shared" ref="D52:K64" si="8">D29-$C29</f>
         <v>9.390569279000001</v>
       </c>
       <c r="E52" s="2">
-        <f>E29-$C29</f>
+        <f t="shared" si="8"/>
         <v>8.9729113190000014</v>
       </c>
       <c r="F52" s="2">
-        <f>F29-$C29</f>
+        <f t="shared" si="8"/>
         <v>9.9397543490000011</v>
       </c>
       <c r="G52" s="2">
-        <f>G29-$C29</f>
+        <f t="shared" si="8"/>
         <v>9.3096434590000001</v>
       </c>
       <c r="H52" s="2">
-        <f>H29-$C29</f>
+        <f t="shared" si="8"/>
         <v>9.245516159000001</v>
       </c>
       <c r="I52" s="2">
-        <f>I29-$C29</f>
+        <f t="shared" si="8"/>
         <v>9.373799849000001</v>
       </c>
       <c r="J52" s="2">
-        <f>J29-$C29</f>
+        <f t="shared" si="8"/>
         <v>8.6284788890000002</v>
       </c>
       <c r="K52" s="2">
-        <f>K29-$C29</f>
+        <f t="shared" si="8"/>
         <v>8.720893899</v>
       </c>
       <c r="M52" s="3">
-        <f>MAX(D52:K52)</f>
+        <f t="shared" ref="M52:M64" si="9">MAX(D52:K52)</f>
         <v>9.9397543490000011</v>
       </c>
       <c r="N52" s="3">
-        <f>MIN(D52:K52)</f>
+        <f t="shared" ref="N52:N64" si="10">MIN(D52:K52)</f>
         <v>8.6284788890000002</v>
       </c>
       <c r="O52" s="3">
-        <f>AVERAGE(D52:K52)</f>
+        <f t="shared" ref="O52:O64" si="11">AVERAGE(D52:K52)</f>
         <v>9.1976959002500021</v>
       </c>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="2">
@@ -14383,49 +16479,52 @@
         <v>3</v>
       </c>
       <c r="D53" s="2">
-        <f>D30-$C30</f>
+        <f t="shared" si="8"/>
         <v>9.8293162509999998</v>
       </c>
       <c r="E53" s="2">
-        <f>E30-$C30</f>
+        <f t="shared" si="8"/>
         <v>9.5206532409999998</v>
       </c>
       <c r="F53" s="2">
-        <f>F30-$C30</f>
+        <f t="shared" si="8"/>
         <v>10.695628130999999</v>
       </c>
       <c r="G53" s="2">
-        <f>G30-$C30</f>
+        <f t="shared" si="8"/>
         <v>9.6659857909999989</v>
       </c>
       <c r="H53" s="2">
-        <f>H30-$C30</f>
+        <f t="shared" si="8"/>
         <v>9.5241647109999992</v>
       </c>
       <c r="I53" s="2">
-        <f>I30-$C30</f>
+        <f t="shared" si="8"/>
         <v>9.593973630999999</v>
       </c>
       <c r="J53" s="2">
-        <f>J30-$C30</f>
+        <f t="shared" si="8"/>
         <v>9.3254172909999991</v>
       </c>
       <c r="K53" s="2">
-        <f>K30-$C30</f>
+        <f t="shared" si="8"/>
         <v>8.9507068809999986</v>
       </c>
       <c r="M53" s="3">
-        <f>MAX(D53:K53)</f>
+        <f t="shared" si="9"/>
         <v>10.695628130999999</v>
       </c>
       <c r="N53" s="3">
-        <f>MIN(D53:K53)</f>
+        <f t="shared" si="10"/>
         <v>8.9507068809999986</v>
       </c>
       <c r="O53" s="3">
-        <f>AVERAGE(D53:K53)</f>
+        <f t="shared" si="11"/>
         <v>9.6382307409999992</v>
       </c>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="2">
@@ -14435,2113 +16534,5014 @@
         <v>3</v>
       </c>
       <c r="D54" s="2">
-        <f>D31-$C31</f>
+        <f t="shared" si="8"/>
         <v>9.009394769</v>
       </c>
       <c r="E54" s="2">
-        <f>E31-$C31</f>
+        <f t="shared" si="8"/>
         <v>9.1254899489999985</v>
       </c>
       <c r="F54" s="2">
-        <f>F31-$C31</f>
+        <f t="shared" si="8"/>
         <v>9.0389166490000008</v>
       </c>
       <c r="G54" s="2">
-        <f>G31-$C31</f>
+        <f t="shared" si="8"/>
         <v>8.6516343489999983</v>
       </c>
       <c r="H54" s="2">
-        <f>H31-$C31</f>
+        <f t="shared" si="8"/>
         <v>9.1252460689999992</v>
       </c>
       <c r="I54" s="2">
-        <f>I31-$C31</f>
+        <f t="shared" si="8"/>
         <v>9.0927571490000005</v>
       </c>
       <c r="J54" s="2">
-        <f>J31-$C31</f>
+        <f t="shared" si="8"/>
         <v>8.7389918289999997</v>
       </c>
       <c r="K54" s="2">
-        <f>K31-$C31</f>
+        <f t="shared" si="8"/>
         <v>8.7243052890000001</v>
       </c>
       <c r="M54" s="3">
-        <f>MAX(D54:K54)</f>
+        <f t="shared" si="9"/>
         <v>9.1254899489999985</v>
       </c>
       <c r="N54" s="3">
-        <f>MIN(D54:K54)</f>
+        <f t="shared" si="10"/>
         <v>8.6516343489999983</v>
       </c>
       <c r="O54" s="3">
-        <f>AVERAGE(D54:K54)</f>
+        <f t="shared" si="11"/>
         <v>8.938342006500001</v>
       </c>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="2">
+        <v>5</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.6976829624574967</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.6976829624574967</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.6976829624574967</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.6976829624574967</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.6976829624574967</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.6976829624574967</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.6976829624574967</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.6976829624574967</v>
+      </c>
+      <c r="M55" s="3">
+        <f t="shared" si="9"/>
+        <v>-1.6976829624574967</v>
+      </c>
+      <c r="N55" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.6976829624574967</v>
+      </c>
+      <c r="O55" s="3">
+        <f t="shared" si="11"/>
+        <v>-1.6976829624574969</v>
+      </c>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="2">
+        <v>6</v>
+      </c>
+      <c r="B56" s="2">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
     </row>
     <row r="57" spans="1:19">
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="2">
+        <v>7</v>
+      </c>
+      <c r="B57" s="2">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="2">
+        <f t="shared" si="8"/>
+        <v>9.5419867890852714</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="8"/>
+        <v>9.3817958584765204</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.66</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.66</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.66</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.66</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.66</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.66</v>
+      </c>
+      <c r="M57" s="3">
+        <f t="shared" si="9"/>
+        <v>9.5419867890852714</v>
+      </c>
+      <c r="N57" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.66</v>
+      </c>
+      <c r="O57" s="3">
+        <f t="shared" si="11"/>
+        <v>1.1204728309452241</v>
+      </c>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="2">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="2">
+        <f t="shared" si="8"/>
+        <v>10.287595274546426</v>
+      </c>
+      <c r="E58" s="2">
+        <f>E35-$C35</f>
+        <v>9.3557025507386591</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.8944286798988959</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.8944286798988959</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.8944286798988959</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.8944286798988959</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.8944286798988959</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.8944286798988959</v>
+      </c>
+      <c r="M58" s="3">
+        <f t="shared" si="9"/>
+        <v>10.287595274546426</v>
+      </c>
+      <c r="N58" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.8944286798988959</v>
+      </c>
+      <c r="O58" s="3">
+        <f t="shared" si="11"/>
+        <v>1.0345907182364635</v>
+      </c>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="2">
+        <v>9</v>
+      </c>
+      <c r="B59" s="2">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="2">
+        <f t="shared" si="8"/>
+        <v>11.109625864020913</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="8"/>
+        <v>9.8159377326978969</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.539131046333339</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.539131046333339</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.539131046333339</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.539131046333339</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.539131046333339</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.539131046333339</v>
+      </c>
+      <c r="M59" s="3">
+        <f t="shared" si="9"/>
+        <v>11.109625864020913</v>
+      </c>
+      <c r="N59" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.539131046333339</v>
+      </c>
+      <c r="O59" s="3">
+        <f t="shared" si="11"/>
+        <v>1.4613471648398475</v>
+      </c>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="2">
+        <v>10</v>
+      </c>
+      <c r="B60" s="2">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="2">
+        <f t="shared" si="8"/>
+        <v>12.297054893670873</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="8"/>
+        <v>11.253281739000851</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.6374369228592083</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.6374369228592083</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.6374369228592083</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.6374369228592083</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="8"/>
+        <v>-1.6374369228592083</v>
+      </c>
+      <c r="K60" s="2">
+        <f>K37-$C37</f>
+        <v>-1.6374369228592083</v>
+      </c>
+      <c r="M60" s="3">
+        <f t="shared" si="9"/>
+        <v>12.297054893670873</v>
+      </c>
+      <c r="N60" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.6374369228592083</v>
+      </c>
+      <c r="O60" s="3">
+        <f t="shared" si="11"/>
+        <v>1.7157143869395588</v>
+      </c>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="2">
+        <v>11</v>
+      </c>
+      <c r="B61" s="2">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="2">
+        <v>12</v>
+      </c>
+      <c r="B62" s="2">
+        <v>3</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="2">
+        <v>13</v>
+      </c>
+      <c r="B63" s="2">
+        <v>3</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="2">
+        <v>14</v>
+      </c>
+      <c r="B64" s="2">
+        <v>3</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="B68" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
-      <c r="B58" s="1" t="s">
+    <row r="69" spans="1:25">
+      <c r="B69" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D58" s="3">
-        <f t="shared" ref="D58:K58" si="4">MAX(D51:D54)</f>
-        <v>11.276054586000001</v>
-      </c>
-      <c r="E58" s="3">
-        <f t="shared" si="4"/>
-        <v>11.061008026</v>
-      </c>
-      <c r="F58" s="3">
-        <f t="shared" si="4"/>
+      <c r="D69" s="3">
+        <f>MAX(D51:D64)</f>
+        <v>12.297054893670873</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" ref="E69:K69" si="12">MAX(E51:E64)</f>
+        <v>11.253281739000851</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" si="12"/>
         <v>11.559452136000001</v>
       </c>
-      <c r="G58" s="3">
-        <f t="shared" si="4"/>
+      <c r="G69" s="3">
+        <f t="shared" si="12"/>
         <v>10.616605226000001</v>
       </c>
-      <c r="H58" s="3">
-        <f t="shared" si="4"/>
+      <c r="H69" s="3">
+        <f t="shared" si="12"/>
         <v>10.877858996000001</v>
       </c>
-      <c r="I58" s="3">
-        <f t="shared" si="4"/>
+      <c r="I69" s="3">
+        <f t="shared" si="12"/>
         <v>10.971614616</v>
       </c>
-      <c r="J58" s="3">
-        <f t="shared" si="4"/>
+      <c r="J69" s="3">
+        <f t="shared" si="12"/>
         <v>10.580259946</v>
       </c>
-      <c r="K58" s="3">
-        <f t="shared" si="4"/>
+      <c r="K69" s="3">
+        <f t="shared" si="12"/>
         <v>10.641287666</v>
       </c>
-    </row>
-    <row r="59" spans="1:19">
-      <c r="B59" s="1" t="s">
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:25">
+      <c r="B70" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D59" s="3">
-        <f t="shared" ref="D59:K59" si="5">MIN(D51:D54)</f>
-        <v>9.009394769</v>
-      </c>
-      <c r="E59" s="3">
-        <f t="shared" si="5"/>
-        <v>8.9729113190000014</v>
-      </c>
-      <c r="F59" s="3">
-        <f t="shared" si="5"/>
-        <v>9.0389166490000008</v>
-      </c>
-      <c r="G59" s="3">
-        <f t="shared" si="5"/>
-        <v>8.6516343489999983</v>
-      </c>
-      <c r="H59" s="3">
-        <f t="shared" si="5"/>
-        <v>9.1252460689999992</v>
-      </c>
-      <c r="I59" s="3">
-        <f t="shared" si="5"/>
-        <v>9.0927571490000005</v>
-      </c>
-      <c r="J59" s="3">
-        <f t="shared" si="5"/>
-        <v>8.6284788890000002</v>
-      </c>
-      <c r="K59" s="3">
-        <f t="shared" si="5"/>
-        <v>8.720893899</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
-      <c r="B60" s="1" t="s">
+      <c r="D70" s="3">
+        <f>MIN(D51:D64)</f>
+        <v>-1.6976829624574967</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" ref="E70:K70" si="13">MIN(E51:E64)</f>
+        <v>-1.6976829624574967</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" si="13"/>
+        <v>-1.8944286798988959</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="13"/>
+        <v>-1.8944286798988959</v>
+      </c>
+      <c r="H70" s="3">
+        <f t="shared" si="13"/>
+        <v>-1.8944286798988959</v>
+      </c>
+      <c r="I70" s="3">
+        <f t="shared" si="13"/>
+        <v>-1.8944286798988959</v>
+      </c>
+      <c r="J70" s="3">
+        <f t="shared" si="13"/>
+        <v>-1.8944286798988959</v>
+      </c>
+      <c r="K70" s="3">
+        <f t="shared" si="13"/>
+        <v>-1.8944286798988959</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:25">
+      <c r="B71" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D60" s="3">
-        <f t="shared" ref="D60:K60" si="6">AVERAGE(D51:D54)</f>
-        <v>9.8763337212499991</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" si="6"/>
-        <v>9.6700156337499994</v>
-      </c>
-      <c r="F60" s="3">
-        <f t="shared" si="6"/>
-        <v>10.308437816250001</v>
-      </c>
-      <c r="G60" s="3">
-        <f t="shared" si="6"/>
-        <v>9.56096720625</v>
-      </c>
-      <c r="H60" s="3">
-        <f t="shared" si="6"/>
-        <v>9.6931964837500004</v>
-      </c>
-      <c r="I60" s="3">
-        <f t="shared" si="6"/>
-        <v>9.7580363112500006</v>
-      </c>
-      <c r="J60" s="3">
-        <f t="shared" si="6"/>
-        <v>9.3182869887499997</v>
-      </c>
-      <c r="K60" s="3">
-        <f t="shared" si="6"/>
-        <v>9.2592984337500006</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
-      <c r="A63" s="22" t="s">
+      <c r="D71" s="3">
+        <f>AVERAGE(D51:D64)</f>
+        <v>5.7888510531332846</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" ref="E71:K71" si="14">AVERAGE(E51:E64)</f>
+        <v>5.484935532389744</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" si="14"/>
+        <v>2.3432194038179333</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="14"/>
+        <v>2.1296563723893618</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" si="14"/>
+        <v>2.1674361659607904</v>
+      </c>
+      <c r="I71" s="3">
+        <f t="shared" si="14"/>
+        <v>2.1859618309607902</v>
+      </c>
+      <c r="J71" s="3">
+        <f t="shared" si="14"/>
+        <v>2.0603191673893617</v>
+      </c>
+      <c r="K71" s="3">
+        <f t="shared" si="14"/>
+        <v>2.0434652945322189</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:25">
+      <c r="B72" s="1"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:25">
+      <c r="B73" s="1"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:25" s="73" customFormat="1" ht="15">
+      <c r="C74" s="74" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" s="73" customFormat="1" ht="15">
+      <c r="A75" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="D75" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="E75" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="F75" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="G75" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="H75" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="I75" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="J75" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="K75" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="L75" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="M75" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="N75" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="O75" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="P75" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q75" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="R75" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="S75" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="T75" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="U75" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="V75" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="W75" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="X75" s="74" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y75" s="74" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" s="73" customFormat="1" ht="15">
+      <c r="A76" s="74">
+        <v>1</v>
+      </c>
+      <c r="B76" s="74">
+        <v>3.2</v>
+      </c>
+      <c r="C76" s="74"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="74">
+        <v>2.8</v>
+      </c>
+      <c r="G76" s="74"/>
+      <c r="H76" s="74"/>
+      <c r="I76" s="74"/>
+      <c r="J76" s="74">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K76" s="74"/>
+      <c r="L76" s="74"/>
+      <c r="M76" s="74"/>
+      <c r="N76" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="O76" s="74"/>
+      <c r="P76" s="74"/>
+      <c r="Q76" s="74"/>
+      <c r="R76" s="74">
+        <v>1.2</v>
+      </c>
+      <c r="S76" s="74"/>
+      <c r="T76" s="74"/>
+      <c r="U76" s="74"/>
+      <c r="V76" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="W76" s="74"/>
+      <c r="X76" s="74"/>
+      <c r="Y76" s="74"/>
+    </row>
+    <row r="77" spans="1:25" s="73" customFormat="1" ht="15">
+      <c r="A77" s="74">
+        <v>2</v>
+      </c>
+      <c r="B77" s="74">
+        <v>3.2</v>
+      </c>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74">
+        <v>2.8</v>
+      </c>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="74">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K77" s="74"/>
+      <c r="L77" s="74"/>
+      <c r="M77" s="74"/>
+      <c r="N77" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="O77" s="74"/>
+      <c r="P77" s="74"/>
+      <c r="Q77" s="74"/>
+      <c r="R77" s="74">
+        <v>1.2</v>
+      </c>
+      <c r="S77" s="74"/>
+      <c r="T77" s="74"/>
+      <c r="U77" s="74"/>
+      <c r="V77" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="W77" s="74"/>
+      <c r="X77" s="74"/>
+      <c r="Y77" s="74"/>
+    </row>
+    <row r="78" spans="1:25" s="73" customFormat="1" ht="15">
+      <c r="A78" s="74">
+        <v>3</v>
+      </c>
+      <c r="B78" s="74">
+        <v>3.2</v>
+      </c>
+      <c r="C78" s="74"/>
+      <c r="D78" s="74"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="74">
+        <v>2.8</v>
+      </c>
+      <c r="G78" s="74"/>
+      <c r="H78" s="74"/>
+      <c r="I78" s="74"/>
+      <c r="J78" s="74">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K78" s="74"/>
+      <c r="L78" s="74"/>
+      <c r="M78" s="74"/>
+      <c r="N78" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="O78" s="74"/>
+      <c r="P78" s="74"/>
+      <c r="Q78" s="74"/>
+      <c r="R78" s="74">
+        <v>1.2</v>
+      </c>
+      <c r="S78" s="74"/>
+      <c r="T78" s="74"/>
+      <c r="U78" s="74"/>
+      <c r="V78" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="W78" s="74"/>
+      <c r="X78" s="74"/>
+      <c r="Y78" s="74"/>
+    </row>
+    <row r="79" spans="1:25" s="73" customFormat="1" ht="15">
+      <c r="A79" s="74">
+        <v>4</v>
+      </c>
+      <c r="B79" s="74">
+        <v>3.2</v>
+      </c>
+      <c r="C79" s="74"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="74">
+        <v>2.8</v>
+      </c>
+      <c r="G79" s="74"/>
+      <c r="H79" s="74"/>
+      <c r="I79" s="74"/>
+      <c r="J79" s="74">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K79" s="74"/>
+      <c r="L79" s="74"/>
+      <c r="M79" s="74"/>
+      <c r="N79" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="O79" s="74"/>
+      <c r="P79" s="74"/>
+      <c r="Q79" s="74"/>
+      <c r="R79" s="74">
+        <v>1.2</v>
+      </c>
+      <c r="S79" s="74"/>
+      <c r="T79" s="74"/>
+      <c r="U79" s="74"/>
+      <c r="V79" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="W79" s="74"/>
+      <c r="X79" s="74"/>
+      <c r="Y79" s="74"/>
+    </row>
+    <row r="80" spans="1:25" s="73" customFormat="1" ht="15">
+      <c r="A80" s="74">
+        <v>5</v>
+      </c>
+      <c r="B80" s="74">
+        <v>3.2</v>
+      </c>
+      <c r="C80" s="74">
+        <f>(E80-D80)/D80*100</f>
+        <v>-13.674272545382285</v>
+      </c>
+      <c r="D80" s="74">
+        <v>10.921895047735227</v>
+      </c>
+      <c r="E80" s="74">
+        <v>9.4284053517873012</v>
+      </c>
+      <c r="F80" s="74">
+        <v>2.8</v>
+      </c>
+      <c r="G80" s="74">
+        <f>(I80-H80)/H80*100</f>
+        <v>-7.2614440838779952</v>
+      </c>
+      <c r="H80" s="74">
+        <v>10.09385915094243</v>
+      </c>
+      <c r="I80" s="74">
+        <v>9.3608992127913435</v>
+      </c>
+      <c r="J80" s="74">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K80" s="74">
+        <f>(M80-L80)/L80*100</f>
+        <v>-9.5834133172715994</v>
+      </c>
+      <c r="L80" s="73">
+        <v>10.213909561091103</v>
+      </c>
+      <c r="M80" s="73">
+        <v>9.2350683919994214</v>
+      </c>
+      <c r="N80" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="O80" s="74">
+        <f>(Q80-P80)/P80*100</f>
+        <v>-6.030400753793665</v>
+      </c>
+      <c r="P80" s="73">
+        <v>10.418783992349844</v>
+      </c>
+      <c r="Q80" s="73">
+        <v>9.7904895639390457</v>
+      </c>
+      <c r="R80" s="74">
+        <v>1.2</v>
+      </c>
+      <c r="S80" s="74">
+        <f>(U80-T80)/T80*100</f>
+        <v>-8.1288027067341631</v>
+      </c>
+      <c r="T80" s="73">
+        <v>10.127767544565057</v>
+      </c>
+      <c r="U80" s="73">
+        <v>9.3045013022707082</v>
+      </c>
+      <c r="V80" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="W80" s="74">
+        <f>(Y80-X80)/X80*100</f>
+        <v>-9.5422852013753356</v>
+      </c>
+      <c r="X80" s="73">
+        <v>10.540295703025768</v>
+      </c>
+      <c r="Y80" s="73">
+        <v>9.5345106259747396</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" s="73" customFormat="1" ht="15">
+      <c r="A81" s="74">
+        <v>6</v>
+      </c>
+      <c r="B81" s="74">
+        <v>3.2</v>
+      </c>
+      <c r="C81" s="74">
+        <f t="shared" ref="C81:C86" si="15">(E81-D81)/D81*100</f>
+        <v>-1.9914171281253879E-2</v>
+      </c>
+      <c r="D81" s="74">
+        <v>9.4179153248333591</v>
+      </c>
+      <c r="E81" s="74">
+        <v>9.4160398250444484</v>
+      </c>
+      <c r="F81" s="74">
+        <v>2.8</v>
+      </c>
+      <c r="G81" s="74">
+        <f t="shared" ref="G81:G86" si="16">(I81-H81)/H81*100</f>
+        <v>3.5672947431985103</v>
+      </c>
+      <c r="H81" s="74">
+        <v>9.1122077182525647</v>
+      </c>
+      <c r="I81" s="74">
+        <v>9.4372670251751174</v>
+      </c>
+      <c r="J81" s="74">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K81" s="74">
+        <f t="shared" ref="K81:K86" si="17">(M81-L81)/L81*100</f>
+        <v>-2.0114327804399466</v>
+      </c>
+      <c r="L81" s="74">
+        <v>8.7244804029081333</v>
+      </c>
+      <c r="M81" s="74">
+        <v>8.54899334416098</v>
+      </c>
+      <c r="N81" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="O81" s="74">
+        <f t="shared" ref="O81:O86" si="18">(Q81-P81)/P81*100</f>
+        <v>-3.9102955662934562</v>
+      </c>
+      <c r="P81" s="74">
+        <v>8.9567931327367116</v>
+      </c>
+      <c r="Q81" s="74">
+        <v>8.6065560479852312</v>
+      </c>
+      <c r="R81" s="74">
+        <v>1.2</v>
+      </c>
+      <c r="S81" s="74">
+        <f t="shared" ref="S81:S86" si="19">(U81-T81)/T81*100</f>
+        <v>-3.1590795777039902</v>
+      </c>
+      <c r="T81" s="74">
+        <v>8.6439718688630656</v>
+      </c>
+      <c r="U81" s="74">
+        <v>8.3709019188513345</v>
+      </c>
+      <c r="V81" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="W81" s="74">
+        <f t="shared" ref="W81:W86" si="20">(Y81-X81)/X81*100</f>
+        <v>1.5029352355681951</v>
+      </c>
+      <c r="X81" s="74">
+        <v>8.214392047967273</v>
+      </c>
+      <c r="Y81" s="74">
+        <v>8.337849040443885</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" s="73" customFormat="1" ht="15">
+      <c r="A82" s="74">
+        <v>7</v>
+      </c>
+      <c r="B82" s="74">
+        <v>3.2</v>
+      </c>
+      <c r="C82" s="74">
+        <f t="shared" si="15"/>
+        <v>-1.6788005910046693</v>
+      </c>
+      <c r="D82" s="73">
+        <v>9.5419867890852714</v>
+      </c>
+      <c r="E82" s="73">
+        <v>9.3817958584765204</v>
+      </c>
+      <c r="F82" s="74">
+        <v>2.8</v>
+      </c>
+      <c r="G82" s="74"/>
+      <c r="H82" s="74"/>
+      <c r="I82" s="74"/>
+      <c r="J82" s="74">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K82" s="74">
+        <f t="shared" si="17"/>
+        <v>-7.8958089704889058</v>
+      </c>
+      <c r="L82" s="73">
+        <v>9.5910975395997013</v>
+      </c>
+      <c r="M82" s="73">
+        <v>8.8338027996996473</v>
+      </c>
+      <c r="N82" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="O82" s="74">
+        <f t="shared" si="18"/>
+        <v>-7.1040092025718575</v>
+      </c>
+      <c r="P82" s="73">
+        <v>9.7629007472102529</v>
+      </c>
+      <c r="Q82" s="73">
+        <v>9.0693433796904799</v>
+      </c>
+      <c r="R82" s="74">
+        <v>1.2</v>
+      </c>
+      <c r="S82" s="74"/>
+      <c r="V82" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="W82" s="74">
+        <f t="shared" si="20"/>
+        <v>7.9380477871064228</v>
+      </c>
+      <c r="X82" s="73">
+        <v>8.9369056748434215</v>
+      </c>
+      <c r="Y82" s="73">
+        <v>9.6463215180011179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" s="73" customFormat="1" ht="15">
+      <c r="A83" s="74">
+        <v>8</v>
+      </c>
+      <c r="B83" s="74">
+        <v>3.2</v>
+      </c>
+      <c r="C83" s="74">
+        <f t="shared" si="15"/>
+        <v>-0.87921728971654922</v>
+      </c>
+      <c r="D83" s="74">
+        <v>10.287595274546426</v>
+      </c>
+      <c r="E83" s="74">
+        <v>10.197144958196551</v>
+      </c>
+      <c r="F83" s="74">
+        <v>2.8</v>
+      </c>
+      <c r="G83" s="74">
+        <f t="shared" si="16"/>
+        <v>-5.2164962586989088</v>
+      </c>
+      <c r="H83" s="74">
+        <v>9.870602142197443</v>
+      </c>
+      <c r="I83" s="74">
+        <v>9.3557025507386591</v>
+      </c>
+      <c r="J83" s="74">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K83" s="74">
+        <f t="shared" si="17"/>
+        <v>-5.0845988957664341</v>
+      </c>
+      <c r="L83" s="73">
+        <v>10.66781943640124</v>
+      </c>
+      <c r="M83" s="73">
+        <v>10.125403607135626</v>
+      </c>
+      <c r="N83" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="O83" s="74">
+        <f t="shared" si="18"/>
+        <v>-4.4386235472947382</v>
+      </c>
+      <c r="P83" s="73">
+        <v>10.66781943640124</v>
+      </c>
+      <c r="Q83" s="73">
+        <v>10.19431509091425</v>
+      </c>
+      <c r="R83" s="74">
+        <v>1.2</v>
+      </c>
+      <c r="S83" s="74"/>
+      <c r="V83" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="W83" s="74">
+        <f t="shared" si="20"/>
+        <v>17.336915949290951</v>
+      </c>
+      <c r="X83" s="73">
+        <v>11.405935893510755</v>
+      </c>
+      <c r="Y83" s="73">
+        <v>13.383373412598722</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" s="73" customFormat="1" ht="15">
+      <c r="A84" s="74">
+        <v>9</v>
+      </c>
+      <c r="B84" s="74">
+        <v>3.2</v>
+      </c>
+      <c r="C84" s="74">
+        <f t="shared" si="15"/>
+        <v>-8.5168267607933981</v>
+      </c>
+      <c r="D84" s="74">
+        <v>10.729773995739707</v>
+      </c>
+      <c r="E84" s="74">
+        <v>9.8159377326978969</v>
+      </c>
+      <c r="F84" s="74">
+        <v>2.8</v>
+      </c>
+      <c r="G84" s="74">
+        <f t="shared" si="16"/>
+        <v>-1.2085642676845951</v>
+      </c>
+      <c r="H84" s="74">
+        <v>11.109625864020913</v>
+      </c>
+      <c r="I84" s="74">
+        <v>10.97535889555491</v>
+      </c>
+      <c r="J84" s="74">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K84" s="74">
+        <f t="shared" si="17"/>
+        <v>-3.1703934783330543</v>
+      </c>
+      <c r="L84" s="73">
+        <v>9.4177614086988601</v>
+      </c>
+      <c r="M84" s="73">
+        <v>9.1191813151925043</v>
+      </c>
+      <c r="N84" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="O84" s="74">
+        <f t="shared" si="18"/>
+        <v>8.0146546873351685</v>
+      </c>
+      <c r="P84" s="73">
+        <v>8.952759661013447</v>
+      </c>
+      <c r="Q84" s="73">
+        <v>9.6702924328307134</v>
+      </c>
+      <c r="R84" s="74">
+        <v>1.2</v>
+      </c>
+      <c r="S84" s="74">
+        <f t="shared" si="19"/>
+        <v>-2.0402587148814075</v>
+      </c>
+      <c r="T84" s="73">
+        <v>11.21947988200138</v>
+      </c>
+      <c r="U84" s="73">
+        <v>10.990573465944481</v>
+      </c>
+      <c r="V84" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="W84" s="74">
+        <f t="shared" si="20"/>
+        <v>-1.3283758324129034</v>
+      </c>
+      <c r="X84" s="73">
+        <v>11.182235312812885</v>
+      </c>
+      <c r="Y84" s="73">
+        <v>11.033693201393937</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" s="73" customFormat="1" ht="15">
+      <c r="A85" s="74">
+        <v>10</v>
+      </c>
+      <c r="B85" s="74">
+        <v>3.2</v>
+      </c>
+      <c r="C85" s="74">
+        <f t="shared" si="15"/>
+        <v>4.1762497889194208</v>
+      </c>
+      <c r="D85" s="73">
+        <v>10.802156692914274</v>
+      </c>
+      <c r="E85" s="73">
+        <v>11.253281739000851</v>
+      </c>
+      <c r="F85" s="74">
+        <v>2.8</v>
+      </c>
+      <c r="G85" s="74">
+        <f t="shared" si="16"/>
+        <v>-6.2611380925783653</v>
+      </c>
+      <c r="H85" s="74">
+        <v>12.297054893670873</v>
+      </c>
+      <c r="I85" s="74">
+        <v>11.527119305457974</v>
+      </c>
+      <c r="J85" s="74">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K85" s="74">
+        <f t="shared" si="17"/>
+        <v>-1.7556654087406074</v>
+      </c>
+      <c r="L85" s="74">
+        <v>11.057579766196373</v>
+      </c>
+      <c r="M85" s="74">
+        <v>10.863445663197362</v>
+      </c>
+      <c r="N85" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="O85" s="74">
+        <f t="shared" si="18"/>
+        <v>-3.7183929324393072</v>
+      </c>
+      <c r="P85" s="74">
+        <v>11.360570868022837</v>
+      </c>
+      <c r="Q85" s="74">
+        <v>10.938140203781517</v>
+      </c>
+      <c r="R85" s="74">
+        <v>1.2</v>
+      </c>
+      <c r="S85" s="74">
+        <f t="shared" si="19"/>
+        <v>4.357594153091128</v>
+      </c>
+      <c r="T85" s="74">
+        <v>10.928860180598999</v>
+      </c>
+      <c r="U85" s="74">
+        <v>11.405095552828286</v>
+      </c>
+      <c r="V85" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="W85" s="74">
+        <f t="shared" si="20"/>
+        <v>-1.7771692011744875</v>
+      </c>
+      <c r="X85" s="74">
+        <v>11.339256913164489</v>
+      </c>
+      <c r="Y85" s="74">
+        <v>11.137739131661681</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" s="73" customFormat="1" ht="15">
+      <c r="A86" s="74">
+        <v>11</v>
+      </c>
+      <c r="B86" s="74">
+        <v>3.2</v>
+      </c>
+      <c r="C86" s="74">
+        <f t="shared" si="15"/>
+        <v>9.0773924283576495</v>
+      </c>
+      <c r="D86" s="74">
+        <v>9.178887799834861</v>
+      </c>
+      <c r="E86" s="74">
+        <v>10.012091465984515</v>
+      </c>
+      <c r="F86" s="74">
+        <v>2.8</v>
+      </c>
+      <c r="G86" s="74">
+        <f t="shared" si="16"/>
+        <v>16.940095332992836</v>
+      </c>
+      <c r="H86" s="74">
+        <v>8.4670826726126514</v>
+      </c>
+      <c r="I86" s="74">
+        <v>9.9014145492765522</v>
+      </c>
+      <c r="J86" s="74">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K86" s="74">
+        <f t="shared" si="17"/>
+        <v>-0.88477122348596027</v>
+      </c>
+      <c r="L86" s="74">
+        <v>8.7656853949690436</v>
+      </c>
+      <c r="M86" s="74">
+        <v>8.6881291330530459</v>
+      </c>
+      <c r="N86" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="O86" s="74">
+        <f t="shared" si="18"/>
+        <v>16.565697716400475</v>
+      </c>
+      <c r="P86" s="74">
+        <v>7.5389720450519357</v>
+      </c>
+      <c r="Q86" s="74">
+        <v>8.7878553649591744</v>
+      </c>
+      <c r="R86" s="74">
+        <v>1.2</v>
+      </c>
+      <c r="S86" s="74">
+        <f t="shared" si="19"/>
+        <v>13.962314601348583</v>
+      </c>
+      <c r="T86" s="74">
+        <v>8.7852300887080155</v>
+      </c>
+      <c r="U86" s="74">
+        <v>10.011851552145764</v>
+      </c>
+      <c r="V86" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="W86" s="74">
+        <f t="shared" si="20"/>
+        <v>12.162347304338587</v>
+      </c>
+      <c r="X86" s="74">
+        <v>8.2831166505825866</v>
+      </c>
+      <c r="Y86" s="74">
+        <v>9.2905380652499385</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" s="73" customFormat="1" ht="15">
+      <c r="A87" s="74">
+        <v>12</v>
+      </c>
+      <c r="B87" s="74">
+        <v>3.2</v>
+      </c>
+      <c r="C87" s="74"/>
+      <c r="F87" s="74">
+        <v>2.8</v>
+      </c>
+      <c r="G87" s="74"/>
+      <c r="H87" s="74"/>
+      <c r="I87" s="74"/>
+      <c r="J87" s="74">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N87" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="O87" s="74"/>
+      <c r="P87" s="74"/>
+      <c r="Q87" s="74"/>
+      <c r="R87" s="74">
+        <v>1.2</v>
+      </c>
+      <c r="S87" s="74"/>
+      <c r="V87" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="W87" s="74"/>
+      <c r="X87" s="74"/>
+      <c r="Y87" s="74"/>
+    </row>
+    <row r="88" spans="1:25" s="73" customFormat="1" ht="15">
+      <c r="A88" s="74">
+        <v>13</v>
+      </c>
+      <c r="B88" s="74">
+        <v>3.2</v>
+      </c>
+      <c r="C88" s="74"/>
+      <c r="F88" s="74">
+        <v>2.8</v>
+      </c>
+      <c r="G88" s="74"/>
+      <c r="H88" s="74"/>
+      <c r="I88" s="74"/>
+      <c r="J88" s="74">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N88" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="O88" s="74"/>
+      <c r="P88" s="74"/>
+      <c r="Q88" s="74"/>
+      <c r="R88" s="74">
+        <v>1.2</v>
+      </c>
+      <c r="S88" s="74"/>
+      <c r="V88" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="W88" s="74"/>
+      <c r="X88" s="74"/>
+      <c r="Y88" s="74"/>
+    </row>
+    <row r="89" spans="1:25" s="73" customFormat="1" ht="15">
+      <c r="A89" s="74">
+        <v>14</v>
+      </c>
+      <c r="B89" s="74">
+        <v>3.2</v>
+      </c>
+      <c r="C89" s="74"/>
+      <c r="F89" s="74">
+        <v>2.8</v>
+      </c>
+      <c r="G89" s="74"/>
+      <c r="H89" s="74"/>
+      <c r="I89" s="74"/>
+      <c r="J89" s="74">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N89" s="74">
+        <v>1.8</v>
+      </c>
+      <c r="O89" s="74"/>
+      <c r="P89" s="74"/>
+      <c r="Q89" s="74"/>
+      <c r="R89" s="74">
+        <v>1.2</v>
+      </c>
+      <c r="S89" s="74"/>
+      <c r="V89" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="W89" s="74"/>
+      <c r="X89" s="74"/>
+      <c r="Y89" s="74"/>
+    </row>
+    <row r="90" spans="1:25">
+      <c r="A90" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90">
+        <f>AVERAGE(B76:B89)</f>
+        <v>3.2</v>
+      </c>
+      <c r="C90">
+        <f>AVERAGE(C76:C89)</f>
+        <v>-1.6450555915572977</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ref="D90:Y90" si="21">AVERAGE(D76:D89)</f>
+        <v>10.125744417812731</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="21"/>
+        <v>9.9292424187411541</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="21"/>
+        <v>2.8</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="21"/>
+        <v>9.3291228891913505E-2</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="21"/>
+        <v>10.158405406949479</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="21"/>
+        <v>10.092960256499092</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="21"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="21"/>
+        <v>-4.3408691535037871</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="21"/>
+        <v>9.7769047871234935</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="21"/>
+        <v>9.3448606077769405</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="21"/>
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="21"/>
+        <v>-8.8767085522483011E-2</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="21"/>
+        <v>9.6655142689694653</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="21"/>
+        <v>9.5795702977286314</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="21"/>
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="21"/>
+        <v>0.99835355102403012</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="21"/>
+        <v>9.9410619129473048</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="21"/>
+        <v>10.016584758408115</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="21"/>
+        <v>3.7560594344773475</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="21"/>
+        <v>9.9860197422724557</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="21"/>
+        <v>10.337717856474859</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
+      <c r="B91" s="1"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="1:25">
+      <c r="A92" s="75" t="s">
+        <v>399</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C92" s="75" t="s">
+        <v>401</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="G92" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="H92" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="1:25">
+      <c r="A93">
+        <f>B90</f>
+        <v>3.2</v>
+      </c>
+      <c r="B93">
+        <f>C90</f>
+        <v>-1.6450555915572977</v>
+      </c>
+      <c r="C93">
+        <v>6</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E93" s="3">
+        <v>3.7560594344773501</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3">
+        <v>3.7560594344773475</v>
+      </c>
+      <c r="H93" s="3">
+        <v>0.99835355102403012</v>
+      </c>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="1:25">
+      <c r="A94">
+        <f>F90</f>
+        <v>2.8</v>
+      </c>
+      <c r="B94">
+        <f>G90</f>
+        <v>9.3291228891913505E-2</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="E94">
+        <f>V87</f>
+        <v>0.8</v>
+      </c>
+      <c r="F94" s="3">
+        <v>2</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-8.8767085522482997E-2</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-4.3408691535037871</v>
+      </c>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="1:25">
+      <c r="A95">
+        <f>J90</f>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="B95">
+        <f>K90</f>
+        <v>-4.3408691535037871</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="E95" s="3">
+        <v>-8.8767085522483011E-2</v>
+      </c>
+      <c r="F95" s="3">
+        <v>3</v>
+      </c>
+      <c r="G95" s="3">
+        <v>9.3291228891913505E-2</v>
+      </c>
+      <c r="H95" s="3">
+        <v>-1.6450555915572977</v>
+      </c>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="1:25">
+      <c r="A96">
+        <f>N90</f>
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="B96">
+        <f>O90</f>
+        <v>-8.8767085522483011E-2</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-4.3408691535037871</v>
+      </c>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97">
+        <f>R90</f>
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="B97">
+        <f>S90</f>
+        <v>0.99835355102403012</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.99835355102403012</v>
+      </c>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98">
+        <f>V90</f>
+        <v>0.8</v>
+      </c>
+      <c r="B98">
+        <f>W90</f>
+        <v>3.7560594344773475</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="E98" s="3">
+        <v>-1.6450555915572977</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-    </row>
-    <row r="65" spans="1:19">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="1" t="s">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="M65" s="1" t="s">
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="M104" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="Q65" s="1" t="s">
+      <c r="Q104" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-    </row>
-    <row r="66" spans="1:19">
-      <c r="A66" s="1" t="s">
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="A105" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F105" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H105" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I105" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J105" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="K105" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="M105" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="N66" s="1" t="s">
+      <c r="N105" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="O105" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="Q105" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="R66" s="1" t="s">
+      <c r="R105" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="S66" s="1" t="s">
+      <c r="S105" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
-      <c r="A67" s="2">
+    <row r="106" spans="1:19">
+      <c r="A106" s="2">
         <v>1</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B106" s="2">
         <v>3</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C106" s="3">
         <f>C28*$J6</f>
         <v>130.12495831620001</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D106" s="3">
         <f>D28*$J6</f>
         <v>967.93581405600003</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E106" s="3">
         <f>E28*$J6</f>
         <v>951.95785464799997</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F106" s="3">
         <f>F28*$J6</f>
         <v>988.99225202100001</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G106" s="3">
         <f>G28*$J6</f>
         <v>918.93872660800002</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H106" s="3">
         <f>H28*$J6</f>
         <v>938.349881719</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I106" s="3">
         <f>I28*$J6</f>
         <v>945.31592428499994</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J106" s="3">
         <f>J28*$J6</f>
         <v>916.23827230399991</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K106" s="3">
         <f>K28*$J6</f>
         <v>920.77263189999996</v>
       </c>
-      <c r="M67" s="3">
-        <f>MAX(D67:K67)</f>
+      <c r="M106" s="3">
+        <f>MAX(D106:K106)</f>
         <v>988.99225202100001</v>
       </c>
-      <c r="N67" s="3">
-        <f>MIN(D67:K67)</f>
+      <c r="N106" s="3">
+        <f>MIN(D106:K106)</f>
         <v>916.23827230399991</v>
       </c>
-      <c r="O67" s="3">
-        <f>AVERAGE(D67:K67)</f>
+      <c r="O106" s="3">
+        <f>AVERAGE(D106:K106)</f>
         <v>943.56266969262504</v>
       </c>
-      <c r="Q67" s="3">
-        <f>MAX(D67:K70)</f>
-        <v>1020.9611191293332</v>
-      </c>
-      <c r="R67" s="3">
-        <f>MIN(D67:K70)</f>
-        <v>684.63149780166657</v>
-      </c>
-      <c r="S67" s="3">
-        <f>AVERAGE(D67:K70)</f>
-        <v>854.14135821062484</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
-      <c r="A68" s="2">
+      <c r="Q106" s="3" t="e">
+        <f>MAX(D106:K119)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R106" s="3" t="e">
+        <f>MIN(D106:K119)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S106" s="3" t="e">
+        <f>AVERAGE(D106:K119)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" s="2">
         <v>2</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B107" s="2">
         <v>3</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C107" s="3">
         <f>C29*$J7</f>
         <v>107.9614920535</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D107" s="3">
         <f>D29*$J7</f>
         <v>735.56453886666668</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E107" s="3">
         <f>E29*$J7</f>
         <v>707.65106520666666</v>
       </c>
-      <c r="F68" s="3">
-        <f>F29*$J7</f>
+      <c r="F107" s="3">
+        <f t="shared" ref="F107:K107" si="22">F29*$J7</f>
         <v>772.26840771166667</v>
       </c>
-      <c r="G68" s="3">
-        <f>G29*$J7</f>
+      <c r="G107" s="3">
+        <f t="shared" si="22"/>
         <v>730.15599656333325</v>
       </c>
-      <c r="H68" s="3">
-        <f>H29*$J7</f>
+      <c r="H107" s="3">
+        <f t="shared" si="22"/>
         <v>725.87015534666659</v>
       </c>
-      <c r="I68" s="3">
-        <f>I29*$J7</f>
+      <c r="I107" s="3">
+        <f t="shared" si="22"/>
         <v>734.44378196166667</v>
       </c>
-      <c r="J68" s="3">
-        <f>J29*$J7</f>
+      <c r="J107" s="3">
+        <f t="shared" si="22"/>
         <v>684.63149780166657</v>
       </c>
-      <c r="K68" s="3">
-        <f>K29*$J7</f>
+      <c r="K107" s="3">
+        <f t="shared" si="22"/>
         <v>690.80790096999988</v>
       </c>
-      <c r="M68" s="3">
-        <f>MAX(D68:K68)</f>
+      <c r="M107" s="3">
+        <f t="shared" ref="M107:M119" si="23">MAX(D107:K107)</f>
         <v>772.26840771166667</v>
       </c>
-      <c r="N68" s="3">
-        <f>MIN(D68:K68)</f>
+      <c r="N107" s="3">
+        <f t="shared" ref="N107:N119" si="24">MIN(D107:K107)</f>
         <v>684.63149780166657</v>
       </c>
-      <c r="O68" s="3">
-        <f>AVERAGE(D68:K68)</f>
+      <c r="O107" s="3">
+        <f t="shared" ref="O107:O119" si="25">AVERAGE(D107:K107)</f>
         <v>722.67416805354151</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
-      <c r="A69" s="2">
+    <row r="108" spans="1:19">
+      <c r="A108" s="2">
         <v>3</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B108" s="2">
         <v>3</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C108" s="3">
         <f>C30*$J8</f>
         <v>123.26604138330001</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D108" s="3">
         <f>D30*$J8</f>
         <v>759.22280282300005</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E108" s="3">
         <f>E30*$J8</f>
         <v>739.25230607600008</v>
       </c>
-      <c r="F69" s="3">
-        <f>F30*$J8</f>
+      <c r="F108" s="3">
+        <f t="shared" ref="F108:K108" si="26">F30*$J8</f>
         <v>815.27318145900006</v>
       </c>
-      <c r="G69" s="3">
-        <f>G30*$J8</f>
+      <c r="G108" s="3">
+        <f t="shared" si="26"/>
         <v>748.65532206099999</v>
       </c>
-      <c r="H69" s="3">
-        <f>H30*$J8</f>
+      <c r="H108" s="3">
+        <f t="shared" si="26"/>
         <v>739.47949818500001</v>
       </c>
-      <c r="I69" s="3">
-        <f>I30*$J8</f>
+      <c r="I108" s="3">
+        <f t="shared" si="26"/>
         <v>743.99613530900001</v>
       </c>
-      <c r="J69" s="3">
-        <f>J30*$J8</f>
+      <c r="J108" s="3">
+        <f t="shared" si="26"/>
         <v>726.62054011099997</v>
       </c>
-      <c r="K69" s="3">
-        <f>K30*$J8</f>
+      <c r="K108" s="3">
+        <f t="shared" si="26"/>
         <v>702.37677658400003</v>
       </c>
-      <c r="M69" s="3">
-        <f>MAX(D69:K69)</f>
+      <c r="M108" s="3">
+        <f t="shared" si="23"/>
         <v>815.27318145900006</v>
       </c>
-      <c r="N69" s="3">
-        <f>MIN(D69:K69)</f>
+      <c r="N108" s="3">
+        <f t="shared" si="24"/>
         <v>702.37677658400003</v>
       </c>
-      <c r="O69" s="3">
-        <f>AVERAGE(D69:K69)</f>
+      <c r="O108" s="3">
+        <f t="shared" si="25"/>
         <v>746.85957032600004</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
-      <c r="A70" s="2">
+    <row r="109" spans="1:19">
+      <c r="A109" s="2">
         <v>4</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B109" s="2">
         <v>3</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C109" s="3">
         <f>C31*$J9</f>
         <v>168.03199189613332</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D109" s="3">
         <f>D31*$J9</f>
         <v>1010.1100896386664</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E109" s="3">
         <f>E31*$J9</f>
         <v>1020.9611191293332</v>
       </c>
-      <c r="F70" s="3">
-        <f>F31*$J9</f>
+      <c r="F109" s="3">
+        <f t="shared" ref="F109:K109" si="27">F31*$J9</f>
         <v>1012.8694013559999</v>
       </c>
-      <c r="G70" s="3">
-        <f>G31*$J9</f>
+      <c r="G109" s="3">
+        <f t="shared" si="27"/>
         <v>976.67141571599984</v>
       </c>
-      <c r="H70" s="3">
-        <f>H31*$J9</f>
+      <c r="H109" s="3">
+        <f t="shared" si="27"/>
         <v>1020.9383244786666</v>
       </c>
-      <c r="I70" s="3">
-        <f>I31*$J9</f>
+      <c r="I109" s="3">
+        <f t="shared" si="27"/>
         <v>1017.9016934226665</v>
       </c>
-      <c r="J70" s="3">
-        <f>J31*$J9</f>
+      <c r="J109" s="3">
+        <f t="shared" si="27"/>
         <v>984.83642817999998</v>
       </c>
-      <c r="K70" s="3">
-        <f>K31*$J9</f>
+      <c r="K109" s="3">
+        <f t="shared" si="27"/>
         <v>983.46372624133312</v>
       </c>
-      <c r="M70" s="3">
-        <f>MAX(D70:K70)</f>
+      <c r="M109" s="3">
+        <f t="shared" si="23"/>
         <v>1020.9611191293332</v>
       </c>
-      <c r="N70" s="3">
-        <f>MIN(D70:K70)</f>
+      <c r="N109" s="3">
+        <f t="shared" si="24"/>
         <v>976.67141571599984</v>
       </c>
-      <c r="O70" s="3">
-        <f>AVERAGE(D70:K70)</f>
+      <c r="O109" s="3">
+        <f t="shared" si="25"/>
         <v>1003.4690247703332</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
-      <c r="A72" s="5"/>
-      <c r="B72" s="1" t="s">
+    <row r="110" spans="1:19">
+      <c r="A110" s="2">
+        <v>5</v>
+      </c>
+      <c r="B110" s="2">
+        <v>3</v>
+      </c>
+      <c r="C110" s="3" t="e">
+        <f>C32*$J10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D110" s="3" t="e">
+        <f>D32*$J10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E110" s="3" t="e">
+        <f>E32*$J10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F110" s="3" t="e">
+        <f t="shared" ref="F110:K110" si="28">F32*$J10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G110" s="3" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H110" s="3" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I110" s="3" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J110" s="3" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K110" s="3" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M110" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N110" s="3" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O110" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="A111" s="2">
+        <v>6</v>
+      </c>
+      <c r="B111" s="2">
+        <v>3</v>
+      </c>
+      <c r="C111" s="3">
+        <f>C33*$J11</f>
+        <v>0</v>
+      </c>
+      <c r="D111" s="3">
+        <f>D33*$J11</f>
+        <v>0</v>
+      </c>
+      <c r="E111" s="3">
+        <f>E33*$J11</f>
+        <v>0</v>
+      </c>
+      <c r="F111" s="3">
+        <f t="shared" ref="F111:K111" si="29">F33*$J11</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K111" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M111" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N111" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O111" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19">
+      <c r="A112" s="2">
+        <v>7</v>
+      </c>
+      <c r="B112" s="2">
+        <v>3</v>
+      </c>
+      <c r="C112" s="3">
+        <f>C34*$J12</f>
+        <v>94.952000000000012</v>
+      </c>
+      <c r="D112" s="3">
+        <f>D34*$J12</f>
+        <v>640.75364433567768</v>
+      </c>
+      <c r="E112" s="3">
+        <f>E34*$J12</f>
+        <v>631.59072310485703</v>
+      </c>
+      <c r="F112" s="3">
+        <f t="shared" ref="F112:K112" si="30">F34*$J12</f>
+        <v>0</v>
+      </c>
+      <c r="G112" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K112" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="3">
+        <f t="shared" si="23"/>
+        <v>640.75364433567768</v>
+      </c>
+      <c r="N112" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O112" s="3">
+        <f t="shared" si="25"/>
+        <v>159.04304593006685</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" s="2">
+        <v>8</v>
+      </c>
+      <c r="B113" s="2">
+        <v>3</v>
+      </c>
+      <c r="C113" s="3">
+        <f>C35*$J13</f>
+        <v>128.89692738032088</v>
+      </c>
+      <c r="D113" s="3">
+        <f>D35*$J13</f>
+        <v>828.86490986045976</v>
+      </c>
+      <c r="E113" s="3">
+        <f>E35*$J13</f>
+        <v>765.45892893257928</v>
+      </c>
+      <c r="F113" s="3">
+        <f t="shared" ref="F113:K113" si="31">F35*$J13</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H113" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="3">
+        <f t="shared" si="23"/>
+        <v>828.86490986045976</v>
+      </c>
+      <c r="N113" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O113" s="3">
+        <f t="shared" si="25"/>
+        <v>199.29047984912989</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
+      <c r="A114" s="2">
+        <v>9</v>
+      </c>
+      <c r="B114" s="2">
+        <v>3</v>
+      </c>
+      <c r="C114" s="3">
+        <f>C36*$J14</f>
+        <v>83.082293881073639</v>
+      </c>
+      <c r="D114" s="3">
+        <f>D36*$J14</f>
+        <v>682.77989802092247</v>
+      </c>
+      <c r="E114" s="3">
+        <f>E36*$J14</f>
+        <v>612.94661269210599</v>
+      </c>
+      <c r="F114" s="3">
+        <f t="shared" ref="F114:K114" si="32">F36*$J14</f>
+        <v>0</v>
+      </c>
+      <c r="G114" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K114" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="3">
+        <f t="shared" si="23"/>
+        <v>682.77989802092247</v>
+      </c>
+      <c r="N114" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O114" s="3">
+        <f t="shared" si="25"/>
+        <v>161.96581383912854</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" s="2">
+        <v>10</v>
+      </c>
+      <c r="B115" s="2">
+        <v>3</v>
+      </c>
+      <c r="C115" s="3">
+        <f>C37*$J15</f>
+        <v>96.936265833265139</v>
+      </c>
+      <c r="D115" s="3">
+        <f>D37*$J15</f>
+        <v>824.92191553858095</v>
+      </c>
+      <c r="E115" s="3">
+        <f>E37*$J15</f>
+        <v>763.13054478211563</v>
+      </c>
+      <c r="F115" s="3">
+        <f>F37*$J15</f>
+        <v>0</v>
+      </c>
+      <c r="G115" s="3">
+        <f>G37*$J15</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="3">
+        <f>H37*$J15</f>
+        <v>0</v>
+      </c>
+      <c r="I115" s="3">
+        <f>I37*$J15</f>
+        <v>0</v>
+      </c>
+      <c r="J115" s="3">
+        <f>J37*$J15</f>
+        <v>0</v>
+      </c>
+      <c r="K115" s="3">
+        <f>K37*$J15</f>
+        <v>0</v>
+      </c>
+      <c r="M115" s="3">
+        <f t="shared" si="23"/>
+        <v>824.92191553858095</v>
+      </c>
+      <c r="N115" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O115" s="3">
+        <f t="shared" si="25"/>
+        <v>198.50655754008707</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" s="2">
+        <v>11</v>
+      </c>
+      <c r="B116" s="2">
+        <v>3</v>
+      </c>
+      <c r="C116" s="3" t="e">
+        <f>C38*$J16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D116" s="3" t="e">
+        <f>D38*$J16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E116" s="3" t="e">
+        <f>E38*$J16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F116" s="3" t="e">
+        <f t="shared" ref="F116:K116" si="33">F38*$J16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G116" s="3" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H116" s="3" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I116" s="3" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J116" s="3" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K116" s="3" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M116" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N116" s="3" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O116" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" s="2">
+        <v>12</v>
+      </c>
+      <c r="B117" s="2">
+        <v>3</v>
+      </c>
+      <c r="C117" s="3" t="e">
+        <f>C39*$J17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D117" s="3" t="e">
+        <f>D39*$J17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E117" s="3" t="e">
+        <f>E39*$J17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F117" s="3" t="e">
+        <f t="shared" ref="F117:K117" si="34">F39*$J17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G117" s="3" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H117" s="3" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I117" s="3" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J117" s="3" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K117" s="3" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M117" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N117" s="3" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O117" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" s="2">
+        <v>13</v>
+      </c>
+      <c r="B118" s="2">
+        <v>3</v>
+      </c>
+      <c r="C118" s="3" t="e">
+        <f>C40*$J18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D118" s="3" t="e">
+        <f>D40*$J18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E118" s="3" t="e">
+        <f>E40*$J18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F118" s="3" t="e">
+        <f t="shared" ref="F118:K118" si="35">F40*$J18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G118" s="3" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H118" s="3" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I118" s="3" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J118" s="3" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K118" s="3" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M118" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N118" s="3" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O118" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" s="2">
+        <v>14</v>
+      </c>
+      <c r="B119" s="2">
+        <v>3</v>
+      </c>
+      <c r="C119" s="3" t="e">
+        <f>C41*$J19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D119" s="3" t="e">
+        <f>D41*$J19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E119" s="3" t="e">
+        <f>E41*$J19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F119" s="3" t="e">
+        <f t="shared" ref="F119:K119" si="36">F41*$J19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G119" s="3" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H119" s="3" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I119" s="3" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J119" s="3" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K119" s="3" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M119" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N119" s="3" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O119" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+    </row>
+    <row r="122" spans="1:19">
+      <c r="A122" s="5"/>
+      <c r="B122" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-    </row>
-    <row r="73" spans="1:19">
-      <c r="A73" s="5"/>
-      <c r="B73" s="1" t="s">
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+    </row>
+    <row r="123" spans="1:19">
+      <c r="A123" s="5"/>
+      <c r="B123" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C73" s="2">
-        <f t="shared" ref="C73:K73" si="7">MAX(C67:C70)</f>
-        <v>168.03199189613332</v>
-      </c>
-      <c r="D73" s="2">
-        <f t="shared" si="7"/>
-        <v>1010.1100896386664</v>
-      </c>
-      <c r="E73" s="2">
-        <f t="shared" si="7"/>
-        <v>1020.9611191293332</v>
-      </c>
-      <c r="F73" s="2">
-        <f t="shared" si="7"/>
-        <v>1012.8694013559999</v>
-      </c>
-      <c r="G73" s="2">
-        <f t="shared" si="7"/>
-        <v>976.67141571599984</v>
-      </c>
-      <c r="H73" s="2">
-        <f t="shared" si="7"/>
-        <v>1020.9383244786666</v>
-      </c>
-      <c r="I73" s="2">
-        <f t="shared" si="7"/>
-        <v>1017.9016934226665</v>
-      </c>
-      <c r="J73" s="2">
-        <f t="shared" si="7"/>
-        <v>984.83642817999998</v>
-      </c>
-      <c r="K73" s="2">
-        <f t="shared" si="7"/>
-        <v>983.46372624133312</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
-      <c r="A74" s="5"/>
-      <c r="B74" s="1" t="s">
+      <c r="C123" s="2" t="e">
+        <f>MAX(C106:C119)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D123" s="2" t="e">
+        <f t="shared" ref="D123:K123" si="37">MAX(D106:D119)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E123" s="2" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F123" s="2" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G123" s="2" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H123" s="2" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I123" s="2" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J123" s="2" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K123" s="2" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19">
+      <c r="A124" s="5"/>
+      <c r="B124" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C74" s="2">
-        <f t="shared" ref="C74:K74" si="8">MIN(C67:C70)</f>
-        <v>107.9614920535</v>
-      </c>
-      <c r="D74" s="2">
-        <f t="shared" si="8"/>
-        <v>735.56453886666668</v>
-      </c>
-      <c r="E74" s="2">
-        <f t="shared" si="8"/>
-        <v>707.65106520666666</v>
-      </c>
-      <c r="F74" s="2">
-        <f t="shared" si="8"/>
-        <v>772.26840771166667</v>
-      </c>
-      <c r="G74" s="2">
-        <f t="shared" si="8"/>
-        <v>730.15599656333325</v>
-      </c>
-      <c r="H74" s="2">
-        <f t="shared" si="8"/>
-        <v>725.87015534666659</v>
-      </c>
-      <c r="I74" s="2">
-        <f t="shared" si="8"/>
-        <v>734.44378196166667</v>
-      </c>
-      <c r="J74" s="2">
-        <f t="shared" si="8"/>
-        <v>684.63149780166657</v>
-      </c>
-      <c r="K74" s="2">
-        <f t="shared" si="8"/>
-        <v>690.80790096999988</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19">
-      <c r="A75" s="5"/>
-      <c r="B75" s="1" t="s">
+      <c r="C124" s="2" t="e">
+        <f>MIN(C106:C119)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D124" s="2" t="e">
+        <f t="shared" ref="D124:K124" si="38">MIN(D106:D119)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E124" s="2" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F124" s="2" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G124" s="2" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H124" s="2" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I124" s="2" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J124" s="2" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K124" s="2" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
+      <c r="A125" s="5"/>
+      <c r="B125" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C75" s="2">
-        <f t="shared" ref="C75:K75" si="9">AVERAGE(C67:C70)</f>
-        <v>132.34612091228331</v>
-      </c>
-      <c r="D75" s="2">
-        <f t="shared" si="9"/>
-        <v>868.20831134608329</v>
-      </c>
-      <c r="E75" s="2">
-        <f t="shared" si="9"/>
-        <v>854.95558626499997</v>
-      </c>
-      <c r="F75" s="2">
-        <f t="shared" si="9"/>
-        <v>897.35081063691666</v>
-      </c>
-      <c r="G75" s="2">
-        <f t="shared" si="9"/>
-        <v>843.60536523708333</v>
-      </c>
-      <c r="H75" s="2">
-        <f t="shared" si="9"/>
-        <v>856.15946493233332</v>
-      </c>
-      <c r="I75" s="2">
-        <f t="shared" si="9"/>
-        <v>860.41438374458335</v>
-      </c>
-      <c r="J75" s="2">
-        <f t="shared" si="9"/>
-        <v>828.08168459916658</v>
-      </c>
-      <c r="K75" s="2">
-        <f t="shared" si="9"/>
-        <v>824.35525892383328</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-    </row>
-    <row r="77" spans="1:19">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-    </row>
-    <row r="78" spans="1:19">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="1" t="s">
+      <c r="C125" s="2" t="e">
+        <f>AVERAGE(C106:C119)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D125" s="2" t="e">
+        <f t="shared" ref="D125:K125" si="39">AVERAGE(D106:D119)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E125" s="2" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F125" s="2" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G125" s="2" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H125" s="2" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I125" s="2" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J125" s="2" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K125" s="2" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+    </row>
+    <row r="127" spans="1:19">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+    </row>
+    <row r="128" spans="1:19">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="M78" s="1" t="s">
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="M128" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="Q78" s="1" t="s">
+      <c r="Q128" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-    </row>
-    <row r="79" spans="1:19">
-      <c r="A79" s="1" t="s">
+      <c r="R128" s="5"/>
+      <c r="S128" s="5"/>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1" t="s">
+      <c r="C129" s="1"/>
+      <c r="D129" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H129" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I129" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="J129" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="K129" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="M129" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="N79" s="1" t="s">
+      <c r="N129" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="O79" s="1" t="s">
+      <c r="O129" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Q79" s="1" t="s">
+      <c r="Q129" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="R79" s="1" t="s">
+      <c r="R129" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="S79" s="1" t="s">
+      <c r="S129" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
-      <c r="A80" s="2">
+    <row r="130" spans="1:19">
+      <c r="A130" s="2">
         <v>1</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B130" s="2">
         <v>3</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D130" s="3">
         <f>D51*$J6</f>
         <v>837.81085573979999</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E130" s="3">
         <f>E51*$J6</f>
         <v>821.83289633179993</v>
       </c>
-      <c r="F80" s="3">
-        <f>F51*$J6</f>
+      <c r="F130" s="3">
+        <f t="shared" ref="F130:K130" si="40">F51*$J6</f>
         <v>858.86729370479998</v>
       </c>
-      <c r="G80" s="3">
-        <f>G51*$J6</f>
+      <c r="G130" s="3">
+        <f t="shared" si="40"/>
         <v>788.81376829179999</v>
       </c>
-      <c r="H80" s="3">
-        <f>H51*$J6</f>
+      <c r="H130" s="3">
+        <f t="shared" si="40"/>
         <v>808.22492340279996</v>
       </c>
-      <c r="I80" s="3">
-        <f>I51*$J6</f>
+      <c r="I130" s="3">
+        <f t="shared" si="40"/>
         <v>815.19096596880001</v>
       </c>
-      <c r="J80" s="3">
-        <f>J51*$J6</f>
+      <c r="J130" s="3">
+        <f t="shared" si="40"/>
         <v>786.11331398779998</v>
       </c>
-      <c r="K80" s="3">
-        <f>K51*$J6</f>
+      <c r="K130" s="3">
+        <f t="shared" si="40"/>
         <v>790.64767358379993</v>
       </c>
-      <c r="M80" s="3">
-        <f>MAX(D80:K80)</f>
+      <c r="M130" s="3">
+        <f>MAX(D130:K130)</f>
         <v>858.86729370479998</v>
       </c>
-      <c r="N80" s="3">
-        <f>MIN(D80:K80)</f>
+      <c r="N130" s="3">
+        <f>MIN(D130:K130)</f>
         <v>786.11331398779998</v>
       </c>
-      <c r="O80" s="3">
-        <f>AVERAGE(D80:K80)</f>
+      <c r="O130" s="3">
+        <f>AVERAGE(D130:K130)</f>
         <v>813.43771137642489</v>
       </c>
-      <c r="Q80" s="3">
-        <f>MAX(D80:K83)</f>
-        <v>858.86729370479998</v>
-      </c>
-      <c r="R80" s="3">
-        <f>MIN(D80:K83)</f>
-        <v>576.67000574816666</v>
-      </c>
-      <c r="S80" s="3">
-        <f>AVERAGE(D80:K83)</f>
-        <v>721.79523729834159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21">
-      <c r="A81" s="2">
+      <c r="Q130" s="3" t="e">
+        <f>MAX(D130:K143)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R130" s="3" t="e">
+        <f>MIN(D130:K143)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S130" s="3" t="e">
+        <f>AVERAGE(D130:K143)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19">
+      <c r="A131" s="2">
         <v>2</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B131" s="2">
         <v>3</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D131" s="3">
         <f>D52*$J7</f>
         <v>627.60304681316666</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E131" s="3">
         <f>E52*$J7</f>
         <v>599.68957315316675</v>
       </c>
-      <c r="F81" s="3">
-        <f>F52*$J7</f>
+      <c r="F131" s="3">
+        <f t="shared" ref="F131:K143" si="41">F52*$J7</f>
         <v>664.30691565816664</v>
       </c>
-      <c r="G81" s="3">
-        <f>G52*$J7</f>
+      <c r="G131" s="3">
+        <f t="shared" si="41"/>
         <v>622.19450450983334</v>
       </c>
-      <c r="H81" s="3">
-        <f>H52*$J7</f>
+      <c r="H131" s="3">
+        <f t="shared" si="41"/>
         <v>617.90866329316668</v>
       </c>
-      <c r="I81" s="3">
-        <f>I52*$J7</f>
+      <c r="I131" s="3">
+        <f t="shared" si="41"/>
         <v>626.48228990816665</v>
       </c>
-      <c r="J81" s="3">
-        <f>J52*$J7</f>
+      <c r="J131" s="3">
+        <f t="shared" si="41"/>
         <v>576.67000574816666</v>
       </c>
-      <c r="K81" s="3">
-        <f>K52*$J7</f>
+      <c r="K131" s="3">
+        <f t="shared" si="41"/>
         <v>582.84640891649997</v>
       </c>
-      <c r="M81" s="3">
-        <f>MAX(D81:K81)</f>
+      <c r="M131" s="3">
+        <f t="shared" ref="M131:M143" si="42">MAX(D131:K131)</f>
         <v>664.30691565816664</v>
       </c>
-      <c r="N81" s="3">
-        <f>MIN(D81:K81)</f>
+      <c r="N131" s="3">
+        <f t="shared" ref="N131:N143" si="43">MIN(D131:K131)</f>
         <v>576.67000574816666</v>
       </c>
-      <c r="O81" s="3">
-        <f>AVERAGE(D81:K81)</f>
+      <c r="O131" s="3">
+        <f t="shared" ref="O131:O143" si="44">AVERAGE(D131:K131)</f>
         <v>614.71267600004171</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
-      <c r="A82" s="2">
+    <row r="132" spans="1:19">
+      <c r="A132" s="2">
         <v>3</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B132" s="2">
         <v>3</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D132" s="3">
         <f>D53*$J8</f>
         <v>635.95676143970002</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E132" s="3">
         <f>E53*$J8</f>
         <v>615.98626469270005</v>
       </c>
-      <c r="F82" s="3">
-        <f>F53*$J8</f>
+      <c r="F132" s="3">
+        <f t="shared" si="41"/>
         <v>692.00714007570002</v>
       </c>
-      <c r="G82" s="3">
-        <f>G53*$J8</f>
+      <c r="G132" s="3">
+        <f t="shared" si="41"/>
         <v>625.38928067769996</v>
       </c>
-      <c r="H82" s="3">
-        <f>H53*$J8</f>
+      <c r="H132" s="3">
+        <f t="shared" si="41"/>
         <v>616.21345680169998</v>
       </c>
-      <c r="I82" s="3">
-        <f>I53*$J8</f>
+      <c r="I132" s="3">
+        <f t="shared" si="41"/>
         <v>620.73009392569998</v>
       </c>
-      <c r="J82" s="3">
-        <f>J53*$J8</f>
+      <c r="J132" s="3">
+        <f t="shared" si="41"/>
         <v>603.35449872769993</v>
       </c>
-      <c r="K82" s="3">
-        <f>K53*$J8</f>
+      <c r="K132" s="3">
+        <f t="shared" si="41"/>
         <v>579.11073520069988</v>
       </c>
-      <c r="M82" s="3">
-        <f>MAX(D82:K82)</f>
+      <c r="M132" s="3">
+        <f t="shared" si="42"/>
         <v>692.00714007570002</v>
       </c>
-      <c r="N82" s="3">
-        <f>MIN(D82:K82)</f>
+      <c r="N132" s="3">
+        <f t="shared" si="43"/>
         <v>579.11073520069988</v>
       </c>
-      <c r="O82" s="3">
-        <f>AVERAGE(D82:K82)</f>
+      <c r="O132" s="3">
+        <f t="shared" si="44"/>
         <v>623.5935289427</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
-      <c r="A83" s="2">
+    <row r="133" spans="1:19">
+      <c r="A133" s="2">
         <v>4</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B133" s="2">
         <v>3</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D133" s="3">
         <f>D54*$J9</f>
         <v>842.07809774253326</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E133" s="3">
         <f>E54*$J9</f>
         <v>852.92912723319978</v>
       </c>
-      <c r="F83" s="3">
-        <f>F54*$J9</f>
+      <c r="F133" s="3">
+        <f t="shared" si="41"/>
         <v>844.83740945986665</v>
       </c>
-      <c r="G83" s="3">
-        <f>G54*$J9</f>
+      <c r="G133" s="3">
+        <f t="shared" si="41"/>
         <v>808.63942381986635</v>
       </c>
-      <c r="H83" s="3">
-        <f>H54*$J9</f>
+      <c r="H133" s="3">
+        <f t="shared" si="41"/>
         <v>852.9063325825332</v>
       </c>
-      <c r="I83" s="3">
-        <f>I54*$J9</f>
+      <c r="I133" s="3">
+        <f t="shared" si="41"/>
         <v>849.86970152653328</v>
       </c>
-      <c r="J83" s="3">
-        <f>J54*$J9</f>
+      <c r="J133" s="3">
+        <f t="shared" si="41"/>
         <v>816.80443628386649</v>
       </c>
-      <c r="K83" s="3">
-        <f>K54*$J9</f>
+      <c r="K133" s="3">
+        <f t="shared" si="41"/>
         <v>815.43173434519986</v>
       </c>
-      <c r="M83" s="3">
-        <f>MAX(D83:K83)</f>
+      <c r="M133" s="3">
+        <f t="shared" si="42"/>
         <v>852.92912723319978</v>
       </c>
-      <c r="N83" s="3">
-        <f>MIN(D83:K83)</f>
+      <c r="N133" s="3">
+        <f t="shared" si="43"/>
         <v>808.63942381986635</v>
       </c>
-      <c r="O83" s="3">
-        <f>AVERAGE(D83:K83)</f>
+      <c r="O133" s="3">
+        <f t="shared" si="44"/>
         <v>835.43703287419999</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
-      <c r="B86" s="1" t="s">
+    <row r="134" spans="1:19">
+      <c r="A134" s="2">
+        <v>5</v>
+      </c>
+      <c r="B134" s="2">
+        <v>3</v>
+      </c>
+      <c r="D134" s="3" t="e">
+        <f>D55*$J10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E134" s="3" t="e">
+        <f>E55*$J10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F134" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G134" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H134" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I134" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J134" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K134" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M134" s="3" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N134" s="3" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O134" s="3" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
+      <c r="A135" s="2">
+        <v>6</v>
+      </c>
+      <c r="B135" s="2">
+        <v>3</v>
+      </c>
+      <c r="D135" s="3">
+        <f>D56*$J11</f>
+        <v>0</v>
+      </c>
+      <c r="E135" s="3">
+        <f>E56*$J11</f>
+        <v>0</v>
+      </c>
+      <c r="F135" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="H135" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I135" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="J135" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="K135" s="3">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="M135" s="3">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N135" s="3">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O135" s="3">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19">
+      <c r="A136" s="2">
+        <v>7</v>
+      </c>
+      <c r="B136" s="2">
+        <v>3</v>
+      </c>
+      <c r="D136" s="3">
+        <f>D57*$J12</f>
+        <v>545.80164433567757</v>
+      </c>
+      <c r="E136" s="3">
+        <f>E57*$J12</f>
+        <v>536.63872310485704</v>
+      </c>
+      <c r="F136" s="3">
+        <f t="shared" si="41"/>
+        <v>-94.952000000000012</v>
+      </c>
+      <c r="G136" s="3">
+        <f t="shared" si="41"/>
+        <v>-94.952000000000012</v>
+      </c>
+      <c r="H136" s="3">
+        <f t="shared" si="41"/>
+        <v>-94.952000000000012</v>
+      </c>
+      <c r="I136" s="3">
+        <f t="shared" si="41"/>
+        <v>-94.952000000000012</v>
+      </c>
+      <c r="J136" s="3">
+        <f t="shared" si="41"/>
+        <v>-94.952000000000012</v>
+      </c>
+      <c r="K136" s="3">
+        <f t="shared" si="41"/>
+        <v>-94.952000000000012</v>
+      </c>
+      <c r="M136" s="3">
+        <f t="shared" si="42"/>
+        <v>545.80164433567757</v>
+      </c>
+      <c r="N136" s="3">
+        <f t="shared" si="43"/>
+        <v>-94.952000000000012</v>
+      </c>
+      <c r="O136" s="3">
+        <f t="shared" si="44"/>
+        <v>64.091045930066826</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19">
+      <c r="A137" s="2">
+        <v>8</v>
+      </c>
+      <c r="B137" s="2">
+        <v>3</v>
+      </c>
+      <c r="D137" s="3">
+        <f>D58*$J13</f>
+        <v>699.96798248013886</v>
+      </c>
+      <c r="E137" s="3">
+        <f>E58*$J13</f>
+        <v>636.56200155225838</v>
+      </c>
+      <c r="F137" s="3">
+        <f t="shared" si="41"/>
+        <v>-128.89692738032088</v>
+      </c>
+      <c r="G137" s="3">
+        <f t="shared" si="41"/>
+        <v>-128.89692738032088</v>
+      </c>
+      <c r="H137" s="3">
+        <f t="shared" si="41"/>
+        <v>-128.89692738032088</v>
+      </c>
+      <c r="I137" s="3">
+        <f t="shared" si="41"/>
+        <v>-128.89692738032088</v>
+      </c>
+      <c r="J137" s="3">
+        <f t="shared" si="41"/>
+        <v>-128.89692738032088</v>
+      </c>
+      <c r="K137" s="3">
+        <f t="shared" si="41"/>
+        <v>-128.89692738032088</v>
+      </c>
+      <c r="M137" s="3">
+        <f t="shared" si="42"/>
+        <v>699.96798248013886</v>
+      </c>
+      <c r="N137" s="3">
+        <f t="shared" si="43"/>
+        <v>-128.89692738032088</v>
+      </c>
+      <c r="O137" s="3">
+        <f t="shared" si="44"/>
+        <v>70.393552468808991</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19">
+      <c r="A138" s="2">
+        <v>9</v>
+      </c>
+      <c r="B138" s="2">
+        <v>3</v>
+      </c>
+      <c r="D138" s="3">
+        <f>D59*$J14</f>
+        <v>599.69760413984886</v>
+      </c>
+      <c r="E138" s="3">
+        <f>E59*$J14</f>
+        <v>529.86431881103249</v>
+      </c>
+      <c r="F138" s="3">
+        <f t="shared" si="41"/>
+        <v>-83.082293881073639</v>
+      </c>
+      <c r="G138" s="3">
+        <f t="shared" si="41"/>
+        <v>-83.082293881073639</v>
+      </c>
+      <c r="H138" s="3">
+        <f t="shared" si="41"/>
+        <v>-83.082293881073639</v>
+      </c>
+      <c r="I138" s="3">
+        <f t="shared" si="41"/>
+        <v>-83.082293881073639</v>
+      </c>
+      <c r="J138" s="3">
+        <f t="shared" si="41"/>
+        <v>-83.082293881073639</v>
+      </c>
+      <c r="K138" s="3">
+        <f t="shared" si="41"/>
+        <v>-83.082293881073639</v>
+      </c>
+      <c r="M138" s="3">
+        <f t="shared" si="42"/>
+        <v>599.69760413984886</v>
+      </c>
+      <c r="N138" s="3">
+        <f t="shared" si="43"/>
+        <v>-83.082293881073639</v>
+      </c>
+      <c r="O138" s="3">
+        <f t="shared" si="44"/>
+        <v>78.883519958054961</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19">
+      <c r="A139" s="2">
+        <v>10</v>
+      </c>
+      <c r="B139" s="2">
+        <v>3</v>
+      </c>
+      <c r="D139" s="3">
+        <f>D60*$J15</f>
+        <v>727.98564970531584</v>
+      </c>
+      <c r="E139" s="3">
+        <f>E60*$J15</f>
+        <v>666.19427894885052</v>
+      </c>
+      <c r="F139" s="3">
+        <f t="shared" si="41"/>
+        <v>-96.936265833265139</v>
+      </c>
+      <c r="G139" s="3">
+        <f t="shared" si="41"/>
+        <v>-96.936265833265139</v>
+      </c>
+      <c r="H139" s="3">
+        <f t="shared" si="41"/>
+        <v>-96.936265833265139</v>
+      </c>
+      <c r="I139" s="3">
+        <f t="shared" si="41"/>
+        <v>-96.936265833265139</v>
+      </c>
+      <c r="J139" s="3">
+        <f t="shared" si="41"/>
+        <v>-96.936265833265139</v>
+      </c>
+      <c r="K139" s="3">
+        <f t="shared" si="41"/>
+        <v>-96.936265833265139</v>
+      </c>
+      <c r="M139" s="3">
+        <f t="shared" si="42"/>
+        <v>727.98564970531584</v>
+      </c>
+      <c r="N139" s="3">
+        <f t="shared" si="43"/>
+        <v>-96.936265833265139</v>
+      </c>
+      <c r="O139" s="3">
+        <f t="shared" si="44"/>
+        <v>101.57029170682192</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
+      <c r="A140" s="2">
+        <v>11</v>
+      </c>
+      <c r="B140" s="2">
+        <v>3</v>
+      </c>
+      <c r="D140" s="3" t="e">
+        <f>D61*$J16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E140" s="3" t="e">
+        <f>E61*$J16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F140" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G140" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H140" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I140" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J140" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K140" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M140" s="3" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N140" s="3" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O140" s="3" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19">
+      <c r="A141" s="2">
+        <v>12</v>
+      </c>
+      <c r="B141" s="2">
+        <v>3</v>
+      </c>
+      <c r="D141" s="3" t="e">
+        <f>D62*$J17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E141" s="3" t="e">
+        <f>E62*$J17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F141" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G141" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H141" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I141" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J141" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K141" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M141" s="3" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N141" s="3" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O141" s="3" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19">
+      <c r="A142" s="2">
+        <v>13</v>
+      </c>
+      <c r="B142" s="2">
+        <v>3</v>
+      </c>
+      <c r="D142" s="3" t="e">
+        <f>D63*$J18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E142" s="3" t="e">
+        <f>E63*$J18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F142" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G142" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H142" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I142" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J142" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K142" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M142" s="3" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N142" s="3" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O142" s="3" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19">
+      <c r="A143" s="2">
+        <v>14</v>
+      </c>
+      <c r="B143" s="2">
+        <v>3</v>
+      </c>
+      <c r="D143" s="3" t="e">
+        <f>D64*$J19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E143" s="3" t="e">
+        <f>E64*$J19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F143" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G143" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H143" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I143" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J143" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K143" s="3" t="e">
+        <f t="shared" si="41"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M143" s="3" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N143" s="3" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O143" s="3" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="146" spans="2:21">
+      <c r="B146" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
-      <c r="B87" s="1" t="s">
+    <row r="147" spans="2:21">
+      <c r="B147" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D87" s="3">
-        <f t="shared" ref="D87:K87" si="10">MAX(D80:D83)</f>
-        <v>842.07809774253326</v>
-      </c>
-      <c r="E87" s="3">
-        <f t="shared" si="10"/>
-        <v>852.92912723319978</v>
-      </c>
-      <c r="F87" s="3">
-        <f t="shared" si="10"/>
-        <v>858.86729370479998</v>
-      </c>
-      <c r="G87" s="3">
-        <f t="shared" si="10"/>
-        <v>808.63942381986635</v>
-      </c>
-      <c r="H87" s="3">
-        <f t="shared" si="10"/>
-        <v>852.9063325825332</v>
-      </c>
-      <c r="I87" s="3">
-        <f t="shared" si="10"/>
-        <v>849.86970152653328</v>
-      </c>
-      <c r="J87" s="3">
-        <f t="shared" si="10"/>
-        <v>816.80443628386649</v>
-      </c>
-      <c r="K87" s="3">
-        <f t="shared" si="10"/>
-        <v>815.43173434519986</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21">
-      <c r="B88" s="1" t="s">
+      <c r="D147" s="3" t="e">
+        <f>MAX(D130:D143)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E147" s="3" t="e">
+        <f t="shared" ref="E147:K147" si="45">MAX(E130:E143)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F147" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G147" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H147" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I147" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J147" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K147" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="148" spans="2:21">
+      <c r="B148" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D88" s="3">
-        <f t="shared" ref="D88:K88" si="11">MIN(D80:D83)</f>
-        <v>627.60304681316666</v>
-      </c>
-      <c r="E88" s="3">
-        <f t="shared" si="11"/>
-        <v>599.68957315316675</v>
-      </c>
-      <c r="F88" s="3">
-        <f t="shared" si="11"/>
-        <v>664.30691565816664</v>
-      </c>
-      <c r="G88" s="3">
-        <f t="shared" si="11"/>
-        <v>622.19450450983334</v>
-      </c>
-      <c r="H88" s="3">
-        <f t="shared" si="11"/>
-        <v>616.21345680169998</v>
-      </c>
-      <c r="I88" s="3">
-        <f t="shared" si="11"/>
-        <v>620.73009392569998</v>
-      </c>
-      <c r="J88" s="3">
-        <f t="shared" si="11"/>
-        <v>576.67000574816666</v>
-      </c>
-      <c r="K88" s="3">
-        <f t="shared" si="11"/>
-        <v>579.11073520069988</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21">
-      <c r="B89" s="1" t="s">
+      <c r="D148" s="3" t="e">
+        <f>MIN(D130:D143)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E148" s="3" t="e">
+        <f t="shared" ref="E148:K148" si="46">MIN(E130:E143)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F148" s="3" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G148" s="3" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H148" s="3" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I148" s="3" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J148" s="3" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K148" s="3" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="149" spans="2:21">
+      <c r="B149" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D89" s="3">
-        <f t="shared" ref="D89:K89" si="12">AVERAGE(D80:D83)</f>
-        <v>735.86219043380004</v>
-      </c>
-      <c r="E89" s="3">
-        <f t="shared" si="12"/>
-        <v>722.6094653527166</v>
-      </c>
-      <c r="F89" s="3">
-        <f t="shared" si="12"/>
-        <v>765.00468972463329</v>
-      </c>
-      <c r="G89" s="3">
-        <f t="shared" si="12"/>
-        <v>711.25924432479985</v>
-      </c>
-      <c r="H89" s="3">
-        <f t="shared" si="12"/>
-        <v>723.81334402004995</v>
-      </c>
-      <c r="I89" s="3">
-        <f t="shared" si="12"/>
-        <v>728.06826283229998</v>
-      </c>
-      <c r="J89" s="3">
-        <f t="shared" si="12"/>
-        <v>695.73556368688321</v>
-      </c>
-      <c r="K89" s="3">
-        <f t="shared" si="12"/>
-        <v>692.00913801154991</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" ht="15.75" customHeight="1">
-      <c r="D91" s="23"/>
-      <c r="N91" s="23"/>
-      <c r="S91" s="23"/>
-    </row>
-    <row r="92" spans="1:21" ht="15.75" customHeight="1">
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="N92" s="24"/>
-      <c r="O92" s="24"/>
-      <c r="P92" s="24"/>
-    </row>
-    <row r="93" spans="1:21" ht="15.75" customHeight="1">
-      <c r="I93" s="23"/>
-      <c r="N93" s="23"/>
-    </row>
-    <row r="94" spans="1:21" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B94" s="25" t="s">
+      <c r="D149" s="3" t="e">
+        <f>AVERAGE(D130:D143)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E149" s="3" t="e">
+        <f t="shared" ref="E149:K149" si="47">AVERAGE(E130:E143)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F149" s="3" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G149" s="3" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H149" s="3" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I149" s="3" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J149" s="3" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K149" s="3" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="151" spans="2:21" ht="15.75" customHeight="1">
+      <c r="D151" s="23"/>
+      <c r="N151" s="23"/>
+      <c r="S151" s="23"/>
+    </row>
+    <row r="152" spans="2:21" ht="15.75" customHeight="1">
+      <c r="D152" s="24"/>
+      <c r="E152" s="24"/>
+      <c r="F152" s="24"/>
+      <c r="N152" s="24"/>
+      <c r="O152" s="24"/>
+      <c r="P152" s="24"/>
+    </row>
+    <row r="153" spans="2:21" ht="15.75" customHeight="1">
+      <c r="I153" s="23"/>
+      <c r="N153" s="23"/>
+    </row>
+    <row r="154" spans="2:21" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B154" s="25" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="95" spans="1:21" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D95" s="25" t="s">
+    <row r="155" spans="2:21" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="D155" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="E95" s="25" t="s">
+      <c r="E155" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="I95" s="25" t="s">
+      <c r="I155" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="J95" s="25" t="s">
+      <c r="J155" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="N95" s="25" t="s">
+      <c r="N155" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="O95" s="25" t="s">
+      <c r="O155" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="S95" s="25" t="s">
+      <c r="S155" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="T95" s="25" t="s">
+      <c r="T155" s="25" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="1:21" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B96" s="25" t="s">
+    <row r="156" spans="2:21" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B156" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C156" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="D156" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="E96" s="25" t="s">
+      <c r="E156" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="F96" s="25" t="s">
+      <c r="F156" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="G96" s="25" t="s">
+      <c r="G156" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H96" s="25" t="s">
+      <c r="H156" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="I96" s="25" t="s">
+      <c r="I156" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="J96" s="25" t="s">
+      <c r="J156" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="K96" s="25" t="s">
+      <c r="K156" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="L96" s="25" t="s">
+      <c r="L156" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="M96" s="25" t="s">
+      <c r="M156" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="N96" s="25" t="s">
+      <c r="N156" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="O96" s="25" t="s">
+      <c r="O156" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="P96" s="25" t="s">
+      <c r="P156" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="Q96" s="25" t="s">
+      <c r="Q156" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="R96" s="25" t="s">
+      <c r="R156" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="S96" s="25" t="s">
+      <c r="S156" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="T96" s="25" t="s">
+      <c r="T156" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="U96" s="25" t="s">
+      <c r="U156" s="25" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="97" spans="2:27" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B97" s="25">
+    <row r="157" spans="2:21" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B157" s="25">
         <v>1</v>
       </c>
-      <c r="C97" s="25">
+      <c r="C157" s="25">
         <v>3</v>
       </c>
-      <c r="D97" s="25">
+      <c r="D157" s="25">
         <v>1.751345334</v>
       </c>
-      <c r="E97" s="25">
+      <c r="E157" s="25">
         <v>13.027399920000001</v>
       </c>
-      <c r="F97" s="25">
+      <c r="F157" s="25">
         <v>12.812353359999999</v>
       </c>
-      <c r="G97" s="25">
+      <c r="G157" s="25">
         <v>2</v>
       </c>
-      <c r="H97" s="25">
+      <c r="H157" s="25">
         <v>3</v>
       </c>
-      <c r="I97" s="25">
+      <c r="I157" s="25">
         <v>1.6153839210000001</v>
       </c>
-      <c r="J97" s="25">
+      <c r="J157" s="25">
         <v>11.0059532</v>
       </c>
-      <c r="K97" s="25">
+      <c r="K157" s="25">
         <v>10.588295240000001</v>
       </c>
-      <c r="L97" s="25">
+      <c r="L157" s="25">
         <v>3</v>
       </c>
-      <c r="M97" s="25">
+      <c r="M157" s="25">
         <v>3</v>
       </c>
-      <c r="N97" s="25">
+      <c r="N157" s="25">
         <v>1.9051938390000001</v>
       </c>
-      <c r="O97" s="25">
+      <c r="O157" s="25">
         <v>11.734510090000001</v>
       </c>
-      <c r="P97" s="25">
+      <c r="P157" s="25">
         <v>11.42584708</v>
       </c>
-      <c r="Q97" s="25">
+      <c r="Q157" s="25">
         <v>4</v>
       </c>
-      <c r="R97" s="25">
+      <c r="R157" s="25">
         <v>3</v>
       </c>
-      <c r="S97" s="25">
+      <c r="S157" s="25">
         <v>1.797774521</v>
       </c>
-      <c r="T97" s="25">
+      <c r="T157" s="25">
         <v>10.807169289999999</v>
       </c>
-      <c r="U97" s="25">
+      <c r="U157" s="25">
         <v>10.923264469999999</v>
       </c>
     </row>
-    <row r="98" spans="2:27" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B98" s="25">
+    <row r="158" spans="2:21" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B158" s="25">
         <v>1</v>
       </c>
-      <c r="C98" s="25">
+      <c r="C158" s="25">
         <v>2</v>
       </c>
-      <c r="D98" s="25">
+      <c r="D158" s="25">
         <v>1.8857474729999999</v>
       </c>
-      <c r="E98" s="25">
+      <c r="E158" s="25">
         <v>11.88952067</v>
       </c>
-      <c r="F98" s="25">
+      <c r="F158" s="25">
         <v>11.374466200000001</v>
       </c>
-      <c r="G98" s="25">
+      <c r="G158" s="25">
         <v>2</v>
       </c>
-      <c r="H98" s="25">
+      <c r="H158" s="25">
         <v>2</v>
       </c>
-      <c r="I98" s="25">
+      <c r="I158" s="25">
         <v>1.582638532</v>
       </c>
-      <c r="J98" s="25">
+      <c r="J158" s="25">
         <v>10.466353270000001</v>
       </c>
-      <c r="K98" s="25">
+      <c r="K158" s="25">
         <v>10.248913780000001</v>
       </c>
-      <c r="L98" s="25">
+      <c r="L158" s="25">
         <v>3</v>
       </c>
-      <c r="M98" s="25">
+      <c r="M158" s="25">
         <v>2</v>
       </c>
-      <c r="N98" s="25">
+      <c r="N158" s="25">
         <v>1.791405567</v>
       </c>
-      <c r="O98" s="25">
+      <c r="O158" s="25">
         <v>11.1419382</v>
       </c>
-      <c r="P98" s="25">
+      <c r="P158" s="25">
         <v>10.583862140000001</v>
       </c>
-      <c r="Q98" s="25">
+      <c r="Q158" s="25">
         <v>4</v>
       </c>
-      <c r="R98" s="25">
+      <c r="R158" s="25">
         <v>2</v>
       </c>
-      <c r="S98" s="25">
+      <c r="S158" s="25">
         <v>1.6692033900000001</v>
       </c>
-      <c r="T98" s="25">
+      <c r="T158" s="25">
         <v>11.08524332</v>
       </c>
-      <c r="U98" s="25">
+      <c r="U158" s="25">
         <v>10.360162170000001</v>
       </c>
     </row>
-    <row r="99" spans="2:27" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B99" s="25">
+    <row r="159" spans="2:21" s="25" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B159" s="25">
         <v>1</v>
       </c>
-      <c r="C99" s="25">
+      <c r="C159" s="25">
         <v>2</v>
       </c>
-      <c r="D99" s="25">
+      <c r="D159" s="25">
         <v>1.8857474729999999</v>
       </c>
-      <c r="E99" s="25">
+      <c r="E159" s="25">
         <v>11.49310616</v>
       </c>
-      <c r="F99" s="25">
+      <c r="F159" s="25">
         <v>11.812987659999999</v>
       </c>
-      <c r="G99" s="25">
+      <c r="G159" s="25">
         <v>2</v>
       </c>
-      <c r="H99" s="25">
+      <c r="H159" s="25">
         <v>2</v>
       </c>
-      <c r="I99" s="25">
+      <c r="I159" s="25">
         <v>1.582638532</v>
       </c>
-      <c r="J99" s="25">
+      <c r="J159" s="25">
         <v>10.4607989</v>
       </c>
-      <c r="K99" s="25">
+      <c r="K159" s="25">
         <v>10.339188050000001</v>
       </c>
-      <c r="L99" s="25">
+      <c r="L159" s="25">
         <v>3</v>
       </c>
-      <c r="M99" s="25">
+      <c r="M159" s="25">
         <v>2</v>
       </c>
-      <c r="N99" s="25">
+      <c r="N159" s="25">
         <v>1.791405567</v>
       </c>
-      <c r="O99" s="25">
+      <c r="O159" s="25">
         <v>11.291321050000001</v>
       </c>
-      <c r="P99" s="25">
+      <c r="P159" s="25">
         <v>10.89643323</v>
       </c>
-      <c r="Q99" s="25">
+      <c r="Q159" s="25">
         <v>4</v>
       </c>
-      <c r="R99" s="25">
+      <c r="R159" s="25">
         <v>2</v>
       </c>
-      <c r="S99" s="25">
+      <c r="S159" s="25">
         <v>1.6692033900000001</v>
       </c>
-      <c r="T99" s="25">
+      <c r="T159" s="25">
         <v>10.78809822</v>
       </c>
-      <c r="U99" s="25">
+      <c r="U159" s="25">
         <v>10.44195406</v>
       </c>
     </row>
-    <row r="100" spans="2:27" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B100" s="25">
+    <row r="160" spans="2:21" s="25" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B160" s="25">
         <v>1</v>
       </c>
-      <c r="C100" s="25">
+      <c r="C160" s="25">
         <v>1</v>
       </c>
-      <c r="D100" s="25">
+      <c r="D160" s="25">
         <v>1.711534415</v>
       </c>
-      <c r="E100" s="25">
+      <c r="E160" s="25">
         <v>11.77550426</v>
       </c>
-      <c r="F100" s="25">
+      <c r="F160" s="25">
         <v>11.760609199999999</v>
       </c>
-      <c r="G100" s="25">
+      <c r="G160" s="25">
         <v>2</v>
       </c>
-      <c r="H100" s="25">
+      <c r="H160" s="25">
         <v>1</v>
       </c>
-      <c r="I100" s="25">
+      <c r="I160" s="25">
         <v>1.5142305439999999</v>
       </c>
-      <c r="J100" s="26">
+      <c r="J160" s="26">
         <v>10.104439449999999</v>
       </c>
-      <c r="K100" s="26">
+      <c r="K160" s="26">
         <v>10.07576607</v>
       </c>
-      <c r="L100" s="25">
+      <c r="L160" s="25">
         <v>3</v>
       </c>
-      <c r="M100" s="25">
+      <c r="M160" s="25">
         <v>1</v>
       </c>
-      <c r="N100" s="25">
+      <c r="N160" s="25">
         <v>1.578711121</v>
       </c>
-      <c r="O100" s="25">
+      <c r="O160" s="25">
         <v>11.25170795</v>
       </c>
-      <c r="P100" s="25">
+      <c r="P160" s="25">
         <v>11.321315609999999</v>
       </c>
-      <c r="Q100" s="25">
+      <c r="Q160" s="25">
         <v>4</v>
       </c>
-      <c r="R100" s="25">
+      <c r="R160" s="25">
         <v>1</v>
       </c>
-      <c r="S100" s="25">
+      <c r="S160" s="25">
         <v>1.7902534109999999</v>
       </c>
-      <c r="T100" s="25">
+      <c r="T160" s="25">
         <v>10.4876483</v>
       </c>
-      <c r="U100" s="25">
+      <c r="U160" s="25">
         <v>10.774973490000001</v>
       </c>
     </row>
-    <row r="101" spans="2:27" s="25" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B101" s="25">
+    <row r="161" spans="2:27" s="25" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B161" s="25">
         <v>1</v>
       </c>
-      <c r="C101" s="25">
+      <c r="C161" s="25">
         <v>1</v>
       </c>
-      <c r="D101" s="25">
+      <c r="D161" s="25">
         <v>1.711534415</v>
       </c>
-      <c r="E101" s="25">
+      <c r="E161" s="25">
         <v>11.733416739999999</v>
       </c>
-      <c r="F101" s="25">
+      <c r="F161" s="25">
         <v>11.5305891</v>
       </c>
-      <c r="G101" s="25">
+      <c r="G161" s="25">
         <v>2</v>
       </c>
-      <c r="H101" s="25">
+      <c r="H161" s="25">
         <v>1</v>
       </c>
-      <c r="I101" s="25">
+      <c r="I161" s="25">
         <v>1.5142305439999999</v>
       </c>
-      <c r="J101" s="26">
+      <c r="J161" s="26">
         <v>10.67099247</v>
       </c>
-      <c r="K101" s="26">
+      <c r="K161" s="26">
         <v>10.806250289999999</v>
       </c>
-      <c r="L101" s="25">
+      <c r="L161" s="25">
         <v>3</v>
       </c>
-      <c r="M101" s="25">
+      <c r="M161" s="25">
         <v>1</v>
       </c>
-      <c r="N101" s="25">
+      <c r="N161" s="25">
         <v>1.578711121</v>
       </c>
-      <c r="O101" s="25">
+      <c r="O161" s="25">
         <v>11.726914519999999</v>
       </c>
-      <c r="P101" s="25">
+      <c r="P161" s="25">
         <v>11.221981599999999</v>
       </c>
-      <c r="Q101" s="25">
+      <c r="Q161" s="25">
         <v>4</v>
       </c>
-      <c r="R101" s="25">
+      <c r="R161" s="25">
         <v>1</v>
       </c>
-      <c r="S101" s="25">
+      <c r="S161" s="25">
         <v>1.7902534109999999</v>
       </c>
-      <c r="T101" s="25">
+      <c r="T161" s="25">
         <v>10.66818662</v>
       </c>
-      <c r="U101" s="25">
+      <c r="U161" s="25">
         <v>11.20134861</v>
       </c>
     </row>
-    <row r="103" spans="2:27" ht="15.75" customHeight="1">
-      <c r="C103" t="s">
+    <row r="163" spans="2:27" ht="15.75" customHeight="1">
+      <c r="C163" t="s">
         <v>218</v>
       </c>
-      <c r="D103">
-        <f>AVERAGE(D97:D101)</f>
+      <c r="D163">
+        <f>AVERAGE(D157:D161)</f>
         <v>1.7891818220000002</v>
       </c>
-      <c r="E103">
-        <f>AVERAGE(E97:E101)</f>
+      <c r="E163">
+        <f>AVERAGE(E157:E161)</f>
         <v>11.983789550000001</v>
       </c>
-      <c r="F103">
-        <f>AVERAGE(F97:F101)</f>
+      <c r="F163">
+        <f>AVERAGE(F157:F161)</f>
         <v>11.858201103999999</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H163" t="s">
         <v>218</v>
       </c>
-      <c r="I103">
-        <f>AVERAGE(I97:I101)</f>
+      <c r="I163">
+        <f>AVERAGE(I157:I161)</f>
         <v>1.5618244146</v>
       </c>
-      <c r="J103">
-        <f>AVERAGE(J97:J101)</f>
+      <c r="J163">
+        <f>AVERAGE(J157:J161)</f>
         <v>10.541707458000001</v>
       </c>
-      <c r="K103">
-        <f>AVERAGE(K97:K101)</f>
+      <c r="K163">
+        <f>AVERAGE(K157:K161)</f>
         <v>10.411682686000002</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M163" t="s">
         <v>218</v>
       </c>
-      <c r="N103">
-        <f>AVERAGE(N97:N101)</f>
+      <c r="N163">
+        <f>AVERAGE(N157:N161)</f>
         <v>1.729085443</v>
       </c>
-      <c r="O103">
-        <f>AVERAGE(O97:O101)</f>
+      <c r="O163">
+        <f>AVERAGE(O157:O161)</f>
         <v>11.429278362000002</v>
       </c>
-      <c r="P103">
-        <f>AVERAGE(P97:P101)</f>
+      <c r="P163">
+        <f>AVERAGE(P157:P161)</f>
         <v>11.089887932</v>
       </c>
-      <c r="R103" t="s">
+      <c r="R163" t="s">
         <v>218</v>
       </c>
-      <c r="S103">
-        <f>AVERAGE(S97:S101)</f>
+      <c r="S163">
+        <f>AVERAGE(S157:S161)</f>
         <v>1.7433376245999999</v>
       </c>
-      <c r="T103">
-        <f>AVERAGE(T97:T101)</f>
+      <c r="T163">
+        <f>AVERAGE(T157:T161)</f>
         <v>10.767269150000001</v>
       </c>
-      <c r="U103">
-        <f>AVERAGE(U97:U101)</f>
+      <c r="U163">
+        <f>AVERAGE(U157:U161)</f>
         <v>10.740340560000002</v>
       </c>
     </row>
-    <row r="104" spans="2:27" ht="15.75" customHeight="1">
-      <c r="C104" t="s">
+    <row r="164" spans="2:27" ht="15.75" customHeight="1">
+      <c r="C164" t="s">
         <v>167</v>
       </c>
-      <c r="D104">
-        <f>MIN(D97:D101)</f>
+      <c r="D164">
+        <f>MIN(D157:D161)</f>
         <v>1.711534415</v>
       </c>
-      <c r="E104">
-        <f>MIN(E97:E101)</f>
+      <c r="E164">
+        <f>MIN(E157:E161)</f>
         <v>11.49310616</v>
       </c>
-      <c r="F104">
-        <f>MIN(F97:F101)</f>
+      <c r="F164">
+        <f>MIN(F157:F161)</f>
         <v>11.374466200000001</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H164" t="s">
         <v>167</v>
       </c>
-      <c r="I104">
-        <f>MIN(I97:I101)</f>
+      <c r="I164">
+        <f>MIN(I157:I161)</f>
         <v>1.5142305439999999</v>
       </c>
-      <c r="J104">
-        <f>MIN(J97:J101)</f>
+      <c r="J164">
+        <f>MIN(J157:J161)</f>
         <v>10.104439449999999</v>
       </c>
-      <c r="K104">
-        <f>MIN(K97:K101)</f>
+      <c r="K164">
+        <f>MIN(K157:K161)</f>
         <v>10.07576607</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M164" t="s">
         <v>167</v>
       </c>
-      <c r="N104">
-        <f>MIN(N97:N101)</f>
+      <c r="N164">
+        <f>MIN(N157:N161)</f>
         <v>1.578711121</v>
       </c>
-      <c r="O104">
-        <f>MIN(O97:O101)</f>
+      <c r="O164">
+        <f>MIN(O157:O161)</f>
         <v>11.1419382</v>
       </c>
-      <c r="P104">
-        <f>MIN(P97:P101)</f>
+      <c r="P164">
+        <f>MIN(P157:P161)</f>
         <v>10.583862140000001</v>
       </c>
-      <c r="R104" t="s">
+      <c r="R164" t="s">
         <v>167</v>
       </c>
-      <c r="S104">
-        <f>MIN(S97:S101)</f>
+      <c r="S164">
+        <f>MIN(S157:S161)</f>
         <v>1.6692033900000001</v>
       </c>
-      <c r="T104">
-        <f>MIN(T97:T101)</f>
+      <c r="T164">
+        <f>MIN(T157:T161)</f>
         <v>10.4876483</v>
       </c>
-      <c r="U104">
-        <f>MIN(U97:U101)</f>
+      <c r="U164">
+        <f>MIN(U157:U161)</f>
         <v>10.360162170000001</v>
       </c>
     </row>
-    <row r="105" spans="2:27" ht="15.75" customHeight="1">
-      <c r="C105" t="s">
+    <row r="165" spans="2:27" ht="15.75" customHeight="1">
+      <c r="C165" t="s">
         <v>166</v>
       </c>
-      <c r="D105">
-        <f>MAX(D97:D101)</f>
+      <c r="D165">
+        <f>MAX(D157:D161)</f>
         <v>1.8857474729999999</v>
       </c>
-      <c r="E105">
-        <f>MAX(E97:E101)</f>
+      <c r="E165">
+        <f>MAX(E157:E161)</f>
         <v>13.027399920000001</v>
       </c>
-      <c r="F105">
-        <f>MAX(F97:F101)</f>
+      <c r="F165">
+        <f>MAX(F157:F161)</f>
         <v>12.812353359999999</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H165" t="s">
         <v>166</v>
       </c>
-      <c r="I105">
-        <f>MAX(I97:I101)</f>
+      <c r="I165">
+        <f>MAX(I157:I161)</f>
         <v>1.6153839210000001</v>
       </c>
-      <c r="J105">
-        <f>MAX(J97:J101)</f>
+      <c r="J165">
+        <f>MAX(J157:J161)</f>
         <v>11.0059532</v>
       </c>
-      <c r="K105">
-        <f>MAX(K97:K101)</f>
+      <c r="K165">
+        <f>MAX(K157:K161)</f>
         <v>10.806250289999999</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M165" t="s">
         <v>166</v>
       </c>
-      <c r="N105">
-        <f>MAX(N97:N101)</f>
+      <c r="N165">
+        <f>MAX(N157:N161)</f>
         <v>1.9051938390000001</v>
       </c>
-      <c r="O105">
-        <f>MAX(O97:O101)</f>
+      <c r="O165">
+        <f>MAX(O157:O161)</f>
         <v>11.734510090000001</v>
       </c>
-      <c r="P105">
-        <f>MAX(P97:P101)</f>
+      <c r="P165">
+        <f>MAX(P157:P161)</f>
         <v>11.42584708</v>
       </c>
-      <c r="R105" t="s">
+      <c r="R165" t="s">
         <v>166</v>
       </c>
-      <c r="S105">
-        <f>MAX(S97:S101)</f>
+      <c r="S165">
+        <f>MAX(S157:S161)</f>
         <v>1.797774521</v>
       </c>
-      <c r="T105">
-        <f>MAX(T97:T101)</f>
+      <c r="T165">
+        <f>MAX(T157:T161)</f>
         <v>11.08524332</v>
       </c>
-      <c r="U105">
-        <f>MAX(U97:U101)</f>
+      <c r="U165">
+        <f>MAX(U157:U161)</f>
         <v>11.20134861</v>
       </c>
     </row>
-    <row r="106" spans="2:27" ht="15.75" customHeight="1">
-      <c r="C106" t="s">
+    <row r="166" spans="2:27" ht="15.75" customHeight="1">
+      <c r="C166" t="s">
         <v>219</v>
       </c>
-      <c r="D106">
-        <f>D105-D104</f>
+      <c r="D166">
+        <f>D165-D164</f>
         <v>0.17421305799999987</v>
       </c>
-      <c r="E106">
-        <f>E105-E104</f>
+      <c r="E166">
+        <f>E165-E164</f>
         <v>1.5342937600000006</v>
       </c>
-      <c r="F106">
-        <f>F105-F104</f>
+      <c r="F166">
+        <f>F165-F164</f>
         <v>1.4378871599999989</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H166" t="s">
         <v>219</v>
       </c>
-      <c r="I106">
-        <f>I105-I104</f>
+      <c r="I166">
+        <f>I165-I164</f>
         <v>0.10115337700000016</v>
       </c>
-      <c r="J106">
-        <f>J105-J104</f>
+      <c r="J166">
+        <f>J165-J164</f>
         <v>0.90151375000000122</v>
       </c>
-      <c r="K106">
-        <f>K105-K104</f>
+      <c r="K166">
+        <f>K165-K164</f>
         <v>0.73048421999999924</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M166" t="s">
         <v>219</v>
       </c>
-      <c r="N106">
-        <f>N105-N104</f>
+      <c r="N166">
+        <f>N165-N164</f>
         <v>0.32648271800000006</v>
       </c>
-      <c r="O106">
-        <f>O105-O104</f>
+      <c r="O166">
+        <f>O165-O164</f>
         <v>0.59257189000000032</v>
       </c>
-      <c r="P106">
-        <f>P105-P104</f>
+      <c r="P166">
+        <f>P165-P164</f>
         <v>0.84198493999999968</v>
       </c>
-      <c r="R106" t="s">
+      <c r="R166" t="s">
         <v>219</v>
       </c>
-      <c r="S106">
-        <f>S105-S104</f>
+      <c r="S166">
+        <f>S165-S164</f>
         <v>0.12857113099999995</v>
       </c>
-      <c r="T106">
-        <f>T105-T104</f>
+      <c r="T166">
+        <f>T165-T164</f>
         <v>0.59759501999999998</v>
       </c>
-      <c r="U106">
-        <f>U105-U104</f>
+      <c r="U166">
+        <f>U165-U164</f>
         <v>0.84118643999999954</v>
       </c>
     </row>
-    <row r="107" spans="2:27" ht="15.75" customHeight="1">
-      <c r="C107" s="3" t="s">
+    <row r="167" spans="2:27" ht="15.75" customHeight="1">
+      <c r="C167" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D107">
-        <f t="shared" ref="D107:U107" si="13">_xlfn.STDEV.P(D97:D101)</f>
+      <c r="D167">
+        <f t="shared" ref="D167:U167" si="48">_xlfn.STDEV.P(D157:D161)</f>
         <v>8.01744215544197E-2</v>
       </c>
-      <c r="E107">
-        <f t="shared" si="13"/>
+      <c r="E167">
+        <f t="shared" si="48"/>
         <v>0.53755906119189645</v>
       </c>
-      <c r="F107">
-        <f t="shared" si="13"/>
+      <c r="F167">
+        <f t="shared" si="48"/>
         <v>0.50265376660030303</v>
       </c>
-      <c r="G107">
-        <f t="shared" si="13"/>
+      <c r="G167">
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="H107">
-        <f t="shared" si="13"/>
+      <c r="H167">
+        <f t="shared" si="48"/>
         <v>0.74833147735478833</v>
       </c>
-      <c r="I107">
-        <f t="shared" si="13"/>
+      <c r="I167">
+        <f t="shared" si="48"/>
         <v>4.0658157187636344E-2</v>
       </c>
-      <c r="J107">
-        <f t="shared" si="13"/>
+      <c r="J167">
+        <f t="shared" si="48"/>
         <v>0.29518349632729751</v>
       </c>
-      <c r="K107">
-        <f t="shared" si="13"/>
+      <c r="K167">
+        <f t="shared" si="48"/>
         <v>0.25747417356729352</v>
       </c>
-      <c r="L107">
-        <f t="shared" si="13"/>
+      <c r="L167">
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="M107">
-        <f t="shared" si="13"/>
+      <c r="M167">
+        <f t="shared" si="48"/>
         <v>0.74833147735478833</v>
       </c>
-      <c r="N107">
-        <f t="shared" si="13"/>
+      <c r="N167">
+        <f t="shared" si="48"/>
         <v>0.12961993387312226</v>
       </c>
-      <c r="O107">
-        <f t="shared" si="13"/>
+      <c r="O167">
+        <f t="shared" si="48"/>
         <v>0.25095080401431985</v>
       </c>
-      <c r="P107">
-        <f t="shared" si="13"/>
+      <c r="P167">
+        <f t="shared" si="48"/>
         <v>0.3089863687252844</v>
       </c>
-      <c r="Q107">
-        <f t="shared" si="13"/>
+      <c r="Q167">
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R107">
-        <f t="shared" si="13"/>
+      <c r="R167">
+        <f t="shared" si="48"/>
         <v>0.74833147735478833</v>
       </c>
-      <c r="S107">
-        <f t="shared" si="13"/>
+      <c r="S167">
+        <f t="shared" si="48"/>
         <v>6.0592618686075655E-2</v>
       </c>
-      <c r="T107">
-        <f t="shared" si="13"/>
+      <c r="T167">
+        <f t="shared" si="48"/>
         <v>0.19551910987021023</v>
       </c>
-      <c r="U107">
-        <f t="shared" si="13"/>
+      <c r="U167">
+        <f t="shared" si="48"/>
         <v>0.31008357920409679</v>
       </c>
     </row>
-    <row r="109" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B109" s="24" t="s">
+    <row r="169" spans="2:27" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B169" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C169" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D169" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E109" s="24" t="s">
+      <c r="E169" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="AA109" s="27"/>
-    </row>
-    <row r="110" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B110">
+      <c r="AA169" s="27"/>
+    </row>
+    <row r="170" spans="2:27" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B170">
         <v>1</v>
       </c>
-      <c r="C110">
-        <f>D106</f>
+      <c r="C170">
+        <f>D166</f>
         <v>0.17421305799999987</v>
       </c>
-      <c r="D110">
-        <f>E106</f>
+      <c r="D170">
+        <f>E166</f>
         <v>1.5342937600000006</v>
       </c>
-      <c r="E110">
-        <f>F106</f>
+      <c r="E170">
+        <f>F166</f>
         <v>1.4378871599999989</v>
       </c>
-      <c r="AA110" s="27"/>
-    </row>
-    <row r="111" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B111">
+      <c r="AA170" s="27"/>
+    </row>
+    <row r="171" spans="2:27" ht="15.75" customHeight="1">
+      <c r="B171">
         <v>2</v>
       </c>
-      <c r="C111" s="2">
-        <f>I106</f>
+      <c r="C171" s="2">
+        <f>I166</f>
         <v>0.10115337700000016</v>
       </c>
-      <c r="D111" s="2">
-        <f>J106</f>
+      <c r="D171" s="2">
+        <f>J166</f>
         <v>0.90151375000000122</v>
       </c>
-      <c r="E111" s="2">
-        <f>K106</f>
+      <c r="E171" s="2">
+        <f>K166</f>
         <v>0.73048421999999924</v>
       </c>
     </row>
-    <row r="112" spans="2:27" ht="15.75" customHeight="1">
-      <c r="B112">
+    <row r="172" spans="2:27" ht="15.75" customHeight="1">
+      <c r="B172">
         <v>3</v>
       </c>
-      <c r="C112">
-        <f>N106</f>
+      <c r="C172">
+        <f>N166</f>
         <v>0.32648271800000006</v>
       </c>
-      <c r="D112" s="2">
-        <f>O106</f>
+      <c r="D172" s="2">
+        <f>O166</f>
         <v>0.59257189000000032</v>
       </c>
-      <c r="E112" s="2">
-        <f>P106</f>
+      <c r="E172" s="2">
+        <f>P166</f>
         <v>0.84198493999999968</v>
       </c>
     </row>
-    <row r="113" spans="2:22" ht="15.75" customHeight="1">
-      <c r="B113">
+    <row r="173" spans="2:27" ht="15.75" customHeight="1">
+      <c r="B173">
         <v>4</v>
       </c>
-      <c r="C113">
-        <f>S106</f>
+      <c r="C173">
+        <f>S166</f>
         <v>0.12857113099999995</v>
       </c>
-      <c r="D113" s="2">
-        <f>T106</f>
+      <c r="D173" s="2">
+        <f>T166</f>
         <v>0.59759501999999998</v>
       </c>
-      <c r="E113" s="2">
-        <f>U106</f>
+      <c r="E173" s="2">
+        <f>U166</f>
         <v>0.84118643999999954</v>
       </c>
-      <c r="L113" s="28" t="s">
+      <c r="L173" s="28" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="2:22" ht="15.75" customHeight="1">
-      <c r="K114" t="s">
+    <row r="174" spans="2:27" ht="15.75" customHeight="1">
+      <c r="K174" t="s">
         <v>200</v>
       </c>
-      <c r="L114" t="s">
+      <c r="L174" t="s">
         <v>225</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M174" t="s">
         <v>226</v>
       </c>
-      <c r="N114" t="s">
+      <c r="N174" t="s">
         <v>227</v>
       </c>
-      <c r="O114" t="s">
+      <c r="O174" t="s">
         <v>390</v>
       </c>
-      <c r="P114" t="s">
+      <c r="P174" t="s">
         <v>389</v>
       </c>
-      <c r="Q114" t="s">
+      <c r="Q174" t="s">
         <v>391</v>
       </c>
-      <c r="R114" t="s">
+      <c r="R174" t="s">
         <v>228</v>
       </c>
-      <c r="S114" t="s">
+      <c r="S174" t="s">
         <v>229</v>
       </c>
-      <c r="T114" t="s">
+      <c r="T174" t="s">
         <v>230</v>
       </c>
-      <c r="U114" t="s">
+      <c r="U174" t="s">
         <v>231</v>
       </c>
-      <c r="V114" t="s">
+      <c r="V174" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="115" spans="2:22" ht="15.75" customHeight="1">
-      <c r="K115">
+    <row r="175" spans="2:27" ht="15.75" customHeight="1">
+      <c r="K175">
         <v>1</v>
       </c>
-      <c r="L115">
-        <f>AVERAGE(E100:E101)</f>
+      <c r="L175">
+        <f>AVERAGE(E160:E161)</f>
         <v>11.7544605</v>
       </c>
-      <c r="M115">
-        <f>AVERAGE(E98:E99)</f>
+      <c r="M175">
+        <f>AVERAGE(E158:E159)</f>
         <v>11.691313415</v>
       </c>
-      <c r="N115">
-        <f>E97</f>
+      <c r="N175">
+        <f>E157</f>
         <v>13.027399920000001</v>
       </c>
-      <c r="O115">
-        <f t="shared" ref="O115:Q118" si="14">(S115-L115)/L115*100</f>
+      <c r="O175">
+        <f t="shared" ref="O175:Q178" si="49">(S175-L175)/L175*100</f>
         <v>-0.92612800051522159</v>
       </c>
-      <c r="P115">
-        <f t="shared" si="14"/>
+      <c r="P175">
+        <f t="shared" si="49"/>
         <v>-0.83469223290855366</v>
       </c>
-      <c r="Q115">
-        <f t="shared" si="14"/>
+      <c r="Q175">
+        <f t="shared" si="49"/>
         <v>-1.6507250972610128</v>
       </c>
-      <c r="S115">
-        <f>AVERAGE(F100:F101)</f>
+      <c r="S175">
+        <f>AVERAGE(F160:F161)</f>
         <v>11.645599149999999</v>
       </c>
-      <c r="T115">
-        <f>AVERAGE(F98:F99)</f>
+      <c r="T175">
+        <f>AVERAGE(F158:F159)</f>
         <v>11.593726929999999</v>
       </c>
-      <c r="U115">
-        <f>F97</f>
+      <c r="U175">
+        <f>F157</f>
         <v>12.812353359999999</v>
       </c>
     </row>
-    <row r="116" spans="2:22" ht="15.75" customHeight="1">
-      <c r="K116">
+    <row r="176" spans="2:27" ht="15.75" customHeight="1">
+      <c r="K176">
         <v>2</v>
       </c>
-      <c r="L116">
-        <f>AVERAGE(J100:J101)</f>
+      <c r="L176">
+        <f>AVERAGE(J160:J161)</f>
         <v>10.38771596</v>
       </c>
-      <c r="M116">
-        <f>AVERAGE(J98:J99)</f>
+      <c r="M176">
+        <f>AVERAGE(J158:J159)</f>
         <v>10.463576085</v>
       </c>
-      <c r="N116">
-        <f>J97</f>
+      <c r="N176">
+        <f>J157</f>
         <v>11.0059532</v>
       </c>
-      <c r="O116">
-        <f t="shared" si="14"/>
+      <c r="O176">
+        <f t="shared" si="49"/>
         <v>0.51303116301228957</v>
       </c>
-      <c r="P116">
-        <f t="shared" si="14"/>
+      <c r="P176">
+        <f t="shared" si="49"/>
         <v>-1.6201456234740039</v>
       </c>
-      <c r="Q116">
-        <f t="shared" si="14"/>
+      <c r="Q176">
+        <f t="shared" si="49"/>
         <v>-3.7948367797893199</v>
       </c>
-      <c r="S116">
-        <f>AVERAGE(K100:K101)</f>
+      <c r="S176">
+        <f>AVERAGE(K160:K161)</f>
         <v>10.441008180000001</v>
       </c>
-      <c r="T116">
-        <f>AVERAGE(K98:K99)</f>
+      <c r="T176">
+        <f>AVERAGE(K158:K159)</f>
         <v>10.294050915</v>
       </c>
-      <c r="U116">
-        <f>K97</f>
+      <c r="U176">
+        <f>K157</f>
         <v>10.588295240000001</v>
       </c>
     </row>
-    <row r="117" spans="2:22" ht="15.75" customHeight="1">
-      <c r="K117">
+    <row r="177" spans="11:21" ht="15.75" customHeight="1">
+      <c r="K177">
         <v>3</v>
       </c>
-      <c r="L117">
-        <f>AVERAGE(O100:O101)</f>
+      <c r="L177">
+        <f>AVERAGE(O160:O161)</f>
         <v>11.489311234999999</v>
       </c>
-      <c r="M117">
-        <f>AVERAGE(O98:O99)</f>
+      <c r="M177">
+        <f>AVERAGE(O158:O159)</f>
         <v>11.216629624999999</v>
       </c>
-      <c r="N117">
-        <f>O97</f>
+      <c r="N177">
+        <f>O157</f>
         <v>11.734510090000001</v>
       </c>
-      <c r="O117">
-        <f t="shared" si="14"/>
+      <c r="O177">
+        <f t="shared" si="49"/>
         <v>-1.8944793604070171</v>
       </c>
-      <c r="P117">
-        <f t="shared" si="14"/>
+      <c r="P177">
+        <f t="shared" si="49"/>
         <v>-4.2479956629574396</v>
       </c>
-      <c r="Q117">
-        <f t="shared" si="14"/>
+      <c r="Q177">
+        <f t="shared" si="49"/>
         <v>-2.6303868472791101</v>
       </c>
-      <c r="S117">
-        <f>AVERAGE(P100:P101)</f>
+      <c r="S177">
+        <f>AVERAGE(P160:P161)</f>
         <v>11.271648604999999</v>
       </c>
-      <c r="T117">
-        <f>AVERAGE(P98:P99)</f>
+      <c r="T177">
+        <f>AVERAGE(P158:P159)</f>
         <v>10.740147685</v>
       </c>
-      <c r="U117">
-        <f>P97</f>
+      <c r="U177">
+        <f>P157</f>
         <v>11.42584708</v>
       </c>
     </row>
-    <row r="118" spans="2:22" ht="15.75" customHeight="1">
-      <c r="K118">
+    <row r="178" spans="11:21" ht="15.75" customHeight="1">
+      <c r="K178">
         <v>4</v>
       </c>
-      <c r="L118">
-        <f>AVERAGE(T100:T101)</f>
+      <c r="L178">
+        <f>AVERAGE(T160:T161)</f>
         <v>10.57791746</v>
       </c>
-      <c r="M118">
-        <f>AVERAGE(T98:T99)</f>
+      <c r="M178">
+        <f>AVERAGE(T158:T159)</f>
         <v>10.936670769999999</v>
       </c>
-      <c r="N118">
-        <f>T97</f>
+      <c r="N178">
+        <f>T157</f>
         <v>10.807169289999999</v>
       </c>
-      <c r="O118">
-        <f t="shared" si="14"/>
+      <c r="O178">
+        <f t="shared" si="49"/>
         <v>3.8783020528503944</v>
       </c>
-      <c r="P118">
-        <f t="shared" si="14"/>
+      <c r="P178">
+        <f t="shared" si="49"/>
         <v>-4.897401286589135</v>
       </c>
-      <c r="Q118">
-        <f t="shared" si="14"/>
+      <c r="Q178">
+        <f t="shared" si="49"/>
         <v>1.07424226348915</v>
       </c>
-      <c r="S118">
-        <f>AVERAGE(U100:U101)</f>
+      <c r="S178">
+        <f>AVERAGE(U160:U161)</f>
         <v>10.98816105</v>
       </c>
-      <c r="T118">
-        <f>AVERAGE(U98:U99)</f>
+      <c r="T178">
+        <f>AVERAGE(U158:U159)</f>
         <v>10.401058115000001</v>
       </c>
-      <c r="U118">
-        <f>U97</f>
+      <c r="U178">
+        <f>U157</f>
         <v>10.923264469999999</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C93:E98">
+    <sortCondition descending="1" ref="C93:C98"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="G3:J3"/>
   </mergeCells>
@@ -16613,36 +21613,36 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="56" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
       <c r="O10" s="1" t="s">
         <v>248</v>
       </c>
@@ -17318,36 +22318,36 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="56" t="s">
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="60"/>
       <c r="O32" s="1" t="s">
         <v>248</v>
       </c>

--- a/metabolicsData_revised.xlsx
+++ b/metabolicsData_revised.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Exotendon\muscleModel\muscleEnergyModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75AF34B-5416-4C91-9CF8-2D4E3F40293C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA15B8BD-0DB3-43FB-85CA-8F3A27697177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="2850" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="key" sheetId="1" r:id="rId1"/>
@@ -1578,13 +1578,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
@@ -1600,6 +1593,13 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -4061,7 +4061,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>welk!$F$80:$F$86</c15:sqref>
@@ -4097,7 +4097,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(welk!$G$80:$G$81,welk!$G$83:$G$86)</c15:sqref>
@@ -4129,7 +4129,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-98BF-4EB3-A49E-C1BE0001ED01}"/>
                   </c:ext>
@@ -4173,7 +4173,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>welk!$J$80:$J$86</c15:sqref>
@@ -4209,7 +4209,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>welk!$K$80:$K$86</c15:sqref>
@@ -4244,7 +4244,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-98BF-4EB3-A49E-C1BE0001ED01}"/>
                   </c:ext>
@@ -4288,7 +4288,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>welk!$N$80:$N$86</c15:sqref>
@@ -4324,7 +4324,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>welk!$O$80:$O$86</c15:sqref>
@@ -4359,7 +4359,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-98BF-4EB3-A49E-C1BE0001ED01}"/>
                   </c:ext>
@@ -4403,7 +4403,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(welk!$R$80:$R$81,welk!$R$83:$R$86)</c15:sqref>
@@ -4436,7 +4436,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>(welk!$S$80:$S$81,welk!$S$83:$S$86)</c15:sqref>
@@ -4465,7 +4465,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-98BF-4EB3-A49E-C1BE0001ED01}"/>
                   </c:ext>
@@ -4508,7 +4508,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>welk!$V$80:$V$86</c15:sqref>
@@ -4544,7 +4544,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>welk!$W$80:$W$86</c15:sqref>
@@ -4579,7 +4579,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-98BF-4EB3-A49E-C1BE0001ED01}"/>
                   </c:ext>
@@ -6421,12 +6421,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -14963,12 +14963,12 @@
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
       <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
@@ -15858,13 +15858,13 @@
       <c r="B34" s="2">
         <v>3</v>
       </c>
-      <c r="C34" s="64">
+      <c r="C34" s="61">
         <v>1.66</v>
       </c>
-      <c r="D34" s="65">
+      <c r="D34" s="62">
         <v>11.201986789085272</v>
       </c>
-      <c r="E34" s="66">
+      <c r="E34" s="63">
         <v>11.041795858476521</v>
       </c>
       <c r="F34" s="21"/>
@@ -15893,13 +15893,13 @@
       <c r="B35" s="2">
         <v>3</v>
       </c>
-      <c r="C35" s="61">
+      <c r="C35" s="58">
         <v>1.8944286798988959</v>
       </c>
-      <c r="D35" s="62">
+      <c r="D35" s="59">
         <v>12.182023954445322</v>
       </c>
-      <c r="E35" s="63">
+      <c r="E35" s="60">
         <v>11.250131230637555</v>
       </c>
       <c r="F35" s="21"/>
@@ -15928,13 +15928,13 @@
       <c r="B36" s="2">
         <v>3</v>
       </c>
-      <c r="C36" s="69">
+      <c r="C36" s="66">
         <v>1.539131046333339</v>
       </c>
-      <c r="D36" s="67">
+      <c r="D36" s="64">
         <v>12.648756910354251</v>
       </c>
-      <c r="E36" s="68">
+      <c r="E36" s="65">
         <v>11.355068779031235</v>
       </c>
       <c r="F36" s="21"/>
@@ -15963,13 +15963,13 @@
       <c r="B37" s="2">
         <v>3</v>
       </c>
-      <c r="C37" s="70">
+      <c r="C37" s="67">
         <v>1.6374369228592083</v>
       </c>
-      <c r="D37" s="71">
+      <c r="D37" s="68">
         <v>13.934491816530082</v>
       </c>
-      <c r="E37" s="72">
+      <c r="E37" s="69">
         <v>12.89071866186006</v>
       </c>
       <c r="F37" s="21"/>
@@ -17272,908 +17272,908 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:25" s="73" customFormat="1" ht="15">
-      <c r="C74" s="74" t="s">
+    <row r="74" spans="1:25" s="70" customFormat="1" ht="15">
+      <c r="C74" s="71" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="1:25" s="73" customFormat="1" ht="15">
-      <c r="A75" s="74" t="s">
+    <row r="75" spans="1:25" s="70" customFormat="1" ht="15">
+      <c r="A75" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="B75" s="74" t="s">
+      <c r="B75" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="C75" s="74" t="s">
+      <c r="C75" s="71" t="s">
         <v>398</v>
       </c>
-      <c r="D75" s="74" t="s">
+      <c r="D75" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="E75" s="74" t="s">
+      <c r="E75" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="F75" s="74" t="s">
+      <c r="F75" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="G75" s="74" t="s">
+      <c r="G75" s="71" t="s">
         <v>398</v>
       </c>
-      <c r="H75" s="74" t="s">
+      <c r="H75" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="I75" s="74" t="s">
+      <c r="I75" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="J75" s="74" t="s">
+      <c r="J75" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="K75" s="74" t="s">
+      <c r="K75" s="71" t="s">
         <v>398</v>
       </c>
-      <c r="L75" s="74" t="s">
+      <c r="L75" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="M75" s="74" t="s">
+      <c r="M75" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="N75" s="74" t="s">
+      <c r="N75" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="O75" s="74" t="s">
+      <c r="O75" s="71" t="s">
         <v>398</v>
       </c>
-      <c r="P75" s="74" t="s">
+      <c r="P75" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="Q75" s="74" t="s">
+      <c r="Q75" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="R75" s="74" t="s">
+      <c r="R75" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="S75" s="74" t="s">
+      <c r="S75" s="71" t="s">
         <v>398</v>
       </c>
-      <c r="T75" s="74" t="s">
+      <c r="T75" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="U75" s="74" t="s">
+      <c r="U75" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="V75" s="74" t="s">
+      <c r="V75" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="W75" s="74" t="s">
+      <c r="W75" s="71" t="s">
         <v>398</v>
       </c>
-      <c r="X75" s="74" t="s">
+      <c r="X75" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="Y75" s="74" t="s">
+      <c r="Y75" s="71" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="1:25" s="73" customFormat="1" ht="15">
-      <c r="A76" s="74">
+    <row r="76" spans="1:25" s="70" customFormat="1" ht="15">
+      <c r="A76" s="71">
         <v>1</v>
       </c>
-      <c r="B76" s="74">
+      <c r="B76" s="71">
         <v>3.2</v>
       </c>
-      <c r="C76" s="74"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="74">
+      <c r="C76" s="71"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71">
         <v>2.8</v>
       </c>
-      <c r="G76" s="74"/>
-      <c r="H76" s="74"/>
-      <c r="I76" s="74"/>
-      <c r="J76" s="74">
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="71"/>
+      <c r="J76" s="71">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K76" s="74"/>
-      <c r="L76" s="74"/>
-      <c r="M76" s="74"/>
-      <c r="N76" s="74">
+      <c r="K76" s="71"/>
+      <c r="L76" s="71"/>
+      <c r="M76" s="71"/>
+      <c r="N76" s="71">
         <v>1.8</v>
       </c>
-      <c r="O76" s="74"/>
-      <c r="P76" s="74"/>
-      <c r="Q76" s="74"/>
-      <c r="R76" s="74">
+      <c r="O76" s="71"/>
+      <c r="P76" s="71"/>
+      <c r="Q76" s="71"/>
+      <c r="R76" s="71">
         <v>1.2</v>
       </c>
-      <c r="S76" s="74"/>
-      <c r="T76" s="74"/>
-      <c r="U76" s="74"/>
-      <c r="V76" s="74">
+      <c r="S76" s="71"/>
+      <c r="T76" s="71"/>
+      <c r="U76" s="71"/>
+      <c r="V76" s="71">
         <v>0.8</v>
       </c>
-      <c r="W76" s="74"/>
-      <c r="X76" s="74"/>
-      <c r="Y76" s="74"/>
-    </row>
-    <row r="77" spans="1:25" s="73" customFormat="1" ht="15">
-      <c r="A77" s="74">
+      <c r="W76" s="71"/>
+      <c r="X76" s="71"/>
+      <c r="Y76" s="71"/>
+    </row>
+    <row r="77" spans="1:25" s="70" customFormat="1" ht="15">
+      <c r="A77" s="71">
         <v>2</v>
       </c>
-      <c r="B77" s="74">
+      <c r="B77" s="71">
         <v>3.2</v>
       </c>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74">
+      <c r="C77" s="71"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="71">
         <v>2.8</v>
       </c>
-      <c r="G77" s="74"/>
-      <c r="H77" s="74"/>
-      <c r="I77" s="74"/>
-      <c r="J77" s="74">
+      <c r="G77" s="71"/>
+      <c r="H77" s="71"/>
+      <c r="I77" s="71"/>
+      <c r="J77" s="71">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K77" s="74"/>
-      <c r="L77" s="74"/>
-      <c r="M77" s="74"/>
-      <c r="N77" s="74">
+      <c r="K77" s="71"/>
+      <c r="L77" s="71"/>
+      <c r="M77" s="71"/>
+      <c r="N77" s="71">
         <v>1.8</v>
       </c>
-      <c r="O77" s="74"/>
-      <c r="P77" s="74"/>
-      <c r="Q77" s="74"/>
-      <c r="R77" s="74">
+      <c r="O77" s="71"/>
+      <c r="P77" s="71"/>
+      <c r="Q77" s="71"/>
+      <c r="R77" s="71">
         <v>1.2</v>
       </c>
-      <c r="S77" s="74"/>
-      <c r="T77" s="74"/>
-      <c r="U77" s="74"/>
-      <c r="V77" s="74">
+      <c r="S77" s="71"/>
+      <c r="T77" s="71"/>
+      <c r="U77" s="71"/>
+      <c r="V77" s="71">
         <v>0.8</v>
       </c>
-      <c r="W77" s="74"/>
-      <c r="X77" s="74"/>
-      <c r="Y77" s="74"/>
-    </row>
-    <row r="78" spans="1:25" s="73" customFormat="1" ht="15">
-      <c r="A78" s="74">
+      <c r="W77" s="71"/>
+      <c r="X77" s="71"/>
+      <c r="Y77" s="71"/>
+    </row>
+    <row r="78" spans="1:25" s="70" customFormat="1" ht="15">
+      <c r="A78" s="71">
         <v>3</v>
       </c>
-      <c r="B78" s="74">
+      <c r="B78" s="71">
         <v>3.2</v>
       </c>
-      <c r="C78" s="74"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
-      <c r="F78" s="74">
+      <c r="C78" s="71"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71">
         <v>2.8</v>
       </c>
-      <c r="G78" s="74"/>
-      <c r="H78" s="74"/>
-      <c r="I78" s="74"/>
-      <c r="J78" s="74">
+      <c r="G78" s="71"/>
+      <c r="H78" s="71"/>
+      <c r="I78" s="71"/>
+      <c r="J78" s="71">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K78" s="74"/>
-      <c r="L78" s="74"/>
-      <c r="M78" s="74"/>
-      <c r="N78" s="74">
+      <c r="K78" s="71"/>
+      <c r="L78" s="71"/>
+      <c r="M78" s="71"/>
+      <c r="N78" s="71">
         <v>1.8</v>
       </c>
-      <c r="O78" s="74"/>
-      <c r="P78" s="74"/>
-      <c r="Q78" s="74"/>
-      <c r="R78" s="74">
+      <c r="O78" s="71"/>
+      <c r="P78" s="71"/>
+      <c r="Q78" s="71"/>
+      <c r="R78" s="71">
         <v>1.2</v>
       </c>
-      <c r="S78" s="74"/>
-      <c r="T78" s="74"/>
-      <c r="U78" s="74"/>
-      <c r="V78" s="74">
+      <c r="S78" s="71"/>
+      <c r="T78" s="71"/>
+      <c r="U78" s="71"/>
+      <c r="V78" s="71">
         <v>0.8</v>
       </c>
-      <c r="W78" s="74"/>
-      <c r="X78" s="74"/>
-      <c r="Y78" s="74"/>
-    </row>
-    <row r="79" spans="1:25" s="73" customFormat="1" ht="15">
-      <c r="A79" s="74">
+      <c r="W78" s="71"/>
+      <c r="X78" s="71"/>
+      <c r="Y78" s="71"/>
+    </row>
+    <row r="79" spans="1:25" s="70" customFormat="1" ht="15">
+      <c r="A79" s="71">
         <v>4</v>
       </c>
-      <c r="B79" s="74">
+      <c r="B79" s="71">
         <v>3.2</v>
       </c>
-      <c r="C79" s="74"/>
-      <c r="E79" s="74"/>
-      <c r="F79" s="74">
+      <c r="C79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71">
         <v>2.8</v>
       </c>
-      <c r="G79" s="74"/>
-      <c r="H79" s="74"/>
-      <c r="I79" s="74"/>
-      <c r="J79" s="74">
+      <c r="G79" s="71"/>
+      <c r="H79" s="71"/>
+      <c r="I79" s="71"/>
+      <c r="J79" s="71">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K79" s="74"/>
-      <c r="L79" s="74"/>
-      <c r="M79" s="74"/>
-      <c r="N79" s="74">
+      <c r="K79" s="71"/>
+      <c r="L79" s="71"/>
+      <c r="M79" s="71"/>
+      <c r="N79" s="71">
         <v>1.8</v>
       </c>
-      <c r="O79" s="74"/>
-      <c r="P79" s="74"/>
-      <c r="Q79" s="74"/>
-      <c r="R79" s="74">
+      <c r="O79" s="71"/>
+      <c r="P79" s="71"/>
+      <c r="Q79" s="71"/>
+      <c r="R79" s="71">
         <v>1.2</v>
       </c>
-      <c r="S79" s="74"/>
-      <c r="T79" s="74"/>
-      <c r="U79" s="74"/>
-      <c r="V79" s="74">
+      <c r="S79" s="71"/>
+      <c r="T79" s="71"/>
+      <c r="U79" s="71"/>
+      <c r="V79" s="71">
         <v>0.8</v>
       </c>
-      <c r="W79" s="74"/>
-      <c r="X79" s="74"/>
-      <c r="Y79" s="74"/>
-    </row>
-    <row r="80" spans="1:25" s="73" customFormat="1" ht="15">
-      <c r="A80" s="74">
+      <c r="W79" s="71"/>
+      <c r="X79" s="71"/>
+      <c r="Y79" s="71"/>
+    </row>
+    <row r="80" spans="1:25" s="70" customFormat="1" ht="15">
+      <c r="A80" s="71">
         <v>5</v>
       </c>
-      <c r="B80" s="74">
+      <c r="B80" s="71">
         <v>3.2</v>
       </c>
-      <c r="C80" s="74">
+      <c r="C80" s="71">
         <f>(E80-D80)/D80*100</f>
         <v>-13.674272545382285</v>
       </c>
-      <c r="D80" s="74">
+      <c r="D80" s="71">
         <v>10.921895047735227</v>
       </c>
-      <c r="E80" s="74">
+      <c r="E80" s="71">
         <v>9.4284053517873012</v>
       </c>
-      <c r="F80" s="74">
+      <c r="F80" s="71">
         <v>2.8</v>
       </c>
-      <c r="G80" s="74">
+      <c r="G80" s="71">
         <f>(I80-H80)/H80*100</f>
         <v>-7.2614440838779952</v>
       </c>
-      <c r="H80" s="74">
+      <c r="H80" s="71">
         <v>10.09385915094243</v>
       </c>
-      <c r="I80" s="74">
+      <c r="I80" s="71">
         <v>9.3608992127913435</v>
       </c>
-      <c r="J80" s="74">
+      <c r="J80" s="71">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K80" s="74">
+      <c r="K80" s="71">
         <f>(M80-L80)/L80*100</f>
         <v>-9.5834133172715994</v>
       </c>
-      <c r="L80" s="73">
+      <c r="L80" s="70">
         <v>10.213909561091103</v>
       </c>
-      <c r="M80" s="73">
+      <c r="M80" s="70">
         <v>9.2350683919994214</v>
       </c>
-      <c r="N80" s="74">
+      <c r="N80" s="71">
         <v>1.8</v>
       </c>
-      <c r="O80" s="74">
+      <c r="O80" s="71">
         <f>(Q80-P80)/P80*100</f>
         <v>-6.030400753793665</v>
       </c>
-      <c r="P80" s="73">
+      <c r="P80" s="70">
         <v>10.418783992349844</v>
       </c>
-      <c r="Q80" s="73">
+      <c r="Q80" s="70">
         <v>9.7904895639390457</v>
       </c>
-      <c r="R80" s="74">
+      <c r="R80" s="71">
         <v>1.2</v>
       </c>
-      <c r="S80" s="74">
+      <c r="S80" s="71">
         <f>(U80-T80)/T80*100</f>
         <v>-8.1288027067341631</v>
       </c>
-      <c r="T80" s="73">
+      <c r="T80" s="70">
         <v>10.127767544565057</v>
       </c>
-      <c r="U80" s="73">
+      <c r="U80" s="70">
         <v>9.3045013022707082</v>
       </c>
-      <c r="V80" s="74">
+      <c r="V80" s="71">
         <v>0.8</v>
       </c>
-      <c r="W80" s="74">
+      <c r="W80" s="71">
         <f>(Y80-X80)/X80*100</f>
         <v>-9.5422852013753356</v>
       </c>
-      <c r="X80" s="73">
+      <c r="X80" s="70">
         <v>10.540295703025768</v>
       </c>
-      <c r="Y80" s="73">
+      <c r="Y80" s="70">
         <v>9.5345106259747396</v>
       </c>
     </row>
-    <row r="81" spans="1:25" s="73" customFormat="1" ht="15">
-      <c r="A81" s="74">
+    <row r="81" spans="1:25" s="70" customFormat="1" ht="15">
+      <c r="A81" s="71">
         <v>6</v>
       </c>
-      <c r="B81" s="74">
+      <c r="B81" s="71">
         <v>3.2</v>
       </c>
-      <c r="C81" s="74">
+      <c r="C81" s="71">
         <f t="shared" ref="C81:C86" si="15">(E81-D81)/D81*100</f>
         <v>-1.9914171281253879E-2</v>
       </c>
-      <c r="D81" s="74">
+      <c r="D81" s="71">
         <v>9.4179153248333591</v>
       </c>
-      <c r="E81" s="74">
+      <c r="E81" s="71">
         <v>9.4160398250444484</v>
       </c>
-      <c r="F81" s="74">
+      <c r="F81" s="71">
         <v>2.8</v>
       </c>
-      <c r="G81" s="74">
+      <c r="G81" s="71">
         <f t="shared" ref="G81:G86" si="16">(I81-H81)/H81*100</f>
         <v>3.5672947431985103</v>
       </c>
-      <c r="H81" s="74">
+      <c r="H81" s="71">
         <v>9.1122077182525647</v>
       </c>
-      <c r="I81" s="74">
+      <c r="I81" s="71">
         <v>9.4372670251751174</v>
       </c>
-      <c r="J81" s="74">
+      <c r="J81" s="71">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K81" s="74">
+      <c r="K81" s="71">
         <f t="shared" ref="K81:K86" si="17">(M81-L81)/L81*100</f>
         <v>-2.0114327804399466</v>
       </c>
-      <c r="L81" s="74">
+      <c r="L81" s="71">
         <v>8.7244804029081333</v>
       </c>
-      <c r="M81" s="74">
+      <c r="M81" s="71">
         <v>8.54899334416098</v>
       </c>
-      <c r="N81" s="74">
+      <c r="N81" s="71">
         <v>1.8</v>
       </c>
-      <c r="O81" s="74">
+      <c r="O81" s="71">
         <f t="shared" ref="O81:O86" si="18">(Q81-P81)/P81*100</f>
         <v>-3.9102955662934562</v>
       </c>
-      <c r="P81" s="74">
+      <c r="P81" s="71">
         <v>8.9567931327367116</v>
       </c>
-      <c r="Q81" s="74">
+      <c r="Q81" s="71">
         <v>8.6065560479852312</v>
       </c>
-      <c r="R81" s="74">
+      <c r="R81" s="71">
         <v>1.2</v>
       </c>
-      <c r="S81" s="74">
+      <c r="S81" s="71">
         <f t="shared" ref="S81:S86" si="19">(U81-T81)/T81*100</f>
         <v>-3.1590795777039902</v>
       </c>
-      <c r="T81" s="74">
+      <c r="T81" s="71">
         <v>8.6439718688630656</v>
       </c>
-      <c r="U81" s="74">
+      <c r="U81" s="71">
         <v>8.3709019188513345</v>
       </c>
-      <c r="V81" s="74">
+      <c r="V81" s="71">
         <v>0.8</v>
       </c>
-      <c r="W81" s="74">
+      <c r="W81" s="71">
         <f t="shared" ref="W81:W86" si="20">(Y81-X81)/X81*100</f>
         <v>1.5029352355681951</v>
       </c>
-      <c r="X81" s="74">
+      <c r="X81" s="71">
         <v>8.214392047967273</v>
       </c>
-      <c r="Y81" s="74">
+      <c r="Y81" s="71">
         <v>8.337849040443885</v>
       </c>
     </row>
-    <row r="82" spans="1:25" s="73" customFormat="1" ht="15">
-      <c r="A82" s="74">
+    <row r="82" spans="1:25" s="70" customFormat="1" ht="15">
+      <c r="A82" s="71">
         <v>7</v>
       </c>
-      <c r="B82" s="74">
+      <c r="B82" s="71">
         <v>3.2</v>
       </c>
-      <c r="C82" s="74">
+      <c r="C82" s="71">
         <f t="shared" si="15"/>
         <v>-1.6788005910046693</v>
       </c>
-      <c r="D82" s="73">
+      <c r="D82" s="70">
         <v>9.5419867890852714</v>
       </c>
-      <c r="E82" s="73">
+      <c r="E82" s="70">
         <v>9.3817958584765204</v>
       </c>
-      <c r="F82" s="74">
+      <c r="F82" s="71">
         <v>2.8</v>
       </c>
-      <c r="G82" s="74"/>
-      <c r="H82" s="74"/>
-      <c r="I82" s="74"/>
-      <c r="J82" s="74">
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="71"/>
+      <c r="J82" s="71">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K82" s="74">
+      <c r="K82" s="71">
         <f t="shared" si="17"/>
         <v>-7.8958089704889058</v>
       </c>
-      <c r="L82" s="73">
+      <c r="L82" s="70">
         <v>9.5910975395997013</v>
       </c>
-      <c r="M82" s="73">
+      <c r="M82" s="70">
         <v>8.8338027996996473</v>
       </c>
-      <c r="N82" s="74">
+      <c r="N82" s="71">
         <v>1.8</v>
       </c>
-      <c r="O82" s="74">
+      <c r="O82" s="71">
         <f t="shared" si="18"/>
         <v>-7.1040092025718575</v>
       </c>
-      <c r="P82" s="73">
+      <c r="P82" s="70">
         <v>9.7629007472102529</v>
       </c>
-      <c r="Q82" s="73">
+      <c r="Q82" s="70">
         <v>9.0693433796904799</v>
       </c>
-      <c r="R82" s="74">
+      <c r="R82" s="71">
         <v>1.2</v>
       </c>
-      <c r="S82" s="74"/>
-      <c r="V82" s="74">
+      <c r="S82" s="71"/>
+      <c r="V82" s="71">
         <v>0.8</v>
       </c>
-      <c r="W82" s="74">
+      <c r="W82" s="71">
         <f t="shared" si="20"/>
         <v>7.9380477871064228</v>
       </c>
-      <c r="X82" s="73">
+      <c r="X82" s="70">
         <v>8.9369056748434215</v>
       </c>
-      <c r="Y82" s="73">
+      <c r="Y82" s="70">
         <v>9.6463215180011179</v>
       </c>
     </row>
-    <row r="83" spans="1:25" s="73" customFormat="1" ht="15">
-      <c r="A83" s="74">
+    <row r="83" spans="1:25" s="70" customFormat="1" ht="15">
+      <c r="A83" s="71">
         <v>8</v>
       </c>
-      <c r="B83" s="74">
+      <c r="B83" s="71">
         <v>3.2</v>
       </c>
-      <c r="C83" s="74">
+      <c r="C83" s="71">
         <f t="shared" si="15"/>
         <v>-0.87921728971654922</v>
       </c>
-      <c r="D83" s="74">
+      <c r="D83" s="71">
         <v>10.287595274546426</v>
       </c>
-      <c r="E83" s="74">
+      <c r="E83" s="71">
         <v>10.197144958196551</v>
       </c>
-      <c r="F83" s="74">
+      <c r="F83" s="71">
         <v>2.8</v>
       </c>
-      <c r="G83" s="74">
+      <c r="G83" s="71">
         <f t="shared" si="16"/>
         <v>-5.2164962586989088</v>
       </c>
-      <c r="H83" s="74">
+      <c r="H83" s="71">
         <v>9.870602142197443</v>
       </c>
-      <c r="I83" s="74">
+      <c r="I83" s="71">
         <v>9.3557025507386591</v>
       </c>
-      <c r="J83" s="74">
+      <c r="J83" s="71">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K83" s="74">
+      <c r="K83" s="71">
         <f t="shared" si="17"/>
         <v>-5.0845988957664341</v>
       </c>
-      <c r="L83" s="73">
+      <c r="L83" s="70">
         <v>10.66781943640124</v>
       </c>
-      <c r="M83" s="73">
+      <c r="M83" s="70">
         <v>10.125403607135626</v>
       </c>
-      <c r="N83" s="74">
+      <c r="N83" s="71">
         <v>1.8</v>
       </c>
-      <c r="O83" s="74">
+      <c r="O83" s="71">
         <f t="shared" si="18"/>
         <v>-4.4386235472947382</v>
       </c>
-      <c r="P83" s="73">
+      <c r="P83" s="70">
         <v>10.66781943640124</v>
       </c>
-      <c r="Q83" s="73">
+      <c r="Q83" s="70">
         <v>10.19431509091425</v>
       </c>
-      <c r="R83" s="74">
+      <c r="R83" s="71">
         <v>1.2</v>
       </c>
-      <c r="S83" s="74"/>
-      <c r="V83" s="74">
+      <c r="S83" s="71"/>
+      <c r="V83" s="71">
         <v>0.8</v>
       </c>
-      <c r="W83" s="74">
+      <c r="W83" s="71">
         <f t="shared" si="20"/>
         <v>17.336915949290951</v>
       </c>
-      <c r="X83" s="73">
+      <c r="X83" s="70">
         <v>11.405935893510755</v>
       </c>
-      <c r="Y83" s="73">
+      <c r="Y83" s="70">
         <v>13.383373412598722</v>
       </c>
     </row>
-    <row r="84" spans="1:25" s="73" customFormat="1" ht="15">
-      <c r="A84" s="74">
+    <row r="84" spans="1:25" s="70" customFormat="1" ht="15">
+      <c r="A84" s="71">
         <v>9</v>
       </c>
-      <c r="B84" s="74">
+      <c r="B84" s="71">
         <v>3.2</v>
       </c>
-      <c r="C84" s="74">
+      <c r="C84" s="71">
         <f t="shared" si="15"/>
         <v>-8.5168267607933981</v>
       </c>
-      <c r="D84" s="74">
+      <c r="D84" s="71">
         <v>10.729773995739707</v>
       </c>
-      <c r="E84" s="74">
+      <c r="E84" s="71">
         <v>9.8159377326978969</v>
       </c>
-      <c r="F84" s="74">
+      <c r="F84" s="71">
         <v>2.8</v>
       </c>
-      <c r="G84" s="74">
+      <c r="G84" s="71">
         <f t="shared" si="16"/>
         <v>-1.2085642676845951</v>
       </c>
-      <c r="H84" s="74">
+      <c r="H84" s="71">
         <v>11.109625864020913</v>
       </c>
-      <c r="I84" s="74">
+      <c r="I84" s="71">
         <v>10.97535889555491</v>
       </c>
-      <c r="J84" s="74">
+      <c r="J84" s="71">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K84" s="74">
+      <c r="K84" s="71">
         <f t="shared" si="17"/>
         <v>-3.1703934783330543</v>
       </c>
-      <c r="L84" s="73">
+      <c r="L84" s="70">
         <v>9.4177614086988601</v>
       </c>
-      <c r="M84" s="73">
+      <c r="M84" s="70">
         <v>9.1191813151925043</v>
       </c>
-      <c r="N84" s="74">
+      <c r="N84" s="71">
         <v>1.8</v>
       </c>
-      <c r="O84" s="74">
+      <c r="O84" s="71">
         <f t="shared" si="18"/>
         <v>8.0146546873351685</v>
       </c>
-      <c r="P84" s="73">
+      <c r="P84" s="70">
         <v>8.952759661013447</v>
       </c>
-      <c r="Q84" s="73">
+      <c r="Q84" s="70">
         <v>9.6702924328307134</v>
       </c>
-      <c r="R84" s="74">
+      <c r="R84" s="71">
         <v>1.2</v>
       </c>
-      <c r="S84" s="74">
+      <c r="S84" s="71">
         <f t="shared" si="19"/>
         <v>-2.0402587148814075</v>
       </c>
-      <c r="T84" s="73">
+      <c r="T84" s="70">
         <v>11.21947988200138</v>
       </c>
-      <c r="U84" s="73">
+      <c r="U84" s="70">
         <v>10.990573465944481</v>
       </c>
-      <c r="V84" s="74">
+      <c r="V84" s="71">
         <v>0.8</v>
       </c>
-      <c r="W84" s="74">
+      <c r="W84" s="71">
         <f t="shared" si="20"/>
         <v>-1.3283758324129034</v>
       </c>
-      <c r="X84" s="73">
+      <c r="X84" s="70">
         <v>11.182235312812885</v>
       </c>
-      <c r="Y84" s="73">
+      <c r="Y84" s="70">
         <v>11.033693201393937</v>
       </c>
     </row>
-    <row r="85" spans="1:25" s="73" customFormat="1" ht="15">
-      <c r="A85" s="74">
+    <row r="85" spans="1:25" s="70" customFormat="1" ht="15">
+      <c r="A85" s="71">
         <v>10</v>
       </c>
-      <c r="B85" s="74">
+      <c r="B85" s="71">
         <v>3.2</v>
       </c>
-      <c r="C85" s="74">
+      <c r="C85" s="71">
         <f t="shared" si="15"/>
         <v>4.1762497889194208</v>
       </c>
-      <c r="D85" s="73">
+      <c r="D85" s="70">
         <v>10.802156692914274</v>
       </c>
-      <c r="E85" s="73">
+      <c r="E85" s="70">
         <v>11.253281739000851</v>
       </c>
-      <c r="F85" s="74">
+      <c r="F85" s="71">
         <v>2.8</v>
       </c>
-      <c r="G85" s="74">
+      <c r="G85" s="71">
         <f t="shared" si="16"/>
         <v>-6.2611380925783653</v>
       </c>
-      <c r="H85" s="74">
+      <c r="H85" s="71">
         <v>12.297054893670873</v>
       </c>
-      <c r="I85" s="74">
+      <c r="I85" s="71">
         <v>11.527119305457974</v>
       </c>
-      <c r="J85" s="74">
+      <c r="J85" s="71">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K85" s="74">
+      <c r="K85" s="71">
         <f t="shared" si="17"/>
         <v>-1.7556654087406074</v>
       </c>
-      <c r="L85" s="74">
+      <c r="L85" s="71">
         <v>11.057579766196373</v>
       </c>
-      <c r="M85" s="74">
+      <c r="M85" s="71">
         <v>10.863445663197362</v>
       </c>
-      <c r="N85" s="74">
+      <c r="N85" s="71">
         <v>1.8</v>
       </c>
-      <c r="O85" s="74">
+      <c r="O85" s="71">
         <f t="shared" si="18"/>
         <v>-3.7183929324393072</v>
       </c>
-      <c r="P85" s="74">
+      <c r="P85" s="71">
         <v>11.360570868022837</v>
       </c>
-      <c r="Q85" s="74">
+      <c r="Q85" s="71">
         <v>10.938140203781517</v>
       </c>
-      <c r="R85" s="74">
+      <c r="R85" s="71">
         <v>1.2</v>
       </c>
-      <c r="S85" s="74">
+      <c r="S85" s="71">
         <f t="shared" si="19"/>
         <v>4.357594153091128</v>
       </c>
-      <c r="T85" s="74">
+      <c r="T85" s="71">
         <v>10.928860180598999</v>
       </c>
-      <c r="U85" s="74">
+      <c r="U85" s="71">
         <v>11.405095552828286</v>
       </c>
-      <c r="V85" s="74">
+      <c r="V85" s="71">
         <v>0.8</v>
       </c>
-      <c r="W85" s="74">
+      <c r="W85" s="71">
         <f t="shared" si="20"/>
         <v>-1.7771692011744875</v>
       </c>
-      <c r="X85" s="74">
+      <c r="X85" s="71">
         <v>11.339256913164489</v>
       </c>
-      <c r="Y85" s="74">
+      <c r="Y85" s="71">
         <v>11.137739131661681</v>
       </c>
     </row>
-    <row r="86" spans="1:25" s="73" customFormat="1" ht="15">
-      <c r="A86" s="74">
+    <row r="86" spans="1:25" s="70" customFormat="1" ht="15">
+      <c r="A86" s="71">
         <v>11</v>
       </c>
-      <c r="B86" s="74">
+      <c r="B86" s="71">
         <v>3.2</v>
       </c>
-      <c r="C86" s="74">
+      <c r="C86" s="71">
         <f t="shared" si="15"/>
         <v>9.0773924283576495</v>
       </c>
-      <c r="D86" s="74">
+      <c r="D86" s="71">
         <v>9.178887799834861</v>
       </c>
-      <c r="E86" s="74">
+      <c r="E86" s="71">
         <v>10.012091465984515</v>
       </c>
-      <c r="F86" s="74">
+      <c r="F86" s="71">
         <v>2.8</v>
       </c>
-      <c r="G86" s="74">
+      <c r="G86" s="71">
         <f t="shared" si="16"/>
         <v>16.940095332992836</v>
       </c>
-      <c r="H86" s="74">
+      <c r="H86" s="71">
         <v>8.4670826726126514</v>
       </c>
-      <c r="I86" s="74">
+      <c r="I86" s="71">
         <v>9.9014145492765522</v>
       </c>
-      <c r="J86" s="74">
+      <c r="J86" s="71">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K86" s="74">
+      <c r="K86" s="71">
         <f t="shared" si="17"/>
         <v>-0.88477122348596027</v>
       </c>
-      <c r="L86" s="74">
+      <c r="L86" s="71">
         <v>8.7656853949690436</v>
       </c>
-      <c r="M86" s="74">
+      <c r="M86" s="71">
         <v>8.6881291330530459</v>
       </c>
-      <c r="N86" s="74">
+      <c r="N86" s="71">
         <v>1.8</v>
       </c>
-      <c r="O86" s="74">
+      <c r="O86" s="71">
         <f t="shared" si="18"/>
         <v>16.565697716400475</v>
       </c>
-      <c r="P86" s="74">
+      <c r="P86" s="71">
         <v>7.5389720450519357</v>
       </c>
-      <c r="Q86" s="74">
+      <c r="Q86" s="71">
         <v>8.7878553649591744</v>
       </c>
-      <c r="R86" s="74">
+      <c r="R86" s="71">
         <v>1.2</v>
       </c>
-      <c r="S86" s="74">
+      <c r="S86" s="71">
         <f t="shared" si="19"/>
         <v>13.962314601348583</v>
       </c>
-      <c r="T86" s="74">
+      <c r="T86" s="71">
         <v>8.7852300887080155</v>
       </c>
-      <c r="U86" s="74">
+      <c r="U86" s="71">
         <v>10.011851552145764</v>
       </c>
-      <c r="V86" s="74">
+      <c r="V86" s="71">
         <v>0.8</v>
       </c>
-      <c r="W86" s="74">
+      <c r="W86" s="71">
         <f t="shared" si="20"/>
         <v>12.162347304338587</v>
       </c>
-      <c r="X86" s="74">
+      <c r="X86" s="71">
         <v>8.2831166505825866</v>
       </c>
-      <c r="Y86" s="74">
+      <c r="Y86" s="71">
         <v>9.2905380652499385</v>
       </c>
     </row>
-    <row r="87" spans="1:25" s="73" customFormat="1" ht="15">
-      <c r="A87" s="74">
+    <row r="87" spans="1:25" s="70" customFormat="1" ht="15">
+      <c r="A87" s="71">
         <v>12</v>
       </c>
-      <c r="B87" s="74">
+      <c r="B87" s="71">
         <v>3.2</v>
       </c>
-      <c r="C87" s="74"/>
-      <c r="F87" s="74">
+      <c r="C87" s="71"/>
+      <c r="F87" s="71">
         <v>2.8</v>
       </c>
-      <c r="G87" s="74"/>
-      <c r="H87" s="74"/>
-      <c r="I87" s="74"/>
-      <c r="J87" s="74">
+      <c r="G87" s="71"/>
+      <c r="H87" s="71"/>
+      <c r="I87" s="71"/>
+      <c r="J87" s="71">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N87" s="74">
+      <c r="N87" s="71">
         <v>1.8</v>
       </c>
-      <c r="O87" s="74"/>
-      <c r="P87" s="74"/>
-      <c r="Q87" s="74"/>
-      <c r="R87" s="74">
+      <c r="O87" s="71"/>
+      <c r="P87" s="71"/>
+      <c r="Q87" s="71"/>
+      <c r="R87" s="71">
         <v>1.2</v>
       </c>
-      <c r="S87" s="74"/>
-      <c r="V87" s="74">
+      <c r="S87" s="71"/>
+      <c r="V87" s="71">
         <v>0.8</v>
       </c>
-      <c r="W87" s="74"/>
-      <c r="X87" s="74"/>
-      <c r="Y87" s="74"/>
-    </row>
-    <row r="88" spans="1:25" s="73" customFormat="1" ht="15">
-      <c r="A88" s="74">
+      <c r="W87" s="71"/>
+      <c r="X87" s="71"/>
+      <c r="Y87" s="71"/>
+    </row>
+    <row r="88" spans="1:25" s="70" customFormat="1" ht="15">
+      <c r="A88" s="71">
         <v>13</v>
       </c>
-      <c r="B88" s="74">
+      <c r="B88" s="71">
         <v>3.2</v>
       </c>
-      <c r="C88" s="74"/>
-      <c r="F88" s="74">
+      <c r="C88" s="71"/>
+      <c r="F88" s="71">
         <v>2.8</v>
       </c>
-      <c r="G88" s="74"/>
-      <c r="H88" s="74"/>
-      <c r="I88" s="74"/>
-      <c r="J88" s="74">
+      <c r="G88" s="71"/>
+      <c r="H88" s="71"/>
+      <c r="I88" s="71"/>
+      <c r="J88" s="71">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N88" s="74">
+      <c r="N88" s="71">
         <v>1.8</v>
       </c>
-      <c r="O88" s="74"/>
-      <c r="P88" s="74"/>
-      <c r="Q88" s="74"/>
-      <c r="R88" s="74">
+      <c r="O88" s="71"/>
+      <c r="P88" s="71"/>
+      <c r="Q88" s="71"/>
+      <c r="R88" s="71">
         <v>1.2</v>
       </c>
-      <c r="S88" s="74"/>
-      <c r="V88" s="74">
+      <c r="S88" s="71"/>
+      <c r="V88" s="71">
         <v>0.8</v>
       </c>
-      <c r="W88" s="74"/>
-      <c r="X88" s="74"/>
-      <c r="Y88" s="74"/>
-    </row>
-    <row r="89" spans="1:25" s="73" customFormat="1" ht="15">
-      <c r="A89" s="74">
+      <c r="W88" s="71"/>
+      <c r="X88" s="71"/>
+      <c r="Y88" s="71"/>
+    </row>
+    <row r="89" spans="1:25" s="70" customFormat="1" ht="15">
+      <c r="A89" s="71">
         <v>14</v>
       </c>
-      <c r="B89" s="74">
+      <c r="B89" s="71">
         <v>3.2</v>
       </c>
-      <c r="C89" s="74"/>
-      <c r="F89" s="74">
+      <c r="C89" s="71"/>
+      <c r="F89" s="71">
         <v>2.8</v>
       </c>
-      <c r="G89" s="74"/>
-      <c r="H89" s="74"/>
-      <c r="I89" s="74"/>
-      <c r="J89" s="74">
+      <c r="G89" s="71"/>
+      <c r="H89" s="71"/>
+      <c r="I89" s="71"/>
+      <c r="J89" s="71">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N89" s="74">
+      <c r="N89" s="71">
         <v>1.8</v>
       </c>
-      <c r="O89" s="74"/>
-      <c r="P89" s="74"/>
-      <c r="Q89" s="74"/>
-      <c r="R89" s="74">
+      <c r="O89" s="71"/>
+      <c r="P89" s="71"/>
+      <c r="Q89" s="71"/>
+      <c r="R89" s="71">
         <v>1.2</v>
       </c>
-      <c r="S89" s="74"/>
-      <c r="V89" s="74">
+      <c r="S89" s="71"/>
+      <c r="V89" s="71">
         <v>0.8</v>
       </c>
-      <c r="W89" s="74"/>
-      <c r="X89" s="74"/>
-      <c r="Y89" s="74"/>
+      <c r="W89" s="71"/>
+      <c r="X89" s="71"/>
+      <c r="Y89" s="71"/>
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
@@ -18289,13 +18289,13 @@
       <c r="L91" s="3"/>
     </row>
     <row r="92" spans="1:25">
-      <c r="A92" s="75" t="s">
+      <c r="A92" s="72" t="s">
         <v>399</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C92" s="75" t="s">
+      <c r="C92" s="72" t="s">
         <v>401</v>
       </c>
       <c r="D92" s="3"/>
@@ -18601,39 +18601,39 @@
         <v>3</v>
       </c>
       <c r="C106" s="3">
-        <f>C28*$J6</f>
+        <f t="shared" ref="C106:K106" si="22">C28*$J6</f>
         <v>130.12495831620001</v>
       </c>
       <c r="D106" s="3">
-        <f>D28*$J6</f>
+        <f t="shared" si="22"/>
         <v>967.93581405600003</v>
       </c>
       <c r="E106" s="3">
-        <f>E28*$J6</f>
+        <f t="shared" si="22"/>
         <v>951.95785464799997</v>
       </c>
       <c r="F106" s="3">
-        <f>F28*$J6</f>
+        <f t="shared" si="22"/>
         <v>988.99225202100001</v>
       </c>
       <c r="G106" s="3">
-        <f>G28*$J6</f>
+        <f t="shared" si="22"/>
         <v>918.93872660800002</v>
       </c>
       <c r="H106" s="3">
-        <f>H28*$J6</f>
+        <f t="shared" si="22"/>
         <v>938.349881719</v>
       </c>
       <c r="I106" s="3">
-        <f>I28*$J6</f>
+        <f t="shared" si="22"/>
         <v>945.31592428499994</v>
       </c>
       <c r="J106" s="3">
-        <f>J28*$J6</f>
+        <f t="shared" si="22"/>
         <v>916.23827230399991</v>
       </c>
       <c r="K106" s="3">
-        <f>K28*$J6</f>
+        <f t="shared" si="22"/>
         <v>920.77263189999996</v>
       </c>
       <c r="M106" s="3">
@@ -18669,51 +18669,51 @@
         <v>3</v>
       </c>
       <c r="C107" s="3">
-        <f>C29*$J7</f>
+        <f t="shared" ref="C107:E119" si="23">C29*$J7</f>
         <v>107.9614920535</v>
       </c>
       <c r="D107" s="3">
-        <f>D29*$J7</f>
+        <f t="shared" si="23"/>
         <v>735.56453886666668</v>
       </c>
       <c r="E107" s="3">
-        <f>E29*$J7</f>
+        <f t="shared" si="23"/>
         <v>707.65106520666666</v>
       </c>
       <c r="F107" s="3">
-        <f t="shared" ref="F107:K107" si="22">F29*$J7</f>
+        <f t="shared" ref="F107:K107" si="24">F29*$J7</f>
         <v>772.26840771166667</v>
       </c>
       <c r="G107" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>730.15599656333325</v>
       </c>
       <c r="H107" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>725.87015534666659</v>
       </c>
       <c r="I107" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>734.44378196166667</v>
       </c>
       <c r="J107" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>684.63149780166657</v>
       </c>
       <c r="K107" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>690.80790096999988</v>
       </c>
       <c r="M107" s="3">
-        <f t="shared" ref="M107:M119" si="23">MAX(D107:K107)</f>
+        <f t="shared" ref="M107:M119" si="25">MAX(D107:K107)</f>
         <v>772.26840771166667</v>
       </c>
       <c r="N107" s="3">
-        <f t="shared" ref="N107:N119" si="24">MIN(D107:K107)</f>
+        <f t="shared" ref="N107:N119" si="26">MIN(D107:K107)</f>
         <v>684.63149780166657</v>
       </c>
       <c r="O107" s="3">
-        <f t="shared" ref="O107:O119" si="25">AVERAGE(D107:K107)</f>
+        <f t="shared" ref="O107:O119" si="27">AVERAGE(D107:K107)</f>
         <v>722.67416805354151</v>
       </c>
     </row>
@@ -18725,51 +18725,51 @@
         <v>3</v>
       </c>
       <c r="C108" s="3">
-        <f>C30*$J8</f>
+        <f t="shared" si="23"/>
         <v>123.26604138330001</v>
       </c>
       <c r="D108" s="3">
-        <f>D30*$J8</f>
+        <f t="shared" si="23"/>
         <v>759.22280282300005</v>
       </c>
       <c r="E108" s="3">
-        <f>E30*$J8</f>
+        <f t="shared" si="23"/>
         <v>739.25230607600008</v>
       </c>
       <c r="F108" s="3">
-        <f t="shared" ref="F108:K108" si="26">F30*$J8</f>
+        <f t="shared" ref="F108:K108" si="28">F30*$J8</f>
         <v>815.27318145900006</v>
       </c>
       <c r="G108" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>748.65532206099999</v>
       </c>
       <c r="H108" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>739.47949818500001</v>
       </c>
       <c r="I108" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>743.99613530900001</v>
       </c>
       <c r="J108" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>726.62054011099997</v>
       </c>
       <c r="K108" s="3">
+        <f t="shared" si="28"/>
+        <v>702.37677658400003</v>
+      </c>
+      <c r="M108" s="3">
+        <f t="shared" si="25"/>
+        <v>815.27318145900006</v>
+      </c>
+      <c r="N108" s="3">
         <f t="shared" si="26"/>
         <v>702.37677658400003</v>
       </c>
-      <c r="M108" s="3">
-        <f t="shared" si="23"/>
-        <v>815.27318145900006</v>
-      </c>
-      <c r="N108" s="3">
-        <f t="shared" si="24"/>
-        <v>702.37677658400003</v>
-      </c>
       <c r="O108" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>746.85957032600004</v>
       </c>
     </row>
@@ -18781,51 +18781,51 @@
         <v>3</v>
       </c>
       <c r="C109" s="3">
-        <f>C31*$J9</f>
+        <f t="shared" si="23"/>
         <v>168.03199189613332</v>
       </c>
       <c r="D109" s="3">
-        <f>D31*$J9</f>
+        <f t="shared" si="23"/>
         <v>1010.1100896386664</v>
       </c>
       <c r="E109" s="3">
-        <f>E31*$J9</f>
-        <v>1020.9611191293332</v>
-      </c>
-      <c r="F109" s="3">
-        <f t="shared" ref="F109:K109" si="27">F31*$J9</f>
-        <v>1012.8694013559999</v>
-      </c>
-      <c r="G109" s="3">
-        <f t="shared" si="27"/>
-        <v>976.67141571599984</v>
-      </c>
-      <c r="H109" s="3">
-        <f t="shared" si="27"/>
-        <v>1020.9383244786666</v>
-      </c>
-      <c r="I109" s="3">
-        <f t="shared" si="27"/>
-        <v>1017.9016934226665</v>
-      </c>
-      <c r="J109" s="3">
-        <f t="shared" si="27"/>
-        <v>984.83642817999998</v>
-      </c>
-      <c r="K109" s="3">
-        <f t="shared" si="27"/>
-        <v>983.46372624133312</v>
-      </c>
-      <c r="M109" s="3">
         <f t="shared" si="23"/>
         <v>1020.9611191293332</v>
       </c>
+      <c r="F109" s="3">
+        <f t="shared" ref="F109:K109" si="29">F31*$J9</f>
+        <v>1012.8694013559999</v>
+      </c>
+      <c r="G109" s="3">
+        <f t="shared" si="29"/>
+        <v>976.67141571599984</v>
+      </c>
+      <c r="H109" s="3">
+        <f t="shared" si="29"/>
+        <v>1020.9383244786666</v>
+      </c>
+      <c r="I109" s="3">
+        <f t="shared" si="29"/>
+        <v>1017.9016934226665</v>
+      </c>
+      <c r="J109" s="3">
+        <f t="shared" si="29"/>
+        <v>984.83642817999998</v>
+      </c>
+      <c r="K109" s="3">
+        <f t="shared" si="29"/>
+        <v>983.46372624133312</v>
+      </c>
+      <c r="M109" s="3">
+        <f t="shared" si="25"/>
+        <v>1020.9611191293332</v>
+      </c>
       <c r="N109" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>976.67141571599984</v>
       </c>
       <c r="O109" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1003.4690247703332</v>
       </c>
     </row>
@@ -18837,51 +18837,51 @@
         <v>3</v>
       </c>
       <c r="C110" s="3" t="e">
-        <f>C32*$J10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D110" s="3" t="e">
-        <f>D32*$J10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E110" s="3" t="e">
-        <f>E32*$J10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F110" s="3" t="e">
-        <f t="shared" ref="F110:K110" si="28">F32*$J10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G110" s="3" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H110" s="3" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I110" s="3" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J110" s="3" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K110" s="3" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M110" s="3" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="D110" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E110" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F110" s="3" t="e">
+        <f t="shared" ref="F110:K110" si="30">F32*$J10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G110" s="3" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H110" s="3" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I110" s="3" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J110" s="3" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K110" s="3" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M110" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N110" s="3" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O110" s="3" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -18893,51 +18893,51 @@
         <v>3</v>
       </c>
       <c r="C111" s="3">
-        <f>C33*$J11</f>
-        <v>0</v>
-      </c>
-      <c r="D111" s="3">
-        <f>D33*$J11</f>
-        <v>0</v>
-      </c>
-      <c r="E111" s="3">
-        <f>E33*$J11</f>
-        <v>0</v>
-      </c>
-      <c r="F111" s="3">
-        <f t="shared" ref="F111:K111" si="29">F33*$J11</f>
-        <v>0</v>
-      </c>
-      <c r="G111" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="H111" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="I111" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="K111" s="3">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M111" s="3">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
+      <c r="D111" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="E111" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F111" s="3">
+        <f t="shared" ref="F111:K111" si="31">F33*$J11</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="K111" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="M111" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
       <c r="N111" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O111" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -18949,51 +18949,51 @@
         <v>3</v>
       </c>
       <c r="C112" s="3">
-        <f>C34*$J12</f>
+        <f t="shared" si="23"/>
         <v>94.952000000000012</v>
       </c>
       <c r="D112" s="3">
-        <f>D34*$J12</f>
-        <v>640.75364433567768</v>
-      </c>
-      <c r="E112" s="3">
-        <f>E34*$J12</f>
-        <v>631.59072310485703</v>
-      </c>
-      <c r="F112" s="3">
-        <f t="shared" ref="F112:K112" si="30">F34*$J12</f>
-        <v>0</v>
-      </c>
-      <c r="G112" s="3">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H112" s="3">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="I112" s="3">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="3">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K112" s="3">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="M112" s="3">
         <f t="shared" si="23"/>
         <v>640.75364433567768</v>
       </c>
+      <c r="E112" s="3">
+        <f t="shared" si="23"/>
+        <v>631.59072310485703</v>
+      </c>
+      <c r="F112" s="3">
+        <f t="shared" ref="F112:K112" si="32">F34*$J12</f>
+        <v>0</v>
+      </c>
+      <c r="G112" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K112" s="3">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="3">
+        <f t="shared" si="25"/>
+        <v>640.75364433567768</v>
+      </c>
       <c r="N112" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O112" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>159.04304593006685</v>
       </c>
     </row>
@@ -19005,51 +19005,51 @@
         <v>3</v>
       </c>
       <c r="C113" s="3">
-        <f>C35*$J13</f>
+        <f t="shared" si="23"/>
         <v>128.89692738032088</v>
       </c>
       <c r="D113" s="3">
-        <f>D35*$J13</f>
-        <v>828.86490986045976</v>
-      </c>
-      <c r="E113" s="3">
-        <f>E35*$J13</f>
-        <v>765.45892893257928</v>
-      </c>
-      <c r="F113" s="3">
-        <f t="shared" ref="F113:K113" si="31">F35*$J13</f>
-        <v>0</v>
-      </c>
-      <c r="G113" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="H113" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="I113" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="K113" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="M113" s="3">
         <f t="shared" si="23"/>
         <v>828.86490986045976</v>
       </c>
+      <c r="E113" s="3">
+        <f t="shared" si="23"/>
+        <v>765.45892893257928</v>
+      </c>
+      <c r="F113" s="3">
+        <f t="shared" ref="F113:K113" si="33">F35*$J13</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="H113" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="3">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="3">
+        <f t="shared" si="25"/>
+        <v>828.86490986045976</v>
+      </c>
       <c r="N113" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O113" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>199.29047984912989</v>
       </c>
     </row>
@@ -19061,51 +19061,51 @@
         <v>3</v>
       </c>
       <c r="C114" s="3">
-        <f>C36*$J14</f>
+        <f t="shared" si="23"/>
         <v>83.082293881073639</v>
       </c>
       <c r="D114" s="3">
-        <f>D36*$J14</f>
-        <v>682.77989802092247</v>
-      </c>
-      <c r="E114" s="3">
-        <f>E36*$J14</f>
-        <v>612.94661269210599</v>
-      </c>
-      <c r="F114" s="3">
-        <f t="shared" ref="F114:K114" si="32">F36*$J14</f>
-        <v>0</v>
-      </c>
-      <c r="G114" s="3">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="H114" s="3">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I114" s="3">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="3">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="K114" s="3">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="M114" s="3">
         <f t="shared" si="23"/>
         <v>682.77989802092247</v>
       </c>
+      <c r="E114" s="3">
+        <f t="shared" si="23"/>
+        <v>612.94661269210599</v>
+      </c>
+      <c r="F114" s="3">
+        <f t="shared" ref="F114:K114" si="34">F36*$J14</f>
+        <v>0</v>
+      </c>
+      <c r="G114" s="3">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="3">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="3">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="3">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K114" s="3">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="3">
+        <f t="shared" si="25"/>
+        <v>682.77989802092247</v>
+      </c>
       <c r="N114" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O114" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>161.96581383912854</v>
       </c>
     </row>
@@ -19117,51 +19117,51 @@
         <v>3</v>
       </c>
       <c r="C115" s="3">
-        <f>C37*$J15</f>
+        <f t="shared" si="23"/>
         <v>96.936265833265139</v>
       </c>
       <c r="D115" s="3">
-        <f>D37*$J15</f>
-        <v>824.92191553858095</v>
-      </c>
-      <c r="E115" s="3">
-        <f>E37*$J15</f>
-        <v>763.13054478211563</v>
-      </c>
-      <c r="F115" s="3">
-        <f>F37*$J15</f>
-        <v>0</v>
-      </c>
-      <c r="G115" s="3">
-        <f>G37*$J15</f>
-        <v>0</v>
-      </c>
-      <c r="H115" s="3">
-        <f>H37*$J15</f>
-        <v>0</v>
-      </c>
-      <c r="I115" s="3">
-        <f>I37*$J15</f>
-        <v>0</v>
-      </c>
-      <c r="J115" s="3">
-        <f>J37*$J15</f>
-        <v>0</v>
-      </c>
-      <c r="K115" s="3">
-        <f>K37*$J15</f>
-        <v>0</v>
-      </c>
-      <c r="M115" s="3">
         <f t="shared" si="23"/>
         <v>824.92191553858095</v>
       </c>
+      <c r="E115" s="3">
+        <f t="shared" si="23"/>
+        <v>763.13054478211563</v>
+      </c>
+      <c r="F115" s="3">
+        <f t="shared" ref="F115:K115" si="35">F37*$J15</f>
+        <v>0</v>
+      </c>
+      <c r="G115" s="3">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="3">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="3">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="3">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K115" s="3">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="M115" s="3">
+        <f t="shared" si="25"/>
+        <v>824.92191553858095</v>
+      </c>
       <c r="N115" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O115" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>198.50655754008707</v>
       </c>
     </row>
@@ -19173,51 +19173,51 @@
         <v>3</v>
       </c>
       <c r="C116" s="3" t="e">
-        <f>C38*$J16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D116" s="3" t="e">
-        <f>D38*$J16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E116" s="3" t="e">
-        <f>E38*$J16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F116" s="3" t="e">
-        <f t="shared" ref="F116:K116" si="33">F38*$J16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G116" s="3" t="e">
-        <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H116" s="3" t="e">
-        <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I116" s="3" t="e">
-        <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J116" s="3" t="e">
-        <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K116" s="3" t="e">
-        <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M116" s="3" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="D116" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E116" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F116" s="3" t="e">
+        <f t="shared" ref="F116:K116" si="36">F38*$J16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G116" s="3" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H116" s="3" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I116" s="3" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J116" s="3" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K116" s="3" t="e">
+        <f t="shared" si="36"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M116" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N116" s="3" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O116" s="3" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -19229,51 +19229,51 @@
         <v>3</v>
       </c>
       <c r="C117" s="3" t="e">
-        <f>C39*$J17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D117" s="3" t="e">
-        <f>D39*$J17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E117" s="3" t="e">
-        <f>E39*$J17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F117" s="3" t="e">
-        <f t="shared" ref="F117:K117" si="34">F39*$J17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G117" s="3" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H117" s="3" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I117" s="3" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J117" s="3" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K117" s="3" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M117" s="3" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="D117" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E117" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F117" s="3" t="e">
+        <f t="shared" ref="F117:K117" si="37">F39*$J17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G117" s="3" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H117" s="3" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I117" s="3" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J117" s="3" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K117" s="3" t="e">
+        <f t="shared" si="37"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M117" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N117" s="3" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O117" s="3" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -19285,51 +19285,51 @@
         <v>3</v>
       </c>
       <c r="C118" s="3" t="e">
-        <f>C40*$J18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D118" s="3" t="e">
-        <f>D40*$J18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E118" s="3" t="e">
-        <f>E40*$J18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F118" s="3" t="e">
-        <f t="shared" ref="F118:K118" si="35">F40*$J18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G118" s="3" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H118" s="3" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I118" s="3" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J118" s="3" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K118" s="3" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M118" s="3" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="D118" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E118" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F118" s="3" t="e">
+        <f t="shared" ref="F118:K118" si="38">F40*$J18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G118" s="3" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H118" s="3" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I118" s="3" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J118" s="3" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K118" s="3" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M118" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N118" s="3" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O118" s="3" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -19341,51 +19341,51 @@
         <v>3</v>
       </c>
       <c r="C119" s="3" t="e">
-        <f>C41*$J19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D119" s="3" t="e">
-        <f>D41*$J19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E119" s="3" t="e">
-        <f>E41*$J19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F119" s="3" t="e">
-        <f t="shared" ref="F119:K119" si="36">F41*$J19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G119" s="3" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H119" s="3" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I119" s="3" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J119" s="3" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K119" s="3" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M119" s="3" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="D119" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E119" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F119" s="3" t="e">
+        <f t="shared" ref="F119:K119" si="39">F41*$J19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G119" s="3" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H119" s="3" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I119" s="3" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J119" s="3" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K119" s="3" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M119" s="3" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N119" s="3" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O119" s="3" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -19430,35 +19430,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D123" s="2" t="e">
-        <f t="shared" ref="D123:K123" si="37">MAX(D106:D119)</f>
+        <f t="shared" ref="D123:K123" si="40">MAX(D106:D119)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E123" s="2" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F123" s="2" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G123" s="2" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H123" s="2" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I123" s="2" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J123" s="2" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K123" s="2" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -19472,35 +19472,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D124" s="2" t="e">
-        <f t="shared" ref="D124:K124" si="38">MIN(D106:D119)</f>
+        <f t="shared" ref="D124:K124" si="41">MIN(D106:D119)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E124" s="2" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F124" s="2" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G124" s="2" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H124" s="2" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I124" s="2" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J124" s="2" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K124" s="2" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -19514,35 +19514,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D125" s="2" t="e">
-        <f t="shared" ref="D125:K125" si="39">AVERAGE(D106:D119)</f>
+        <f t="shared" ref="D125:K125" si="42">AVERAGE(D106:D119)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E125" s="2" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F125" s="2" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G125" s="2" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H125" s="2" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I125" s="2" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J125" s="2" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K125" s="2" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -19656,35 +19656,35 @@
         <v>3</v>
       </c>
       <c r="D130" s="3">
-        <f>D51*$J6</f>
+        <f t="shared" ref="D130:E143" si="43">D51*$J6</f>
         <v>837.81085573979999</v>
       </c>
       <c r="E130" s="3">
-        <f>E51*$J6</f>
+        <f t="shared" si="43"/>
         <v>821.83289633179993</v>
       </c>
       <c r="F130" s="3">
-        <f t="shared" ref="F130:K130" si="40">F51*$J6</f>
+        <f t="shared" ref="F130:K130" si="44">F51*$J6</f>
         <v>858.86729370479998</v>
       </c>
       <c r="G130" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>788.81376829179999</v>
       </c>
       <c r="H130" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>808.22492340279996</v>
       </c>
       <c r="I130" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>815.19096596880001</v>
       </c>
       <c r="J130" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>786.11331398779998</v>
       </c>
       <c r="K130" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>790.64767358379993</v>
       </c>
       <c r="M130" s="3">
@@ -19720,47 +19720,47 @@
         <v>3</v>
       </c>
       <c r="D131" s="3">
-        <f>D52*$J7</f>
+        <f t="shared" si="43"/>
         <v>627.60304681316666</v>
       </c>
       <c r="E131" s="3">
-        <f>E52*$J7</f>
+        <f t="shared" si="43"/>
         <v>599.68957315316675</v>
       </c>
       <c r="F131" s="3">
-        <f t="shared" ref="F131:K143" si="41">F52*$J7</f>
+        <f t="shared" ref="F131:K143" si="45">F52*$J7</f>
         <v>664.30691565816664</v>
       </c>
       <c r="G131" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>622.19450450983334</v>
       </c>
       <c r="H131" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>617.90866329316668</v>
       </c>
       <c r="I131" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>626.48228990816665</v>
       </c>
       <c r="J131" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>576.67000574816666</v>
       </c>
       <c r="K131" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>582.84640891649997</v>
       </c>
       <c r="M131" s="3">
-        <f t="shared" ref="M131:M143" si="42">MAX(D131:K131)</f>
+        <f t="shared" ref="M131:M143" si="46">MAX(D131:K131)</f>
         <v>664.30691565816664</v>
       </c>
       <c r="N131" s="3">
-        <f t="shared" ref="N131:N143" si="43">MIN(D131:K131)</f>
+        <f t="shared" ref="N131:N143" si="47">MIN(D131:K131)</f>
         <v>576.67000574816666</v>
       </c>
       <c r="O131" s="3">
-        <f t="shared" ref="O131:O143" si="44">AVERAGE(D131:K131)</f>
+        <f t="shared" ref="O131:O143" si="48">AVERAGE(D131:K131)</f>
         <v>614.71267600004171</v>
       </c>
     </row>
@@ -19772,47 +19772,47 @@
         <v>3</v>
       </c>
       <c r="D132" s="3">
-        <f>D53*$J8</f>
+        <f t="shared" si="43"/>
         <v>635.95676143970002</v>
       </c>
       <c r="E132" s="3">
-        <f>E53*$J8</f>
+        <f t="shared" si="43"/>
         <v>615.98626469270005</v>
       </c>
       <c r="F132" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>692.00714007570002</v>
       </c>
       <c r="G132" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>625.38928067769996</v>
       </c>
       <c r="H132" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>616.21345680169998</v>
       </c>
       <c r="I132" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>620.73009392569998</v>
       </c>
       <c r="J132" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>603.35449872769993</v>
       </c>
       <c r="K132" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>579.11073520069988</v>
       </c>
       <c r="M132" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>692.00714007570002</v>
       </c>
       <c r="N132" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>579.11073520069988</v>
       </c>
       <c r="O132" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>623.5935289427</v>
       </c>
     </row>
@@ -19824,47 +19824,47 @@
         <v>3</v>
       </c>
       <c r="D133" s="3">
-        <f>D54*$J9</f>
+        <f t="shared" si="43"/>
         <v>842.07809774253326</v>
       </c>
       <c r="E133" s="3">
-        <f>E54*$J9</f>
+        <f t="shared" si="43"/>
         <v>852.92912723319978</v>
       </c>
       <c r="F133" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>844.83740945986665</v>
       </c>
       <c r="G133" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>808.63942381986635</v>
       </c>
       <c r="H133" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>852.9063325825332</v>
       </c>
       <c r="I133" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>849.86970152653328</v>
       </c>
       <c r="J133" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>816.80443628386649</v>
       </c>
       <c r="K133" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>815.43173434519986</v>
       </c>
       <c r="M133" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>852.92912723319978</v>
       </c>
       <c r="N133" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>808.63942381986635</v>
       </c>
       <c r="O133" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>835.43703287419999</v>
       </c>
     </row>
@@ -19876,47 +19876,47 @@
         <v>3</v>
       </c>
       <c r="D134" s="3" t="e">
-        <f>D55*$J10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E134" s="3" t="e">
-        <f>E55*$J10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F134" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G134" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H134" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I134" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J134" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K134" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M134" s="3" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N134" s="3" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="E134" s="3" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F134" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G134" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H134" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I134" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J134" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K134" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M134" s="3" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N134" s="3" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O134" s="3" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -19928,47 +19928,47 @@
         <v>3</v>
       </c>
       <c r="D135" s="3">
-        <f>D56*$J11</f>
-        <v>0</v>
-      </c>
-      <c r="E135" s="3">
-        <f>E56*$J11</f>
-        <v>0</v>
-      </c>
-      <c r="F135" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="G135" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="H135" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="I135" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="J135" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="K135" s="3">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M135" s="3">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="N135" s="3">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
+      <c r="E135" s="3">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F135" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="H135" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="I135" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="J135" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K135" s="3">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M135" s="3">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N135" s="3">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="O135" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -19980,47 +19980,47 @@
         <v>3</v>
       </c>
       <c r="D136" s="3">
-        <f>D57*$J12</f>
+        <f t="shared" si="43"/>
         <v>545.80164433567757</v>
       </c>
       <c r="E136" s="3">
-        <f>E57*$J12</f>
+        <f t="shared" si="43"/>
         <v>536.63872310485704</v>
       </c>
       <c r="F136" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-94.952000000000012</v>
       </c>
       <c r="G136" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-94.952000000000012</v>
       </c>
       <c r="H136" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-94.952000000000012</v>
       </c>
       <c r="I136" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-94.952000000000012</v>
       </c>
       <c r="J136" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-94.952000000000012</v>
       </c>
       <c r="K136" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-94.952000000000012</v>
       </c>
       <c r="M136" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>545.80164433567757</v>
       </c>
       <c r="N136" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-94.952000000000012</v>
       </c>
       <c r="O136" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>64.091045930066826</v>
       </c>
     </row>
@@ -20032,47 +20032,47 @@
         <v>3</v>
       </c>
       <c r="D137" s="3">
-        <f>D58*$J13</f>
+        <f t="shared" si="43"/>
         <v>699.96798248013886</v>
       </c>
       <c r="E137" s="3">
-        <f>E58*$J13</f>
+        <f t="shared" si="43"/>
         <v>636.56200155225838</v>
       </c>
       <c r="F137" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-128.89692738032088</v>
       </c>
       <c r="G137" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-128.89692738032088</v>
       </c>
       <c r="H137" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-128.89692738032088</v>
       </c>
       <c r="I137" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-128.89692738032088</v>
       </c>
       <c r="J137" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-128.89692738032088</v>
       </c>
       <c r="K137" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-128.89692738032088</v>
       </c>
       <c r="M137" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>699.96798248013886</v>
       </c>
       <c r="N137" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-128.89692738032088</v>
       </c>
       <c r="O137" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>70.393552468808991</v>
       </c>
     </row>
@@ -20084,47 +20084,47 @@
         <v>3</v>
       </c>
       <c r="D138" s="3">
-        <f>D59*$J14</f>
+        <f t="shared" si="43"/>
         <v>599.69760413984886</v>
       </c>
       <c r="E138" s="3">
-        <f>E59*$J14</f>
+        <f t="shared" si="43"/>
         <v>529.86431881103249</v>
       </c>
       <c r="F138" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-83.082293881073639</v>
       </c>
       <c r="G138" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-83.082293881073639</v>
       </c>
       <c r="H138" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-83.082293881073639</v>
       </c>
       <c r="I138" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-83.082293881073639</v>
       </c>
       <c r="J138" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-83.082293881073639</v>
       </c>
       <c r="K138" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-83.082293881073639</v>
       </c>
       <c r="M138" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>599.69760413984886</v>
       </c>
       <c r="N138" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-83.082293881073639</v>
       </c>
       <c r="O138" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>78.883519958054961</v>
       </c>
     </row>
@@ -20136,47 +20136,47 @@
         <v>3</v>
       </c>
       <c r="D139" s="3">
-        <f>D60*$J15</f>
+        <f t="shared" si="43"/>
         <v>727.98564970531584</v>
       </c>
       <c r="E139" s="3">
-        <f>E60*$J15</f>
+        <f t="shared" si="43"/>
         <v>666.19427894885052</v>
       </c>
       <c r="F139" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-96.936265833265139</v>
       </c>
       <c r="G139" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-96.936265833265139</v>
       </c>
       <c r="H139" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-96.936265833265139</v>
       </c>
       <c r="I139" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-96.936265833265139</v>
       </c>
       <c r="J139" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-96.936265833265139</v>
       </c>
       <c r="K139" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>-96.936265833265139</v>
       </c>
       <c r="M139" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>727.98564970531584</v>
       </c>
       <c r="N139" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>-96.936265833265139</v>
       </c>
       <c r="O139" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>101.57029170682192</v>
       </c>
     </row>
@@ -20188,47 +20188,47 @@
         <v>3</v>
       </c>
       <c r="D140" s="3" t="e">
-        <f>D61*$J16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E140" s="3" t="e">
-        <f>E61*$J16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F140" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G140" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H140" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I140" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J140" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K140" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M140" s="3" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N140" s="3" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="E140" s="3" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F140" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G140" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H140" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I140" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J140" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K140" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M140" s="3" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N140" s="3" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O140" s="3" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -20240,47 +20240,47 @@
         <v>3</v>
       </c>
       <c r="D141" s="3" t="e">
-        <f>D62*$J17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E141" s="3" t="e">
-        <f>E62*$J17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F141" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G141" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H141" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I141" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J141" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K141" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M141" s="3" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N141" s="3" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="E141" s="3" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F141" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G141" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H141" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I141" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J141" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K141" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M141" s="3" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N141" s="3" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O141" s="3" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -20292,47 +20292,47 @@
         <v>3</v>
       </c>
       <c r="D142" s="3" t="e">
-        <f>D63*$J18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E142" s="3" t="e">
-        <f>E63*$J18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F142" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G142" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H142" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I142" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J142" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K142" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M142" s="3" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N142" s="3" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="E142" s="3" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F142" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G142" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H142" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I142" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J142" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K142" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M142" s="3" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N142" s="3" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O142" s="3" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -20344,47 +20344,47 @@
         <v>3</v>
       </c>
       <c r="D143" s="3" t="e">
-        <f>D64*$J19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E143" s="3" t="e">
-        <f>E64*$J19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F143" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G143" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H143" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I143" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J143" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K143" s="3" t="e">
-        <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M143" s="3" t="e">
-        <f t="shared" si="42"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N143" s="3" t="e">
         <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="E143" s="3" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F143" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G143" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H143" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I143" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J143" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K143" s="3" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M143" s="3" t="e">
+        <f t="shared" si="46"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N143" s="3" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O143" s="3" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -20402,31 +20402,31 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E147" s="3" t="e">
-        <f t="shared" ref="E147:K147" si="45">MAX(E130:E143)</f>
+        <f t="shared" ref="E147:K147" si="49">MAX(E130:E143)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F147" s="3" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G147" s="3" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H147" s="3" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I147" s="3" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J147" s="3" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K147" s="3" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -20439,31 +20439,31 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E148" s="3" t="e">
-        <f t="shared" ref="E148:K148" si="46">MIN(E130:E143)</f>
+        <f t="shared" ref="E148:K148" si="50">MIN(E130:E143)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F148" s="3" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G148" s="3" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H148" s="3" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I148" s="3" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J148" s="3" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K148" s="3" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -20476,31 +20476,31 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E149" s="3" t="e">
-        <f t="shared" ref="E149:K149" si="47">AVERAGE(E130:E143)</f>
+        <f t="shared" ref="E149:K149" si="51">AVERAGE(E130:E143)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F149" s="3" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G149" s="3" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H149" s="3" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I149" s="3" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J149" s="3" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K149" s="3" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -21177,75 +21177,75 @@
         <v>220</v>
       </c>
       <c r="D167">
-        <f t="shared" ref="D167:U167" si="48">_xlfn.STDEV.P(D157:D161)</f>
+        <f t="shared" ref="D167:U167" si="52">_xlfn.STDEV.P(D157:D161)</f>
         <v>8.01744215544197E-2</v>
       </c>
       <c r="E167">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.53755906119189645</v>
       </c>
       <c r="F167">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.50265376660030303</v>
       </c>
       <c r="G167">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="H167">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.74833147735478833</v>
       </c>
       <c r="I167">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>4.0658157187636344E-2</v>
       </c>
       <c r="J167">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.29518349632729751</v>
       </c>
       <c r="K167">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.25747417356729352</v>
       </c>
       <c r="L167">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="M167">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.74833147735478833</v>
       </c>
       <c r="N167">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.12961993387312226</v>
       </c>
       <c r="O167">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.25095080401431985</v>
       </c>
       <c r="P167">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.3089863687252844</v>
       </c>
       <c r="Q167">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="R167">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.74833147735478833</v>
       </c>
       <c r="S167">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>6.0592618686075655E-2</v>
       </c>
       <c r="T167">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.19551910987021023</v>
       </c>
       <c r="U167">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0.31008357920409679</v>
       </c>
     </row>
@@ -21391,15 +21391,15 @@
         <v>13.027399920000001</v>
       </c>
       <c r="O175">
-        <f t="shared" ref="O175:Q178" si="49">(S175-L175)/L175*100</f>
+        <f t="shared" ref="O175:Q178" si="53">(S175-L175)/L175*100</f>
         <v>-0.92612800051522159</v>
       </c>
       <c r="P175">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>-0.83469223290855366</v>
       </c>
       <c r="Q175">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>-1.6507250972610128</v>
       </c>
       <c r="S175">
@@ -21432,15 +21432,15 @@
         <v>11.0059532</v>
       </c>
       <c r="O176">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>0.51303116301228957</v>
       </c>
       <c r="P176">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>-1.6201456234740039</v>
       </c>
       <c r="Q176">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>-3.7948367797893199</v>
       </c>
       <c r="S176">
@@ -21473,15 +21473,15 @@
         <v>11.734510090000001</v>
       </c>
       <c r="O177">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>-1.8944793604070171</v>
       </c>
       <c r="P177">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>-4.2479956629574396</v>
       </c>
       <c r="Q177">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>-2.6303868472791101</v>
       </c>
       <c r="S177">
@@ -21514,15 +21514,15 @@
         <v>10.807169289999999</v>
       </c>
       <c r="O178">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>3.8783020528503944</v>
       </c>
       <c r="P178">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>-4.897401286589135</v>
       </c>
       <c r="Q178">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1.07424226348915</v>
       </c>
       <c r="S178">
@@ -21613,36 +21613,36 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="60" t="s">
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
       <c r="O10" s="1" t="s">
         <v>248</v>
       </c>
@@ -22318,36 +22318,36 @@
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="73" t="s">
         <v>251</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="60" t="s">
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
-      <c r="M32" s="60"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
       <c r="O32" s="1" t="s">
         <v>248</v>
       </c>
